--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BEF278-45EB-2143-A2E6-5DDBC54AD371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B53CD59-EC4C-414B-8153-9BC15775082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -184,27 +184,18 @@
     <t>Switching time+Minup</t>
   </si>
   <si>
-    <t>GRAPE+TR</t>
-  </si>
-  <si>
     <t>GRAPE+TR+Minup</t>
   </si>
   <si>
     <t>GRAPE+TR+Maxswitch</t>
   </si>
   <si>
-    <t>ADMM+TR</t>
-  </si>
-  <si>
     <t>ADMM+TR+Minup</t>
   </si>
   <si>
     <t>ADMM+TR+Maxswitch</t>
   </si>
   <si>
-    <t>Switching+TR</t>
-  </si>
-  <si>
     <t>Switching+Minup</t>
   </si>
   <si>
@@ -212,6 +203,44 @@
   </si>
   <si>
     <t>time (s)</t>
+  </si>
+  <si>
+    <t>GRAPE+TR (binary)</t>
+  </si>
+  <si>
+    <t>ADMM+TR (binary)</t>
+  </si>
+  <si>
+    <t>Switching+TR (binary)</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>GRAPE+TR (continuous)</t>
+  </si>
+  <si>
+    <t>ADMM+TR (continuous)</t>
+  </si>
+  <si>
+    <t>solve continuous relaxation
+with TV norm starting from GRAPE</t>
+  </si>
+  <si>
+    <t>solve continuous relaxation
+with TV norm starting from ADMM</t>
+  </si>
+  <si>
+    <t>SNOPT</t>
+  </si>
+  <si>
+    <t>continuous results</t>
+  </si>
+  <si>
+    <t>IPOPT</t>
   </si>
 </sst>
 </file>
@@ -219,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -252,7 +281,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -576,19 +605,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="90.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="120.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -605,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -659,413 +688,488 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D4">
         <v>-0.999</v>
       </c>
       <c r="E4">
-        <v>54</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="F4" s="1">
         <f>D4+E4*0.01</f>
-        <v>-0.45899999999999996</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
+        <v>-0.99333000000000005</v>
+      </c>
+      <c r="G4">
+        <v>1.77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>-0.84099999999999997</v>
+        <v>-0.999</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="F5" s="1">
         <f>D5+E5*0.01</f>
-        <v>-0.80099999999999993</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
+        <v>-0.99377000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.09</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>-0.97099999999999997</v>
+        <v>-0.999</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1">
-        <f>D6+E6*0.01</f>
-        <v>-0.871</v>
+        <f t="shared" ref="F6:F15" si="0">D6+E6*0.01</f>
+        <v>-0.45899999999999996</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>-0.999</v>
+        <v>-0.84099999999999997</v>
       </c>
       <c r="E7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <f>D7+E7*0.01</f>
-        <v>-0.51900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>-0.80099999999999993</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>-0.84599999999999997</v>
+        <v>-0.97099999999999997</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
-        <f>D8+E8*0.01</f>
-        <v>-0.78600000000000003</v>
+        <f t="shared" si="0"/>
+        <v>-0.871</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>-0.97199999999999998</v>
+        <v>-0.999</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
-        <f>D9+E9*0.01</f>
-        <v>-0.872</v>
-      </c>
-      <c r="G9">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="3"/>
+        <f t="shared" si="0"/>
+        <v>-0.51900000000000002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-0.84599999999999997</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
-        <f>D10+E10*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.01</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>-0.78600000000000003</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11">
+        <v>-0.97199999999999998</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.872</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <f>D11+E11*0.01</f>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>-0.997</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <f>D12+E12*0.01</f>
-        <v>-0.89700000000000002</v>
-      </c>
       <c r="G12">
-        <v>3.41</v>
+        <v>0.01</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>-0.996</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f>D13+E13*0.01</f>
-        <v>-0.91600000000000004</v>
-      </c>
-      <c r="G13">
-        <v>3.15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>-0.99399999999999999</v>
+        <v>-0.997</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F20" si="0">D14+E14*0.01</f>
-        <v>-0.89400000000000002</v>
+        <f t="shared" si="0"/>
+        <v>-0.89700000000000002</v>
       </c>
       <c r="G14">
-        <v>4.84</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>3.41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>-0.997</v>
+        <v>-0.996</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>-0.95699999999999996</v>
+        <v>-0.91600000000000004</v>
       </c>
       <c r="G15">
-        <v>2.2599999999999998</v>
+        <v>3.15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>-0.95899999999999996</v>
+        <v>-0.99399999999999999</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.89900000000000002</v>
+        <f t="shared" ref="F16:F22" si="1">D16+E16*0.01</f>
+        <v>-0.89400000000000002</v>
       </c>
       <c r="G16">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>4.84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>-0.90900000000000003</v>
+        <v>-0.997</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.86899999999999999</v>
+        <f t="shared" si="1"/>
+        <v>-0.95699999999999996</v>
       </c>
       <c r="G17">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>-0.97099999999999997</v>
+        <v>-0.95899999999999996</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.871</v>
+        <f t="shared" si="1"/>
+        <v>-0.89900000000000002</v>
       </c>
       <c r="G18">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>-0.97199999999999998</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.872</v>
+        <f t="shared" si="1"/>
+        <v>-0.86899999999999999</v>
       </c>
       <c r="G19">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>-0.97099999999999997</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.871</v>
+      </c>
+      <c r="G20">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>-0.97199999999999998</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.872</v>
+      </c>
+      <c r="G21">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
         <v>-0.90900000000000003</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
         <v>-0.86899999999999999</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>-0.91600000000000004</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>-0.91600000000000004</v>
+      </c>
+      <c r="G26">
+        <v>0.02</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A2:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B53CD59-EC4C-414B-8153-9BC15775082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC251CC-1407-EB46-B124-09D81BC11028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>IPOPT</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_snopt</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_Ipopt</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,35 +1147,57 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25">
+      <c r="D23">
         <v>-0.91600000000000004</v>
       </c>
-      <c r="H25" t="s">
+      <c r="E23">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F24" si="2">D23+E23*0.01</f>
+        <v>-0.90672000000000008</v>
+      </c>
+      <c r="H23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D26">
+      <c r="D24">
         <v>-0.91600000000000004</v>
       </c>
-      <c r="G26">
-        <v>0.02</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="E24">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.90672000000000008</v>
+      </c>
+      <c r="G24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H24" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A2:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC251CC-1407-EB46-B124-09D81BC11028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59044877-6E6D-2541-ACF9-C90668BAEDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59044877-6E6D-2541-ACF9-C90668BAEDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08122A2F-4CDD-FE46-B3AE-4C39DAA14B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,6 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +615,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,6 +1166,9 @@
         <f t="shared" ref="F23:F24" si="2">D23+E23*0.01</f>
         <v>-0.90672000000000008</v>
       </c>
+      <c r="G23">
+        <v>0.18</v>
+      </c>
       <c r="H23" t="s">
         <v>63</v>
       </c>
@@ -1187,8 +1191,8 @@
         <f t="shared" si="2"/>
         <v>-0.90672000000000008</v>
       </c>
-      <c r="G24">
-        <v>7.0000000000000007E-2</v>
+      <c r="G24" s="5">
+        <v>0.1</v>
       </c>
       <c r="H24" t="s">
         <v>63</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08122A2F-4CDD-FE46-B3AE-4C39DAA14B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79ABC5B-D762-BD48-9F2E-E9F88F91AA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -95,19 +95,6 @@
     <t>rounding results of ADMM</t>
   </si>
   <si>
-    <t>EnergyST2_evotime_2.0_n_ts40_n_switch0_initwarm_minuptime0.0</t>
-  </si>
-  <si>
-    <t>EnergyST2_evotime_2.0_n_ts40_n_switch0_initwarm_minuptime0.5</t>
-  </si>
-  <si>
-    <t>swithing time optimization results</t>
-  </si>
-  <si>
-    <t>swithing time optimization results
- with 10 minimum up time steps</t>
-  </si>
-  <si>
     <t>start from SUR results of GRAPE</t>
   </si>
   <si>
@@ -178,12 +165,6 @@
     <t>ADMM+Maxswitch</t>
   </si>
   <si>
-    <t>Switching time</t>
-  </si>
-  <si>
-    <t>Switching time+Minup</t>
-  </si>
-  <si>
     <t>GRAPE+TR+Minup</t>
   </si>
   <si>
@@ -217,23 +198,13 @@
     <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
   </si>
   <si>
-    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
-  </si>
-  <si>
     <t>GRAPE+TR (continuous)</t>
-  </si>
-  <si>
-    <t>ADMM+TR (continuous)</t>
   </si>
   <si>
     <t>solve continuous relaxation
 with TV norm starting from GRAPE</t>
   </si>
   <si>
-    <t>solve continuous relaxation
-with TV norm starting from ADMM</t>
-  </si>
-  <si>
     <t>SNOPT</t>
   </si>
   <si>
@@ -247,6 +218,36 @@
   </si>
   <si>
     <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_Ipopt</t>
+  </si>
+  <si>
+    <t>binary results</t>
+  </si>
+  <si>
+    <t>MINLP</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_minlp</t>
+  </si>
+  <si>
+    <t>MUCOD_II</t>
+  </si>
+  <si>
+    <t>continuous results based on ODE</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_mucod2</t>
+  </si>
+  <si>
+    <t>GRAPE+TR+SUR</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc__maxswitch5</t>
   </si>
 </sst>
 </file>
@@ -291,13 +292,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -649,13 +648,13 @@
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>-0.999</v>
@@ -677,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>-0.999</v>
@@ -698,10 +697,10 @@
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>-0.999</v>
@@ -717,237 +716,233 @@
         <v>1.77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
       </c>
       <c r="D5">
         <v>-0.999</v>
       </c>
       <c r="E5">
-        <v>0.52300000000000002</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1">
-        <f>D5+E5*0.01</f>
-        <v>-0.99377000000000004</v>
-      </c>
-      <c r="G5">
-        <v>0.09</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F5:F15" si="0">D5+E5*0.01</f>
+        <v>-0.45899999999999996</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>-0.999</v>
+        <v>-0.84099999999999997</v>
       </c>
       <c r="E6">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F15" si="0">D6+E6*0.01</f>
-        <v>-0.45899999999999996</v>
+        <f t="shared" si="0"/>
+        <v>-0.80099999999999993</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
-        <v>8</v>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>-0.84099999999999997</v>
+        <v>-0.97099999999999997</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.80099999999999993</v>
+        <v>-0.871</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>-0.97099999999999997</v>
+        <v>-0.999</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.871</v>
+        <v>-0.51900000000000002</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>-0.999</v>
+        <v>-0.84599999999999997</v>
       </c>
       <c r="E9">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.51900000000000002</v>
+        <v>-0.78600000000000003</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>-0.84599999999999997</v>
+        <v>-0.97199999999999998</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.78600000000000003</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <f>D10+E10*0.01</f>
+        <v>-0.872</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>-0.97199999999999998</v>
+        <v>-0.995</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.872</v>
-      </c>
-      <c r="G11">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="3"/>
+        <f>D11+E11*0.01</f>
+        <v>-0.45499999999999996</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.84</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.01</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F12:F13" si="1">D12+E12*0.01</f>
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.96</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-0.86</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>-0.997</v>
@@ -963,16 +958,16 @@
         <v>3.41</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>-0.996</v>
@@ -988,16 +983,16 @@
         <v>3.15</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>-0.99399999999999999</v>
@@ -1006,23 +1001,23 @@
         <v>10</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F22" si="1">D16+E16*0.01</f>
+        <f t="shared" ref="F16:F22" si="2">D16+E16*0.01</f>
         <v>-0.89400000000000002</v>
       </c>
       <c r="G16">
         <v>4.84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>-0.997</v>
@@ -1031,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.95699999999999996</v>
       </c>
       <c r="G17">
@@ -1041,10 +1036,10 @@
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>-0.95899999999999996</v>
@@ -1053,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.89900000000000002</v>
       </c>
       <c r="G18">
@@ -1063,10 +1058,10 @@
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>-0.90900000000000003</v>
@@ -1075,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.86899999999999999</v>
       </c>
       <c r="G19">
@@ -1085,10 +1080,10 @@
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>-0.97099999999999997</v>
@@ -1097,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.871</v>
       </c>
       <c r="G20">
@@ -1107,10 +1102,10 @@
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>-0.97199999999999998</v>
@@ -1119,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.872</v>
       </c>
       <c r="G21">
@@ -1129,10 +1124,10 @@
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>-0.90900000000000003</v>
@@ -1141,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.86899999999999999</v>
       </c>
       <c r="G22">
@@ -1151,10 +1146,10 @@
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>-0.91600000000000004</v>
@@ -1163,23 +1158,23 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F24" si="2">D23+E23*0.01</f>
+        <f t="shared" ref="F23:F26" si="3">D23+E23*0.01</f>
         <v>-0.90672000000000008</v>
       </c>
       <c r="G23">
         <v>0.18</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>-0.91600000000000004</v>
@@ -1188,21 +1183,66 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.90672000000000008</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>0.1</v>
       </c>
       <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>-0.85199999999999998</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="G25">
+        <v>13628.4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>-0.999</v>
+      </c>
+      <c r="E26">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.91263000000000005</v>
+      </c>
+      <c r="G26">
+        <v>1.67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A2:A24"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79ABC5B-D762-BD48-9F2E-E9F88F91AA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD59D000-040C-F746-9114-94CABA063C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -248,6 +248,37 @@
   </si>
   <si>
     <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc__maxswitch5</t>
+  </si>
+  <si>
+    <t>Switching time+Minup</t>
+  </si>
+  <si>
+    <t>Switching time</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_2.0_n_ts40_n_switch0_initwarm_minuptime0.0</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_2.0_n_ts40_n_switch0_initwarm_minuptime0.5</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_2.0_n_ts40_n_switch1_initwarm_minuptime0.5</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_2.0_n_ts40_n_switch1_initwarm_minuptime0.0</t>
+  </si>
+  <si>
+    <t>GRAPE+TR+Switching time</t>
+  </si>
+  <si>
+    <t>GRAPE+TR+Switching time
++Minup</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.1_ADMM_10.0_iter100</t>
+  </si>
+  <si>
+    <t>alpha=0.1</t>
   </si>
 </sst>
 </file>
@@ -266,12 +297,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,6 +334,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +773,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F15" si="0">D5+E5*0.01</f>
+        <f t="shared" ref="F5:F19" si="0">D5+E5*0.01</f>
         <v>-0.45899999999999996</v>
       </c>
       <c r="G5" t="s">
@@ -905,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F13" si="1">D12+E12*0.01</f>
+        <f t="shared" ref="F12:F17" si="1">D12+E12*0.01</f>
         <v>-0.79999999999999993</v>
       </c>
       <c r="G12" t="s">
@@ -936,310 +975,931 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14">
-        <v>-0.997</v>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.89700000000000002</v>
-      </c>
-      <c r="G14">
-        <v>3.41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>-0.996</v>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.91600000000000004</v>
-      </c>
-      <c r="G15">
-        <v>3.15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>-0.99399999999999999</v>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F22" si="2">D16+E16*0.01</f>
-        <v>-0.89400000000000002</v>
-      </c>
-      <c r="G16">
-        <v>4.84</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
+      <c r="B17" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>-0.997</v>
+        <v>75</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.95699999999999996</v>
-      </c>
-      <c r="G17">
-        <v>2.2599999999999998</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>-0.95899999999999996</v>
+        <v>-0.997</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.89900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>-0.89700000000000002</v>
       </c>
       <c r="G18">
-        <v>1.59</v>
+        <v>3.41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>-0.90900000000000003</v>
+        <v>-0.996</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.86899999999999999</v>
+        <f t="shared" si="0"/>
+        <v>-0.91600000000000004</v>
       </c>
       <c r="G19">
-        <v>1.1499999999999999</v>
+        <v>3.15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>-0.97099999999999997</v>
+        <v>-0.99399999999999999</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.871</v>
+        <f t="shared" ref="F20:F26" si="2">D20+E20*0.01</f>
+        <v>-0.89400000000000002</v>
       </c>
       <c r="G20">
-        <v>0.46</v>
+        <v>4.84</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>-0.97199999999999998</v>
+        <v>-0.997</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>-0.872</v>
+        <v>-0.95699999999999996</v>
       </c>
       <c r="G21">
-        <v>0.37</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>-0.90900000000000003</v>
+        <v>-0.95899999999999996</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
+        <v>-0.89900000000000002</v>
+      </c>
+      <c r="G22">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>-0.90900000000000003</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
         <v>-0.86899999999999999</v>
       </c>
-      <c r="G22">
+      <c r="G23">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>-0.97099999999999997</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.871</v>
+      </c>
+      <c r="G24">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>-0.97199999999999998</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.872</v>
+      </c>
+      <c r="G25">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>-0.90900000000000003</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.86899999999999999</v>
+      </c>
+      <c r="G26">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>-0.91600000000000004</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" ref="F23:F26" si="3">D23+E23*0.01</f>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F30" si="3">D27+E27*0.01</f>
         <v>-0.90672000000000008</v>
       </c>
-      <c r="G23">
+      <c r="G27">
         <v>0.18</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" t="s">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>-0.91600000000000004</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F28" s="1">
         <f t="shared" si="3"/>
         <v>-0.90672000000000008</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G28" s="3">
         <v>0.1</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>-0.85199999999999998</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>12</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F29" s="1">
         <f t="shared" si="3"/>
         <v>-0.73199999999999998</v>
       </c>
-      <c r="G25">
+      <c r="G29">
         <v>13628.4</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>-0.999</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>8.6370000000000005</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F30" s="1">
         <f t="shared" si="3"/>
         <v>-0.91263000000000005</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>1.67</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H30" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <f>D33+E33*0.1</f>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G33">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>-0.79600000000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F52" si="4">D34+E34*0.1</f>
+        <v>-0.7198</v>
+      </c>
+      <c r="G34">
+        <v>14.82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>-0.90700000000000003</v>
+      </c>
+      <c r="E35">
+        <v>1.355</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.77150000000000007</v>
+      </c>
+      <c r="G35">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>-0.80600000000000005</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1">
+        <f>D42+E42*0.1</f>
+        <v>0.4880000000000001</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>-0.76500000000000001</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <f>D43+E43*0.1</f>
+        <v>-0.73100000000000009</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <f>D44+E44*0.1</f>
+        <v>7.8999999999999959E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1">
+        <f>D42+E42*0.1</f>
+        <v>0.4880000000000001</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>-0.93100000000000005</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <f>D43+E43*0.1</f>
+        <v>-0.73100000000000009</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>-0.92100000000000004</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <f>D44+E44*0.1</f>
+        <v>7.8999999999999959E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-0.76500000000000001</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-0.76500000000000001</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G49">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G51">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G52">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" ref="F43:F57" si="5">D53+E53*0.01</f>
+        <v>-0.92899999999999994</v>
+      </c>
+      <c r="G53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.92899999999999994</v>
+      </c>
+      <c r="G54">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.92899999999999994</v>
+      </c>
+      <c r="G55">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.92899999999999994</v>
+      </c>
+      <c r="G56">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.92899999999999994</v>
+      </c>
+      <c r="G57">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD59D000-040C-F746-9114-94CABA063C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3537E3F-2364-314F-A52C-950FB1FF0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -116,24 +117,6 @@
 optimization results</t>
   </si>
   <si>
-    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_SUR_sigma0.25_eta0.001
-_threshold30_iter100_typeminup_time10</t>
-  </si>
-  <si>
-    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_SUR_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
-  </si>
-  <si>
-    <t>EnergyST2_evotime_2.0_n_ts40_n_switch0_initwarm_minuptime0.0_sigma0.25_eta0.001
-_threshold30_iter100_typeminup_time10</t>
-  </si>
-  <si>
-    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_SUR_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
-  </si>
-  <si>
-    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_SUR_sigma0.25_eta0.001
-_threshold30_iter100_typemaxswitch_switch5</t>
-  </si>
-  <si>
     <t>EnergyST2_evotime_2.0_n_ts40_n_switch0_initwarm_minuptime0.0_sigma0.25_eta0.001
 _threshold30_iter100_typemaxswitch_switch5</t>
   </si>
@@ -247,9 +230,6 @@
     <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
   </si>
   <si>
-    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc__maxswitch5</t>
-  </si>
-  <si>
     <t>Switching time+Minup</t>
   </si>
   <si>
@@ -275,10 +255,395 @@
 +Minup</t>
   </si>
   <si>
-    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.1_ADMM_10.0_iter100</t>
-  </si>
-  <si>
     <t>alpha=0.1</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime1.0_n_ts20_ptypeWARM_offset0.5_penalty0.1_ADMM_10.0_iter100</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_alpha0.1_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_SUR</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_minup10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_maxswitch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime1.0_n_ts20_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_SUR</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime1.0_n_ts20_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_minup10</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime1.0_n_ts20_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_maxswitch5</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_SUR_sigma0.25_eta0.001
+_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime1.0_n_ts20_ptypeWARM_offset0.5_penalty0.1_ADMM_10.0_iter100_SUR_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_1.0_n_ts20_n_switch1_initwarm_minuptime0.0_sigma0.25_eta0.001
+_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_1.0_n_ts20_n_switch1_initwarm_minuptime0.5</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_1.0_n_ts20_n_switch1_initwarm_minuptime0.0</t>
+  </si>
+  <si>
+    <t>100 iterations, beta=0.25, alpha=0.001</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5</t>
+  </si>
+  <si>
+    <t>EnergyADMM6_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_SUR</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_minup10</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_maxswitch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM6_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_SUR</t>
+  </si>
+  <si>
+    <t>EnergyADMM6_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_minup10</t>
+  </si>
+  <si>
+    <t>EnergyADMM6_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_maxswitch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM6_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_SUR_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_1.0_n_ts20_n_switch1_initwarm_minuptime0.5_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotim_e1.0_n_ts20_n_switch1_initwarm_minuptime0.0_sigma0.25_eta0.001
+_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>EnergyST6_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.0_sigma0.25_eta0.001
+_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyST6_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.0_sigma0.25_eta0.001
+_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>EnergyST6_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.0</t>
+  </si>
+  <si>
+    <t>EnergyST6_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.5</t>
+  </si>
+  <si>
+    <t>EnergyST6_evotime_2.0_n_ts40_n_switch5_initwarm_minuptime0.0</t>
+  </si>
+  <si>
+    <t>EnergyST6_evotime_2.0_n_ts40_n_switch5_initwarm_minuptime0.5</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_SUR_alpha0.01_sigma0.25_eta0.001
+_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT</t>
+  </si>
+  <si>
+    <t>rounding of GRAPE with 
+20 maximum switches</t>
+  </si>
+  <si>
+    <t>rounding results of Trust-region for tv</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime10.0_n_ts200_ptypeWARM_offset0.5_objUNIT_penalty0.001_ADMM_0.25_iter100</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime10.0_n_ts200_ptypeWARM_offset0.5_objUNIT_penalty0.001_ADMM_0.25_iter100_SUR</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime10.0_n_ts200_ptypeWARM_offset0.5_objUNIT_penalty0.001_ADMM_0.25_iter100_minup10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime10.0_n_ts200_ptypeWARM_offset0.5_objUNIT_penalty0.001_ADMM_0.25_iter100_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime10.0_n_ts200_ptypeWARM_offset0.5_objUNIT_penalty0.001_ADMM_0.25_iter100_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime10.0_n_ts200_ptypeWARM_offset0.5_objUNIT_penalty0.001_ADMM_0.25_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime10.0_n_ts200_ptypeWARM_offset0.5_objUNIT_penalty0.001_ADMM_0.25_iter100_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5</t>
+  </si>
+  <si>
+    <t>EnergyADMM4_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_SUR</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_minup10</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_maxswitch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM4_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_SUR</t>
+  </si>
+  <si>
+    <t>EnergyADMM4_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_minup10</t>
+  </si>
+  <si>
+    <t>EnergyADMM4_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_maxswitch5</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5</t>
+  </si>
+  <si>
+    <t>EnergyST4_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.0</t>
+  </si>
+  <si>
+    <t>EnergyST4_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.5</t>
+  </si>
+  <si>
+    <t>EnergyST4_evotime_2.0_n_ts40_n_switch5_initwarm_minuptime0.0</t>
+  </si>
+  <si>
+    <t>EnergyST4_evotime_2.0_n_ts40_n_switch5_initwarm_minuptime0.5</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_SUR_alpha0.01_sigma0.25_eta0.001
+_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyADMM4_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_SUR_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyST4_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.0_sigma0.25_eta0.001
+_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>EnergyST4_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.0_sigma0.25_eta0.001
+_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>EnergyST4_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.5_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>EnergyST6_evotime_2.0_n_ts40_n_switch3_initwarm_minuptime0.5_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>EnergyST2_evotime_2.0_n_ts40_n_switch0_initwarm_minuptime0.5_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_minup10_alpha0.01_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>EnergyADMM4_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>EnergyADMM6_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_minup10_alpha0.01_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_minup10_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime1.0_n_ts20_ptypeWARM_offset0.5_penalty0.1_ADMM_10.0_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_minup10_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_maxswitch5_sigma0.25_eta0.001
+_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM2_evotime1.0_n_ts20_ptypeWARM_offset0.5_penalty0.1_ADMM_10.0_iter100_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_maxswitch5_sigma0.25_eta0.001
+_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_maxswitch5_alpha0.01_sigma0.25_eta0.001
+_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM6_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>EnergyADMM4_evotime2.0_n_ts40_ptypeWARM_offset0.5_penalty0.01_ADMM_10.0_iter100_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_maxswitch5_alpha0.01_sigma0.25_eta0.001
+_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>&lt;0.02</t>
+  </si>
+  <si>
+    <t>&lt;0.03</t>
+  </si>
+  <si>
+    <t>alpha=0.01</t>
+  </si>
+  <si>
+    <t>alpha=0.0001</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_SUR</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_minup10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
   </si>
 </sst>
 </file>
@@ -288,10 +653,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -336,6 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A110" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -687,13 +1059,13 @@
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>-0.999</v>
@@ -715,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>-0.999</v>
@@ -736,10 +1108,10 @@
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>-0.999</v>
@@ -755,7 +1127,7 @@
         <v>1.77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -764,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>-0.999</v>
@@ -789,7 +1161,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>-0.84099999999999997</v>
@@ -814,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>-0.97099999999999997</v>
@@ -839,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>-0.999</v>
@@ -864,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>-0.84599999999999997</v>
@@ -887,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>-0.97199999999999998</v>
@@ -907,10 +1279,10 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>-0.995</v>
@@ -926,16 +1298,16 @@
         <v>14</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>-0.84</v>
@@ -955,10 +1327,10 @@
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>-0.96</v>
@@ -978,10 +1350,10 @@
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1001,10 +1373,10 @@
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1024,10 +1396,10 @@
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1047,10 +1419,10 @@
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1073,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>-0.997</v>
@@ -1095,10 +1467,10 @@
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>-0.996</v>
@@ -1120,23 +1492,23 @@
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>-0.99399999999999999</v>
+        <v>-0.999</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ref="F20:F26" si="2">D20+E20*0.01</f>
-        <v>-0.89400000000000002</v>
+        <v>-0.89900000000000002</v>
       </c>
       <c r="G20">
-        <v>4.84</v>
+        <v>1.27</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>24</v>
@@ -1145,10 +1517,10 @@
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>-0.997</v>
@@ -1167,10 +1539,10 @@
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>-0.95899999999999996</v>
@@ -1189,32 +1561,32 @@
     <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>-0.90900000000000003</v>
+        <v>-0.998</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>-0.86899999999999999</v>
+        <v>-0.91800000000000004</v>
       </c>
       <c r="G23">
-        <v>1.1499999999999999</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>-0.97099999999999997</v>
@@ -1233,10 +1605,10 @@
     <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>-0.97199999999999998</v>
@@ -1255,32 +1627,32 @@
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>-0.90900000000000003</v>
+        <v>-0.997</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>-0.86899999999999999</v>
+        <v>-0.91700000000000004</v>
       </c>
       <c r="G26">
-        <v>1.1599999999999999</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>-0.91600000000000004</v>
@@ -1296,16 +1668,16 @@
         <v>0.18</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>-0.91600000000000004</v>
@@ -1321,16 +1693,16 @@
         <v>0.1</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>-0.85199999999999998</v>
@@ -1346,15 +1718,15 @@
         <v>13628.4</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>-0.999</v>
@@ -1370,16 +1742,16 @@
         <v>1.67</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>-0.94899999999999995</v>
@@ -1397,10 +1769,10 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>-0.79600000000000004</v>
@@ -1409,22 +1781,22 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F52" si="4">D34+E34*0.1</f>
+        <f t="shared" ref="F34:F57" si="4">D34+E34*0.1</f>
         <v>-0.7198</v>
       </c>
       <c r="G34">
         <v>14.82</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>-0.90700000000000003</v>
@@ -1442,10 +1814,10 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>-0.94899999999999995</v>
@@ -1463,10 +1835,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <v>-0.94899999999999995</v>
@@ -1484,10 +1856,10 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>-0.94899999999999995</v>
@@ -1505,10 +1877,10 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>-0.80600000000000005</v>
@@ -1526,10 +1898,10 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>-0.76500000000000001</v>
@@ -1547,10 +1919,10 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D41">
         <v>-0.71399999999999997</v>
@@ -1568,10 +1940,10 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D42">
         <v>-0.91200000000000003</v>
@@ -1589,10 +1961,10 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>-0.93100000000000005</v>
@@ -1610,10 +1982,10 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>-0.92100000000000004</v>
@@ -1631,10 +2003,10 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1">
         <v>-0.94899999999999995</v>
@@ -1652,10 +2024,10 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1">
         <v>-0.76500000000000001</v>
@@ -1673,10 +2045,10 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1">
         <v>-0.94899999999999995</v>
@@ -1694,10 +2066,10 @@
     </row>
     <row r="48" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1">
         <v>-0.76500000000000001</v>
@@ -1715,10 +2087,10 @@
     </row>
     <row r="49" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <v>-0.94899999999999995</v>
@@ -1736,10 +2108,10 @@
     </row>
     <row r="50" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>-0.94899999999999995</v>
@@ -1757,10 +2129,10 @@
     </row>
     <row r="51" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D51">
         <v>-0.94899999999999995</v>
@@ -1773,15 +2145,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G51">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>-0.94899999999999995</v>
@@ -1799,10 +2171,10 @@
     </row>
     <row r="53" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D53">
         <v>-0.94899999999999995</v>
@@ -1811,8 +2183,8 @@
         <v>2</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" ref="F43:F57" si="5">D53+E53*0.01</f>
-        <v>-0.92899999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
       </c>
       <c r="G53">
         <v>0.6</v>
@@ -1820,10 +2192,10 @@
     </row>
     <row r="54" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D54">
         <v>-0.94899999999999995</v>
@@ -1832,19 +2204,19 @@
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.92899999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
       </c>
       <c r="G54">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D55">
         <v>-0.94899999999999995</v>
@@ -1853,8 +2225,8 @@
         <v>2</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.92899999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
       </c>
       <c r="G55">
         <v>0.26</v>
@@ -1862,10 +2234,10 @@
     </row>
     <row r="56" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D56">
         <v>-0.94899999999999995</v>
@@ -1874,8 +2246,8 @@
         <v>2</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.92899999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
       </c>
       <c r="G56">
         <v>0.69</v>
@@ -1883,10 +2255,10 @@
     </row>
     <row r="57" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D57">
         <v>-0.94899999999999995</v>
@@ -1895,13 +2267,1905 @@
         <v>2</v>
       </c>
       <c r="F57" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G57">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>-4.7359999999999998</v>
+      </c>
+      <c r="E60">
+        <v>9.8680000000000003</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" ref="F60:F84" si="5">D60+E60*0.01</f>
+        <v>-4.6373199999999999</v>
+      </c>
+      <c r="G60">
+        <v>40.481000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61">
+        <v>-4.6550000000000002</v>
+      </c>
+      <c r="E61">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="F61" s="1">
         <f t="shared" si="5"/>
-        <v>-0.92899999999999994</v>
-      </c>
-      <c r="G57">
-        <v>0.21</v>
-      </c>
-    </row>
+        <v>-4.6298200000000005</v>
+      </c>
+      <c r="G61">
+        <v>1143.44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>-4.734</v>
+      </c>
+      <c r="E62">
+        <v>7.0789999999999997</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.6632100000000003</v>
+      </c>
+      <c r="G62">
+        <v>151.85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-4.67</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-4.62</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5200000000000005</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>-4.6440000000000001</v>
+      </c>
+      <c r="E66">
+        <v>56</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.0839999999999996</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-0.28199999999999997</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.22199999999999998</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68">
+        <v>-4.1040000000000001</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.0040000000000004</v>
+      </c>
+      <c r="G68">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-4.7220000000000004</v>
+      </c>
+      <c r="E69">
+        <v>38</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.3420000000000005</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-4.5810000000000004</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.4810000000000008</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>-2.8780000000000001</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.8380000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-1.272</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.212</v>
+      </c>
+      <c r="G73">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-0.156</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="5"/>
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="G75">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76">
+        <v>-4.6859999999999999</v>
+      </c>
+      <c r="E76">
+        <v>22</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.4660000000000002</v>
+      </c>
+      <c r="G76">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-1.1319999999999999</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0719999999999998</v>
+      </c>
+      <c r="G77">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78">
+        <v>-4.6660000000000004</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5660000000000007</v>
+      </c>
+      <c r="G78">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-4.6440000000000001</v>
+      </c>
+      <c r="E79">
+        <v>56</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.0839999999999996</v>
+      </c>
+      <c r="G79">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80">
+        <v>-1.1319999999999999</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0919999999999999</v>
+      </c>
+      <c r="G80">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-4.681</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5810000000000004</v>
+      </c>
+      <c r="G81">
+        <v>48.04</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82">
+        <v>-4.5179999999999998</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.3179999999999996</v>
+      </c>
+      <c r="G82">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-1.548</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.488</v>
+      </c>
+      <c r="G83">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84">
+        <v>-4.681</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5810000000000004</v>
+      </c>
+      <c r="G84">
+        <v>88.38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87">
+        <v>-3.9990000000000001</v>
+      </c>
+      <c r="E87">
+        <v>4.5519999999999996</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" ref="F87:F111" si="6">D87+E87*0.01</f>
+        <v>-3.9534800000000003</v>
+      </c>
+      <c r="G87">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88">
+        <v>-3.9929999999999999</v>
+      </c>
+      <c r="E88">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.95871</v>
+      </c>
+      <c r="G88">
+        <v>133.13999999999999</v>
+      </c>
+      <c r="H88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89">
+        <v>-3.9990000000000001</v>
+      </c>
+      <c r="E89">
+        <v>3.6829999999999998</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.96217</v>
+      </c>
+      <c r="G89">
+        <v>43.35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>-3.9980000000000002</v>
+      </c>
+      <c r="E90">
+        <v>42</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5780000000000003</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92">
+        <v>-3.92</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.82</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93">
+        <v>-3.9940000000000002</v>
+      </c>
+      <c r="E93">
+        <v>46</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5340000000000003</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95">
+        <v>-3.9279999999999999</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8279999999999998</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96">
+        <v>-3.9990000000000001</v>
+      </c>
+      <c r="E96">
+        <v>38</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.6190000000000002</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98">
+        <v>-3.9260000000000002</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8260000000000001</v>
+      </c>
+      <c r="G98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="G99">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G100">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="G101">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G102">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103">
+        <v>-3.9980000000000002</v>
+      </c>
+      <c r="E103">
+        <v>42</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5780000000000003</v>
+      </c>
+      <c r="G103">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G104">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105">
+        <v>-3.9620000000000002</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8620000000000001</v>
+      </c>
+      <c r="G105">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106">
+        <v>-3.9940000000000002</v>
+      </c>
+      <c r="E106">
+        <v>46</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5340000000000003</v>
+      </c>
+      <c r="G106">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G107">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108">
+        <v>-3.9710000000000001</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.871</v>
+      </c>
+      <c r="G108">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109">
+        <v>-3.9889999999999999</v>
+      </c>
+      <c r="E109">
+        <v>14</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8489999999999998</v>
+      </c>
+      <c r="G109">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E110">
+        <v>6</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G110">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111">
+        <v>-3.992</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8919999999999999</v>
+      </c>
+      <c r="G111">
+        <v>13.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="119.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="8" max="8" width="57.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.159E-9</v>
+      </c>
+      <c r="E2">
+        <v>20.978999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2+E2*0.001</f>
+        <v>2.0979001159000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.2079999999999999E-4</v>
+      </c>
+      <c r="E3">
+        <v>11.055999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3+E3*0.001</f>
+        <v>1.1376799999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.654E-4</v>
+      </c>
+      <c r="E4">
+        <v>15.194000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4+E4*0.01</f>
+        <v>0.15220540000000002</v>
+      </c>
+      <c r="G4">
+        <v>192.78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6.0090000000000002E-4</v>
+      </c>
+      <c r="E5">
+        <v>116</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F19" si="0">D5+E5*0.01</f>
+        <v>1.1606008999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.158</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.378</v>
+      </c>
+      <c r="G6">
+        <v>19.29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G7">
+        <v>61.83</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="G9">
+        <v>6.49</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10+E10*0.01</f>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G10">
+        <v>61.83</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <v>116</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11+E11*0.01</f>
+        <v>1.1609999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:F13" si="1">D12+E12*0.01</f>
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="G12">
+        <v>13.5</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G13">
+        <v>61.83</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>1E-3</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G14">
+        <v>70.36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G15">
+        <v>74.83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
+      </c>
+      <c r="E16">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G16">
+        <v>19.89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>1E-3</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G17">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
+      <c r="G18">
+        <v>51.37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>1E-3</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G19">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.9270000000000003E-10</v>
+      </c>
+      <c r="E22">
+        <v>26.161999999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <f>D22+E22*0.0001</f>
+        <v>2.6162005927000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8.0709999999999997E-7</v>
+      </c>
+      <c r="E23">
+        <v>15.099</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F39" si="2">D23+E23*0.0001</f>
+        <v>1.5107071000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>150.25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4.0629999999999999E-6</v>
+      </c>
+      <c r="E24">
+        <v>23.481000000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.352163E-3</v>
+      </c>
+      <c r="G24">
+        <v>432.73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>1E-3</v>
+      </c>
+      <c r="E25">
+        <v>491</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0100000000000006E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E26">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7873</v>
+      </c>
+      <c r="G26">
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E27">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="G27">
+        <v>67.41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>1E-3</v>
+      </c>
+      <c r="E28">
+        <v>467</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7700000000000006E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E29">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="G29">
+        <v>38.42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="G30">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>1E-3</v>
+      </c>
+      <c r="E31">
+        <v>480</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>0.314</v>
+      </c>
+      <c r="E32">
+        <v>51</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="G32">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E33">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70089999999999997</v>
+      </c>
+      <c r="G33">
+        <v>67.22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4.5560000000000002E-4</v>
+      </c>
+      <c r="E34">
+        <v>479</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8355600000000006E-2</v>
+      </c>
+      <c r="G34">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>1E-3</v>
+      </c>
+      <c r="E35">
+        <v>38</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="G35">
+        <v>208.79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="8">
+        <v>9.4689999999999998E-4</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9468999999999997E-3</v>
+      </c>
+      <c r="G36">
+        <v>153.63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="8">
+        <v>5.0730000000000003E-4</v>
+      </c>
+      <c r="E37">
+        <v>441</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4607300000000003E-2</v>
+      </c>
+      <c r="G37">
+        <v>33.770000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>1E-3</v>
+      </c>
+      <c r="E38">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8000000000000005E-3</v>
+      </c>
+      <c r="G38">
+        <v>157.57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="8">
+        <v>7.4489999999999995E-4</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7448999999999998E-3</v>
+      </c>
+      <c r="G39">
+        <v>157.87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3537E3F-2364-314F-A52C-950FB1FF0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606DD17-B188-B54F-9531-40D30F189B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -644,6 +644,114 @@
   </si>
   <si>
     <t>CNOTADMM_evotime20.0_n_ts400_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_penalty0.01_ADMM_0.25_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_penalty0.01_ADMM_0.25_iter100_SUR_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_penalty0.01_ADMM_0.25_iter100_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_penalty0.01_ADMM_0.25_iter100</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_penalty0.01_ADMM_0.25_iter100_SUR</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_penalty0.01_ADMM_0.25_iter100_minup10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_penalty0.01_ADMM_0.25_iter100_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_SUR_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_SUR</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_minup10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
   </si>
 </sst>
 </file>
@@ -694,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -708,6 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A98" zoomScale="109" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
@@ -3337,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3430,8 +3539,8 @@
         <v>15.194000000000001</v>
       </c>
       <c r="F4" s="1">
-        <f>D4+E4*0.01</f>
-        <v>0.15220540000000002</v>
+        <f>D4+E4*0.001</f>
+        <v>1.5459400000000002E-2</v>
       </c>
       <c r="G4">
         <v>192.78</v>
@@ -3454,8 +3563,8 @@
         <v>116</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F19" si="0">D5+E5*0.01</f>
-        <v>1.1606008999999999</v>
+        <f t="shared" ref="F5:F18" si="0">D5+E5*0.001</f>
+        <v>0.11660090000000001</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -3479,7 +3588,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.378</v>
+        <v>0.18</v>
       </c>
       <c r="G6">
         <v>19.29</v>
@@ -3503,7 +3612,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.40100000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>61.83</v>
@@ -3527,7 +3636,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.86099999999999999</v>
+        <v>8.7000000000000008E-2</v>
       </c>
       <c r="G8">
         <v>0.01</v>
@@ -3551,7 +3660,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.23399999999999999</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="G9">
         <v>6.49</v>
@@ -3572,8 +3681,8 @@
         <v>32</v>
       </c>
       <c r="F10" s="1">
-        <f>D10+E10*0.01</f>
-        <v>0.32600000000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G10">
         <v>61.83</v>
@@ -3594,8 +3703,8 @@
         <v>116</v>
       </c>
       <c r="F11" s="1">
-        <f>D11+E11*0.01</f>
-        <v>1.1609999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G11">
         <v>0.01</v>
@@ -3618,8 +3727,8 @@
         <v>21</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F13" si="1">D12+E12*0.01</f>
-        <v>0.53300000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.34400000000000003</v>
       </c>
       <c r="G12">
         <v>13.5</v>
@@ -3640,8 +3749,8 @@
         <v>38</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.39900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="G13">
         <v>61.83</v>
@@ -3663,7 +3772,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.30099999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G14">
         <v>70.36</v>
@@ -3687,7 +3796,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.23400000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G15">
         <v>74.83</v>
@@ -3711,7 +3820,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.39100000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="G16">
         <v>19.89</v>
@@ -3735,7 +3844,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.20100000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G17">
         <v>56.9</v>
@@ -3756,7 +3865,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.156</v>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="G18">
         <v>51.37</v>
@@ -3776,8 +3885,8 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36099999999999999</v>
+        <f>D19+E19*0.001</f>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="G19">
         <v>16.649999999999999</v>
@@ -3819,7 +3928,7 @@
         <v>15.099</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F39" si="2">D23+E23*0.0001</f>
+        <f>D23+E23*0.0001</f>
         <v>1.5107071000000001E-3</v>
       </c>
       <c r="G23">
@@ -3843,7 +3952,7 @@
         <v>23.481000000000002</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F23:F39" si="1">D24+E24*0.0001</f>
         <v>2.352163E-3</v>
       </c>
       <c r="G24">
@@ -3864,7 +3973,7 @@
         <v>491</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0100000000000006E-2</v>
       </c>
       <c r="G25">
@@ -3885,7 +3994,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.7873</v>
       </c>
       <c r="G26">
@@ -3906,7 +4015,7 @@
         <v>39</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.65790000000000004</v>
       </c>
       <c r="G27">
@@ -3927,7 +4036,7 @@
         <v>467</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7700000000000006E-2</v>
       </c>
       <c r="G28">
@@ -3948,7 +4057,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.52170000000000005</v>
       </c>
       <c r="G29">
@@ -3969,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.62290000000000001</v>
       </c>
       <c r="G30">
@@ -3990,7 +4099,7 @@
         <v>480</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="G31">
@@ -4011,14 +4120,14 @@
         <v>51</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.31909999999999999</v>
       </c>
       <c r="G32">
         <v>22.86</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>187</v>
       </c>
@@ -4032,14 +4141,14 @@
         <v>39</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70089999999999997</v>
       </c>
       <c r="G33">
         <v>67.22</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>181</v>
       </c>
@@ -4053,14 +4162,14 @@
         <v>479</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.8355600000000006E-2</v>
       </c>
       <c r="G34">
         <v>27.82</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>188</v>
       </c>
@@ -4074,14 +4183,14 @@
         <v>38</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.8000000000000004E-3</v>
       </c>
       <c r="G35">
         <v>208.79</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>189</v>
       </c>
@@ -4095,14 +4204,14 @@
         <v>40</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9468999999999997E-3</v>
       </c>
       <c r="G36">
         <v>153.63</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>190</v>
       </c>
@@ -4116,14 +4225,14 @@
         <v>441</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.4607300000000003E-2</v>
       </c>
       <c r="G37">
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>191</v>
       </c>
@@ -4137,14 +4246,14 @@
         <v>48</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8000000000000005E-3</v>
       </c>
       <c r="G38">
         <v>157.57</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>192</v>
       </c>
@@ -4158,14 +4267,777 @@
         <v>40</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7448999999999998E-3</v>
       </c>
       <c r="G39">
         <v>157.87</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1">
+        <f>D42+E42*0.01</f>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G42">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>0.191</v>
+      </c>
+      <c r="E43">
+        <v>6.0940000000000003</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ref="F43:F59" si="2">D43+E43*0.01</f>
+        <v>0.25194</v>
+      </c>
+      <c r="G43">
+        <v>21.75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>0.124</v>
+      </c>
+      <c r="E44">
+        <v>9.4190000000000005</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21819</v>
+      </c>
+      <c r="G44">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>0.17</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34299999999999997</v>
+      </c>
+      <c r="G46">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>0.17</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>0.19</v>
+      </c>
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G49">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50">
+        <v>0.191</v>
+      </c>
+      <c r="E50">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G50">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E51">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57200000000000006</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G52">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G53">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G54">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="G55">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56">
+        <v>0.17</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="G56">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G57">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="G58">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33199999999999996</v>
+      </c>
+      <c r="G59">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1.004E-10</v>
+      </c>
+      <c r="E62">
+        <v>29.846</v>
+      </c>
+      <c r="F62" s="1">
+        <f>D62+E62*0.0001</f>
+        <v>2.9846001004E-3</v>
+      </c>
+      <c r="G62">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="8">
+        <v>3.653E-6</v>
+      </c>
+      <c r="E63">
+        <v>16.795000000000002</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" ref="F63:F79" si="3">D63+E63*0.0001</f>
+        <v>1.6831530000000002E-3</v>
+      </c>
+      <c r="G63">
+        <v>100.59</v>
+      </c>
+      <c r="H63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="8">
+        <v>8.4270000000000008E-6</v>
+      </c>
+      <c r="E64">
+        <v>24.347999999999999</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4432270000000001E-3</v>
+      </c>
+      <c r="G64">
+        <v>348.96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E65">
+        <v>266</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7600000000000003E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E66">
+        <v>37</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="3"/>
+        <v>0.54270000000000007</v>
+      </c>
+      <c r="G66">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E67">
+        <v>38</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32880000000000004</v>
+      </c>
+      <c r="G67">
+        <v>64.36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E68">
+        <v>279</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="3"/>
+        <v>3.09E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E69">
+        <v>27</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1787</v>
+      </c>
+      <c r="G69">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.214</v>
+      </c>
+      <c r="E70">
+        <v>39</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21789999999999998</v>
+      </c>
+      <c r="G70">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="E71">
+        <v>276</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E72">
+        <v>36</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>0.29359999999999997</v>
+      </c>
+      <c r="G72">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G73">
+        <v>64.62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="8">
+        <v>5.5900000000000004E-4</v>
+      </c>
+      <c r="E74">
+        <v>262</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6759000000000002E-2</v>
+      </c>
+      <c r="G74">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E75">
+        <v>33</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="3"/>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="G75">
+        <v>150.25</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E76">
+        <v>39</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="G76">
+        <v>113.02</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="8">
+        <v>8.5079999999999997E-4</v>
+      </c>
+      <c r="E77">
+        <v>263</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7150799999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G78">
+        <v>107.17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G79">
+        <v>82.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606DD17-B188-B54F-9531-40D30F189B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE12B4-C7BB-1545-86DE-196C8BE3139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="266">
   <si>
     <t>Name</t>
   </si>
@@ -752,6 +753,117 @@
   </si>
   <si>
     <t>CNOTADMM_evotime15.0_n_ts300_ptypeWARM_offset0.5_objUNIT_penalty0.0001_ADMM_0.25_iter100_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>GRAPE+L2</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TR (continuous)</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+SUR</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+Minup</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+Maxswitch</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TR (binary)</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TR+Minup</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TR+Maxswitch</t>
+  </si>
+  <si>
+    <t>alpha=0.0001, beta=0.5, iteration=100, beta=10 for alpha=0.1</t>
+  </si>
+  <si>
+    <t>sum_penalty=0.01</t>
+  </si>
+  <si>
+    <t>GRAPE+TRC+TR</t>
+  </si>
+  <si>
+    <t>GRAPE+TRC+Minup</t>
+  </si>
+  <si>
+    <t>GRAPE+TRC+Maxswitch</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_alpha0.1_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_alpha0.1_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>Energy2_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy2_evotime1.0_n_ts20_ptypeCONSTANT_offset0.5_alpha0.1_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.1_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy6_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch5_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch5</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime5.0_n_ts100_ptypeCONSTANT_offset0.5_objUNIT_alpha0.01_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime10.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime20.0_n_ts400_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10</t>
+  </si>
+  <si>
+    <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
   </si>
 </sst>
 </file>
@@ -761,7 +873,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -771,6 +883,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -802,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -817,6 +936,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView topLeftCell="A84" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20:F26" si="2">D20+E20*0.01</f>
+        <f t="shared" ref="F20:F29" si="2">D20+E20*0.01</f>
         <v>-0.89900000000000002</v>
       </c>
       <c r="G20">
@@ -1755,313 +1877,316 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27">
+        <v>-0.995</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.91500000000000004</v>
+      </c>
+      <c r="G27">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28">
+        <v>-0.997</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.95699999999999996</v>
+      </c>
+      <c r="G28">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>-0.997</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.89700000000000002</v>
+      </c>
+      <c r="G29">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>-0.91600000000000004</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" ref="F27:F30" si="3">D27+E27*0.01</f>
+      <c r="F30" s="1">
+        <f t="shared" ref="F30:F33" si="3">D30+E30*0.01</f>
         <v>-0.90672000000000008</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <v>0.18</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28">
+      <c r="D31">
         <v>-0.91600000000000004</v>
       </c>
-      <c r="E28">
+      <c r="E31">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F31" s="1">
         <f t="shared" si="3"/>
         <v>-0.90672000000000008</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G31" s="3">
         <v>0.1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>-0.85199999999999998</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>12</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F32" s="1">
         <f t="shared" si="3"/>
         <v>-0.73199999999999998</v>
       </c>
-      <c r="G29">
+      <c r="G32">
         <v>13628.4</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="33" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>-0.999</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>8.6370000000000005</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F33" s="1">
         <f t="shared" si="3"/>
         <v>-0.91263000000000005</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>1.67</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="35" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="F33" s="1">
-        <f>D33+E33*0.1</f>
+      <c r="F36" s="1">
+        <f>D36+E36*0.1</f>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>-0.79600000000000004</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>0.76200000000000001</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34:F57" si="4">D34+E34*0.1</f>
+      <c r="F37" s="1">
+        <f t="shared" ref="F37:F63" si="4">D37+E37*0.1</f>
         <v>-0.7198</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>14.82</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="38" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>-0.90700000000000003</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>1.355</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F38" s="1">
         <f t="shared" si="4"/>
         <v>-0.77150000000000007</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>1.38</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>29</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F39" s="1">
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="D37">
+      <c r="D40">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F40" s="1">
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F41" s="1">
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>-0.80600000000000005</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="F39" s="1">
-        <f>D42+E42*0.1</f>
-        <v>0.4880000000000001</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40">
-        <v>-0.76500000000000001</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1">
-        <f>D43+E43*0.1</f>
-        <v>-0.73100000000000009</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41">
-        <v>-0.71399999999999997</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41" s="1">
-        <f>D44+E44*0.1</f>
-        <v>7.8999999999999959E-2</v>
-      </c>
-      <c r="G41">
-        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>-0.91200000000000003</v>
+        <v>-0.80600000000000005</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1">
-        <f>D42+E42*0.1</f>
+        <f>D45+E45*0.1</f>
         <v>0.4880000000000001</v>
       </c>
       <c r="G42" t="s">
@@ -2070,19 +2195,19 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>-0.93100000000000005</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" s="1">
-        <f>D43+E43*0.1</f>
+        <f>D46+E46*0.1</f>
         <v>-0.73100000000000009</v>
       </c>
       <c r="G43" t="s">
@@ -2091,19 +2216,19 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>-0.92100000000000004</v>
+        <v>-0.71399999999999997</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44" s="1">
-        <f>D44+E44*0.1</f>
+        <f>D47+E47*0.1</f>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="G44">
@@ -2112,117 +2237,117 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1">
+        <f>D45+E45*0.1</f>
+        <v>0.4880000000000001</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>-0.93100000000000005</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <f>D46+E46*0.1</f>
+        <v>-0.73100000000000009</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <v>-0.92100000000000004</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <f>D47+E47*0.1</f>
+        <v>7.8999999999999959E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D48" s="1">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F48" s="1">
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D49" s="1">
         <v>-0.76500000000000001</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F49" s="1">
         <f t="shared" si="4"/>
         <v>-0.56499999999999995</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="1">
-        <v>-0.94899999999999995</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-0.76500000000000001</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.56499999999999995</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49">
-        <v>-0.94899999999999995</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G49">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>-0.94899999999999995</v>
       </c>
       <c r="E50">
@@ -2232,37 +2357,37 @@
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G50" s="7">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>165</v>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>85</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51">
-        <v>-0.94899999999999995</v>
+        <v>69</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-0.76500000000000001</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G51">
-        <v>0.14000000000000001</v>
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52">
         <v>-0.94899999999999995</v>
@@ -2275,15 +2400,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G52">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D53">
         <v>-0.94899999999999995</v>
@@ -2295,16 +2420,16 @@
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G53">
-        <v>0.6</v>
+      <c r="G53" s="7">
+        <v>0.13</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D54">
         <v>-0.94899999999999995</v>
@@ -2317,15 +2442,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G54">
-        <v>0.85</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55">
         <v>-0.94899999999999995</v>
@@ -2338,15 +2463,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G55">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D56">
         <v>-0.94899999999999995</v>
@@ -2359,15 +2484,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G56">
-        <v>0.69</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57">
         <v>-0.94899999999999995</v>
@@ -2380,226 +2505,226 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G57">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G58">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G59">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G60">
         <v>0.24</v>
       </c>
     </row>
-    <row r="59" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="61" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G62">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G63">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C66" t="s">
         <v>27</v>
       </c>
-      <c r="D60">
+      <c r="D66">
         <v>-4.7359999999999998</v>
       </c>
-      <c r="E60">
+      <c r="E66">
         <v>9.8680000000000003</v>
       </c>
-      <c r="F60" s="1">
-        <f t="shared" ref="F60:F84" si="5">D60+E60*0.01</f>
+      <c r="F66" s="1">
+        <f t="shared" ref="F66:F93" si="5">D66+E66*0.01</f>
         <v>-4.6373199999999999</v>
       </c>
-      <c r="G60">
+      <c r="G66">
         <v>40.481000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>89</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C67" t="s">
         <v>28</v>
       </c>
-      <c r="D61">
+      <c r="D67">
         <v>-4.6550000000000002</v>
       </c>
-      <c r="E61">
+      <c r="E67">
         <v>2.5179999999999998</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F67" s="1">
         <f t="shared" si="5"/>
         <v>-4.6298200000000005</v>
       </c>
-      <c r="G61">
+      <c r="G67">
         <v>1143.44</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="68" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D62">
+      <c r="D68">
         <v>-4.734</v>
       </c>
-      <c r="E62">
+      <c r="E68">
         <v>7.0789999999999997</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F68" s="1">
         <f t="shared" si="5"/>
         <v>-4.6632100000000003</v>
       </c>
-      <c r="G62">
+      <c r="G68">
         <v>151.85</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>90</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C69" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D69" s="1">
         <v>-4.67</v>
       </c>
-      <c r="E63">
+      <c r="E69">
         <v>30</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F69" s="1">
         <f t="shared" si="5"/>
         <v>-4.37</v>
       </c>
-      <c r="G63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64">
-        <v>-0.20300000000000001</v>
-      </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="1">
-        <v>-4.62</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.5200000000000005</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>-4.6440000000000001</v>
-      </c>
-      <c r="E66">
-        <v>56</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.0839999999999996</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="1">
-        <v>-0.28199999999999997</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.22199999999999998</v>
-      </c>
-      <c r="G67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68">
-        <v>-4.1040000000000001</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.0040000000000004</v>
-      </c>
-      <c r="G68">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="1">
-        <v>-4.7220000000000004</v>
-      </c>
-      <c r="E69">
-        <v>38</v>
-      </c>
-      <c r="F69" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.3420000000000005</v>
-      </c>
       <c r="G69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D70">
         <v>-0.20300000000000001</v>
@@ -2617,20 +2742,20 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1">
-        <v>-4.5810000000000004</v>
+        <v>-4.62</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="5"/>
-        <v>-4.4810000000000008</v>
+        <v>-4.5200000000000005</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
@@ -2638,560 +2763,560 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D72">
-        <v>-2.8780000000000001</v>
+        <v>-4.6440000000000001</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="5"/>
-        <v>-2.8380000000000001</v>
-      </c>
-      <c r="G72">
-        <v>0.57999999999999996</v>
+        <v>-4.0839999999999996</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D73" s="1">
-        <v>-1.272</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="5"/>
-        <v>-1.212</v>
-      </c>
-      <c r="G73">
-        <v>0.18</v>
+        <v>-0.22199999999999998</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-4.1040000000000001</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4.0040000000000004</v>
       </c>
       <c r="G74">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
       </c>
       <c r="D75" s="1">
-        <v>-0.156</v>
+        <v>-4.7220000000000004</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="5"/>
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="G75">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>-4.3420000000000005</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
       </c>
       <c r="D76">
-        <v>-4.6859999999999999</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="E76">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="5"/>
-        <v>-4.4660000000000002</v>
-      </c>
-      <c r="G76">
-        <v>19.510000000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>35</v>
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>36</v>
       </c>
       <c r="D77" s="1">
-        <v>-1.1319999999999999</v>
+        <v>-4.5810000000000004</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="5"/>
-        <v>-1.0719999999999998</v>
-      </c>
-      <c r="G77">
-        <v>20.02</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>-4.4810000000000008</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
       </c>
       <c r="D78">
-        <v>-4.6660000000000004</v>
+        <v>-2.8780000000000001</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="5"/>
-        <v>-4.5660000000000007</v>
+        <v>-2.8380000000000001</v>
       </c>
       <c r="G78">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>43</v>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
       </c>
       <c r="D79" s="1">
-        <v>-4.6440000000000001</v>
+        <v>-1.272</v>
       </c>
       <c r="E79">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="5"/>
-        <v>-4.0839999999999996</v>
+        <v>-1.212</v>
       </c>
       <c r="G79">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>37</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
       </c>
       <c r="D80">
-        <v>-1.1319999999999999</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="5"/>
-        <v>-1.0919999999999999</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>14.34</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D81" s="1">
-        <v>-4.681</v>
+        <v>-0.156</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="5"/>
-        <v>-4.5810000000000004</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="G81">
-        <v>48.04</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D82">
-        <v>-4.5179999999999998</v>
+        <v>-4.6859999999999999</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="5"/>
-        <v>-4.3179999999999996</v>
+        <v>-4.4660000000000002</v>
       </c>
       <c r="G82">
-        <v>79.12</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D83" s="1">
-        <v>-1.548</v>
+        <v>-1.1319999999999999</v>
       </c>
       <c r="E83">
         <v>6</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="5"/>
-        <v>-1.488</v>
+        <v>-1.0719999999999998</v>
       </c>
       <c r="G83">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D84">
-        <v>-4.681</v>
+        <v>-4.6660000000000004</v>
       </c>
       <c r="E84">
         <v>10</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="5"/>
+        <v>-4.5660000000000007</v>
+      </c>
+      <c r="G84">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-4.6440000000000001</v>
+      </c>
+      <c r="E85">
+        <v>56</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.0839999999999996</v>
+      </c>
+      <c r="G85">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86">
+        <v>-1.1319999999999999</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0919999999999999</v>
+      </c>
+      <c r="G86">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-4.681</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="5"/>
         <v>-4.5810000000000004</v>
       </c>
-      <c r="G84">
+      <c r="G87">
+        <v>48.04</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-4.7220000000000004</v>
+      </c>
+      <c r="E88">
+        <v>38</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.3420000000000005</v>
+      </c>
+      <c r="G88">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-1.1319999999999999</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0719999999999998</v>
+      </c>
+      <c r="G89">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-4.6660000000000004</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5660000000000007</v>
+      </c>
+      <c r="G90">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91">
+        <v>-4.5179999999999998</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.3179999999999996</v>
+      </c>
+      <c r="G91">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-1.548</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.488</v>
+      </c>
+      <c r="G92">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93">
+        <v>-4.681</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5810000000000004</v>
+      </c>
+      <c r="G93">
         <v>88.38</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="95" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>129</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C96" t="s">
         <v>27</v>
       </c>
-      <c r="D87">
+      <c r="D96">
         <v>-3.9990000000000001</v>
       </c>
-      <c r="E87">
+      <c r="E96">
         <v>4.5519999999999996</v>
       </c>
-      <c r="F87" s="1">
-        <f t="shared" ref="F87:F111" si="6">D87+E87*0.01</f>
+      <c r="F96" s="1">
+        <f t="shared" ref="F96:F123" si="6">D96+E96*0.01</f>
         <v>-3.9534800000000003</v>
       </c>
-      <c r="G87">
+      <c r="G96">
         <v>0.71</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>130</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C97" t="s">
         <v>28</v>
       </c>
-      <c r="D88">
+      <c r="D97">
         <v>-3.9929999999999999</v>
       </c>
-      <c r="E88">
+      <c r="E97">
         <v>3.4289999999999998</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F97" s="1">
         <f t="shared" si="6"/>
         <v>-3.95871</v>
       </c>
-      <c r="G88">
+      <c r="G97">
         <v>133.13999999999999</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H97" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="98" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>131</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D89">
+      <c r="D98">
         <v>-3.9990000000000001</v>
       </c>
-      <c r="E89">
+      <c r="E98">
         <v>3.6829999999999998</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F98" s="1">
         <f t="shared" si="6"/>
         <v>-3.96217</v>
       </c>
-      <c r="G89">
+      <c r="G98">
         <v>43.35</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>132</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C99" t="s">
         <v>29</v>
       </c>
-      <c r="D90">
+      <c r="D99">
         <v>-3.9980000000000002</v>
       </c>
-      <c r="E90">
+      <c r="E99">
         <v>42</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F99" s="1">
         <f t="shared" si="6"/>
         <v>-3.5780000000000003</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>133</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C100" t="s">
         <v>30</v>
-      </c>
-      <c r="D91">
-        <v>-3.8839999999999999</v>
-      </c>
-      <c r="E91">
-        <v>6</v>
-      </c>
-      <c r="F91" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92">
-        <v>-3.92</v>
-      </c>
-      <c r="E92">
-        <v>10</v>
-      </c>
-      <c r="F92" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.82</v>
-      </c>
-      <c r="G92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93">
-        <v>-3.9940000000000002</v>
-      </c>
-      <c r="E93">
-        <v>46</v>
-      </c>
-      <c r="F93" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.5340000000000003</v>
-      </c>
-      <c r="G93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94">
-        <v>-3.8839999999999999</v>
-      </c>
-      <c r="E94">
-        <v>6</v>
-      </c>
-      <c r="F94" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95">
-        <v>-3.9279999999999999</v>
-      </c>
-      <c r="E95">
-        <v>10</v>
-      </c>
-      <c r="F95" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8279999999999998</v>
-      </c>
-      <c r="G95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96">
-        <v>-3.9990000000000001</v>
-      </c>
-      <c r="E96">
-        <v>38</v>
-      </c>
-      <c r="F96" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.6190000000000002</v>
-      </c>
-      <c r="G96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97">
-        <v>-3.8839999999999999</v>
-      </c>
-      <c r="E97">
-        <v>6</v>
-      </c>
-      <c r="F97" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G97" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98">
-        <v>-3.9260000000000002</v>
-      </c>
-      <c r="E98">
-        <v>10</v>
-      </c>
-      <c r="F98" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8260000000000001</v>
-      </c>
-      <c r="G98" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-      <c r="F99" s="1">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="G99">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" t="s">
-        <v>62</v>
       </c>
       <c r="D100">
         <v>-3.8839999999999999</v>
@@ -3203,238 +3328,490 @@
         <f t="shared" si="6"/>
         <v>-3.8239999999999998</v>
       </c>
-      <c r="G100">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>-3.92</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="G101">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-3.82</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>69</v>
+        <v>135</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
       </c>
       <c r="D102">
-        <v>-3.8839999999999999</v>
+        <v>-3.9940000000000002</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G102">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B103" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>42</v>
+        <v>-3.5340000000000003</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
       </c>
       <c r="D103">
-        <v>-3.9980000000000002</v>
+        <v>-3.8839999999999999</v>
       </c>
       <c r="E103">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="6"/>
-        <v>-3.5780000000000003</v>
-      </c>
-      <c r="G103">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B104" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>35</v>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
       </c>
       <c r="D104">
-        <v>-3.8839999999999999</v>
+        <v>-3.9279999999999999</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G104">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B105" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>36</v>
+        <v>-3.8279999999999998</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
       </c>
       <c r="D105">
-        <v>-3.9620000000000002</v>
+        <v>-3.9990000000000001</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8620000000000001</v>
-      </c>
-      <c r="G105">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B106" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>43</v>
+        <v>-3.6190000000000002</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
       </c>
       <c r="D106">
-        <v>-3.9940000000000002</v>
+        <v>-3.8839999999999999</v>
       </c>
       <c r="E106">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="6"/>
-        <v>-3.5340000000000003</v>
-      </c>
-      <c r="G106">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B107" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>37</v>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" t="s">
+        <v>36</v>
       </c>
       <c r="D107">
-        <v>-3.8839999999999999</v>
+        <v>-3.9260000000000002</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G107">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>38</v>
+        <v>-3.8260000000000001</v>
+      </c>
+      <c r="G107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
       </c>
       <c r="D108">
-        <v>-3.9710000000000001</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="6"/>
-        <v>-3.871</v>
+        <v>0.02</v>
       </c>
       <c r="G108">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>44</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" t="s">
+        <v>62</v>
       </c>
       <c r="D109">
-        <v>-3.9889999999999999</v>
+        <v>-3.8839999999999999</v>
       </c>
       <c r="E109">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8489999999999998</v>
+        <v>-3.8239999999999998</v>
       </c>
       <c r="G109">
-        <v>22.66</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B110" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>39</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
       </c>
       <c r="D110">
-        <v>-3.8839999999999999</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="G110">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B111" s="2" t="s">
-        <v>148</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D111">
-        <v>-3.992</v>
+        <v>-3.8839999999999999</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G111">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112">
+        <v>-3.9980000000000002</v>
+      </c>
+      <c r="E112">
+        <v>42</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5780000000000003</v>
+      </c>
+      <c r="G112">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G113">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114">
+        <v>-3.9620000000000002</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8620000000000001</v>
+      </c>
+      <c r="G114">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115">
+        <v>-3.9940000000000002</v>
+      </c>
+      <c r="E115">
+        <v>46</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5340000000000003</v>
+      </c>
+      <c r="G115">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G116">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117">
+        <v>-3.9710000000000001</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.871</v>
+      </c>
+      <c r="G117">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118">
+        <v>-3.9990000000000001</v>
+      </c>
+      <c r="E118">
+        <v>38</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.6190000000000002</v>
+      </c>
+      <c r="G118">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G119">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120">
+        <v>-3.9750000000000001</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.875</v>
+      </c>
+      <c r="G120">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121">
+        <v>-3.9889999999999999</v>
+      </c>
+      <c r="E121">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8489999999999998</v>
+      </c>
+      <c r="G121">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G122">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123">
+        <v>-3.992</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="6"/>
         <v>-3.8919999999999999</v>
       </c>
-      <c r="G111">
+      <c r="G123">
         <v>13.8</v>
       </c>
     </row>
@@ -3446,10 +3823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
-  <dimension ref="B1:H79"/>
+  <dimension ref="B1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3892,1150 +4269,1539 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="8">
-        <v>5.9270000000000003E-10</v>
+    <row r="20" spans="2:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20">
+        <v>2E-3</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20+E20*0.001</f>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="G20">
+        <v>56.97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21+E21*0.001</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G21">
+        <v>84.95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22">
+        <v>1E-3</v>
       </c>
       <c r="E22">
-        <v>26.161999999999999</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
-        <f>D22+E22*0.0001</f>
-        <v>2.6162005927000001E-3</v>
+        <f>D22+E22*0.001</f>
+        <v>3.9E-2</v>
       </c>
       <c r="G22">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="8">
-        <v>8.0709999999999997E-7</v>
-      </c>
-      <c r="E23">
-        <v>15.099</v>
-      </c>
-      <c r="F23" s="1">
-        <f>D23+E23*0.0001</f>
-        <v>1.5107071000000001E-3</v>
-      </c>
-      <c r="G23">
-        <v>150.25</v>
-      </c>
-      <c r="H23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="8">
-        <v>4.0629999999999999E-6</v>
-      </c>
-      <c r="E24">
-        <v>23.481000000000002</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ref="F23:F39" si="1">D24+E24*0.0001</f>
-        <v>2.352163E-3</v>
-      </c>
-      <c r="G24">
-        <v>432.73</v>
-      </c>
-    </row>
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5.9270000000000003E-10</v>
+      </c>
+      <c r="E25">
+        <v>26.161999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25+E25*0.0001</f>
+        <v>2.6162005927000001E-3</v>
+      </c>
+      <c r="G25">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8.0709999999999997E-7</v>
+      </c>
+      <c r="E26">
+        <v>15.099</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26+E26*0.0001</f>
+        <v>1.5107071000000001E-3</v>
+      </c>
+      <c r="G26">
+        <v>150.25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4.0629999999999999E-6</v>
+      </c>
+      <c r="E27">
+        <v>23.481000000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F42" si="1">D27+E27*0.0001</f>
+        <v>2.352163E-3</v>
+      </c>
+      <c r="G27">
+        <v>432.73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>1E-3</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>491</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F28" s="1">
         <f t="shared" si="1"/>
         <v>5.0100000000000006E-2</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>178</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>0.78200000000000003</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>53</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F29" s="1">
         <f t="shared" si="1"/>
         <v>0.7873</v>
       </c>
-      <c r="G26">
+      <c r="G29">
         <v>28.46</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>179</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>0.65400000000000003</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>39</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F30" s="1">
         <f t="shared" si="1"/>
         <v>0.65790000000000004</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <v>67.41</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D28">
+      <c r="D31">
         <v>1E-3</v>
       </c>
-      <c r="E28">
+      <c r="E31">
         <v>467</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F31" s="1">
         <f t="shared" si="1"/>
         <v>4.7700000000000006E-2</v>
       </c>
-      <c r="G28">
+      <c r="G31">
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>183</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>47</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F32" s="1">
         <f t="shared" si="1"/>
         <v>0.52170000000000005</v>
       </c>
-      <c r="G29">
+      <c r="G32">
         <v>38.42</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>184</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>39</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F33" s="1">
         <f t="shared" si="1"/>
         <v>0.62290000000000001</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>67.3</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="34" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>1E-3</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>480</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F34" s="1">
         <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>186</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>0.314</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>51</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F35" s="1">
         <f t="shared" si="1"/>
         <v>0.31909999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G35">
         <v>22.86</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>187</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>0.69699999999999995</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>39</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F36" s="1">
         <f t="shared" si="1"/>
         <v>0.70089999999999997</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>67.22</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="37" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D37" s="8">
         <v>4.5560000000000002E-4</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>479</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F37" s="1">
         <f t="shared" si="1"/>
         <v>4.8355600000000006E-2</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>27.82</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="38" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>1E-3</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>38</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F38" s="1">
         <f t="shared" si="1"/>
         <v>4.8000000000000004E-3</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>208.79</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="39" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D39" s="8">
         <v>9.4689999999999998E-4</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>40</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F39" s="1">
         <f t="shared" si="1"/>
         <v>4.9468999999999997E-3</v>
       </c>
-      <c r="G36">
+      <c r="G39">
         <v>153.63</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    <row r="40" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D40" s="8">
         <v>5.0730000000000003E-4</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>441</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F40" s="1">
         <f t="shared" si="1"/>
         <v>4.4607300000000003E-2</v>
       </c>
-      <c r="G37">
+      <c r="G40">
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="41" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>1E-3</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>48</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F41" s="1">
         <f t="shared" si="1"/>
         <v>5.8000000000000005E-3</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <v>157.57</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="42" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D42" s="8">
         <v>7.4489999999999995E-4</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>40</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F42" s="1">
         <f t="shared" si="1"/>
         <v>4.7448999999999998E-3</v>
       </c>
-      <c r="G39">
+      <c r="G42">
         <v>157.87</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="47" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>193</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" t="s">
         <v>27</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <v>0.16900000000000001</v>
       </c>
-      <c r="E42">
+      <c r="E48">
         <v>16</v>
       </c>
-      <c r="F42" s="1">
-        <f>D42+E42*0.01</f>
+      <c r="F48" s="1">
+        <f>D48+E48*0.01</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="G42">
+      <c r="G48">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>202</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C49" t="s">
         <v>28</v>
       </c>
-      <c r="D43">
+      <c r="D49">
         <v>0.191</v>
       </c>
-      <c r="E43">
+      <c r="E49">
         <v>6.0940000000000003</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" ref="F43:F59" si="2">D43+E43*0.01</f>
+      <c r="F49" s="1">
+        <f t="shared" ref="F49:F68" si="2">D49+E49*0.01</f>
         <v>0.25194</v>
       </c>
-      <c r="G43">
+      <c r="G49">
         <v>21.75</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+    <row r="50" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D44">
+      <c r="D50">
         <v>0.124</v>
       </c>
-      <c r="E44">
+      <c r="E50">
         <v>9.4190000000000005</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F50" s="1">
         <f t="shared" si="2"/>
         <v>0.21819</v>
       </c>
-      <c r="G44">
+      <c r="G50">
         <v>79.55</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>194</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="D45">
+      <c r="D51">
         <v>0.17</v>
       </c>
-      <c r="E45">
+      <c r="E51">
         <v>16</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F51" s="1">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>195</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="D46">
+      <c r="D52">
         <v>0.24299999999999999</v>
       </c>
-      <c r="E46">
+      <c r="E52">
         <v>10</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F52" s="1">
         <f t="shared" si="2"/>
         <v>0.34299999999999997</v>
       </c>
-      <c r="G46">
+      <c r="G52">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>196</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C53" t="s">
         <v>31</v>
       </c>
-      <c r="D47">
+      <c r="D53">
         <v>0.17</v>
       </c>
-      <c r="E47">
+      <c r="E53">
         <v>16</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F53" s="1">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="G47">
+      <c r="G53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>204</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>32</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <v>0.19</v>
       </c>
-      <c r="E48">
+      <c r="E54">
         <v>41</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F54" s="1">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>205</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C55" t="s">
         <v>33</v>
       </c>
-      <c r="D49">
+      <c r="D55">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E49">
+      <c r="E55">
         <v>7</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F55" s="1">
         <f t="shared" si="2"/>
         <v>0.35499999999999998</v>
       </c>
-      <c r="G49">
+      <c r="G55">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>206</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C56" t="s">
         <v>34</v>
       </c>
-      <c r="D50">
+      <c r="D56">
         <v>0.191</v>
       </c>
-      <c r="E50">
+      <c r="E56">
         <v>32</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F56" s="1">
         <f t="shared" si="2"/>
         <v>0.51100000000000001</v>
       </c>
-      <c r="G50">
+      <c r="G56">
         <v>0.72</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+    <row r="57" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C57" t="s">
         <v>59</v>
       </c>
-      <c r="D51">
+      <c r="D57">
         <v>0.33200000000000002</v>
       </c>
-      <c r="E51">
+      <c r="E57">
         <v>24</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F57" s="1">
         <f t="shared" si="2"/>
         <v>0.57200000000000006</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>208</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C58" t="s">
         <v>35</v>
       </c>
-      <c r="D52">
+      <c r="D58">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E52">
+      <c r="E58">
         <v>6</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F58" s="1">
         <f t="shared" si="2"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="G52">
+      <c r="G58">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>209</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C59" t="s">
         <v>36</v>
       </c>
-      <c r="D53">
+      <c r="D59">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E53">
+      <c r="E59">
         <v>15</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F59" s="1">
         <f t="shared" si="2"/>
         <v>0.74299999999999999</v>
       </c>
-      <c r="G53">
+      <c r="G59">
         <v>0.52</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="60" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D54">
+      <c r="D60">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E54">
+      <c r="E60">
         <v>9</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F60" s="1">
         <f t="shared" si="2"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="G54">
+      <c r="G60">
         <v>12.69</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+    <row r="61" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D55">
+      <c r="D61">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E55">
+      <c r="E61">
         <v>9</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F61" s="1">
         <f t="shared" si="2"/>
         <v>0.28500000000000003</v>
       </c>
-      <c r="G55">
+      <c r="G61">
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+    <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D56">
+      <c r="D62">
         <v>0.17</v>
       </c>
-      <c r="E56">
+      <c r="E62">
         <v>16</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F62" s="1">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="G56">
+      <c r="G62">
         <v>0.91</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+    <row r="63" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D57">
+      <c r="D63">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E57">
+      <c r="E63">
         <v>9</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F63" s="1">
         <f t="shared" si="2"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="G57">
+      <c r="G63">
         <v>30.09</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
+    <row r="64" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D58">
+      <c r="D64">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E58">
+      <c r="E64">
         <v>9</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F64" s="1">
         <f t="shared" si="2"/>
         <v>0.28500000000000003</v>
       </c>
-      <c r="G58">
+      <c r="G64">
         <v>21.46</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+    <row r="65" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D59">
+      <c r="D65">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E59">
+      <c r="E65">
         <v>16</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F65" s="1">
         <f t="shared" si="2"/>
         <v>0.33199999999999996</v>
       </c>
-      <c r="G59">
+      <c r="G65">
         <v>12.58</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="66" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G66">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29600000000000004</v>
+      </c>
+      <c r="G67">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="2"/>
+        <v>0.373</v>
+      </c>
+      <c r="G68">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>213</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C71" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D71" s="8">
         <v>1.004E-10</v>
       </c>
-      <c r="E62">
+      <c r="E71">
         <v>29.846</v>
       </c>
-      <c r="F62" s="1">
-        <f>D62+E62*0.0001</f>
+      <c r="F71" s="1">
+        <f>D71+E71*0.0001</f>
         <v>2.9846001004E-3</v>
       </c>
-      <c r="G62">
+      <c r="G71">
         <v>1.26</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>217</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C72" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D72" s="8">
         <v>3.653E-6</v>
       </c>
-      <c r="E63">
+      <c r="E72">
         <v>16.795000000000002</v>
       </c>
-      <c r="F63" s="1">
-        <f t="shared" ref="F63:F79" si="3">D63+E63*0.0001</f>
+      <c r="F72" s="1">
+        <f t="shared" ref="F72:F91" si="3">D72+E72*0.0001</f>
         <v>1.6831530000000002E-3</v>
       </c>
-      <c r="G63">
+      <c r="G72">
         <v>100.59</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H72" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+    <row r="73" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D73" s="8">
         <v>8.4270000000000008E-6</v>
       </c>
-      <c r="E64">
+      <c r="E73">
         <v>24.347999999999999</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F73" s="1">
         <f t="shared" si="3"/>
         <v>2.4432270000000001E-3</v>
       </c>
-      <c r="G64">
+      <c r="G73">
         <v>348.96</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>214</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C74" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D74" s="9">
         <v>1E-3</v>
       </c>
-      <c r="E65">
+      <c r="E74">
         <v>266</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F74" s="1">
         <f t="shared" si="3"/>
         <v>2.7600000000000003E-2</v>
       </c>
-      <c r="G65">
+      <c r="G74">
         <v>0.03</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>215</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C75" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D75" s="9">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E66">
+      <c r="E75">
         <v>37</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F75" s="1">
         <f t="shared" si="3"/>
         <v>0.54270000000000007</v>
       </c>
-      <c r="G66">
+      <c r="G75">
         <v>7.92</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>216</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C76" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D76" s="9">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E67">
+      <c r="E76">
         <v>38</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F76" s="1">
         <f t="shared" si="3"/>
         <v>0.32880000000000004</v>
       </c>
-      <c r="G67">
+      <c r="G76">
         <v>64.36</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>219</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C77" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D77" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E68">
+      <c r="E77">
         <v>279</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F77" s="1">
         <f t="shared" si="3"/>
         <v>3.09E-2</v>
       </c>
-      <c r="G68">
+      <c r="G77">
         <v>0.03</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>220</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C78" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D78" s="9">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E69">
+      <c r="E78">
         <v>27</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F78" s="1">
         <f t="shared" si="3"/>
         <v>0.1787</v>
       </c>
-      <c r="G69">
+      <c r="G78">
         <v>25.79</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>221</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C79" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D79" s="9">
         <v>0.214</v>
       </c>
-      <c r="E70">
+      <c r="E79">
         <v>39</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F79" s="1">
         <f t="shared" si="3"/>
         <v>0.21789999999999998</v>
       </c>
-      <c r="G70">
+      <c r="G79">
         <v>64.7</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
+    <row r="80" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C80" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D80" s="9">
         <v>2E-3</v>
       </c>
-      <c r="E71">
+      <c r="E80">
         <v>276</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F80" s="1">
         <f t="shared" si="3"/>
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="G71">
+      <c r="G80">
         <v>0.04</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>223</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C81" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D81" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E72">
+      <c r="E81">
         <v>36</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F81" s="1">
         <f t="shared" si="3"/>
         <v>0.29359999999999997</v>
       </c>
-      <c r="G72">
+      <c r="G81">
         <v>8.89</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>224</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C82" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D82" s="9">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E73">
+      <c r="E82">
         <v>40</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F82" s="1">
         <f t="shared" si="3"/>
         <v>0.28799999999999998</v>
       </c>
-      <c r="G73">
+      <c r="G82">
         <v>64.62</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="83" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>225</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D83" s="8">
         <v>5.5900000000000004E-4</v>
       </c>
-      <c r="E74">
+      <c r="E83">
         <v>262</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F83" s="1">
         <f t="shared" si="3"/>
         <v>2.6759000000000002E-2</v>
       </c>
-      <c r="G74">
+      <c r="G83">
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
+    <row r="84" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D84" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E75">
+      <c r="E84">
         <v>33</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F84" s="1">
         <f t="shared" si="3"/>
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="G75">
+      <c r="G84">
         <v>150.25</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
+    <row r="85" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D85" s="9">
         <v>1E-3</v>
       </c>
-      <c r="E76">
+      <c r="E85">
         <v>39</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F85" s="1">
         <f t="shared" si="3"/>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="G76">
+      <c r="G85">
         <v>113.02</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
+    <row r="86" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D86" s="8">
         <v>8.5079999999999997E-4</v>
       </c>
-      <c r="E77">
+      <c r="E86">
         <v>263</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F86" s="1">
         <f t="shared" si="3"/>
         <v>2.7150799999999999E-2</v>
       </c>
-      <c r="G77">
+      <c r="G86">
         <v>25.57</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
+    <row r="87" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D87" s="9">
         <v>1E-3</v>
       </c>
-      <c r="E78">
+      <c r="E87">
         <v>30</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F87" s="1">
         <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G78">
+      <c r="G87">
         <v>107.17</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+    <row r="88" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D88" s="9">
         <v>2E-3</v>
       </c>
-      <c r="E79">
+      <c r="E88">
         <v>40</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F88" s="1">
         <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G79">
+      <c r="G88">
         <v>82.44</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E89">
+        <v>256</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G89">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E90">
+        <v>34</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G90">
+        <v>169.47</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E91">
+        <v>39</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G91">
+        <v>129.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842C86B-7D36-B04D-B09B-8D3C95D38C2E}">
+  <dimension ref="B1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE12B4-C7BB-1545-86DE-196C8BE3139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7576038-8115-4F47-9843-06802E3F2266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -3825,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
   <dimension ref="B1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4392,7 +4392,7 @@
         <v>23.481000000000002</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27:F42" si="1">D27+E27*0.0001</f>
+        <f t="shared" ref="F27:F45" si="1">D27+E27*0.0001</f>
         <v>2.352163E-3</v>
       </c>
       <c r="G27">
@@ -4721,8 +4721,19 @@
       <c r="C43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="F43" s="1"/>
+      <c r="D43" s="8">
+        <v>6.1320000000000005E-4</v>
+      </c>
+      <c r="E43">
+        <v>471</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7713200000000004E-2</v>
+      </c>
+      <c r="G43">
+        <v>26.22</v>
+      </c>
     </row>
     <row r="44" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
@@ -4731,8 +4742,19 @@
       <c r="C44" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="F44" s="1"/>
+      <c r="D44" s="8">
+        <v>8.2229999999999998E-4</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7222999999999996E-3</v>
+      </c>
+      <c r="G44">
+        <v>139.69</v>
+      </c>
     </row>
     <row r="45" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
@@ -4741,8 +4763,19 @@
       <c r="C45" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="F45" s="1"/>
+      <c r="D45" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G45">
+        <v>155.07</v>
+      </c>
     </row>
     <row r="47" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7576038-8115-4F47-9843-06802E3F2266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F510B2-499D-384D-BEB3-AEA7F364F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="270">
   <si>
     <t>Name</t>
   </si>
@@ -864,6 +864,18 @@
   </si>
   <si>
     <t>CNOT_evotime15.0_n_ts300_ptypeCONSTANT_offset0.5_objUNIT_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch20_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch20</t>
+  </si>
+  <si>
+    <t>t_f=10</t>
+  </si>
+  <si>
+    <t>t_f=20</t>
+  </si>
+  <si>
+    <t>t_f=5</t>
+  </si>
+  <si>
+    <t>t_f=15</t>
   </si>
 </sst>
 </file>
@@ -895,7 +907,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +917,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -938,6 +962,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88:C90"/>
+    <sheetView topLeftCell="A107" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,52 +1354,52 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="16">
         <v>-0.999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="16">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="16">
         <v>-0.995</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="16">
         <v>29.56</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>-0.999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>0.56699999999999995</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="14">
         <f>D4+E4*0.01</f>
         <v>-0.99333000000000005</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>1.77</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3823,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
-  <dimension ref="B1:H91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3837,7 +3879,7 @@
     <col min="8" max="8" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3857,7 +3899,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="B2" t="s">
         <v>110</v>
       </c>
@@ -3878,7 +3923,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -3902,7 +3948,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>114</v>
       </c>
@@ -3926,7 +3973,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>115</v>
       </c>
@@ -3950,7 +3998,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -3974,7 +4023,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>117</v>
       </c>
@@ -3998,7 +4048,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -4022,7 +4073,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>119</v>
       </c>
@@ -4044,7 +4096,8 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>120</v>
       </c>
@@ -4066,7 +4119,8 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>121</v>
       </c>
@@ -4090,7 +4144,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -4112,7 +4167,8 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>123</v>
       </c>
@@ -4134,7 +4190,8 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
       <c r="B14" t="s">
         <v>180</v>
       </c>
@@ -4158,7 +4215,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>125</v>
       </c>
@@ -4182,7 +4240,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>124</v>
       </c>
@@ -4206,7 +4265,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
@@ -4227,7 +4287,8 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
@@ -4248,7 +4309,8 @@
         <v>51.37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
@@ -4269,7 +4331,8 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>257</v>
       </c>
@@ -4290,7 +4353,8 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
         <v>258</v>
       </c>
@@ -4311,7 +4375,8 @@
         <v>84.95</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
         <v>259</v>
       </c>
@@ -4332,8 +4397,11 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="B25" t="s">
         <v>174</v>
       </c>
@@ -4354,7 +4422,8 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
         <v>175</v>
       </c>
@@ -4378,7 +4447,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>176</v>
       </c>
@@ -4399,7 +4469,8 @@
         <v>432.73</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
       <c r="B28" t="s">
         <v>177</v>
       </c>
@@ -4420,7 +4491,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>178</v>
       </c>
@@ -4441,7 +4513,8 @@
         <v>28.46</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
       <c r="B30" t="s">
         <v>179</v>
       </c>
@@ -4462,7 +4535,8 @@
         <v>67.41</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
       <c r="B31" t="s">
         <v>182</v>
       </c>
@@ -4483,7 +4557,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
       <c r="B32" t="s">
         <v>183</v>
       </c>
@@ -4504,7 +4579,8 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
       <c r="B33" t="s">
         <v>184</v>
       </c>
@@ -4525,7 +4601,8 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>185</v>
       </c>
@@ -4546,7 +4623,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>186</v>
       </c>
@@ -4567,7 +4645,8 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>187</v>
       </c>
@@ -4588,7 +4667,8 @@
         <v>67.22</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
       <c r="B37" t="s">
         <v>181</v>
       </c>
@@ -4609,7 +4689,8 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
       <c r="B38" s="2" t="s">
         <v>188</v>
       </c>
@@ -4630,7 +4711,8 @@
         <v>208.79</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
       <c r="B39" s="2" t="s">
         <v>189</v>
       </c>
@@ -4651,7 +4733,8 @@
         <v>153.63</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
       <c r="B40" s="2" t="s">
         <v>190</v>
       </c>
@@ -4672,7 +4755,8 @@
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
       <c r="B41" s="2" t="s">
         <v>191</v>
       </c>
@@ -4693,7 +4777,8 @@
         <v>157.57</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
       <c r="B42" s="2" t="s">
         <v>192</v>
       </c>
@@ -4714,7 +4799,8 @@
         <v>157.87</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
       <c r="B43" s="2" t="s">
         <v>260</v>
       </c>
@@ -4735,7 +4821,8 @@
         <v>26.22</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
       <c r="B44" s="2" t="s">
         <v>261</v>
       </c>
@@ -4756,7 +4843,8 @@
         <v>139.69</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
       <c r="B45" s="2" t="s">
         <v>262</v>
       </c>
@@ -4777,8 +4865,11 @@
         <v>155.07</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>268</v>
+      </c>
       <c r="B48" t="s">
         <v>193</v>
       </c>
@@ -4799,7 +4890,8 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
       <c r="B49" t="s">
         <v>202</v>
       </c>
@@ -4823,7 +4915,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
       <c r="B50" s="2" t="s">
         <v>203</v>
       </c>
@@ -4844,7 +4937,8 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
       <c r="B51" t="s">
         <v>194</v>
       </c>
@@ -4865,7 +4959,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
       <c r="B52" t="s">
         <v>195</v>
       </c>
@@ -4886,7 +4981,8 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
       <c r="B53" t="s">
         <v>196</v>
       </c>
@@ -4907,7 +5003,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
       <c r="B54" t="s">
         <v>204</v>
       </c>
@@ -4928,7 +5025,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
       <c r="B55" t="s">
         <v>205</v>
       </c>
@@ -4949,7 +5047,8 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
       <c r="B56" t="s">
         <v>206</v>
       </c>
@@ -4970,7 +5069,8 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
       <c r="B57" s="2" t="s">
         <v>207</v>
       </c>
@@ -4991,7 +5091,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
       <c r="B58" t="s">
         <v>208</v>
       </c>
@@ -5012,7 +5113,8 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
       <c r="B59" t="s">
         <v>209</v>
       </c>
@@ -5033,7 +5135,8 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
       <c r="B60" t="s">
         <v>210</v>
       </c>
@@ -5054,7 +5157,8 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
       <c r="B61" s="2" t="s">
         <v>197</v>
       </c>
@@ -5075,7 +5179,8 @@
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
       <c r="B62" s="2" t="s">
         <v>198</v>
       </c>
@@ -5096,7 +5201,8 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
       <c r="B63" s="2" t="s">
         <v>200</v>
       </c>
@@ -5117,7 +5223,8 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
       <c r="B64" s="2" t="s">
         <v>199</v>
       </c>
@@ -5138,7 +5245,8 @@
         <v>21.46</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
       <c r="B65" s="2" t="s">
         <v>201</v>
       </c>
@@ -5159,7 +5267,8 @@
         <v>12.58</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
       <c r="B66" s="2" t="s">
         <v>254</v>
       </c>
@@ -5180,7 +5289,8 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>255</v>
       </c>
@@ -5201,7 +5311,8 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
       <c r="B68" s="2" t="s">
         <v>256</v>
       </c>
@@ -5222,8 +5333,11 @@
         <v>33.99</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>269</v>
+      </c>
       <c r="B71" t="s">
         <v>213</v>
       </c>
@@ -5244,7 +5358,8 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
       <c r="B72" t="s">
         <v>217</v>
       </c>
@@ -5268,7 +5383,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
       <c r="B73" s="2" t="s">
         <v>218</v>
       </c>
@@ -5289,7 +5405,8 @@
         <v>348.96</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
       <c r="B74" t="s">
         <v>214</v>
       </c>
@@ -5310,7 +5427,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
       <c r="B75" t="s">
         <v>215</v>
       </c>
@@ -5331,7 +5449,8 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="18"/>
       <c r="B76" t="s">
         <v>216</v>
       </c>
@@ -5352,7 +5471,8 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
       <c r="B77" t="s">
         <v>219</v>
       </c>
@@ -5373,7 +5493,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="18"/>
       <c r="B78" t="s">
         <v>220</v>
       </c>
@@ -5394,7 +5515,8 @@
         <v>25.79</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="18"/>
       <c r="B79" t="s">
         <v>221</v>
       </c>
@@ -5415,7 +5537,8 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
       <c r="B80" s="2" t="s">
         <v>222</v>
       </c>
@@ -5436,7 +5559,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
       <c r="B81" t="s">
         <v>223</v>
       </c>
@@ -5457,7 +5581,8 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
       <c r="B82" t="s">
         <v>224</v>
       </c>
@@ -5478,7 +5603,8 @@
         <v>64.62</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
       <c r="B83" t="s">
         <v>225</v>
       </c>
@@ -5499,7 +5625,8 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
       <c r="B84" s="2" t="s">
         <v>211</v>
       </c>
@@ -5520,7 +5647,8 @@
         <v>150.25</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
       <c r="B85" s="2" t="s">
         <v>212</v>
       </c>
@@ -5541,7 +5669,8 @@
         <v>113.02</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
       <c r="B86" s="2" t="s">
         <v>227</v>
       </c>
@@ -5562,7 +5691,8 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="18"/>
       <c r="B87" s="2" t="s">
         <v>226</v>
       </c>
@@ -5583,7 +5713,8 @@
         <v>107.17</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
       <c r="B88" s="2" t="s">
         <v>228</v>
       </c>
@@ -5604,7 +5735,8 @@
         <v>82.44</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="18"/>
       <c r="B89" s="2" t="s">
         <v>263</v>
       </c>
@@ -5625,7 +5757,8 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
       <c r="B90" s="2" t="s">
         <v>264</v>
       </c>
@@ -5646,7 +5779,8 @@
         <v>169.47</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
       <c r="B91" s="2" t="s">
         <v>265</v>
       </c>
@@ -5668,6 +5802,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="A48:A68"/>
+    <mergeCell ref="A71:A91"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F510B2-499D-384D-BEB3-AEA7F364F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC55121-B04C-0649-8F9C-EC99D4E9AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="271">
   <si>
     <t>Name</t>
   </si>
@@ -876,6 +877,9 @@
   </si>
   <si>
     <t>t_f=15</t>
+  </si>
+  <si>
+    <t>l2 norm</t>
   </si>
 </sst>
 </file>
@@ -3867,7 +3871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
@@ -5814,19 +5818,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842C86B-7D36-B04D-B09B-8D3C95D38C2E}">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="8" max="8" width="45.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="9" max="9" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5840,89 +5845,120 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E2">
+        <v>15.271000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2+E2*0.0001</f>
+        <v>1.75271E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>91.605999999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D3" s="8">
+        <v>1.5590000000000001E-9</v>
+      </c>
+      <c r="E3">
+        <v>18.867999999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6.9650000000000002E-7</v>
+      </c>
+      <c r="H3">
+        <v>0.39</v>
+      </c>
+      <c r="I3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>35</v>
       </c>
@@ -5974,6 +6010,149 @@
     </row>
     <row r="26" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
+  <dimension ref="B2:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC55121-B04C-0649-8F9C-EC99D4E9AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E3E79-6B83-9A47-9BB1-3B3DE9288FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="346">
   <si>
     <t>Name</t>
   </si>
@@ -880,6 +880,252 @@
   </si>
   <si>
     <t>l2 norm</t>
+  </si>
+  <si>
+    <t>sum_penalty=1.0</t>
+  </si>
+  <si>
+    <t>alpha=0.0001, beta=0.5, iterations=100</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_
+eta0.001_threshold30_iter100_typetvc.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
+minup10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
+SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
+maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
+_threshold30_iter100_typetvc_minup10.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
+_threshold30_iter100_typetvc_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.0001_sigma0.25
+_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10_sigma0.25_eta0.001
+_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8_sigma0.25_
+eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR_alpha0.0001_sigma0.25_
+eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
+SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
+_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+TR</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+Minup</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+Maxswitch</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
+_threshold30_iter100_typetvc_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8_sigma0.25_eta0.001_
+threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10_sigma0.25_eta0.001_
+threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
+minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
+maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>instance of molecule example with H2</t>
+  </si>
+  <si>
+    <t>ADMM+ST</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+ST</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+ST+Minup</t>
+  </si>
+  <si>
+    <t>ADMM+ST+Minup</t>
+  </si>
+  <si>
+    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch2_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch2_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch10_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch10_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_LiH_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
+_threshold30_iter100_typetvc_minup10.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8_sigma0.25_
+eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR_alpha0.0001_sigma0.25_
+eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_
+eta0.001_threshold30_iter100_typetvc.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10.log</t>
+  </si>
+  <si>
+    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch2_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch2_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch10_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch10_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_minup10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_SUR.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.00_threshold30_iter100_typetvc_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.0001_sigma0.2_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>instance of molecule example with LiH</t>
+  </si>
+  <si>
+    <t>sum_penalty=0.1</t>
+  </si>
+  <si>
+    <t>Molecule2_LiH_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0</t>
   </si>
 </sst>
 </file>
@@ -3872,7 +4118,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+      <selection activeCell="C89" sqref="C89:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5821,7 +6067,7 @@
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6020,140 +6266,1593 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
-  <dimension ref="B2:B26"/>
+  <dimension ref="B1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="8">
+        <v>4.3679999999999999E-7</v>
+      </c>
+      <c r="E2">
+        <v>25.515999999999998</v>
+      </c>
+      <c r="F2" s="8">
+        <f>D2+E2*0.0001</f>
+        <v>2.5520368E-3</v>
+      </c>
+      <c r="G2">
+        <v>167.48099999999999</v>
+      </c>
+      <c r="H2">
+        <v>1.42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="8">
+        <v>2.4830000000000002E-7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18.72</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F23" si="0">D3+E3*0.0001</f>
+        <v>1.8722483000000001E-3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5.553E-7</v>
+      </c>
+      <c r="H3">
+        <v>3.01</v>
+      </c>
+      <c r="I3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="8">
+        <v>5.3229999999999997E-7</v>
+      </c>
+      <c r="E4">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0563230000000002E-4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2.1660000000000002E-9</v>
+      </c>
+      <c r="H4">
+        <v>54.19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="8">
+        <v>2.8770000000000001E-5</v>
+      </c>
+      <c r="E5">
+        <v>15.753</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6040700000000002E-3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6.8670000000000005E-4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>167.13499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D6" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E6">
+        <v>102</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="9">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4200000000000003E-2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6008</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="D11" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="D12" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="D13" s="9">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2954</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="D14" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>60.76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="D15" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="D16" s="9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.72E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="9">
+        <v>0.245</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1">
+        <f>D22+E22*0.0001</f>
+        <v>0.2462</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24+E24*0.0001</f>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25+E25*0.0001</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D26" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26+E26*0.0001</f>
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27+E27*0.0001</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28+E28*0.0001</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29+E29*0.0001</f>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D30+E30*0.0001</f>
+        <v>4.82E-2</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.246</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <f>D31+E31*0.0001</f>
+        <v>0.2462</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.5309999999999998E-10</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1">
+        <f>D32+E32*0.0001</f>
+        <v>2.0000002531000002E-3</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.749</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1">
+        <f>D33+E33*0.0001</f>
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>339.31900000000002</v>
+      </c>
+      <c r="F38" s="8">
+        <f>D38+E38*0.0001</f>
+        <v>7.99319E-2</v>
+      </c>
+      <c r="G38">
+        <v>7090.22</v>
+      </c>
+      <c r="H38">
+        <v>327.06</v>
+      </c>
+      <c r="I38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.126</v>
+      </c>
+      <c r="E39" s="1">
+        <v>32.523000000000003</v>
+      </c>
+      <c r="F39" s="8">
+        <f>D39+E39*0.0001</f>
+        <v>0.12925230000000001</v>
+      </c>
+      <c r="G39" s="8">
+        <v>6.7670000000000002E-4</v>
+      </c>
+      <c r="H39">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="8">
+        <v>5.3229999999999997E-7</v>
+      </c>
+      <c r="E40">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" ref="F39:F57" si="1">D40+E40*0.0001</f>
+        <v>2.0563230000000002E-4</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2.1660000000000002E-9</v>
+      </c>
+      <c r="H40">
+        <v>54.19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2.8770000000000001E-5</v>
+      </c>
+      <c r="E41">
+        <v>15.753</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6040700000000002E-3</v>
+      </c>
+      <c r="G41" s="8">
+        <v>6.8670000000000005E-4</v>
+      </c>
+      <c r="H41" s="3">
+        <v>167.13499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E42">
+        <v>102</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4200000000000003E-2</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6008</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E48">
+        <v>64</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2954</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E50">
+        <v>26</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>60.76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E51">
+        <v>34</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E53">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E54">
+        <v>22</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E57">
+        <v>32</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>1.72E-2</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.245</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1">
+        <f>D58+E58*0.0001</f>
+        <v>0.2462</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" ref="F59" si="2">D59+E59*0.0001</f>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E60">
+        <v>64</v>
+      </c>
+      <c r="F60" s="1">
+        <f>D60+E60*0.0001</f>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <f>D61+E61*0.0001</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62" s="1">
+        <f>D62+E62*0.0001</f>
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1">
+        <f>D63+E63*0.0001</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
+        <f>D64+E64*0.0001</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E65">
+        <v>18</v>
+      </c>
+      <c r="F65" s="1">
+        <f>D65+E65*0.0001</f>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <f>D66+E66*0.0001</f>
+        <v>4.82E-2</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.246</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <f>D67+E67*0.0001</f>
+        <v>0.2462</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D68" s="8">
+        <v>2.5309999999999998E-10</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68" s="1">
+        <f>D68+E68*0.0001</f>
+        <v>2.0000002531000002E-3</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.749</v>
+      </c>
+      <c r="E69">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1">
+        <f>D69+E69*0.0001</f>
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>4.5599999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E3E79-6B83-9A47-9BB1-3B3DE9288FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583855BD-C793-2241-8B62-2D29A00FD9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="413">
   <si>
     <t>Name</t>
   </si>
@@ -885,247 +885,431 @@
     <t>sum_penalty=1.0</t>
   </si>
   <si>
-    <t>alpha=0.0001, beta=0.5, iterations=100</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_SUR.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_minup10.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+TR</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+Minup</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+Maxswitch</t>
+  </si>
+  <si>
+    <t>ADMM+ST</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+ST</t>
+  </si>
+  <si>
+    <t>GRAPE+L2+TRC+ST+Minup</t>
+  </si>
+  <si>
+    <t>ADMM+ST+Minup</t>
+  </si>
+  <si>
+    <t>sum_penalty=0.1</t>
+  </si>
+  <si>
+    <t>alpha=0.001, beta=0.5, iterations=100</t>
+  </si>
+  <si>
+    <t>instance of MoleculeNew example with H2</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8_sigma0.25_
+eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10_sigma0.25_eta0.001_
+threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>instance of MoleculeNew example with LiH</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.001_ADMM_0.5_iter100_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.001_ADMM_0.5_iter100_minup10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.001_ADMM_0.5_iter100_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.001_ADMM_0.5_iter100</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.001_sigma0.25_
 eta0.001_threshold30_iter100_typetvc.log</t>
   </si>
   <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
-minup10.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
-SUR.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
-maxswitch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
-_threshold30_iter100_typetvc_minup10.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
-_threshold30_iter100_typetvc_maxswitch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.0001_sigma0.25
-_eta0.001_threshold30_iter100_typetv.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10_sigma0.25_eta0.001
-_threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8_sigma0.25_
-eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR_alpha0.0001_sigma0.25_
-eta0.001_threshold30_iter100_typetv.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
-SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
-_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>GRAPE+L2+TRC+TR</t>
-  </si>
-  <si>
-    <t>GRAPE+L2+TRC+Minup</t>
-  </si>
-  <si>
-    <t>GRAPE+L2+TRC+Maxswitch</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
-_threshold30_iter100_typetvc_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8_sigma0.25_eta0.001_
-threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10_sigma0.25_eta0.001_
-threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
-minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_
-maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>instance of molecule example with H2</t>
-  </si>
-  <si>
-    <t>ADMM+ST</t>
-  </si>
-  <si>
-    <t>GRAPE+L2+TRC+ST</t>
-  </si>
-  <si>
-    <t>GRAPE+L2+TRC+ST+Minup</t>
-  </si>
-  <si>
-    <t>ADMM+ST+Minup</t>
-  </si>
-  <si>
-    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch2_initwarm_minuptime0.0.log</t>
-  </si>
-  <si>
-    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch2_initwarm_minuptime0.5.log</t>
-  </si>
-  <si>
-    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch10_initwarm_minuptime0.0.log</t>
-  </si>
-  <si>
-    <t>MoleculeST_H2_evotime_4.0_n_ts80_n_switch10_initwarm_minuptime0.5.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime5.0_n_ts100_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_LiH_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001
-_threshold30_iter100_typetvc_minup10.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8_sigma0.25_
-eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR_alpha0.0001_sigma0.25_
-eta0.001_threshold30_iter100_typetv.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_
-eta0.001_threshold30_iter100_typetvc.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10.log</t>
-  </si>
-  <si>
-    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch2_initwarm_minuptime0.0.log</t>
-  </si>
-  <si>
-    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch2_initwarm_minuptime0.5.log</t>
-  </si>
-  <si>
-    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch10_initwarm_minuptime0.0.log</t>
-  </si>
-  <si>
-    <t>MoleculeST_LiH_evotime_15.0_n_ts150_n_switch10_initwarm_minuptime0.5.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_maxswitch8.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_minup10.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_SUR.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.00_threshold30_iter100_typetvc_maxswitch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.0001_sigma0.2_eta0.001_threshold30_iter100_typetv.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>MoleculeADMM_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.0001_ADMM_0.5_iter100_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>Molecule_LiH_evotime15.0_n_ts150_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
-  </si>
-  <si>
-    <t>instance of molecule example with LiH</t>
-  </si>
-  <si>
-    <t>sum_penalty=0.1</t>
-  </si>
-  <si>
-    <t>Molecule2_LiH_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0</t>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.001_ADMM_0.5_iter100_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.001_ADMM_0.5_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_sum_penalty1.0_penalty0.001_ADMM_0.5_iter100_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>MoleculeSTNew_H2_evotime_4.0_n_ts80_n_switch2_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeSTNew_H2_evotime_4.0_n_ts80_n_switch2_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeSTNew_H2_evotime_4.0_n_ts80_n_switch10_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeSTNew_H2_evotime_4.0_n_ts80_n_switch10_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty1.0_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime8.0_n_ts80_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_SUR.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_minup10.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime8.0_n_ts80_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_SUR.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime8.0_n_ts80_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_minup10.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime8.0_n_ts80_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime8.0_n_ts80_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime8.0_n_ts80_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime8.0_n_ts80_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>HadamardST2_evotime_8.0_n_ts80_n_switch7_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>HadamardST2_evotime_8.0_n_ts80_n_switch7_initwarm_minuptime1.0.log</t>
+  </si>
+  <si>
+    <t>HadamardST2_evotime_8.0_n_ts80_n_switch14_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>HadamardST2_evotime_8.0_n_ts80_n_switch14_initwarm_minuptime1.0.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM3_evotime12.0_n_ts120_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_minup10.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM3_evotime12.0_n_ts120_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM3_evotime12.0_n_ts120_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM3_evotime12.0_n_ts120_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM3_evotime12.0_n_ts120_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup10_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc_maxswitch8_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM2_evotime12.0_n_ts120_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_alpha0.0001_sigma0.25_eta0.001_threshold30_iter100_typetvc.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_SUR.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_minup10.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_SUR.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_minup10.log</t>
+  </si>
+  <si>
+    <t>HadamardADMM3_evotime12.0_n_ts120_ptypeWARM_offset0.5_sum_penalty0.01_penalty0.0001_ADMM_0.5_iter100_SUR.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.log</t>
+  </si>
+  <si>
+    <t>Hadamard2_evotime8.0_n_ts80_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_maxswitch8.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0_maxswitch12.log</t>
+  </si>
+  <si>
+    <t>Hadamard3_evotime12.0_n_ts120_ptypeWARM_offset0.5_objUNIT_sum_penalty0.01_maxswitch12.log</t>
+  </si>
+  <si>
+    <t>HadamardST3_evotime_12.0_n_ts120_n_switch17_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>HadamardST3_evotime_12.0_n_ts120_n_switch17_initwarm_minuptime1.0.log</t>
+  </si>
+  <si>
+    <t>HadamardST3_evotime_8.0_n_ts80_n_switch49_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>HadamardST3_evotime_8.0_n_ts80_n_switch49_initwarm_minuptime1.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew_H2_evotime4.0_n_ts80_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1</t>
+  </si>
+  <si>
+    <t>min-up-time steps: 10</t>
+  </si>
+  <si>
+    <t>min-up time steps: 5</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_sum_penalty0.1_penalty0.001_ADMM_0.5_iter100</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_H2_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_minup5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_maxswitch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_sum_penalty0.1_penalty0.001_ADMM_0.5_iter100_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_sum_penalty0.1_penalty0.001_ADMM_0.5_iter100_minup5.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_sum_penalty0.1_penalty0.001_ADMM_0.5_iter100_maxswitch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_alpha0.001_sigma0.25_eta0.001
+_threshold30_iter100_typetvc_minup5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_alpha0.001_sigma0.25_eta0.00_threshold30_iter100_typetvc_maxswitch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_SUR_alpha0.001_sigma0.2_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_minup5_sigma0.25_eta0.001_threshold30_iter100_typeminup_time5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0_maxswitch40_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_minup5_sigma0.25_eta0.001_threshold30_iter100_typeminup_time10.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_maxswitch40_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_sum_penalty0.1_penalty0.001_ADMM_0.5_iter100_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_sum_penalty0.1_penalty0.001_ADMM_0.5_iter100_minup5_sigma0.25_eta0.001_threshold30_iter100_typeminup_time5.log</t>
+  </si>
+  <si>
+    <t>MoleculeADMMNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_sum_penalty0.1_penalty0.001_ADMM_0.5_iter100_maxswitch40_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.1_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_SUR_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetv.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_alpha0.001_sigma0.25_eta0.001_threshold30_iter100_typetvc_minup5_sigma0.25_eta0.001_threshold30_iter100_typeminup_time5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNew3_LiH_evotime20.0_n_ts200_ptypeWARM_offset0.5_objUNIT_sum_penalty0.1_alpha0.001_sigma0.25_eta0.00_threshold30_iter100_typetvc_maxswitch40_sigma0.25_eta0.001_threshold30_iter100_typemaxswitch_switch40.log</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch8_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch8_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch38_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch38_initwarm_minuptime0.5.log</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1231,6 +1415,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
       <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
@@ -4117,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C89" sqref="C89:C91"/>
     </sheetView>
   </sheetViews>
@@ -6064,14 +6251,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842C86B-7D36-B04D-B09B-8D3C95D38C2E}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="89.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="9" max="9" width="45.1640625" customWidth="1"/>
@@ -6101,6 +6289,9 @@
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
@@ -6122,6 +6313,9 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
       <c r="C3" t="s">
         <v>229</v>
       </c>
@@ -6131,6 +6325,10 @@
       <c r="E3">
         <v>18.867999999999999</v>
       </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F33" si="0">D3+E3*0.0001</f>
+        <v>1.886801559E-3</v>
+      </c>
       <c r="G3" s="8">
         <v>6.9650000000000002E-7</v>
       </c>
@@ -6141,122 +6339,1501 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" s="8">
+        <v>1.2480000000000001E-7</v>
+      </c>
+      <c r="E4">
+        <v>3.698</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6992479999999999E-4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.156E-4</v>
+      </c>
+      <c r="H4">
+        <v>36.82</v>
+      </c>
       <c r="I4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="D5" s="8">
+        <v>1.011E-5</v>
+      </c>
+      <c r="E5">
+        <v>17.265000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7366100000000002E-3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.2279999999999998E-4</v>
+      </c>
+      <c r="H5">
+        <v>153.77000000000001</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
+      <c r="D6" s="9">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E6">
+        <v>126</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="9">
+        <v>0.876</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.877</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>15.72</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
+      <c r="D8" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
       <c r="C9" t="s">
         <v>231</v>
       </c>
+      <c r="D9" s="9">
+        <v>0.193</v>
+      </c>
+      <c r="E9">
+        <v>136</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>322</v>
+      </c>
       <c r="C10" t="s">
         <v>232</v>
       </c>
+      <c r="D10" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95119999999999993</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>371</v>
+      </c>
       <c r="C11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="9">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="9">
+        <v>0.224</v>
+      </c>
+      <c r="E12">
+        <v>154</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2394</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="9">
+        <v>0.747</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="9">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E15">
+        <v>136</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="9">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60439999999999994</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="9">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>60.62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E18">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="9">
+        <v>0.627</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E21">
+        <v>128</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10579999999999999</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E24">
+        <v>154</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="9">
+        <v>0.193</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1938</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.126</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>134</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3448</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>4.02E-2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95439999999999992</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5.3090000000000002E-5</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2530900000000001E-3</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E39">
+        <v>50.935000000000002</v>
+      </c>
+      <c r="F39" s="1">
+        <f>D39+E39*0.0001</f>
+        <v>0.1030935</v>
+      </c>
+      <c r="G39" s="1">
+        <v>555.36699999999996</v>
+      </c>
+      <c r="H39">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="8">
+        <v>3.5870000000000003E-8</v>
+      </c>
+      <c r="E40">
+        <v>75.215999999999994</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40:F70" si="1">D40+E40*0.0001</f>
+        <v>7.5216358699999996E-3</v>
+      </c>
+      <c r="G40" s="8">
+        <v>5.9340000000000003E-6</v>
+      </c>
+      <c r="H40">
+        <v>24.83</v>
+      </c>
+      <c r="I40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.8770000000000002E-5</v>
+      </c>
+      <c r="E41">
+        <v>15.026999999999999</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>1.52147E-3</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1.156E-4</v>
+      </c>
+      <c r="H41">
+        <v>110.19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.1070000000000001E-5</v>
+      </c>
+      <c r="E42">
+        <v>74.037999999999997</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4148700000000005E-3</v>
+      </c>
+      <c r="G42" s="8">
+        <v>8.5979999999999997E-4</v>
+      </c>
+      <c r="H42">
+        <v>390.11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0.749</v>
+      </c>
+      <c r="E43" s="19">
+        <v>168</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="1"/>
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9556</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E45">
+        <v>70</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>367</v>
+      </c>
+      <c r="C46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E46">
+        <v>166</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60059999999999991</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E48">
+        <v>66</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77260000000000006</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E49">
+        <v>220</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E51">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93480000000000008</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>61.97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.623</v>
+      </c>
+      <c r="E52">
+        <v>168</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E54">
+        <v>70</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.156</v>
+      </c>
+      <c r="E55">
+        <v>144</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1704</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>34.67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.221</v>
+      </c>
+      <c r="E57">
+        <v>54</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>33.71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E58">
+        <v>160</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16099999999999998</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>18.010000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39840000000000003</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="E60">
+        <v>72</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23720000000000002</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E61">
+        <v>212</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1542</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4264</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E63">
+        <v>62</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17120000000000002</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="E64">
+        <v>170</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.187</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>28.23</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.435</v>
+      </c>
+      <c r="E65">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E67">
+        <v>28</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E68">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E69">
+        <v>22</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E70">
+        <v>22</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -6268,14 +7845,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="101" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
@@ -6303,7 +7881,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -6314,9 +7892,9 @@
       <c r="E2">
         <v>25.515999999999998</v>
       </c>
-      <c r="F2" s="8">
-        <f>D2+E2*0.0001</f>
-        <v>2.5520368E-3</v>
+      <c r="F2" s="1">
+        <f>D2+E2*0.001</f>
+        <v>2.55164368E-2</v>
       </c>
       <c r="G2">
         <v>167.48099999999999</v>
@@ -6325,12 +7903,12 @@
         <v>1.42</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>229</v>
@@ -6341,9 +7919,9 @@
       <c r="E3" s="1">
         <v>18.72</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F23" si="0">D3+E3*0.0001</f>
-        <v>1.8722483000000001E-3</v>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F33" si="0">D3+E3*0.001</f>
+        <v>1.8720248299999999E-2</v>
       </c>
       <c r="G3" s="8">
         <v>5.553E-7</v>
@@ -6357,58 +7935,58 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="8">
-        <v>5.3229999999999997E-7</v>
+        <v>1.326E-5</v>
       </c>
       <c r="E4">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="F4" s="8">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>2.0563230000000002E-4</v>
+        <v>2.7572600000000005E-3</v>
       </c>
       <c r="G4" s="8">
-        <v>2.1660000000000002E-9</v>
+        <v>3.0629999999999998E-7</v>
       </c>
       <c r="H4">
-        <v>54.19</v>
+        <v>39.86</v>
       </c>
       <c r="I4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D5" s="8">
-        <v>2.8770000000000001E-5</v>
+        <v>1.237E-4</v>
       </c>
       <c r="E5">
-        <v>15.753</v>
-      </c>
-      <c r="F5" s="8">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.6040700000000002E-3</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6.8670000000000005E-4</v>
+        <v>8.5446999999999988E-3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H5" s="3">
-        <v>167.13499999999999</v>
+        <v>154.05000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -6419,20 +7997,23 @@
       <c r="E6">
         <v>102</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>0.92920000000000003</v>
+        <v>1.0210000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>0.89</v>
+        <v>0.85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -6445,42 +8026,42 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>0.71</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>29.77</v>
+        <v>32.47</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="9">
-        <v>0.89500000000000002</v>
+      <c r="D8" s="1">
+        <v>0.77</v>
       </c>
       <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>0.89800000000000002</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>1.77</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
         <v>231</v>
@@ -6491,44 +8072,44 @@
       <c r="E9">
         <v>32</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>2.4200000000000003E-2</v>
+        <v>5.3000000000000005E-2</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.91800000000000004</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="1">
         <v>0.6</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>0.6008</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
         <v>233</v>
@@ -6539,81 +8120,81 @@
       <c r="E11">
         <v>22</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>2.8199999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E12">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1">
+        <v>80</v>
+      </c>
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>1.2400000000000001E-2</v>
+        <v>0.11599999999999999</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="9">
-        <v>0.29499999999999998</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>0.2954</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <v>2.27</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>5.6599999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -6624,127 +8205,127 @@
     </row>
     <row r="15" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E15">
         <v>34</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>3.1399999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="9">
-        <v>0.57899999999999996</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E16">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>0.57979999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="9">
-        <v>2.5999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E17">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>2.8199999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="9">
-        <v>2.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E18">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>2.6200000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>6.88</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>7.4000000000000003E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="9">
-        <v>5.57</v>
+      <c r="H19" s="3">
+        <v>5.4</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -6755,33 +8336,33 @@
       <c r="E20">
         <v>18</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>4.8000000000000004E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>5.35</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D21" s="9">
-        <v>1.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1">
+        <v>28</v>
+      </c>
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>1.72E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -6792,7 +8373,7 @@
     </row>
     <row r="22" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>235</v>
@@ -6803,20 +8384,20 @@
       <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22" s="1">
-        <f>D22+E22*0.0001</f>
-        <v>0.2462</v>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>15.67</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>236</v>
@@ -6827,177 +8408,177 @@
       <c r="E23">
         <v>18</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>1.5800000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <v>64</v>
-      </c>
-      <c r="F24" s="1">
-        <f>D24+E24*0.0001</f>
-        <v>1.2400000000000001E-2</v>
+        <v>68</v>
+      </c>
+      <c r="F24" s="9">
+        <f>D24+E24*0.001</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
-        <v>1.8</v>
+      <c r="H24" s="3">
+        <v>4.7</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <f>D25+E25*0.0001</f>
-        <v>7.1999999999999998E-3</v>
+        <v>10</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>6.38</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F26" s="1">
-        <f>D26+E26*0.0001</f>
-        <v>6.8000000000000005E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.03</v>
       </c>
       <c r="G26" s="9">
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>5.85</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D27" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1">
-        <f>D27+E27*0.0001</f>
-        <v>1.6E-2</v>
+        <v>32</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D28" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <f>D28+E28*0.0001</f>
-        <v>5.5E-2</v>
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>4.8099999999999996</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D29" s="9">
-        <v>1.4E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E29">
-        <v>18</v>
-      </c>
-      <c r="F29" s="1">
-        <f>D29+E29*0.0001</f>
-        <v>1.5800000000000002E-2</v>
+        <v>22</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D30" s="9">
-        <v>4.8000000000000001E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
-        <f>D30+E30*0.0001</f>
-        <v>4.82E-2</v>
+        <v>4</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G30" s="9">
         <v>0</v>
@@ -7008,851 +8589,854 @@
     </row>
     <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D31" s="9">
-        <v>0.246</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" s="1">
-        <f>D31+E31*0.0001</f>
-        <v>0.2462</v>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D32" s="8">
-        <v>2.5309999999999998E-10</v>
+        <v>279</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E32">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1">
-        <f>D32+E32*0.0001</f>
-        <v>2.0000002531000002E-3</v>
+        <v>8</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D33" s="9">
-        <v>0.749</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="E33">
-        <v>14</v>
-      </c>
-      <c r="F33" s="1">
-        <f>D33+E33*0.0001</f>
-        <v>0.75039999999999996</v>
+        <v>8</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
       </c>
       <c r="H33" s="9">
-        <v>4.5599999999999996</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>2.683E-6</v>
       </c>
       <c r="E38">
-        <v>339.31900000000002</v>
-      </c>
-      <c r="F38" s="8">
-        <f>D38+E38*0.0001</f>
-        <v>7.99319E-2</v>
+        <v>487.33</v>
+      </c>
+      <c r="F38" s="1">
+        <f>D38+E38*0.001</f>
+        <v>0.48733268299999999</v>
       </c>
       <c r="G38">
-        <v>7090.22</v>
+        <v>6966.2030000000004</v>
       </c>
       <c r="H38">
-        <v>327.06</v>
+        <v>585.96</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="C39" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="8">
-        <v>0.126</v>
+      <c r="D39" s="1">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>32.523000000000003</v>
-      </c>
-      <c r="F39" s="8">
-        <f>D39+E39*0.0001</f>
-        <v>0.12925230000000001</v>
-      </c>
-      <c r="G39" s="8">
-        <v>6.7670000000000002E-4</v>
+        <v>61.305</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ref="F39:F69" si="1">D39+E39*0.001</f>
+        <v>0.120305</v>
+      </c>
+      <c r="G39" s="9">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H39">
-        <v>75.040000000000006</v>
+        <v>427.35</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="8">
-        <v>5.3229999999999997E-7</v>
+      <c r="D40" s="9">
+        <v>6.2E-2</v>
       </c>
       <c r="E40">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" ref="F39:F57" si="1">D40+E40*0.0001</f>
-        <v>2.0563230000000002E-4</v>
-      </c>
-      <c r="G40" s="8">
-        <v>2.1660000000000002E-9</v>
+        <v>9.7609999999999992</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1760999999999991E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H40">
-        <v>54.19</v>
+        <v>647.66999999999996</v>
       </c>
       <c r="I40" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D41" s="8">
-        <v>2.8770000000000001E-5</v>
+      <c r="D41" s="9">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E41">
-        <v>15.753</v>
-      </c>
-      <c r="F41" s="8">
+        <v>57.478999999999999</v>
+      </c>
+      <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>1.6040700000000002E-3</v>
-      </c>
-      <c r="G41" s="8">
-        <v>6.8670000000000005E-4</v>
+        <v>0.116479</v>
+      </c>
+      <c r="G41" s="9">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H41" s="3">
-        <v>167.13499999999999</v>
+        <v>1170.396</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="9">
-        <v>0.91900000000000004</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="E42">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>0.92920000000000003</v>
+        <v>1.256</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" s="9">
-        <v>0.89</v>
+        <v>12.45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="9">
-        <v>0.70899999999999996</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43" s="9">
+        <v>44</v>
+      </c>
+      <c r="F43" s="1">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G43" s="9">
         <v>0</v>
       </c>
-      <c r="H43" s="9">
-        <v>29.77</v>
+      <c r="H43" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="9">
-        <v>0.89500000000000002</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>0.89800000000000002</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <v>1.77</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
         <v>231</v>
       </c>
       <c r="D45" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>0.183</v>
       </c>
       <c r="E45">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
-        <v>2.4200000000000003E-2</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G45" s="9">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0.91800000000000004</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
         <v>232</v>
       </c>
       <c r="D46" s="9">
-        <v>0.6</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
-        <v>0.6008</v>
+        <v>1.03</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>0.92</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="C47" t="s">
         <v>233</v>
       </c>
       <c r="D47" s="9">
-        <v>2.5999999999999999E-2</v>
+        <v>0.186</v>
       </c>
       <c r="E47">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="1"/>
-        <v>2.8199999999999999E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>1.42</v>
+        <v>44.21</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E48">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>1.2400000000000001E-2</v>
+        <v>0.56099999999999994</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <v>1.19</v>
+        <v>71.34</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="9">
-        <v>0.29499999999999998</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
-        <v>0.2954</v>
+        <v>0.877</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>2.27</v>
+        <v>70.92</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="E50">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="1"/>
-        <v>5.6599999999999998E-2</v>
+        <v>0.746</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
       </c>
       <c r="H50" s="9">
-        <v>60.76</v>
+        <v>70.849999999999994</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>0.184</v>
       </c>
       <c r="E51">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
-        <v>3.1399999999999997E-2</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
       </c>
       <c r="H51" s="9">
-        <v>0.92</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="9">
-        <v>0.57899999999999996</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
-        <v>0.57979999999999998</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="G52" s="9">
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <v>0.88</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
       </c>
       <c r="D53" s="9">
-        <v>2.5999999999999999E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>2.8199999999999999E-2</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <v>1.73</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="9">
-        <v>2.4E-2</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="E54">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
-        <v>2.6200000000000001E-2</v>
+        <v>0.749</v>
       </c>
       <c r="G54" s="9">
         <v>0</v>
       </c>
-      <c r="H54" s="9">
-        <v>6.88</v>
+      <c r="H54" s="3">
+        <v>39.9</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>7.4000000000000003E-3</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="G55" s="9">
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <v>5.57</v>
+        <v>88.08</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D56" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E56">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
-        <v>4.8000000000000004E-3</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
       </c>
       <c r="H56" s="9">
-        <v>5.35</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D57" s="9">
-        <v>1.4E-2</v>
+        <v>0.183</v>
       </c>
       <c r="E57">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>1.72E-2</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G57" s="9">
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <v>3.21</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="9">
-        <v>0.245</v>
+      <c r="D58" s="1">
+        <v>0.62</v>
       </c>
       <c r="E58">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F58" s="1">
-        <f>D58+E58*0.0001</f>
-        <v>0.2462</v>
+        <f t="shared" si="1"/>
+        <v>0.64</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
       </c>
       <c r="H58" s="9">
-        <v>15.67</v>
+        <v>60.18</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D59" s="9">
-        <v>1.4E-2</v>
+        <v>0.186</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" ref="F59" si="2">D59+E59*0.0001</f>
-        <v>1.5800000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.45600000000000002</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <v>2.81</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D60" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E60">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="F60" s="1">
-        <f>D60+E60*0.0001</f>
-        <v>1.2400000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.56099999999999994</v>
       </c>
       <c r="G60" s="9">
         <v>0</v>
       </c>
       <c r="H60" s="9">
-        <v>1.8</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1">
-        <f>D61+E61*0.0001</f>
-        <v>7.1999999999999998E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.55699999999999994</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
       </c>
       <c r="H61" s="9">
-        <v>6.38</v>
+        <v>96.51</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="F62" s="1">
-        <f>D62+E62*0.0001</f>
-        <v>6.8000000000000005E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.53600000000000003</v>
       </c>
       <c r="G62" s="9">
         <v>0</v>
       </c>
       <c r="H62" s="9">
-        <v>5.85</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D63" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="F63" s="1">
-        <f>D63+E63*0.0001</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.44600000000000006</v>
       </c>
       <c r="G63" s="9">
         <v>0</v>
       </c>
-      <c r="H63" s="9">
-        <v>2.91</v>
+      <c r="H63" s="3">
+        <v>27.2</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D64" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F64" s="1">
-        <f>D64+E64*0.0001</f>
-        <v>5.5E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.98199999999999998</v>
       </c>
       <c r="G64" s="9">
         <v>0</v>
       </c>
       <c r="H64" s="9">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D65" s="9">
-        <v>1.4E-2</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E65">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="F65" s="1">
-        <f>D65+E65*0.0001</f>
-        <v>1.5800000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.44</v>
       </c>
       <c r="G65" s="9">
         <v>0</v>
       </c>
-      <c r="H65" s="9">
-        <v>2.85</v>
+      <c r="H65" s="3">
+        <v>21.6</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D66" s="9">
-        <v>4.8000000000000001E-2</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1">
-        <f>D66+E66*0.0001</f>
-        <v>4.82E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.73399999999999999</v>
       </c>
       <c r="G66" s="9">
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <v>0.02</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>326</v>
+        <v>410</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D67" s="9">
-        <v>0.246</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F67" s="1">
-        <f>D67+E67*0.0001</f>
-        <v>0.2462</v>
+        <f t="shared" si="1"/>
+        <v>0.73699999999999999</v>
       </c>
       <c r="G67" s="9">
         <v>0</v>
       </c>
       <c r="H67" s="9">
-        <v>0.02</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D68" s="8">
-        <v>2.5309999999999998E-10</v>
+        <v>279</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.08</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F68" s="1">
-        <f>D68+E68*0.0001</f>
-        <v>2.0000002531000002E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.14600000000000002</v>
       </c>
       <c r="G68" s="9">
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <v>0.21</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D69" s="9">
-        <v>0.749</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E69">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F69" s="1">
-        <f>D69+E69*0.0001</f>
-        <v>0.75039999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.73799999999999999</v>
       </c>
       <c r="G69" s="9">
         <v>0</v>
       </c>
       <c r="H69" s="9">
-        <v>4.5599999999999996</v>
+        <v>11.22</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583855BD-C793-2241-8B62-2D29A00FD9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703723B8-1C90-EC49-A0DE-FE93CFD475AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="411">
   <si>
     <t>Name</t>
   </si>
@@ -577,12 +577,6 @@
   <si>
     <t>Energy4_evotime2.0_n_ts40_ptypeCONSTANT_offset0.5_maxswitch5_alpha0.01_sigma0.25_eta0.001
 _threshold30_iter100_typemaxswitch_switch5</t>
-  </si>
-  <si>
-    <t>&lt;0.02</t>
-  </si>
-  <si>
-    <t>&lt;0.03</t>
   </si>
   <si>
     <t>alpha=0.01</t>
@@ -1341,7 +1335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,18 +1345,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1397,18 +1379,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,6 +1388,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView topLeftCell="A21" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1791,52 +1767,52 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>-0.999</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>-0.995</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>29.56</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>-0.999</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>0.56699999999999995</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="15">
         <f>D4+E4*0.01</f>
         <v>-0.99333000000000005</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>1.77</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2020,14 +1996,14 @@
         <v>35</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.84</v>
+        <v>-0.84099999999999997</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ref="F12:F17" si="1">D12+E12*0.01</f>
-        <v>-0.79999999999999993</v>
+        <v>-0.80099999999999993</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -2359,10 +2335,10 @@
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27">
         <v>-0.995</v>
@@ -2381,10 +2357,10 @@
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D28">
         <v>-0.997</v>
@@ -2403,10 +2379,10 @@
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D29">
         <v>-0.997</v>
@@ -3052,10 +3028,10 @@
     </row>
     <row r="61" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D61">
         <v>-0.94899999999999995</v>
@@ -3073,10 +3049,10 @@
     </row>
     <row r="62" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D62">
         <v>-0.94899999999999995</v>
@@ -3094,10 +3070,10 @@
     </row>
     <row r="63" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D63">
         <v>-0.94899999999999995</v>
@@ -3578,10 +3554,10 @@
     </row>
     <row r="88" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D88" s="1">
         <v>-4.7220000000000004</v>
@@ -3599,10 +3575,10 @@
     </row>
     <row r="89" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D89" s="1">
         <v>-1.1319999999999999</v>
@@ -3620,10 +3596,10 @@
     </row>
     <row r="90" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D90" s="1">
         <v>-4.6660000000000004</v>
@@ -3745,7 +3721,7 @@
         <v>133.13999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="17" x14ac:dyDescent="0.2">
@@ -3934,7 +3910,7 @@
         <v>-3.8239999999999998</v>
       </c>
       <c r="G106" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
@@ -3955,7 +3931,7 @@
         <v>-3.8260000000000001</v>
       </c>
       <c r="G107" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
@@ -4170,10 +4146,10 @@
     </row>
     <row r="118" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D118">
         <v>-3.9990000000000001</v>
@@ -4191,10 +4167,10 @@
     </row>
     <row r="119" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D119">
         <v>-3.8839999999999999</v>
@@ -4212,10 +4188,10 @@
     </row>
     <row r="120" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D120">
         <v>-3.9750000000000001</v>
@@ -4304,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C91"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4337,8 +4313,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>266</v>
+      <c r="A2" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
@@ -4361,7 +4337,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -4386,7 +4362,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>114</v>
       </c>
@@ -4411,7 +4387,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>115</v>
       </c>
@@ -4436,7 +4412,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -4461,7 +4437,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>117</v>
       </c>
@@ -4486,7 +4462,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -4511,7 +4487,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>119</v>
       </c>
@@ -4534,7 +4510,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>120</v>
       </c>
@@ -4557,7 +4533,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>121</v>
       </c>
@@ -4582,7 +4558,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -4605,7 +4581,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>123</v>
       </c>
@@ -4628,9 +4604,9 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -4653,7 +4629,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>125</v>
       </c>
@@ -4678,7 +4654,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>124</v>
       </c>
@@ -4703,7 +4679,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
@@ -4725,7 +4701,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
@@ -4747,7 +4723,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
@@ -4769,12 +4745,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D20">
         <v>2E-3</v>
@@ -4791,12 +4767,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D21">
         <v>8.9999999999999993E-3</v>
@@ -4813,12 +4789,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D22">
         <v>1E-3</v>
@@ -4836,11 +4812,11 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>267</v>
+      <c r="A25" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -4860,9 +4836,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -4881,13 +4857,13 @@
         <v>150.25</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>46</v>
@@ -4907,9 +4883,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -4929,9 +4905,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="11"/>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -4951,9 +4927,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="11"/>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -4973,9 +4949,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="11"/>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -4995,9 +4971,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -5017,9 +4993,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
@@ -5039,9 +5015,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -5061,9 +5037,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -5083,9 +5059,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -5105,9 +5081,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
+      <c r="A37" s="11"/>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>42</v>
@@ -5127,9 +5103,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>35</v>
@@ -5149,9 +5125,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -5171,9 +5147,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>43</v>
@@ -5193,9 +5169,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>37</v>
@@ -5215,9 +5191,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>38</v>
@@ -5237,12 +5213,12 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D43" s="8">
         <v>6.1320000000000005E-4</v>
@@ -5259,12 +5235,12 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D44" s="8">
         <v>8.2229999999999998E-4</v>
@@ -5281,12 +5257,12 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D45" s="8">
         <v>3.0000000000000001E-3</v>
@@ -5304,11 +5280,11 @@
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
-        <v>268</v>
+      <c r="A48" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -5328,9 +5304,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="12"/>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5349,13 +5325,13 @@
         <v>21.75</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>46</v>
@@ -5375,9 +5351,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="12"/>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5397,9 +5373,9 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
+      <c r="A52" s="12"/>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -5419,9 +5395,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="12"/>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -5441,9 +5417,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
+      <c r="A54" s="12"/>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
         <v>32</v>
@@ -5463,9 +5439,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="12"/>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
         <v>33</v>
@@ -5485,9 +5461,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+      <c r="A56" s="12"/>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
@@ -5507,9 +5483,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
@@ -5529,9 +5505,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="12"/>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -5551,9 +5527,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="12"/>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
@@ -5573,9 +5549,9 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="12"/>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>42</v>
@@ -5595,9 +5571,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>35</v>
@@ -5617,9 +5593,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>36</v>
@@ -5639,9 +5615,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>43</v>
@@ -5661,9 +5637,9 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>37</v>
@@ -5683,9 +5659,9 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>38</v>
@@ -5705,12 +5681,12 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D66">
         <v>0.20599999999999999</v>
@@ -5727,12 +5703,12 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D67">
         <v>0.19600000000000001</v>
@@ -5749,12 +5725,12 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D68">
         <v>0.17299999999999999</v>
@@ -5772,11 +5748,11 @@
     </row>
     <row r="70" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
-        <v>269</v>
+      <c r="A71" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -5796,9 +5772,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
+      <c r="A72" s="12"/>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -5817,13 +5793,13 @@
         <v>100.59</v>
       </c>
       <c r="H72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>46</v>
@@ -5843,9 +5819,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="12"/>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -5865,9 +5841,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="12"/>
       <c r="B75" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -5887,9 +5863,9 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="12"/>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
@@ -5909,9 +5885,9 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="12"/>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
@@ -5931,9 +5907,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="12"/>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
         <v>33</v>
@@ -5953,9 +5929,9 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="12"/>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
@@ -5975,9 +5951,9 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
         <v>59</v>
@@ -5997,9 +5973,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="12"/>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
         <v>35</v>
@@ -6019,9 +5995,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="12"/>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -6041,9 +6017,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
+      <c r="A83" s="12"/>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>42</v>
@@ -6063,9 +6039,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>35</v>
@@ -6085,9 +6061,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>36</v>
@@ -6107,9 +6083,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>43</v>
@@ -6129,9 +6105,9 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>37</v>
@@ -6151,9 +6127,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>38</v>
@@ -6173,12 +6149,12 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D89" s="9">
         <v>4.0000000000000001E-3</v>
@@ -6195,12 +6171,12 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D90" s="9">
         <v>6.0000000000000001E-3</v>
@@ -6217,12 +6193,12 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D91" s="9">
         <v>3.0000000000000001E-3</v>
@@ -6279,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H1" t="s">
         <v>41</v>
@@ -6290,7 +6266,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -6314,10 +6290,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" s="8">
         <v>1.5590000000000001E-9</v>
@@ -6336,12 +6312,12 @@
         <v>0.39</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -6363,15 +6339,15 @@
         <v>36.82</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="8">
         <v>1.011E-5</v>
@@ -6392,7 +6368,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -6416,7 +6392,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -6440,7 +6416,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -6464,10 +6440,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="9">
         <v>0.193</v>
@@ -6488,10 +6464,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" s="9">
         <v>0.95</v>
@@ -6512,10 +6488,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="9">
         <v>0.66900000000000004</v>
@@ -6536,7 +6512,7 @@
     </row>
     <row r="12" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -6560,7 +6536,7 @@
     </row>
     <row r="13" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -6584,7 +6560,7 @@
     </row>
     <row r="14" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -6608,7 +6584,7 @@
     </row>
     <row r="15" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -6632,7 +6608,7 @@
     </row>
     <row r="16" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -6656,7 +6632,7 @@
     </row>
     <row r="17" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -6680,7 +6656,7 @@
     </row>
     <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
@@ -6704,7 +6680,7 @@
     </row>
     <row r="19" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -6728,7 +6704,7 @@
     </row>
     <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -6752,10 +6728,10 @@
     </row>
     <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="9">
         <v>4.7E-2</v>
@@ -6776,10 +6752,10 @@
     </row>
     <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D22" s="9">
         <v>0.216</v>
@@ -6800,10 +6776,10 @@
     </row>
     <row r="23" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D23" s="9">
         <v>0.10299999999999999</v>
@@ -6824,7 +6800,7 @@
     </row>
     <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -6848,7 +6824,7 @@
     </row>
     <row r="25" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -6872,7 +6848,7 @@
     </row>
     <row r="26" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -6896,10 +6872,10 @@
     </row>
     <row r="27" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D27" s="9">
         <v>5.3999999999999999E-2</v>
@@ -6920,10 +6896,10 @@
     </row>
     <row r="28" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D28" s="9">
         <v>0.34399999999999997</v>
@@ -6944,10 +6920,10 @@
     </row>
     <row r="29" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D29" s="9">
         <v>3.6999999999999998E-2</v>
@@ -6968,10 +6944,10 @@
     </row>
     <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D30" s="9">
         <v>3.9E-2</v>
@@ -6992,10 +6968,10 @@
     </row>
     <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D31" s="9">
         <v>0.95299999999999996</v>
@@ -7016,10 +6992,10 @@
     </row>
     <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32" s="8">
         <v>5.3090000000000002E-5</v>
@@ -7040,10 +7016,10 @@
     </row>
     <row r="33" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D33" s="9">
         <v>0.90900000000000003</v>
@@ -7064,7 +7040,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -7088,10 +7064,10 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D40" s="8">
         <v>3.5870000000000003E-8</v>
@@ -7110,12 +7086,12 @@
         <v>24.83</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -7137,15 +7113,15 @@
         <v>110.19</v>
       </c>
       <c r="I41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D42" s="8">
         <v>1.1070000000000001E-5</v>
@@ -7164,33 +7140,33 @@
         <v>390.11</v>
       </c>
     </row>
-    <row r="43" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C43" s="19" t="s">
+    <row r="43" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="14">
         <v>0.749</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="13">
         <v>168</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="15">
         <f t="shared" si="1"/>
         <v>0.76580000000000004</v>
       </c>
-      <c r="G43" s="20">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19">
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
         <v>3.72</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -7214,7 +7190,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -7238,10 +7214,10 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D46" s="9">
         <v>0.58399999999999996</v>
@@ -7262,10 +7238,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D47" s="9">
         <v>0.94799999999999995</v>
@@ -7286,10 +7262,10 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D48" s="9">
         <v>0.76600000000000001</v>
@@ -7310,7 +7286,7 @@
     </row>
     <row r="49" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
@@ -7334,7 +7310,7 @@
     </row>
     <row r="50" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
@@ -7358,7 +7334,7 @@
     </row>
     <row r="51" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -7382,7 +7358,7 @@
     </row>
     <row r="52" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -7406,7 +7382,7 @@
     </row>
     <row r="53" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -7430,7 +7406,7 @@
     </row>
     <row r="54" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C54" t="s">
         <v>36</v>
@@ -7454,7 +7430,7 @@
     </row>
     <row r="55" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>42</v>
@@ -7478,7 +7454,7 @@
     </row>
     <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>35</v>
@@ -7502,7 +7478,7 @@
     </row>
     <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>36</v>
@@ -7526,10 +7502,10 @@
     </row>
     <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" s="9">
         <v>0.14499999999999999</v>
@@ -7550,10 +7526,10 @@
     </row>
     <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D59" s="9">
         <v>0.39700000000000002</v>
@@ -7574,10 +7550,10 @@
     </row>
     <row r="60" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60" s="9">
         <v>0.23</v>
@@ -7598,7 +7574,7 @@
     </row>
     <row r="61" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>43</v>
@@ -7622,7 +7598,7 @@
     </row>
     <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>37</v>
@@ -7646,7 +7622,7 @@
     </row>
     <row r="63" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>38</v>
@@ -7670,10 +7646,10 @@
     </row>
     <row r="64" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D64" s="9">
         <v>0.17</v>
@@ -7694,10 +7670,10 @@
     </row>
     <row r="65" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D65" s="9">
         <v>0.435</v>
@@ -7718,10 +7694,10 @@
     </row>
     <row r="66" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D66" s="9">
         <v>0.14199999999999999</v>
@@ -7742,10 +7718,10 @@
     </row>
     <row r="67" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D67" s="1">
         <v>0.17</v>
@@ -7766,10 +7742,10 @@
     </row>
     <row r="68" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D68" s="1">
         <v>0.93700000000000006</v>
@@ -7790,10 +7766,10 @@
     </row>
     <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D69" s="9">
         <v>2.5000000000000001E-2</v>
@@ -7814,10 +7790,10 @@
     </row>
     <row r="70" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D70" s="9">
         <v>0.92800000000000005</v>
@@ -7845,15 +7821,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="101" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
@@ -7867,10 +7843,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>270</v>
       </c>
       <c r="H1" t="s">
         <v>41</v>
@@ -7881,7 +7857,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -7892,26 +7868,26 @@
       <c r="E2">
         <v>25.515999999999998</v>
       </c>
-      <c r="F2" s="1">
-        <f>D2+E2*0.001</f>
-        <v>2.55164368E-2</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
         <v>167.48099999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2+E2*0.001+1*F2</f>
+        <v>167.50651643679998</v>
       </c>
       <c r="H2">
         <v>1.42</v>
       </c>
       <c r="I2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" s="8">
         <v>2.4830000000000002E-7</v>
@@ -7919,23 +7895,23 @@
       <c r="E3" s="1">
         <v>18.72</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F33" si="0">D3+E3*0.001</f>
-        <v>1.8720248299999999E-2</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="8">
         <v>5.553E-7</v>
+      </c>
+      <c r="G3" s="1">
+        <f>D3+E3*0.001+1*F3</f>
+        <v>1.8720803599999999E-2</v>
       </c>
       <c r="H3">
         <v>3.01</v>
       </c>
       <c r="I3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -7946,26 +7922,26 @@
       <c r="E4">
         <v>2.7440000000000002</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7572600000000005E-3</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8">
         <v>3.0629999999999998E-7</v>
+      </c>
+      <c r="G4" s="1">
+        <f>D4+E4*0.001+1*F4</f>
+        <v>2.7575663000000005E-3</v>
       </c>
       <c r="H4">
         <v>39.86</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="8">
         <v>1.237E-4</v>
@@ -7973,12 +7949,12 @@
       <c r="E5">
         <v>8.4209999999999994</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5446999999999988E-3</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="9">
         <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>D5+E5*0.001+1*F5</f>
+        <v>1.5544699999999998E-2</v>
       </c>
       <c r="H5" s="3">
         <v>154.05000000000001</v>
@@ -7986,7 +7962,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -7997,23 +7973,23 @@
       <c r="E6">
         <v>102</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f>D6+E6*0.001</f>
         <v>1.0210000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
       <c r="H6" s="9">
         <v>0.85</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -8025,11 +8001,11 @@
         <v>10</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <f>D7+E7*0.001</f>
         <v>0.71899999999999997</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
       </c>
       <c r="H7" s="9">
         <v>32.47</v>
@@ -8037,7 +8013,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -8049,11 +8025,11 @@
         <v>26</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f>D8+E8*0.001</f>
         <v>0.79600000000000004</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
       </c>
       <c r="H8" s="9">
         <v>1.06</v>
@@ -8061,10 +8037,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="9">
         <v>2.1000000000000001E-2</v>
@@ -8073,11 +8049,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f>D9+E9*0.001</f>
         <v>5.3000000000000005E-2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0.94</v>
@@ -8085,10 +8061,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1">
         <v>0.6</v>
@@ -8097,11 +8073,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <f>D10+E10*0.001</f>
         <v>0.60799999999999998</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
       </c>
       <c r="H10" s="9">
         <v>0.89</v>
@@ -8109,10 +8085,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="9">
         <v>2.5999999999999999E-2</v>
@@ -8121,11 +8097,11 @@
         <v>22</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <f>D11+E11*0.001</f>
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
       </c>
       <c r="H11" s="9">
         <v>1.34</v>
@@ -8133,7 +8109,7 @@
     </row>
     <row r="12" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -8145,11 +8121,11 @@
         <v>80</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <f>D12+E12*0.001</f>
         <v>0.11599999999999999</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>1.05</v>
@@ -8157,7 +8133,7 @@
     </row>
     <row r="13" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -8169,11 +8145,11 @@
         <v>8</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <f>D13+E13*0.001</f>
         <v>7.1000000000000008E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
       </c>
       <c r="H13" s="9">
         <v>3.83</v>
@@ -8181,7 +8157,7 @@
     </row>
     <row r="14" spans="2:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -8192,12 +8168,12 @@
       <c r="E14">
         <v>22</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f>D14+E14*0.001</f>
         <v>0.03</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>60.76</v>
@@ -8205,7 +8181,7 @@
     </row>
     <row r="15" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -8217,11 +8193,11 @@
         <v>34</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <f>D15+E15*0.001</f>
         <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
       </c>
       <c r="H15" s="9">
         <v>0.91</v>
@@ -8229,7 +8205,7 @@
     </row>
     <row r="16" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -8241,11 +8217,11 @@
         <v>8</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <f>D16+E16*0.001</f>
         <v>0.59899999999999998</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>0.87</v>
@@ -8253,7 +8229,7 @@
     </row>
     <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -8265,11 +8241,11 @@
         <v>24</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <f>D17+E17*0.001</f>
         <v>6.2E-2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
       </c>
       <c r="H17" s="9">
         <v>1.87</v>
@@ -8277,7 +8253,7 @@
     </row>
     <row r="18" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
@@ -8289,11 +8265,11 @@
         <v>10</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <f>D18+E18*0.001</f>
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
       </c>
       <c r="H18" s="9">
         <v>4.95</v>
@@ -8301,7 +8277,7 @@
     </row>
     <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -8313,19 +8289,19 @@
         <v>4</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <f>D19+E19*0.001</f>
         <v>1.2E-2</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -8337,11 +8313,11 @@
         <v>18</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <f>D20+E20*0.001</f>
         <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
       </c>
       <c r="H20" s="9">
         <v>4.88</v>
@@ -8349,10 +8325,10 @@
     </row>
     <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="9">
         <v>1.7000000000000001E-2</v>
@@ -8361,11 +8337,11 @@
         <v>28</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <f>D21+E21*0.001</f>
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
       </c>
       <c r="H21" s="9">
         <v>3.21</v>
@@ -8373,10 +8349,10 @@
     </row>
     <row r="22" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D22" s="9">
         <v>0.245</v>
@@ -8385,11 +8361,11 @@
         <v>12</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <f>D22+E22*0.001</f>
         <v>0.25700000000000001</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
       </c>
       <c r="H22" s="9">
         <v>16.73</v>
@@ -8397,10 +8373,10 @@
     </row>
     <row r="23" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D23" s="9">
         <v>1.4E-2</v>
@@ -8409,11 +8385,11 @@
         <v>18</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <f>D23+E23*0.001</f>
         <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
       </c>
       <c r="H23" s="9">
         <v>2.79</v>
@@ -8421,7 +8397,7 @@
     </row>
     <row r="24" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -8433,19 +8409,19 @@
         <v>68</v>
       </c>
       <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
         <f>D24+E24*0.001</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>4.7</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -8457,11 +8433,11 @@
         <v>10</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <f>D25+E25*0.001</f>
         <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
       </c>
       <c r="H25" s="9">
         <v>2.73</v>
@@ -8469,7 +8445,7 @@
     </row>
     <row r="26" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -8480,12 +8456,12 @@
       <c r="E26">
         <v>22</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f>D26+E26*0.001</f>
         <v>0.03</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
       </c>
       <c r="H26" s="9">
         <v>1.68</v>
@@ -8493,10 +8469,10 @@
     </row>
     <row r="27" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D27" s="9">
         <v>4.0000000000000001E-3</v>
@@ -8505,11 +8481,11 @@
         <v>32</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <f>D27+E27*0.001</f>
         <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
       </c>
       <c r="H27" s="9">
         <v>3.18</v>
@@ -8517,10 +8493,10 @@
     </row>
     <row r="28" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D28" s="9">
         <v>7.0000000000000001E-3</v>
@@ -8529,11 +8505,11 @@
         <v>2</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <f>D28+E28*0.001</f>
         <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
       </c>
       <c r="H28" s="9">
         <v>9.2100000000000009</v>
@@ -8541,10 +8517,10 @@
     </row>
     <row r="29" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D29" s="9">
         <v>3.0000000000000001E-3</v>
@@ -8553,11 +8529,11 @@
         <v>22</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <f>D29+E29*0.001</f>
         <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
       </c>
       <c r="H29" s="9">
         <v>3.14</v>
@@ -8565,10 +8541,10 @@
     </row>
     <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D30" s="9">
         <v>0.13100000000000001</v>
@@ -8577,11 +8553,11 @@
         <v>4</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <f>D30+E30*0.001</f>
         <v>0.13500000000000001</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
       </c>
       <c r="H30" s="9">
         <v>0.02</v>
@@ -8589,10 +8565,10 @@
     </row>
     <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D31" s="9">
         <v>0.13100000000000001</v>
@@ -8601,11 +8577,11 @@
         <v>2</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <f>D31+E31*0.001</f>
         <v>0.13300000000000001</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
       </c>
       <c r="H31" s="9">
         <v>0.01</v>
@@ -8613,10 +8589,10 @@
     </row>
     <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32" s="9">
         <v>5.0000000000000001E-3</v>
@@ -8625,11 +8601,11 @@
         <v>8</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <f>D32+E32*0.001</f>
         <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
       </c>
       <c r="H32" s="9">
         <v>0.04</v>
@@ -8637,10 +8613,10 @@
     </row>
     <row r="33" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D33" s="9">
         <v>0.70599999999999996</v>
@@ -8649,11 +8625,11 @@
         <v>8</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <f>D33+E33*0.001</f>
         <v>0.71399999999999997</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
       </c>
       <c r="H33" s="9">
         <v>0.01</v>
@@ -8661,7 +8637,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -8672,26 +8648,26 @@
       <c r="E38">
         <v>487.33</v>
       </c>
-      <c r="F38" s="1">
-        <f>D38+E38*0.001</f>
-        <v>0.48733268299999999</v>
-      </c>
-      <c r="G38">
+      <c r="F38">
         <v>6966.2030000000004</v>
+      </c>
+      <c r="G38" s="1">
+        <f>D38+E38*0.001+0.1*F38</f>
+        <v>697.10763268300002</v>
       </c>
       <c r="H38">
         <v>585.96</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="1">
         <v>5.8999999999999997E-2</v>
@@ -8699,23 +8675,23 @@
       <c r="E39" s="1">
         <v>61.305</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" ref="F39:F69" si="1">D39+E39*0.001</f>
-        <v>0.120305</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="F39" s="9">
         <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G39" s="1">
+        <f>D39+E39*0.001+0.1*F39</f>
+        <v>0.12060499999999999</v>
       </c>
       <c r="H39">
         <v>427.35</v>
       </c>
       <c r="I39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -8726,26 +8702,26 @@
       <c r="E40">
         <v>9.7609999999999992</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1760999999999991E-2</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="F40" s="9">
         <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G40" s="1">
+        <f>D40+E40*0.001+0.1*F40</f>
+        <v>7.2060999999999986E-2</v>
       </c>
       <c r="H40">
         <v>647.66999999999996</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D41" s="9">
         <v>5.8999999999999997E-2</v>
@@ -8753,12 +8729,12 @@
       <c r="E41">
         <v>57.478999999999999</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>0.116479</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="F41" s="9">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G41" s="1">
+        <f>D41+E41*0.001+0.1*F41</f>
+        <v>0.116979</v>
       </c>
       <c r="H41" s="3">
         <v>1170.396</v>
@@ -8766,7 +8742,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -8777,23 +8753,23 @@
       <c r="E42">
         <v>288</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="1"/>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f>D42+E42*0.001</f>
         <v>1.256</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
       </c>
       <c r="H42" s="9">
         <v>12.45</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -8804,12 +8780,12 @@
       <c r="E43">
         <v>44</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f>D43+E43*0.001</f>
         <v>0.99199999999999999</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>71</v>
@@ -8817,7 +8793,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -8828,12 +8804,12 @@
       <c r="E44">
         <v>196</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="1"/>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f>D44+E44*0.001</f>
         <v>1.1579999999999999</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0</v>
       </c>
       <c r="H44" s="9">
         <v>13.23</v>
@@ -8841,10 +8817,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D45" s="9">
         <v>0.183</v>
@@ -8852,12 +8828,12 @@
       <c r="E45">
         <v>264</v>
       </c>
-      <c r="F45" s="1">
-        <f t="shared" si="1"/>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f>D45+E45*0.001</f>
         <v>0.44700000000000001</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>22.4</v>
@@ -8865,10 +8841,10 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D46" s="9">
         <v>0.97199999999999998</v>
@@ -8876,12 +8852,12 @@
       <c r="E46">
         <v>58</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="1"/>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f>D46+E46*0.001</f>
         <v>1.03</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
       </c>
       <c r="H46" s="9">
         <v>72.52</v>
@@ -8889,10 +8865,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D47" s="9">
         <v>0.186</v>
@@ -8900,12 +8876,12 @@
       <c r="E47">
         <v>270</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="1"/>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f>D47+E47*0.001</f>
         <v>0.45600000000000002</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
       </c>
       <c r="H47" s="9">
         <v>44.21</v>
@@ -8913,7 +8889,7 @@
     </row>
     <row r="48" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
@@ -8924,12 +8900,12 @@
       <c r="E48">
         <v>384</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" si="1"/>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f>D48+E48*0.001</f>
         <v>0.56099999999999994</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
       </c>
       <c r="H48" s="9">
         <v>71.34</v>
@@ -8937,7 +8913,7 @@
     </row>
     <row r="49" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -8948,12 +8924,12 @@
       <c r="E49">
         <v>62</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="1"/>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f>D49+E49*0.001</f>
         <v>0.877</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
       </c>
       <c r="H49" s="9">
         <v>70.92</v>
@@ -8961,7 +8937,7 @@
     </row>
     <row r="50" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
@@ -8972,12 +8948,12 @@
       <c r="E50">
         <v>342</v>
       </c>
-      <c r="F50" s="1">
-        <f t="shared" si="1"/>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f>D50+E50*0.001</f>
         <v>0.746</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0</v>
       </c>
       <c r="H50" s="9">
         <v>70.849999999999994</v>
@@ -8985,7 +8961,7 @@
     </row>
     <row r="51" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
@@ -8996,12 +8972,12 @@
       <c r="E51">
         <v>278</v>
       </c>
-      <c r="F51" s="1">
-        <f t="shared" si="1"/>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f>D51+E51*0.001</f>
         <v>0.46200000000000002</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
       </c>
       <c r="H51" s="9">
         <v>27.04</v>
@@ -9009,7 +8985,7 @@
     </row>
     <row r="52" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -9020,12 +8996,12 @@
       <c r="E52">
         <v>64</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" si="1"/>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <f>D52+E52*0.001</f>
         <v>1.0569999999999999</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
       </c>
       <c r="H52" s="9">
         <v>70.83</v>
@@ -9033,7 +9009,7 @@
     </row>
     <row r="53" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
@@ -9044,12 +9020,12 @@
       <c r="E53">
         <v>264</v>
       </c>
-      <c r="F53" s="1">
-        <f t="shared" si="1"/>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f>D53+E53*0.001</f>
         <v>0.45800000000000002</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
       </c>
       <c r="H53" s="9">
         <v>40.54</v>
@@ -9057,7 +9033,7 @@
     </row>
     <row r="54" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>42</v>
@@ -9068,12 +9044,12 @@
       <c r="E54">
         <v>36</v>
       </c>
-      <c r="F54" s="1">
-        <f t="shared" si="1"/>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f>D54+E54*0.001</f>
         <v>0.749</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>39.9</v>
@@ -9081,7 +9057,7 @@
     </row>
     <row r="55" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>35</v>
@@ -9092,12 +9068,12 @@
       <c r="E55">
         <v>46</v>
       </c>
-      <c r="F55" s="1">
-        <f t="shared" si="1"/>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f>D55+E55*0.001</f>
         <v>0.85200000000000009</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
       </c>
       <c r="H55" s="9">
         <v>88.08</v>
@@ -9105,7 +9081,7 @@
     </row>
     <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>36</v>
@@ -9116,12 +9092,12 @@
       <c r="E56">
         <v>168</v>
       </c>
-      <c r="F56" s="1">
-        <f t="shared" si="1"/>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f>D56+E56*0.001</f>
         <v>0.92600000000000005</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
       </c>
       <c r="H56" s="9">
         <v>22.98</v>
@@ -9129,10 +9105,10 @@
     </row>
     <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D57" s="9">
         <v>0.183</v>
@@ -9140,12 +9116,12 @@
       <c r="E57">
         <v>264</v>
       </c>
-      <c r="F57" s="1">
-        <f t="shared" si="1"/>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <f>D57+E57*0.001</f>
         <v>0.44700000000000001</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
       </c>
       <c r="H57" s="9">
         <v>9.67</v>
@@ -9153,10 +9129,10 @@
     </row>
     <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D58" s="1">
         <v>0.62</v>
@@ -9164,12 +9140,12 @@
       <c r="E58">
         <v>20</v>
       </c>
-      <c r="F58" s="1">
-        <f t="shared" si="1"/>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <f>D58+E58*0.001</f>
         <v>0.64</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
       </c>
       <c r="H58" s="9">
         <v>60.18</v>
@@ -9177,10 +9153,10 @@
     </row>
     <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D59" s="9">
         <v>0.186</v>
@@ -9188,12 +9164,12 @@
       <c r="E59">
         <v>270</v>
       </c>
-      <c r="F59" s="1">
-        <f t="shared" si="1"/>
+      <c r="F59" s="9">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f>D59+E59*0.001</f>
         <v>0.45600000000000002</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
       </c>
       <c r="H59" s="9">
         <v>10.55</v>
@@ -9201,7 +9177,7 @@
     </row>
     <row r="60" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>43</v>
@@ -9212,12 +9188,12 @@
       <c r="E60">
         <v>384</v>
       </c>
-      <c r="F60" s="1">
-        <f t="shared" si="1"/>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <f>D60+E60*0.001</f>
         <v>0.56099999999999994</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
       </c>
       <c r="H60" s="9">
         <v>9.25</v>
@@ -9225,7 +9201,7 @@
     </row>
     <row r="61" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>37</v>
@@ -9236,12 +9212,12 @@
       <c r="E61">
         <v>64</v>
       </c>
-      <c r="F61" s="1">
-        <f t="shared" si="1"/>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <f>D61+E61*0.001</f>
         <v>0.55699999999999994</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
       </c>
       <c r="H61" s="9">
         <v>96.51</v>
@@ -9249,7 +9225,7 @@
     </row>
     <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>38</v>
@@ -9260,12 +9236,12 @@
       <c r="E62">
         <v>342</v>
       </c>
-      <c r="F62" s="1">
-        <f t="shared" si="1"/>
+      <c r="F62" s="9">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <f>D62+E62*0.001</f>
         <v>0.53600000000000003</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
       </c>
       <c r="H62" s="9">
         <v>42.98</v>
@@ -9273,10 +9249,10 @@
     </row>
     <row r="63" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D63" s="9">
         <v>0.16800000000000001</v>
@@ -9284,12 +9260,12 @@
       <c r="E63">
         <v>278</v>
       </c>
-      <c r="F63" s="1">
-        <f t="shared" si="1"/>
+      <c r="F63" s="9">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <f>D63+E63*0.001</f>
         <v>0.44600000000000006</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>27.2</v>
@@ -9297,10 +9273,10 @@
     </row>
     <row r="64" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D64" s="9">
         <v>0.94199999999999995</v>
@@ -9308,12 +9284,12 @@
       <c r="E64">
         <v>40</v>
       </c>
-      <c r="F64" s="1">
-        <f t="shared" si="1"/>
+      <c r="F64" s="9">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <f>D64+E64*0.001</f>
         <v>0.98199999999999998</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
       </c>
       <c r="H64" s="9">
         <v>31.96</v>
@@ -9321,10 +9297,10 @@
     </row>
     <row r="65" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D65" s="9">
         <v>0.17599999999999999</v>
@@ -9332,12 +9308,12 @@
       <c r="E65">
         <v>264</v>
       </c>
-      <c r="F65" s="1">
-        <f t="shared" si="1"/>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <f>D65+E65*0.001</f>
         <v>0.44</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
       </c>
       <c r="H65" s="3">
         <v>21.6</v>
@@ -9345,10 +9321,10 @@
     </row>
     <row r="66" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D66" s="9">
         <v>0.72199999999999998</v>
@@ -9356,12 +9332,12 @@
       <c r="E66">
         <v>12</v>
       </c>
-      <c r="F66" s="1">
-        <f t="shared" si="1"/>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <f>D66+E66*0.001</f>
         <v>0.73399999999999999</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
       </c>
       <c r="H66" s="9">
         <v>1.27</v>
@@ -9369,10 +9345,10 @@
     </row>
     <row r="67" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D67" s="9">
         <v>0.72099999999999997</v>
@@ -9380,12 +9356,12 @@
       <c r="E67">
         <v>16</v>
       </c>
-      <c r="F67" s="1">
-        <f t="shared" si="1"/>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f>D67+E67*0.001</f>
         <v>0.73699999999999999</v>
-      </c>
-      <c r="G67" s="9">
-        <v>0</v>
       </c>
       <c r="H67" s="9">
         <v>1.1499999999999999</v>
@@ -9393,10 +9369,10 @@
     </row>
     <row r="68" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D68" s="1">
         <v>0.08</v>
@@ -9404,12 +9380,12 @@
       <c r="E68">
         <v>66</v>
       </c>
-      <c r="F68" s="1">
-        <f t="shared" si="1"/>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f>D68+E68*0.001</f>
         <v>0.14600000000000002</v>
-      </c>
-      <c r="G68" s="9">
-        <v>0</v>
       </c>
       <c r="H68" s="9">
         <v>39.58</v>
@@ -9417,10 +9393,10 @@
     </row>
     <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D69" s="9">
         <v>0.66200000000000003</v>
@@ -9428,12 +9404,12 @@
       <c r="E69">
         <v>76</v>
       </c>
-      <c r="F69" s="1">
-        <f t="shared" si="1"/>
+      <c r="F69" s="9">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f>D69+E69*0.001</f>
         <v>0.73799999999999999</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0</v>
       </c>
       <c r="H69" s="9">
         <v>11.22</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703723B8-1C90-EC49-A0DE-FE93CFD475AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802A752-3858-7A4C-BEA7-184032566E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -7821,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:H69"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802A752-3858-7A4C-BEA7-184032566E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F7477-4BE0-EC46-B2AB-A7EB7272B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="416">
   <si>
     <t>Name</t>
   </si>
@@ -1304,6 +1304,21 @@
   </si>
   <si>
     <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch38_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeVQE_LiH_evotime20.0_n_ts200_ptypeCONSTANT_offset0.5_objUNIT_sum_penalty0.0</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch0_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch0_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch32_initwarm_minuptime0.0.log</t>
+  </si>
+  <si>
+    <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch32_initwarm_minuptime0.5.log</t>
   </si>
 </sst>
 </file>
@@ -1379,12 +1394,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1393,6 +1402,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1767,52 +1782,52 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>-0.999</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>-0.995</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>29.56</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>-0.999</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>0.56699999999999995</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>D4+E4*0.01</f>
         <v>-0.99333000000000005</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>1.77</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4313,7 +4328,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>264</v>
       </c>
       <c r="B2" t="s">
@@ -4337,7 +4352,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -4362,7 +4377,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>114</v>
       </c>
@@ -4387,7 +4402,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>115</v>
       </c>
@@ -4412,7 +4427,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -4437,7 +4452,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>117</v>
       </c>
@@ -4462,7 +4477,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -4487,7 +4502,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>119</v>
       </c>
@@ -4510,7 +4525,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>120</v>
       </c>
@@ -4533,7 +4548,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>121</v>
       </c>
@@ -4558,7 +4573,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -4581,7 +4596,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>123</v>
       </c>
@@ -4604,7 +4619,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="16"/>
       <c r="B14" t="s">
         <v>178</v>
       </c>
@@ -4629,7 +4644,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>125</v>
       </c>
@@ -4654,7 +4669,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>124</v>
       </c>
@@ -4679,7 +4694,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
@@ -4701,7 +4716,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
@@ -4723,7 +4738,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
@@ -4745,7 +4760,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
         <v>255</v>
       </c>
@@ -4767,7 +4782,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2" t="s">
         <v>256</v>
       </c>
@@ -4789,7 +4804,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2" t="s">
         <v>257</v>
       </c>
@@ -4812,7 +4827,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="16" t="s">
         <v>265</v>
       </c>
       <c r="B25" t="s">
@@ -4836,7 +4851,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
         <v>173</v>
       </c>
@@ -4861,7 +4876,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="2" t="s">
         <v>174</v>
       </c>
@@ -4883,7 +4898,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="16"/>
       <c r="B28" t="s">
         <v>175</v>
       </c>
@@ -4905,7 +4920,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="16"/>
       <c r="B29" t="s">
         <v>176</v>
       </c>
@@ -4927,7 +4942,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="16"/>
       <c r="B30" t="s">
         <v>177</v>
       </c>
@@ -4949,7 +4964,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="16"/>
       <c r="B31" t="s">
         <v>180</v>
       </c>
@@ -4971,7 +4986,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="16"/>
       <c r="B32" t="s">
         <v>181</v>
       </c>
@@ -4993,7 +5008,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="16"/>
       <c r="B33" t="s">
         <v>182</v>
       </c>
@@ -5015,7 +5030,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>183</v>
       </c>
@@ -5037,7 +5052,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="16"/>
       <c r="B35" t="s">
         <v>184</v>
       </c>
@@ -5059,7 +5074,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="16"/>
       <c r="B36" t="s">
         <v>185</v>
       </c>
@@ -5081,7 +5096,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="16"/>
       <c r="B37" t="s">
         <v>179</v>
       </c>
@@ -5103,7 +5118,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="2" t="s">
         <v>186</v>
       </c>
@@ -5125,7 +5140,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="2" t="s">
         <v>187</v>
       </c>
@@ -5147,7 +5162,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="2" t="s">
         <v>188</v>
       </c>
@@ -5169,7 +5184,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="2" t="s">
         <v>189</v>
       </c>
@@ -5191,7 +5206,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="2" t="s">
         <v>190</v>
       </c>
@@ -5213,7 +5228,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="2" t="s">
         <v>258</v>
       </c>
@@ -5235,7 +5250,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="2" t="s">
         <v>259</v>
       </c>
@@ -5257,7 +5272,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="2" t="s">
         <v>260</v>
       </c>
@@ -5280,7 +5295,7 @@
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B48" t="s">
@@ -5304,7 +5319,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="17"/>
       <c r="B49" t="s">
         <v>200</v>
       </c>
@@ -5329,7 +5344,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="2" t="s">
         <v>201</v>
       </c>
@@ -5351,7 +5366,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="17"/>
       <c r="B51" t="s">
         <v>192</v>
       </c>
@@ -5373,7 +5388,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="17"/>
       <c r="B52" t="s">
         <v>193</v>
       </c>
@@ -5395,7 +5410,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="17"/>
       <c r="B53" t="s">
         <v>194</v>
       </c>
@@ -5417,7 +5432,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="17"/>
       <c r="B54" t="s">
         <v>202</v>
       </c>
@@ -5439,7 +5454,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="17"/>
       <c r="B55" t="s">
         <v>203</v>
       </c>
@@ -5461,7 +5476,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="17"/>
       <c r="B56" t="s">
         <v>204</v>
       </c>
@@ -5483,7 +5498,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="2" t="s">
         <v>205</v>
       </c>
@@ -5505,7 +5520,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="17"/>
       <c r="B58" t="s">
         <v>206</v>
       </c>
@@ -5527,7 +5542,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
+      <c r="A59" s="17"/>
       <c r="B59" t="s">
         <v>207</v>
       </c>
@@ -5549,7 +5564,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="17"/>
       <c r="B60" t="s">
         <v>208</v>
       </c>
@@ -5571,7 +5586,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="2" t="s">
         <v>195</v>
       </c>
@@ -5593,7 +5608,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="2" t="s">
         <v>196</v>
       </c>
@@ -5615,7 +5630,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="2" t="s">
         <v>198</v>
       </c>
@@ -5637,7 +5652,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="2" t="s">
         <v>197</v>
       </c>
@@ -5659,7 +5674,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="2" t="s">
         <v>199</v>
       </c>
@@ -5681,7 +5696,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="2" t="s">
         <v>252</v>
       </c>
@@ -5703,7 +5718,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="2" t="s">
         <v>253</v>
       </c>
@@ -5725,7 +5740,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="2" t="s">
         <v>254</v>
       </c>
@@ -5748,7 +5763,7 @@
     </row>
     <row r="70" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B71" t="s">
@@ -5772,7 +5787,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
+      <c r="A72" s="17"/>
       <c r="B72" t="s">
         <v>215</v>
       </c>
@@ -5797,7 +5812,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="2" t="s">
         <v>216</v>
       </c>
@@ -5819,7 +5834,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
+      <c r="A74" s="17"/>
       <c r="B74" t="s">
         <v>212</v>
       </c>
@@ -5841,7 +5856,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
+      <c r="A75" s="17"/>
       <c r="B75" t="s">
         <v>213</v>
       </c>
@@ -5863,7 +5878,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
+      <c r="A76" s="17"/>
       <c r="B76" t="s">
         <v>214</v>
       </c>
@@ -5885,7 +5900,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
+      <c r="A77" s="17"/>
       <c r="B77" t="s">
         <v>217</v>
       </c>
@@ -5907,7 +5922,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
+      <c r="A78" s="17"/>
       <c r="B78" t="s">
         <v>218</v>
       </c>
@@ -5929,7 +5944,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
+      <c r="A79" s="17"/>
       <c r="B79" t="s">
         <v>219</v>
       </c>
@@ -5951,7 +5966,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="2" t="s">
         <v>220</v>
       </c>
@@ -5973,7 +5988,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
+      <c r="A81" s="17"/>
       <c r="B81" t="s">
         <v>221</v>
       </c>
@@ -5995,7 +6010,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
+      <c r="A82" s="17"/>
       <c r="B82" t="s">
         <v>222</v>
       </c>
@@ -6017,7 +6032,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
+      <c r="A83" s="17"/>
       <c r="B83" t="s">
         <v>223</v>
       </c>
@@ -6039,7 +6054,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="2" t="s">
         <v>209</v>
       </c>
@@ -6061,7 +6076,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="2" t="s">
         <v>210</v>
       </c>
@@ -6083,7 +6098,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="2" t="s">
         <v>225</v>
       </c>
@@ -6105,7 +6120,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="2" t="s">
         <v>224</v>
       </c>
@@ -6127,7 +6142,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="2" t="s">
         <v>226</v>
       </c>
@@ -6149,7 +6164,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="2" t="s">
         <v>261</v>
       </c>
@@ -6171,7 +6186,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="2" t="s">
         <v>262</v>
       </c>
@@ -6193,7 +6208,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="2" t="s">
         <v>263</v>
       </c>
@@ -7140,27 +7155,27 @@
         <v>390.11</v>
       </c>
     </row>
-    <row r="43" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
+    <row r="43" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="12">
         <v>0.749</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <v>168</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="13">
         <f t="shared" si="1"/>
         <v>0.76580000000000004</v>
       </c>
-      <c r="G43" s="14">
-        <v>0</v>
-      </c>
-      <c r="H43" s="13">
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
         <v>3.72</v>
       </c>
     </row>
@@ -7819,10 +7834,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
-  <dimension ref="B1:I69"/>
+  <dimension ref="B1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7977,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>D6+E6*0.001</f>
+        <f t="shared" ref="G6:G33" si="0">D6+E6*0.001</f>
         <v>1.0210000000000001</v>
       </c>
       <c r="H6" s="9">
@@ -8004,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>D7+E7*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.71899999999999997</v>
       </c>
       <c r="H7" s="9">
@@ -8028,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <f>D8+E8*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.79600000000000004</v>
       </c>
       <c r="H8" s="9">
@@ -8052,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <f>D9+E9*0.001</f>
+        <f t="shared" si="0"/>
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="H9" s="3">
@@ -8076,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f>D10+E10*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="H10" s="9">
@@ -8100,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f>D11+E11*0.001</f>
+        <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="H11" s="9">
@@ -8124,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <f>D12+E12*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.11599999999999999</v>
       </c>
       <c r="H12" s="9">
@@ -8148,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f>D13+E13*0.001</f>
+        <f t="shared" si="0"/>
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="H13" s="9">
@@ -8172,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>D14+E14*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="H14" s="9">
@@ -8196,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <f>D15+E15*0.001</f>
+        <f t="shared" si="0"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="H15" s="9">
@@ -8220,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="9">
-        <f>D16+E16*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.59899999999999998</v>
       </c>
       <c r="H16" s="9">
@@ -8244,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="9">
-        <f>D17+E17*0.001</f>
+        <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
       <c r="H17" s="9">
@@ -8268,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f>D18+E18*0.001</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H18" s="9">
@@ -8292,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="9">
-        <f>D19+E19*0.001</f>
+        <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
       <c r="H19" s="3">
@@ -8316,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="9">
-        <f>D20+E20*0.001</f>
+        <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H20" s="9">
@@ -8340,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <f>D21+E21*0.001</f>
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H21" s="9">
@@ -8364,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f>D22+E22*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.25700000000000001</v>
       </c>
       <c r="H22" s="9">
@@ -8388,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="9">
-        <f>D23+E23*0.001</f>
+        <f t="shared" si="0"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H23" s="9">
@@ -8412,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <f>D24+E24*0.001</f>
+        <f t="shared" si="0"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="H24" s="3">
@@ -8436,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="9">
-        <f>D25+E25*0.001</f>
+        <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H25" s="9">
@@ -8460,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f>D26+E26*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="H26" s="9">
@@ -8484,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="9">
-        <f>D27+E27*0.001</f>
+        <f t="shared" si="0"/>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="H27" s="9">
@@ -8508,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="9">
-        <f>D28+E28*0.001</f>
+        <f t="shared" si="0"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="H28" s="9">
@@ -8532,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <f>D29+E29*0.001</f>
+        <f t="shared" si="0"/>
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="H29" s="9">
@@ -8556,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <f>D30+E30*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="H30" s="9">
@@ -8580,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="9">
-        <f>D31+E31*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.13300000000000001</v>
       </c>
       <c r="H31" s="9">
@@ -8604,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="9">
-        <f>D32+E32*0.001</f>
+        <f t="shared" si="0"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="H32" s="9">
@@ -8628,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="9">
-        <f>D33+E33*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.71399999999999997</v>
       </c>
       <c r="H33" s="9">
@@ -8757,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f>D42+E42*0.001</f>
+        <f t="shared" ref="G42:G69" si="1">D42+E42*0.001</f>
         <v>1.256</v>
       </c>
       <c r="H42" s="9">
@@ -8784,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <f>D43+E43*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.99199999999999999</v>
       </c>
       <c r="H43" s="3">
@@ -8808,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f>D44+E44*0.001</f>
+        <f t="shared" si="1"/>
         <v>1.1579999999999999</v>
       </c>
       <c r="H44" s="9">
@@ -8832,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f>D45+E45*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.44700000000000001</v>
       </c>
       <c r="H45" s="3">
@@ -8856,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f>D46+E46*0.001</f>
+        <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
       <c r="H46" s="9">
@@ -8880,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f>D47+E47*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.45600000000000002</v>
       </c>
       <c r="H47" s="9">
@@ -8904,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <f>D48+E48*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.56099999999999994</v>
       </c>
       <c r="H48" s="9">
@@ -8928,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f>D49+E49*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.877</v>
       </c>
       <c r="H49" s="9">
@@ -8952,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <f>D50+E50*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.746</v>
       </c>
       <c r="H50" s="9">
@@ -8976,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f>D51+E51*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.46200000000000002</v>
       </c>
       <c r="H51" s="9">
@@ -9000,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f>D52+E52*0.001</f>
+        <f t="shared" si="1"/>
         <v>1.0569999999999999</v>
       </c>
       <c r="H52" s="9">
@@ -9024,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f>D53+E53*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.45800000000000002</v>
       </c>
       <c r="H53" s="9">
@@ -9048,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f>D54+E54*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.749</v>
       </c>
       <c r="H54" s="3">
@@ -9072,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f>D55+E55*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.85200000000000009</v>
       </c>
       <c r="H55" s="9">
@@ -9096,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f>D56+E56*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.92600000000000005</v>
       </c>
       <c r="H56" s="9">
@@ -9120,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f>D57+E57*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.44700000000000001</v>
       </c>
       <c r="H57" s="9">
@@ -9144,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f>D58+E58*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
       <c r="H58" s="9">
@@ -9168,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f>D59+E59*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.45600000000000002</v>
       </c>
       <c r="H59" s="9">
@@ -9192,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f>D60+E60*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.56099999999999994</v>
       </c>
       <c r="H60" s="9">
@@ -9216,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f>D61+E61*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.55699999999999994</v>
       </c>
       <c r="H61" s="9">
@@ -9240,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f>D62+E62*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.53600000000000003</v>
       </c>
       <c r="H62" s="9">
@@ -9264,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f>D63+E63*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.44600000000000006</v>
       </c>
       <c r="H63" s="3">
@@ -9288,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f>D64+E64*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.98199999999999998</v>
       </c>
       <c r="H64" s="9">
@@ -9312,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f>D65+E65*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="H65" s="3">
@@ -9336,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f>D66+E66*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.73399999999999999</v>
       </c>
       <c r="H66" s="9">
@@ -9360,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f>D67+E67*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.73699999999999999</v>
       </c>
       <c r="H67" s="9">
@@ -9384,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f>D68+E68*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.14600000000000002</v>
       </c>
       <c r="H68" s="9">
@@ -9408,11 +9423,779 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f>D69+E69*0.001</f>
+        <f t="shared" si="1"/>
         <v>0.73799999999999999</v>
       </c>
       <c r="H69" s="9">
         <v>11.22</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>411</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1.855E-5</v>
+      </c>
+      <c r="E74">
+        <v>342.26299999999998</v>
+      </c>
+      <c r="F74">
+        <v>4980.88</v>
+      </c>
+      <c r="G74" s="1">
+        <f>D74+E74*0.001+0.1*F74</f>
+        <v>498.43028155000002</v>
+      </c>
+      <c r="H74" s="3">
+        <v>905.15300000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>53.975999999999999</v>
+      </c>
+      <c r="F75" s="8">
+        <v>6.2819999999999997E-7</v>
+      </c>
+      <c r="G75" s="1">
+        <f>D75+E75*0.001+0.1*F75</f>
+        <v>5.4976062820000005E-2</v>
+      </c>
+      <c r="H75" s="3">
+        <v>663.07600000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>382</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E76">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F76" s="8">
+        <v>5.9289999999999997E-7</v>
+      </c>
+      <c r="G76" s="1">
+        <f>D76+E76*0.001+0.1*F76</f>
+        <v>1.6770592900000002E-3</v>
+      </c>
+      <c r="H76" s="3">
+        <v>564.94500000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>48.72</v>
+      </c>
+      <c r="F77" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G77" s="1">
+        <f>D77+E77*0.001+0.1*F77</f>
+        <v>5.0220000000000001E-2</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1403.03</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="E78">
+        <v>298</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" ref="G78:G105" si="2">D78+E78*0.001</f>
+        <v>1.296</v>
+      </c>
+      <c r="H78" s="3">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>384</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="E79">
+        <v>48</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="H79" s="3">
+        <v>71.209999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.996</v>
+      </c>
+      <c r="E80">
+        <v>208</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="2"/>
+        <v>1.204</v>
+      </c>
+      <c r="H80" s="3">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>386</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E81">
+        <v>372</v>
+      </c>
+      <c r="F81" s="9">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <f>D81+E81*0.001</f>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H81" s="9">
+        <v>60.26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E82">
+        <v>68</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <f>D82+E82*0.001</f>
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="H82" s="9">
+        <v>70.94</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>388</v>
+      </c>
+      <c r="C83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E83">
+        <v>290</v>
+      </c>
+      <c r="F83" s="9">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <f>D83+E83*0.001</f>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="H83" s="9">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E84">
+        <v>248</v>
+      </c>
+      <c r="F84" s="9">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <f>D84+E84*0.001</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H84" s="9">
+        <v>71.33</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E85">
+        <v>48</v>
+      </c>
+      <c r="F85" s="9">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <f>D85+E85*0.001</f>
+        <v>0.70600000000000007</v>
+      </c>
+      <c r="H85" s="9">
+        <v>71.010000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E86">
+        <v>148</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <f>D86+E86*0.001</f>
+        <v>0.70500000000000007</v>
+      </c>
+      <c r="H86" s="9">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E87">
+        <v>354</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <f>D87+E87*0.001</f>
+        <v>0.53299999999999992</v>
+      </c>
+      <c r="H87" s="9">
+        <v>70.77</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E88">
+        <v>72</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <f>D88+E88*0.001</f>
+        <v>1.038</v>
+      </c>
+      <c r="H88" s="9">
+        <v>70.87</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0.224</v>
+      </c>
+      <c r="E89">
+        <v>288</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H89" s="9">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="2"/>
+        <v>0.999</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="E91">
+        <v>18</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <f>D91+E91*0.001</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H91" s="9">
+        <v>202.39</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E92">
+        <v>50</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H92" s="9">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0.107</v>
+      </c>
+      <c r="E93">
+        <v>372</v>
+      </c>
+      <c r="F93" s="9">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="H93" s="9">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H94" s="9">
+        <v>64.290000000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E95">
+        <v>286</v>
+      </c>
+      <c r="F95" s="9">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45100000000000007</v>
+      </c>
+      <c r="H95" s="9">
+        <v>41.43</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E96">
+        <v>248</v>
+      </c>
+      <c r="F96" s="9">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H96" s="9">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E97">
+        <v>48</v>
+      </c>
+      <c r="F97" s="9">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="H97" s="9">
+        <v>59.21</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E98">
+        <v>158</v>
+      </c>
+      <c r="F98" s="9">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H98" s="9">
+        <v>39.78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H99" s="3">
+        <v>46.26</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" s="9">
+        <v>0.496</v>
+      </c>
+      <c r="E100">
+        <v>70</v>
+      </c>
+      <c r="F100" s="9">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56600000000000006</v>
+      </c>
+      <c r="H100" s="9">
+        <v>74.88</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E101">
+        <v>290</v>
+      </c>
+      <c r="F101" s="9">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41</v>
+      </c>
+      <c r="H101" s="3">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="2"/>
+        <v>0.999</v>
+      </c>
+      <c r="H102" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" s="9">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="2"/>
+        <v>0.999</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>414</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E104">
+        <v>48</v>
+      </c>
+      <c r="F104" s="9">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H104" s="9">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>415</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D105" s="9">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E105">
+        <v>64</v>
+      </c>
+      <c r="F105" s="9">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H105" s="9">
+        <v>16.89</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444F7477-4BE0-EC46-B2AB-A7EB7272B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42730BBB-0593-AD41-BD25-0218767C7671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42730BBB-0593-AD41-BD25-0218767C7671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1DD674-C171-3840-8DAE-3909219086C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="423">
   <si>
     <t>Name</t>
   </si>
@@ -1319,16 +1320,38 @@
   </si>
   <si>
     <t>MoleculeNewST_LiH_evotime_20.0_n_ts200_n_switch32_initwarm_minuptime0.5.log</t>
+  </si>
+  <si>
+    <t>Bonmin</t>
+  </si>
+  <si>
+    <t>couenne</t>
+  </si>
+  <si>
+    <t>scip</t>
+  </si>
+  <si>
+    <t>True energy</t>
+  </si>
+  <si>
+    <t>true energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true energy </t>
+  </si>
+  <si>
+    <t>all switches: 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1348,6 +1371,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1376,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1403,12 +1432,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:G81"/>
+    <sheetView tabSelected="1" topLeftCell="B267" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284:G284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2428,7 +2459,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ref="F30:F33" si="3">D30+E30*0.01</f>
+        <f t="shared" ref="F30:F38" si="3">D30+E30*0.01</f>
         <v>-0.90672000000000008</v>
       </c>
       <c r="G30">
@@ -2488,302 +2519,282 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>418</v>
       </c>
       <c r="D33">
-        <v>-0.999</v>
+        <v>-0.85099999999999998</v>
       </c>
       <c r="E33">
-        <v>8.6370000000000005</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="3"/>
+        <v>-0.77100000000000002</v>
+      </c>
+      <c r="G33">
+        <v>300.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>-0.999</v>
+      </c>
+      <c r="E34">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="3"/>
         <v>-0.91263000000000005</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>1.67</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D35">
+        <v>-0.876</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.75600000000000001</v>
+      </c>
+      <c r="G35">
+        <v>14400.72</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+      <c r="D36">
+        <v>-0.85199999999999998</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="G36">
+        <v>305.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="E37">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.189</v>
+      </c>
+      <c r="G37">
+        <v>14520.49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="E38">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.189</v>
+      </c>
+      <c r="G38" s="16">
+        <v>306.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F40" s="1"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="D36">
+      <c r="D42">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E36">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F36" s="1">
-        <f>D36+E36*0.1</f>
+      <c r="F42" s="1">
+        <f>D42+E42*0.1</f>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G36">
+      <c r="G42">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D37">
+      <c r="D43">
         <v>-0.79600000000000004</v>
       </c>
-      <c r="E37">
+      <c r="E43">
         <v>0.76200000000000001</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" ref="F37:F63" si="4">D37+E37*0.1</f>
+      <c r="F43" s="1">
+        <f t="shared" ref="F43:F69" si="4">D43+E43*0.1</f>
         <v>-0.7198</v>
       </c>
-      <c r="G37">
+      <c r="G43">
         <v>14.82</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D38">
+      <c r="D44">
         <v>-0.90700000000000003</v>
       </c>
-      <c r="E38">
+      <c r="E44">
         <v>1.355</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F44" s="1">
         <f t="shared" si="4"/>
         <v>-0.77150000000000007</v>
       </c>
-      <c r="G38">
+      <c r="G44">
         <v>1.38</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C45" t="s">
         <v>29</v>
       </c>
-      <c r="D39">
+      <c r="D45">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E39">
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F45" s="1">
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="D40">
+      <c r="D46">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E40">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F46" s="1">
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" t="s">
         <v>31</v>
       </c>
-      <c r="D41">
+      <c r="D47">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="E41">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F47" s="1">
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" t="s">
         <v>32</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <v>-0.80600000000000005</v>
       </c>
-      <c r="E42">
+      <c r="E48">
         <v>30</v>
       </c>
-      <c r="F42" s="1">
-        <f>D45+E45*0.1</f>
+      <c r="F48" s="1">
+        <f>D51+E51*0.1</f>
         <v>0.4880000000000001</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43">
-        <v>-0.76500000000000001</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="1">
-        <f>D46+E46*0.1</f>
-        <v>-0.73100000000000009</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44">
-        <v>-0.71399999999999997</v>
-      </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44" s="1">
-        <f>D47+E47*0.1</f>
-        <v>7.8999999999999959E-2</v>
-      </c>
-      <c r="G44">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45">
-        <v>-0.91200000000000003</v>
-      </c>
-      <c r="E45">
-        <v>14</v>
-      </c>
-      <c r="F45" s="1">
-        <f>D45+E45*0.1</f>
-        <v>0.4880000000000001</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <v>-0.93100000000000005</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1">
-        <f>D46+E46*0.1</f>
-        <v>-0.73100000000000009</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47">
-        <v>-0.92100000000000004</v>
-      </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1">
-        <f>D47+E47*0.1</f>
-        <v>7.8999999999999959E-2</v>
-      </c>
-      <c r="G47">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-0.94899999999999995</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -2791,20 +2802,20 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="1">
+        <v>33</v>
+      </c>
+      <c r="D49">
         <v>-0.76500000000000001</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.56499999999999995</v>
+        <f>D52+E52*0.1</f>
+        <v>-0.73100000000000009</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2812,96 +2823,96 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="1">
-        <v>-0.94899999999999995</v>
+        <v>34</v>
+      </c>
+      <c r="D50">
+        <v>-0.71399999999999997</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G50" t="s">
+        <f>D53+E53*0.1</f>
+        <v>7.8999999999999959E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="E51">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-0.76500000000000001</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
       <c r="F51" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.56499999999999995</v>
+        <f>D51+E51*0.1</f>
+        <v>0.4880000000000001</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>42</v>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
       </c>
       <c r="D52">
-        <v>-0.94899999999999995</v>
+        <v>-0.93100000000000005</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G52">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>35</v>
+        <f>D52+E52*0.1</f>
+        <v>-0.73100000000000009</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>-0.94899999999999995</v>
+        <v>-0.92100000000000004</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54">
+        <f>D53+E53*0.1</f>
+        <v>7.8999999999999959E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="1">
         <v>-0.94899999999999995</v>
       </c>
       <c r="E54">
@@ -2911,39 +2922,39 @@
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G54">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55">
-        <v>-0.94899999999999995</v>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-0.76500000000000001</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G55">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56">
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="1">
         <v>-0.94899999999999995</v>
       </c>
       <c r="E56">
@@ -2953,37 +2964,37 @@
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G56">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>164</v>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>85</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57">
-        <v>-0.94899999999999995</v>
+        <v>69</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-0.76500000000000001</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>-0.74899999999999989</v>
-      </c>
-      <c r="G57">
-        <v>0.85</v>
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D58">
         <v>-0.94899999999999995</v>
@@ -2996,15 +3007,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G58">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>-0.94899999999999995</v>
@@ -3016,16 +3027,16 @@
         <f t="shared" si="4"/>
         <v>-0.74899999999999989</v>
       </c>
-      <c r="G59">
-        <v>0.69</v>
+      <c r="G59" s="7">
+        <v>0.13</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D60">
         <v>-0.94899999999999995</v>
@@ -3038,15 +3049,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G60">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="D61">
         <v>-0.94899999999999995</v>
@@ -3059,15 +3070,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G61">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>-0.94899999999999995</v>
@@ -3080,15 +3091,15 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G62">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="D63">
         <v>-0.94899999999999995</v>
@@ -3101,226 +3112,226 @@
         <v>-0.74899999999999989</v>
       </c>
       <c r="G63">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G64">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G65">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G66">
         <v>0.24</v>
       </c>
     </row>
-    <row r="65" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="67" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G67">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G68">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69">
+        <v>-0.94899999999999995</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74899999999999989</v>
+      </c>
+      <c r="G69">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>88</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D66">
+      <c r="D72">
         <v>-4.7359999999999998</v>
       </c>
-      <c r="E66">
+      <c r="E72">
         <v>9.8680000000000003</v>
       </c>
-      <c r="F66" s="1">
-        <f t="shared" ref="F66:F93" si="5">D66+E66*0.01</f>
+      <c r="F72" s="1">
+        <f t="shared" ref="F72:F99" si="5">D72+E72*0.01</f>
         <v>-4.6373199999999999</v>
       </c>
-      <c r="G66">
+      <c r="G72">
         <v>40.481000000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>89</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C73" t="s">
         <v>28</v>
       </c>
-      <c r="D67">
+      <c r="D73">
         <v>-4.6550000000000002</v>
       </c>
-      <c r="E67">
+      <c r="E73">
         <v>2.5179999999999998</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F73" s="1">
         <f t="shared" si="5"/>
         <v>-4.6298200000000005</v>
       </c>
-      <c r="G67">
+      <c r="G73">
         <v>1143.44</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="74" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D68">
+      <c r="D74">
         <v>-4.734</v>
       </c>
-      <c r="E68">
+      <c r="E74">
         <v>7.0789999999999997</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F74" s="1">
         <f t="shared" si="5"/>
         <v>-4.6632100000000003</v>
       </c>
-      <c r="G68">
+      <c r="G74">
         <v>151.85</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>90</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C75" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D75" s="1">
         <v>-4.67</v>
       </c>
-      <c r="E69">
+      <c r="E75">
         <v>30</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F75" s="1">
         <f t="shared" si="5"/>
         <v>-4.37</v>
       </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70">
-        <v>-0.20300000000000001</v>
-      </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="F70" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="G70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="1">
-        <v>-4.62</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.5200000000000005</v>
-      </c>
-      <c r="G71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72">
-        <v>-4.6440000000000001</v>
-      </c>
-      <c r="E72">
-        <v>56</v>
-      </c>
-      <c r="F72" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.0839999999999996</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="1">
-        <v>-0.28199999999999997</v>
-      </c>
-      <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="F73" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.22199999999999998</v>
-      </c>
-      <c r="G73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74">
-        <v>-4.1040000000000001</v>
-      </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.0040000000000004</v>
-      </c>
-      <c r="G74">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="1">
-        <v>-4.7220000000000004</v>
-      </c>
-      <c r="E75">
-        <v>38</v>
-      </c>
-      <c r="F75" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.3420000000000005</v>
-      </c>
       <c r="G75" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D76">
         <v>-0.20300000000000001</v>
@@ -3338,20 +3349,20 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D77" s="1">
-        <v>-4.5810000000000004</v>
+        <v>-4.62</v>
       </c>
       <c r="E77">
         <v>10</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="5"/>
-        <v>-4.4810000000000008</v>
+        <v>-4.5200000000000005</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
@@ -3359,241 +3370,241 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D78">
-        <v>-2.8780000000000001</v>
+        <v>-4.6440000000000001</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="5"/>
-        <v>-2.8380000000000001</v>
-      </c>
-      <c r="G78">
-        <v>0.57999999999999996</v>
+        <v>-4.0839999999999996</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D79" s="1">
-        <v>-1.272</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="E79">
         <v>6</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="5"/>
-        <v>-1.212</v>
-      </c>
-      <c r="G79">
-        <v>0.18</v>
+        <v>-0.22199999999999998</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>-4.1040000000000001</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4.0040000000000004</v>
       </c>
       <c r="G80">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
+      </c>
+      <c r="C81" t="s">
+        <v>59</v>
       </c>
       <c r="D81" s="1">
-        <v>-0.156</v>
+        <v>-4.7220000000000004</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="5"/>
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="G81">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>42</v>
+        <v>-4.3420000000000005</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
       </c>
       <c r="D82">
-        <v>-4.6859999999999999</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="E82">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="5"/>
-        <v>-4.4660000000000002</v>
-      </c>
-      <c r="G82">
-        <v>19.510000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>35</v>
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
       </c>
       <c r="D83" s="1">
-        <v>-1.1319999999999999</v>
+        <v>-4.5810000000000004</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="5"/>
-        <v>-1.0719999999999998</v>
-      </c>
-      <c r="G83">
-        <v>20.02</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>-4.4810000000000008</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
       </c>
       <c r="D84">
-        <v>-4.6660000000000004</v>
+        <v>-2.8780000000000001</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="5"/>
-        <v>-4.5660000000000007</v>
+        <v>-2.8380000000000001</v>
       </c>
       <c r="G84">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>43</v>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
       </c>
       <c r="D85" s="1">
-        <v>-4.6440000000000001</v>
+        <v>-1.272</v>
       </c>
       <c r="E85">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="5"/>
-        <v>-4.0839999999999996</v>
+        <v>-1.212</v>
       </c>
       <c r="G85">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>37</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
       </c>
       <c r="D86">
-        <v>-1.1319999999999999</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="5"/>
-        <v>-1.0919999999999999</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>14.34</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>167</v>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D87" s="1">
-        <v>-4.681</v>
+        <v>-0.156</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="5"/>
-        <v>-4.5810000000000004</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="G87">
-        <v>48.04</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-4.7220000000000004</v>
+        <v>42</v>
+      </c>
+      <c r="D88">
+        <v>-4.6859999999999999</v>
       </c>
       <c r="E88">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="5"/>
-        <v>-4.3420000000000005</v>
+        <v>-4.4660000000000002</v>
       </c>
       <c r="G88">
-        <v>4.53</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="D89" s="1">
         <v>-1.1319999999999999</v>
@@ -3606,17 +3617,17 @@
         <v>-1.0719999999999998</v>
       </c>
       <c r="G89">
-        <v>17.57</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D90" s="1">
+        <v>36</v>
+      </c>
+      <c r="D90">
         <v>-4.6660000000000004</v>
       </c>
       <c r="E90">
@@ -3627,59 +3638,59 @@
         <v>-4.5660000000000007</v>
       </c>
       <c r="G90">
-        <v>16.36</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D91">
-        <v>-4.5179999999999998</v>
+        <v>43</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-4.6440000000000001</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="5"/>
-        <v>-4.3179999999999996</v>
+        <v>-4.0839999999999996</v>
       </c>
       <c r="G91">
-        <v>79.12</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="1">
-        <v>-1.548</v>
+        <v>37</v>
+      </c>
+      <c r="D92">
+        <v>-1.1319999999999999</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="5"/>
-        <v>-1.488</v>
+        <v>-1.0919999999999999</v>
       </c>
       <c r="G92">
-        <v>26.9</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93">
+        <v>38</v>
+      </c>
+      <c r="D93" s="1">
         <v>-4.681</v>
       </c>
       <c r="E93">
@@ -3690,375 +3701,364 @@
         <v>-4.5810000000000004</v>
       </c>
       <c r="G93">
+        <v>48.04</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-4.7220000000000004</v>
+      </c>
+      <c r="E94">
+        <v>38</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.3420000000000005</v>
+      </c>
+      <c r="G94">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-1.1319999999999999</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0719999999999998</v>
+      </c>
+      <c r="G95">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-4.6660000000000004</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5660000000000007</v>
+      </c>
+      <c r="G96">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>-4.5179999999999998</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.3179999999999996</v>
+      </c>
+      <c r="G97">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-1.548</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.488</v>
+      </c>
+      <c r="G98">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99">
+        <v>-4.681</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.5810000000000004</v>
+      </c>
+      <c r="G99">
         <v>88.38</v>
       </c>
     </row>
-    <row r="95" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="100" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-5</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="102" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C103" t="s">
         <v>27</v>
       </c>
-      <c r="D96">
+      <c r="D103">
         <v>-3.9990000000000001</v>
       </c>
-      <c r="E96">
+      <c r="E103">
         <v>4.5519999999999996</v>
       </c>
-      <c r="F96" s="1">
-        <f t="shared" ref="F96:F123" si="6">D96+E96*0.01</f>
+      <c r="F103" s="1">
+        <f t="shared" ref="F103:F130" si="6">D103+E103*0.01</f>
         <v>-3.9534800000000003</v>
       </c>
-      <c r="G96">
+      <c r="G103">
         <v>0.71</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>130</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C104" t="s">
         <v>28</v>
       </c>
-      <c r="D97">
+      <c r="D104">
         <v>-3.9929999999999999</v>
       </c>
-      <c r="E97">
+      <c r="E104">
         <v>3.4289999999999998</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F104" s="1">
         <f t="shared" si="6"/>
         <v>-3.95871</v>
       </c>
-      <c r="G97">
+      <c r="G104">
         <v>133.13999999999999</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H104" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="105" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D98">
+      <c r="D105">
         <v>-3.9990000000000001</v>
       </c>
-      <c r="E98">
+      <c r="E105">
         <v>3.6829999999999998</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F105" s="1">
         <f t="shared" si="6"/>
         <v>-3.96217</v>
       </c>
-      <c r="G98">
+      <c r="G105">
         <v>43.35</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>132</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C106" t="s">
         <v>29</v>
       </c>
-      <c r="D99">
+      <c r="D106">
         <v>-3.9980000000000002</v>
       </c>
-      <c r="E99">
+      <c r="E106">
         <v>42</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F106" s="1">
         <f t="shared" si="6"/>
         <v>-3.5780000000000003</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>133</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C107" t="s">
         <v>30</v>
       </c>
-      <c r="D100">
+      <c r="D107">
         <v>-3.8839999999999999</v>
       </c>
-      <c r="E100">
+      <c r="E107">
         <v>6</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F107" s="1">
         <f t="shared" si="6"/>
         <v>-3.8239999999999998</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G107" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>134</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="D101">
+      <c r="D108">
         <v>-3.92</v>
       </c>
-      <c r="E101">
+      <c r="E108">
         <v>10</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F108" s="1">
         <f t="shared" si="6"/>
         <v>-3.82</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G108" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>135</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C109" t="s">
         <v>32</v>
       </c>
-      <c r="D102">
+      <c r="D109">
         <v>-3.9940000000000002</v>
       </c>
-      <c r="E102">
+      <c r="E109">
         <v>46</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F109" s="1">
         <f t="shared" si="6"/>
         <v>-3.5340000000000003</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>136</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C110" t="s">
         <v>33</v>
       </c>
-      <c r="D103">
+      <c r="D110">
         <v>-3.8839999999999999</v>
       </c>
-      <c r="E103">
+      <c r="E110">
         <v>6</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F110" s="1">
         <f t="shared" si="6"/>
         <v>-3.8239999999999998</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G110" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>137</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C111" t="s">
         <v>34</v>
       </c>
-      <c r="D104">
+      <c r="D111">
         <v>-3.9279999999999999</v>
       </c>
-      <c r="E104">
+      <c r="E111">
         <v>10</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F111" s="1">
         <f t="shared" si="6"/>
         <v>-3.8279999999999998</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G111" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>138</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C112" t="s">
         <v>59</v>
       </c>
-      <c r="D105">
+      <c r="D112">
         <v>-3.9990000000000001</v>
       </c>
-      <c r="E105">
+      <c r="E112">
         <v>38</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F112" s="1">
         <f t="shared" si="6"/>
         <v>-3.6190000000000002</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G112" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>139</v>
       </c>
-      <c r="C106" t="s">
-        <v>35</v>
-      </c>
-      <c r="D106">
-        <v>-3.8839999999999999</v>
-      </c>
-      <c r="E106">
-        <v>6</v>
-      </c>
-      <c r="F106" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107">
-        <v>-3.9260000000000002</v>
-      </c>
-      <c r="E107">
-        <v>10</v>
-      </c>
-      <c r="F107" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8260000000000001</v>
-      </c>
-      <c r="G107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
-      <c r="F108" s="1">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="G108">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109">
-        <v>-3.8839999999999999</v>
-      </c>
-      <c r="E109">
-        <v>6</v>
-      </c>
-      <c r="F109" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G109">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>143</v>
-      </c>
-      <c r="C110" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
-      </c>
-      <c r="F110" s="1">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="G110">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111">
-        <v>-3.8839999999999999</v>
-      </c>
-      <c r="E111">
-        <v>6</v>
-      </c>
-      <c r="F111" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
-      </c>
-      <c r="G111">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112">
-        <v>-3.9980000000000002</v>
-      </c>
-      <c r="E112">
-        <v>42</v>
-      </c>
-      <c r="F112" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.5780000000000003</v>
-      </c>
-      <c r="G112">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B113" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" t="s">
         <v>35</v>
       </c>
       <c r="D113">
@@ -4071,58 +4071,58 @@
         <f t="shared" si="6"/>
         <v>-3.8239999999999998</v>
       </c>
-      <c r="G113">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B114" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" t="s">
         <v>36</v>
       </c>
       <c r="D114">
-        <v>-3.9620000000000002</v>
+        <v>-3.9260000000000002</v>
       </c>
       <c r="E114">
         <v>10</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8620000000000001</v>
-      </c>
-      <c r="G114">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B115" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>43</v>
+        <v>-3.8260000000000001</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
       </c>
       <c r="D115">
-        <v>-3.9940000000000002</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="6"/>
-        <v>-3.5340000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="G115">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B116" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>37</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>62</v>
       </c>
       <c r="D116">
         <v>-3.8839999999999999</v>
@@ -4135,154 +4135,3009 @@
         <v>-3.8239999999999998</v>
       </c>
       <c r="G116">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B117" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>38</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
       </c>
       <c r="D117">
-        <v>-3.9710000000000001</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="6"/>
-        <v>-3.871</v>
+        <v>0.02</v>
       </c>
       <c r="G117">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B118" s="2" t="s">
-        <v>249</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="D118">
-        <v>-3.9990000000000001</v>
+        <v>-3.8839999999999999</v>
       </c>
       <c r="E118">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="6"/>
-        <v>-3.6190000000000002</v>
+        <v>-3.8239999999999998</v>
       </c>
       <c r="G118">
-        <v>0.99</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="D119">
-        <v>-3.8839999999999999</v>
+        <v>-3.9980000000000002</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
+        <v>-3.5780000000000003</v>
       </c>
       <c r="G119">
-        <v>0.98</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="D120">
-        <v>-3.9750000000000001</v>
+        <v>-3.8839999999999999</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="6"/>
-        <v>-3.875</v>
+        <v>-3.8239999999999998</v>
       </c>
       <c r="G120">
-        <v>2.15</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D121">
-        <v>-3.9889999999999999</v>
+        <v>-3.9620000000000002</v>
       </c>
       <c r="E121">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8489999999999998</v>
+        <v>-3.8620000000000001</v>
       </c>
       <c r="G121">
-        <v>22.66</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D122">
-        <v>-3.8839999999999999</v>
+        <v>-3.9940000000000002</v>
       </c>
       <c r="E122">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
+        <v>-3.5340000000000003</v>
       </c>
       <c r="G122">
-        <v>1.1299999999999999</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D123">
-        <v>-3.992</v>
+        <v>-3.8839999999999999</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G123">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124">
+        <v>-3.9710000000000001</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.871</v>
+      </c>
+      <c r="G124">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D125">
+        <v>-3.9990000000000001</v>
+      </c>
+      <c r="E125">
+        <v>38</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.6190000000000002</v>
+      </c>
+      <c r="G125">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D126">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G126">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D127">
+        <v>-3.9750000000000001</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.875</v>
+      </c>
+      <c r="G127">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128">
+        <v>-3.9889999999999999</v>
+      </c>
+      <c r="E128">
+        <v>14</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8489999999999998</v>
+      </c>
+      <c r="G128">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G129">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130">
+        <v>-3.992</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="6"/>
         <v>-3.8919999999999999</v>
       </c>
-      <c r="G123">
+      <c r="G130">
         <v>13.8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D131">
+        <v>-4</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="133" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134">
+        <v>-2.8849999999999998</v>
+      </c>
+      <c r="E134">
+        <v>6.8949999999999996</v>
+      </c>
+      <c r="F134" s="1">
+        <f>D134+E134*0.01</f>
+        <v>-2.8160499999999997</v>
+      </c>
+      <c r="G134">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135">
+        <v>-2.8410000000000002</v>
+      </c>
+      <c r="E135">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" ref="F135:F158" si="7">D135+E135*0.01</f>
+        <v>-2.8098900000000002</v>
+      </c>
+      <c r="G135">
+        <v>839.77</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C136" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136">
+        <v>-2.8809999999999998</v>
+      </c>
+      <c r="E136">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="7"/>
+        <v>-2.83222</v>
+      </c>
+      <c r="G136">
+        <v>183.61</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137">
+        <v>-2.867</v>
+      </c>
+      <c r="E137">
+        <v>30</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="7"/>
+        <v>-2.5670000000000002</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <v>-1.427</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="7"/>
+        <v>-1.367</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>31</v>
+      </c>
+      <c r="D139">
+        <v>-2.7679999999999998</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="7"/>
+        <v>-2.6679999999999997</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140">
+        <v>-2.8159999999999998</v>
+      </c>
+      <c r="E140">
+        <v>52</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="7"/>
+        <v>-2.2959999999999998</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141">
+        <v>-1.427</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="7"/>
+        <v>-1.367</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142">
+        <v>-2.84</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="7"/>
+        <v>-2.7399999999999998</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143">
+        <v>-2.8740000000000001</v>
+      </c>
+      <c r="E143">
+        <v>42</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="7"/>
+        <v>-2.4540000000000002</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144">
+        <v>-1.427</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>-1.367</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145">
+        <v>-2.6720000000000002</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="7"/>
+        <v>-2.5720000000000001</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146">
+        <v>-2.3149999999999999</v>
+      </c>
+      <c r="E146">
+        <v>6</v>
+      </c>
+      <c r="F146" s="1">
+        <f>D146+E146*0.01</f>
+        <v>-2.2549999999999999</v>
+      </c>
+      <c r="G146">
+        <v>1.04</v>
+      </c>
+      <c r="H146" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147">
+        <v>-1.427</v>
+      </c>
+      <c r="E147">
+        <v>6</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" ref="F147:F149" si="8">D147+E147*0.01</f>
+        <v>-1.367</v>
+      </c>
+      <c r="G147">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148">
+        <v>-2.3149999999999999</v>
+      </c>
+      <c r="E148">
+        <v>6</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="8"/>
+        <v>-2.2549999999999999</v>
+      </c>
+      <c r="G148">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" s="7">
+        <v>-1.427</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.367</v>
+      </c>
+      <c r="G149">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C150" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D150">
+        <v>-2.851</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="7"/>
+        <v>-2.7109999999999999</v>
+      </c>
+      <c r="G150">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C151" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151">
+        <v>-2.2130000000000001</v>
+      </c>
+      <c r="E151">
+        <v>6</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="7"/>
+        <v>-2.153</v>
+      </c>
+      <c r="G151">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152">
+        <v>-2.8519999999999999</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="7"/>
+        <v>-2.7519999999999998</v>
+      </c>
+      <c r="G152">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153">
+        <v>-2.8519999999999999</v>
+      </c>
+      <c r="E153">
+        <v>46</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="7"/>
+        <v>-2.3919999999999999</v>
+      </c>
+      <c r="G153">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C154" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D154">
+        <v>-2.2130000000000001</v>
+      </c>
+      <c r="E154">
+        <v>6</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="7"/>
+        <v>-2.153</v>
+      </c>
+      <c r="G154">
+        <v>46.69</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C155" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155">
+        <v>-2.8570000000000002</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="7"/>
+        <v>-2.7570000000000001</v>
+      </c>
+      <c r="G155">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C156" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D156">
+        <v>-2.8740000000000001</v>
+      </c>
+      <c r="E156">
+        <v>42</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="7"/>
+        <v>-2.4540000000000002</v>
+      </c>
+      <c r="G156">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C157" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D157">
+        <v>-2.2130000000000001</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="7"/>
+        <v>-2.153</v>
+      </c>
+      <c r="G157">
+        <v>54.53</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C158" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D158">
+        <v>-2.8519999999999999</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="7"/>
+        <v>-2.7519999999999998</v>
+      </c>
+      <c r="G158">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C159" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D159">
+        <v>-3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161">
+        <v>-5.3250000000000002</v>
+      </c>
+      <c r="E161">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" ref="F161:F185" si="9">D161+E161*0.01</f>
+        <v>-5.2618499999999999</v>
+      </c>
+      <c r="G161">
+        <v>32.619999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162">
+        <v>-5.3019999999999996</v>
+      </c>
+      <c r="E162">
+        <v>3.839</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.2636099999999999</v>
+      </c>
+      <c r="G162">
+        <v>1275.9000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C163" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163">
+        <v>-5.3209999999999997</v>
+      </c>
+      <c r="E163">
+        <v>4.6029999999999998</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.2749699999999997</v>
+      </c>
+      <c r="G163">
+        <v>584.21</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>29</v>
+      </c>
+      <c r="D164">
+        <v>-5.3079999999999998</v>
+      </c>
+      <c r="E164">
+        <v>42</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.8879999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165">
+        <v>-2.1</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>31</v>
+      </c>
+      <c r="D166">
+        <v>-5.1859999999999999</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
+      <c r="F166" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.0860000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167">
+        <v>-5.2930000000000001</v>
+      </c>
+      <c r="E167">
+        <v>58</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.7130000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168">
+        <v>-2.1</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="F168" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169">
+        <v>-5.1139999999999999</v>
+      </c>
+      <c r="E169">
+        <v>10</v>
+      </c>
+      <c r="F169" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.0140000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>59</v>
+      </c>
+      <c r="D170">
+        <v>-5.3029999999999999</v>
+      </c>
+      <c r="E170">
+        <v>50</v>
+      </c>
+      <c r="F170" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.8029999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171">
+        <v>-2.1</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="F171" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172">
+        <v>-5.0069999999999997</v>
+      </c>
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.907</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173">
+        <v>-0.36099999999999999</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.34099999999999997</v>
+      </c>
+      <c r="G173">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>62</v>
+      </c>
+      <c r="D174">
+        <v>-3.113</v>
+      </c>
+      <c r="E174">
+        <v>6</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" si="9"/>
+        <v>-3.0529999999999999</v>
+      </c>
+      <c r="G174">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175">
+        <v>-0.36099999999999999</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" s="1">
+        <f>D175+E175*0.01</f>
+        <v>-0.34099999999999997</v>
+      </c>
+      <c r="G175">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C176" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176">
+        <v>-3.113</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176" s="1">
+        <f>D176+E176*0.01</f>
+        <v>-3.0529999999999999</v>
+      </c>
+      <c r="G176">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C177" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177">
+        <v>-5.3079999999999998</v>
+      </c>
+      <c r="E177">
+        <v>42</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.8879999999999999</v>
+      </c>
+      <c r="G177">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D178">
+        <v>-2.1</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.04</v>
+      </c>
+      <c r="G178">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D179">
+        <v>-5.1870000000000003</v>
+      </c>
+      <c r="E179">
+        <v>10</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.0870000000000006</v>
+      </c>
+      <c r="G179">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C180" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D180">
+        <v>-5.2930000000000001</v>
+      </c>
+      <c r="E180">
+        <v>58</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.7130000000000001</v>
+      </c>
+      <c r="G180">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C181" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181">
+        <v>-2.1</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.04</v>
+      </c>
+      <c r="G181">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C182" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182">
+        <v>-5.15</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.0500000000000007</v>
+      </c>
+      <c r="G182">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C183" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D183">
+        <v>-5.3029999999999999</v>
+      </c>
+      <c r="E183">
+        <v>50</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.8029999999999999</v>
+      </c>
+      <c r="G183">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C184" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D184">
+        <v>-2.1</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="9"/>
+        <v>-2.04</v>
+      </c>
+      <c r="G184">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C185" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D185">
+        <v>-5.15</v>
+      </c>
+      <c r="E185">
+        <v>10</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.0500000000000007</v>
+      </c>
+      <c r="G185">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C186" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D186">
+        <v>-6.2990000000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188">
+        <v>-3.7370000000000001</v>
+      </c>
+      <c r="E188">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" ref="F188:F201" si="10">D188+E188*0.01</f>
+        <v>-3.6803300000000001</v>
+      </c>
+      <c r="G188">
+        <v>34.11</v>
+      </c>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189">
+        <v>-3.7069999999999999</v>
+      </c>
+      <c r="E189">
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.67679</v>
+      </c>
+      <c r="G189">
+        <v>1184.73</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C190" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D190">
+        <v>-3.7349999999999999</v>
+      </c>
+      <c r="E190">
+        <v>4.1319999999999997</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.6936800000000001</v>
+      </c>
+      <c r="G190">
+        <v>267.57</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191">
+        <v>-3.726</v>
+      </c>
+      <c r="E191">
+        <v>42</v>
+      </c>
+      <c r="F191" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.306</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192">
+        <v>-0.73799999999999999</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.67799999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193">
+        <v>-3.581</v>
+      </c>
+      <c r="E193">
+        <v>10</v>
+      </c>
+      <c r="F193" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194">
+        <v>-3.7130000000000001</v>
+      </c>
+      <c r="E194">
+        <v>54</v>
+      </c>
+      <c r="F194" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.173</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195">
+        <v>-2.3340000000000001</v>
+      </c>
+      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="F195" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.274</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196">
+        <v>-3.569</v>
+      </c>
+      <c r="E196">
+        <v>10</v>
+      </c>
+      <c r="F196" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.4689999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>59</v>
+      </c>
+      <c r="D197">
+        <v>-3.722</v>
+      </c>
+      <c r="E197">
+        <v>42</v>
+      </c>
+      <c r="F197" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.302</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198">
+        <v>-2.3340000000000001</v>
+      </c>
+      <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="F198" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.274</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>36</v>
+      </c>
+      <c r="D199">
+        <v>-3.581</v>
+      </c>
+      <c r="E199">
+        <v>10</v>
+      </c>
+      <c r="F199" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200">
+        <v>-3.24</v>
+      </c>
+      <c r="E200">
+        <v>6</v>
+      </c>
+      <c r="F200" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.18</v>
+      </c>
+      <c r="G200">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201">
+        <v>-2.3340000000000001</v>
+      </c>
+      <c r="E201">
+        <v>6</v>
+      </c>
+      <c r="F201" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.274</v>
+      </c>
+      <c r="G201">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202">
+        <v>-3.24</v>
+      </c>
+      <c r="E202">
+        <v>6</v>
+      </c>
+      <c r="F202" s="1">
+        <f t="shared" ref="F202:F203" si="11">D202+E202*0.01</f>
+        <v>-3.18</v>
+      </c>
+      <c r="G202">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C203" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D203">
+        <v>-2.3340000000000001</v>
+      </c>
+      <c r="E203">
+        <v>6</v>
+      </c>
+      <c r="F203" s="1">
+        <f t="shared" si="11"/>
+        <v>-2.274</v>
+      </c>
+      <c r="G203">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C204" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D204">
+        <v>-3.726</v>
+      </c>
+      <c r="E204">
+        <v>42</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" ref="F204:F212" si="12">D204+E204*0.01</f>
+        <v>-3.306</v>
+      </c>
+      <c r="G204">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205">
+        <v>-2.9470000000000001</v>
+      </c>
+      <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="F205" s="1">
+        <f t="shared" si="12"/>
+        <v>-2.887</v>
+      </c>
+      <c r="G205">
+        <v>55.45</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C206" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D206">
+        <v>-3.68</v>
+      </c>
+      <c r="E206">
+        <v>10</v>
+      </c>
+      <c r="F206" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.58</v>
+      </c>
+      <c r="G206">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C207" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D207">
+        <v>-3.7160000000000002</v>
+      </c>
+      <c r="E207">
+        <v>46</v>
+      </c>
+      <c r="F207" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.2560000000000002</v>
+      </c>
+      <c r="G207">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C208" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D208">
+        <v>-2.9470000000000001</v>
+      </c>
+      <c r="E208">
+        <v>6</v>
+      </c>
+      <c r="F208" s="1">
+        <f t="shared" si="12"/>
+        <v>-2.887</v>
+      </c>
+      <c r="G208">
+        <v>40.97</v>
+      </c>
+    </row>
+    <row r="209" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C209" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D209">
+        <v>-3.625</v>
+      </c>
+      <c r="E209">
+        <v>10</v>
+      </c>
+      <c r="F209" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.5249999999999999</v>
+      </c>
+      <c r="G209">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C210" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D210">
+        <v>-3.722</v>
+      </c>
+      <c r="E210">
+        <v>42</v>
+      </c>
+      <c r="F210" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.302</v>
+      </c>
+      <c r="G210">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C211" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D211">
+        <v>-2.9470000000000001</v>
+      </c>
+      <c r="E211">
+        <v>6</v>
+      </c>
+      <c r="F211" s="1">
+        <f t="shared" si="12"/>
+        <v>-2.887</v>
+      </c>
+      <c r="G211">
+        <v>46.45</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C212" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D212">
+        <v>-3.68</v>
+      </c>
+      <c r="E212">
+        <v>10</v>
+      </c>
+      <c r="F212" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.58</v>
+      </c>
+      <c r="G212">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C213" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D213">
+        <v>-4.7569999999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E215">
+        <v>5.6929999999999996</v>
+      </c>
+      <c r="F215" s="1">
+        <f t="shared" ref="F215:F239" si="13">D215+E215*0.01</f>
+        <v>-4.0430699999999993</v>
+      </c>
+      <c r="G215">
+        <v>33.51</v>
+      </c>
+    </row>
+    <row r="216" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216">
+        <v>-4.0810000000000004</v>
+      </c>
+      <c r="E216">
+        <v>3.88</v>
+      </c>
+      <c r="F216" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.0422000000000002</v>
+      </c>
+      <c r="G216">
+        <v>1189.02</v>
+      </c>
+    </row>
+    <row r="217" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C217" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D217">
+        <v>-4.0970000000000004</v>
+      </c>
+      <c r="E217">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="F217" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.0531200000000007</v>
+      </c>
+      <c r="G217">
+        <v>402.05</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
+        <v>29</v>
+      </c>
+      <c r="D218">
+        <v>-4.0949999999999998</v>
+      </c>
+      <c r="E218">
+        <v>42</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
+        <v>30</v>
+      </c>
+      <c r="D219">
+        <v>-2.0859999999999999</v>
+      </c>
+      <c r="E219">
+        <v>6</v>
+      </c>
+      <c r="F219" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220">
+        <v>-3.9220000000000002</v>
+      </c>
+      <c r="E220">
+        <v>10</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.8220000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C221" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221">
+        <v>-4.0830000000000002</v>
+      </c>
+      <c r="E221">
+        <v>50</v>
+      </c>
+      <c r="F221" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.5830000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
+        <v>33</v>
+      </c>
+      <c r="D222">
+        <v>-2.0859999999999999</v>
+      </c>
+      <c r="E222">
+        <v>6</v>
+      </c>
+      <c r="F222" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223">
+        <v>-3.9279999999999999</v>
+      </c>
+      <c r="E223">
+        <v>10</v>
+      </c>
+      <c r="F223" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.8279999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>59</v>
+      </c>
+      <c r="D224">
+        <v>-4.093</v>
+      </c>
+      <c r="E224">
+        <v>42</v>
+      </c>
+      <c r="F224" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.673</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>35</v>
+      </c>
+      <c r="D225">
+        <v>-2.0859999999999999</v>
+      </c>
+      <c r="E225">
+        <v>6</v>
+      </c>
+      <c r="F225" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
+        <v>36</v>
+      </c>
+      <c r="D226">
+        <v>-3.9220000000000002</v>
+      </c>
+      <c r="E226">
+        <v>10</v>
+      </c>
+      <c r="F226" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.8220000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227" s="1">
+        <f t="shared" si="13"/>
+        <v>0.02</v>
+      </c>
+      <c r="G227">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
+        <v>62</v>
+      </c>
+      <c r="D228">
+        <v>-2.0859999999999999</v>
+      </c>
+      <c r="E228">
+        <v>6</v>
+      </c>
+      <c r="F228" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.0259999999999998</v>
+      </c>
+      <c r="G228">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229" s="1">
+        <f t="shared" si="13"/>
+        <v>0.02</v>
+      </c>
+      <c r="G229">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C230" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D230">
+        <v>-2.0859999999999999</v>
+      </c>
+      <c r="E230">
+        <v>6</v>
+      </c>
+      <c r="F230" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.0259999999999998</v>
+      </c>
+      <c r="G230">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C231" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D231">
+        <v>-4.0949999999999998</v>
+      </c>
+      <c r="E231">
+        <v>42</v>
+      </c>
+      <c r="F231" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.6749999999999998</v>
+      </c>
+      <c r="G231">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C232" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232">
+        <v>-3.363</v>
+      </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
+      <c r="F232" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.3029999999999999</v>
+      </c>
+      <c r="G232">
+        <v>56.06</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C233" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D233">
+        <v>-4.0060000000000002</v>
+      </c>
+      <c r="E233">
+        <v>10</v>
+      </c>
+      <c r="F233" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.9060000000000001</v>
+      </c>
+      <c r="G233">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C234" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D234">
+        <v>-4.0830000000000002</v>
+      </c>
+      <c r="E234">
+        <v>50</v>
+      </c>
+      <c r="F234" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.5830000000000002</v>
+      </c>
+      <c r="G234">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C235" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235">
+        <v>-3.363</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+      <c r="F235" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.3029999999999999</v>
+      </c>
+      <c r="G235">
+        <v>63.46</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C236" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D236">
+        <v>-3.9279999999999999</v>
+      </c>
+      <c r="E236">
+        <v>10</v>
+      </c>
+      <c r="F236" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.8279999999999998</v>
+      </c>
+      <c r="G236">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="237" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C237" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D237">
+        <v>-4.093</v>
+      </c>
+      <c r="E237">
+        <v>42</v>
+      </c>
+      <c r="F237" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.673</v>
+      </c>
+      <c r="G237">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="238" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C238" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D238">
+        <v>-3.363</v>
+      </c>
+      <c r="E238">
+        <v>6</v>
+      </c>
+      <c r="F238" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.3029999999999999</v>
+      </c>
+      <c r="G238">
+        <v>56.18</v>
+      </c>
+    </row>
+    <row r="239" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C239" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D239">
+        <v>-4.0060000000000002</v>
+      </c>
+      <c r="E239">
+        <v>10</v>
+      </c>
+      <c r="F239" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.9060000000000001</v>
+      </c>
+      <c r="G239">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C240" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D240">
+        <v>-5.3049999999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
+        <v>27</v>
+      </c>
+      <c r="D242">
+        <v>-3.2909999999999999</v>
+      </c>
+      <c r="E242">
+        <v>5.423</v>
+      </c>
+      <c r="F242" s="1">
+        <f t="shared" ref="F242:F266" si="14">D242+E242*0.01</f>
+        <v>-3.2367699999999999</v>
+      </c>
+      <c r="G242">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="243" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243">
+        <v>-3.2589999999999999</v>
+      </c>
+      <c r="E243">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="F243" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.2356699999999998</v>
+      </c>
+      <c r="G243">
+        <v>1487.63</v>
+      </c>
+    </row>
+    <row r="244" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C244" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D244">
+        <v>-3.2909999999999999</v>
+      </c>
+      <c r="E244">
+        <v>4.5380000000000003</v>
+      </c>
+      <c r="F244" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.2456199999999997</v>
+      </c>
+      <c r="G244">
+        <v>269.70999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
+        <v>29</v>
+      </c>
+      <c r="D245">
+        <v>-3.2730000000000001</v>
+      </c>
+      <c r="E245">
+        <v>38</v>
+      </c>
+      <c r="F245" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.8930000000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246">
+        <v>-1.391</v>
+      </c>
+      <c r="E246">
+        <v>6</v>
+      </c>
+      <c r="F246" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.331</v>
+      </c>
+    </row>
+    <row r="247" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C247" t="s">
+        <v>31</v>
+      </c>
+      <c r="D247">
+        <v>-3.0750000000000002</v>
+      </c>
+      <c r="E247">
+        <v>10</v>
+      </c>
+      <c r="F247" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.9750000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
+        <v>32</v>
+      </c>
+      <c r="D248">
+        <v>-3.258</v>
+      </c>
+      <c r="E248">
+        <v>50</v>
+      </c>
+      <c r="F248" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.758</v>
+      </c>
+    </row>
+    <row r="249" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
+        <v>33</v>
+      </c>
+      <c r="D249">
+        <v>-1.605</v>
+      </c>
+      <c r="E249">
+        <v>6</v>
+      </c>
+      <c r="F249" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.5449999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C250" t="s">
+        <v>34</v>
+      </c>
+      <c r="D250">
+        <v>-3.1989999999999998</v>
+      </c>
+      <c r="E250">
+        <v>10</v>
+      </c>
+      <c r="F250" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.0989999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C251" t="s">
+        <v>59</v>
+      </c>
+      <c r="D251">
+        <v>-3.278</v>
+      </c>
+      <c r="E251">
+        <v>42</v>
+      </c>
+      <c r="F251" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.8580000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C252" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252">
+        <v>-1.391</v>
+      </c>
+      <c r="E252">
+        <v>6</v>
+      </c>
+      <c r="F252" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.331</v>
+      </c>
+    </row>
+    <row r="253" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C253" t="s">
+        <v>36</v>
+      </c>
+      <c r="D253">
+        <v>-3.0750000000000002</v>
+      </c>
+      <c r="E253">
+        <v>10</v>
+      </c>
+      <c r="F253" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.9750000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254">
+        <v>-3.077</v>
+      </c>
+      <c r="E254">
+        <v>6</v>
+      </c>
+      <c r="F254" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.0169999999999999</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C255" t="s">
+        <v>62</v>
+      </c>
+      <c r="D255">
+        <v>-1.391</v>
+      </c>
+      <c r="E255">
+        <v>6</v>
+      </c>
+      <c r="F255" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.331</v>
+      </c>
+      <c r="G255">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="256" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256">
+        <v>-3.077</v>
+      </c>
+      <c r="E256">
+        <v>6</v>
+      </c>
+      <c r="F256" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.0169999999999999</v>
+      </c>
+      <c r="G256">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="257" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C257" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D257">
+        <v>-1.391</v>
+      </c>
+      <c r="E257">
+        <v>6</v>
+      </c>
+      <c r="F257" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.331</v>
+      </c>
+      <c r="G257">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="258" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C258" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D258">
+        <v>-3.2490000000000001</v>
+      </c>
+      <c r="E258">
+        <v>22</v>
+      </c>
+      <c r="F258" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.0289999999999999</v>
+      </c>
+      <c r="G258">
+        <v>43.22</v>
+      </c>
+    </row>
+    <row r="259" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C259" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D259">
+        <v>-2.9220000000000002</v>
+      </c>
+      <c r="E259">
+        <v>6</v>
+      </c>
+      <c r="F259" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.8620000000000001</v>
+      </c>
+      <c r="G259">
+        <v>41.39</v>
+      </c>
+    </row>
+    <row r="260" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C260" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D260">
+        <v>-3.2189999999999999</v>
+      </c>
+      <c r="E260">
+        <v>10</v>
+      </c>
+      <c r="F260" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.1189999999999998</v>
+      </c>
+      <c r="G260">
+        <v>27.34</v>
+      </c>
+    </row>
+    <row r="261" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C261" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D261">
+        <v>-3.258</v>
+      </c>
+      <c r="E261">
+        <v>50</v>
+      </c>
+      <c r="F261" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.758</v>
+      </c>
+      <c r="G261">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="262" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C262" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D262">
+        <v>-2.448</v>
+      </c>
+      <c r="E262">
+        <v>6</v>
+      </c>
+      <c r="F262" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.3879999999999999</v>
+      </c>
+      <c r="G262">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="263" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C263" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D263">
+        <v>-3.1989999999999998</v>
+      </c>
+      <c r="E263">
+        <v>10</v>
+      </c>
+      <c r="F263" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.0989999999999998</v>
+      </c>
+      <c r="G263">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="264" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C264" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D264">
+        <v>-3.2759999999999998</v>
+      </c>
+      <c r="E264">
+        <v>26</v>
+      </c>
+      <c r="F264" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.016</v>
+      </c>
+      <c r="G264">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="265" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C265" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D265">
+        <v>-2.9220000000000002</v>
+      </c>
+      <c r="E265">
+        <v>6</v>
+      </c>
+      <c r="F265" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.8620000000000001</v>
+      </c>
+      <c r="G265">
+        <v>34.65</v>
+      </c>
+    </row>
+    <row r="266" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C266" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D266">
+        <v>-3.2189999999999999</v>
+      </c>
+      <c r="E266">
+        <v>10</v>
+      </c>
+      <c r="F266" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.1189999999999998</v>
+      </c>
+      <c r="G266">
+        <v>28.48</v>
+      </c>
+    </row>
+    <row r="267" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C267" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D267">
+        <v>-4.1079999999999997</v>
+      </c>
+    </row>
+    <row r="268" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" s="1">
+        <f>AVERAGE(D134,D161,D188,D215,D242)</f>
+        <v>-3.8676000000000004</v>
+      </c>
+      <c r="E269" s="1">
+        <f>AVERAGE(E134,E161,E188,E215,E242)</f>
+        <v>5.9986000000000006</v>
+      </c>
+      <c r="F269" s="1">
+        <f>AVERAGE(F134,F161,F188,F215,F242)</f>
+        <v>-3.8076139999999996</v>
+      </c>
+      <c r="G269" s="3">
+        <f>AVERAGE(G134,G161,G188,G215,G242)</f>
+        <v>27.937999999999995</v>
+      </c>
+    </row>
+    <row r="270" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" s="1">
+        <f>AVERAGE(D135,D162,D189,D216,D243)</f>
+        <v>-3.8380000000000001</v>
+      </c>
+      <c r="E270" s="1">
+        <f>AVERAGE(E135,E162,E189,E216,E243)</f>
+        <v>3.2367999999999997</v>
+      </c>
+      <c r="F270" s="1">
+        <f>AVERAGE(F135,F162,F189,F216,F243)</f>
+        <v>-3.8056320000000001</v>
+      </c>
+      <c r="G270" s="3">
+        <f>AVERAGE(G135,G162,G189,G216,G243)</f>
+        <v>1195.4100000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C271" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D271" s="1">
+        <f t="shared" ref="D271:G294" si="15">AVERAGE(D136,D163,D190,D217,D244)</f>
+        <v>-3.8649999999999998</v>
+      </c>
+      <c r="E271" s="1">
+        <f t="shared" si="15"/>
+        <v>4.5077999999999996</v>
+      </c>
+      <c r="F271" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8199219999999996</v>
+      </c>
+      <c r="G271" s="3">
+        <f>AVERAGE(G136,G163,G190,G217,G244)</f>
+        <v>341.43</v>
+      </c>
+    </row>
+    <row r="272" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C272" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8537999999999997</v>
+      </c>
+      <c r="E272" s="19">
+        <f t="shared" si="15"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F272" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.4658000000000002</v>
+      </c>
+      <c r="G272" s="3"/>
+    </row>
+    <row r="273" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C273" t="s">
+        <v>30</v>
+      </c>
+      <c r="D273" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.5484000000000002</v>
+      </c>
+      <c r="E273" s="19">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F273" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.4883999999999999</v>
+      </c>
+      <c r="G273" s="3"/>
+    </row>
+    <row r="274" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C274" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.7063999999999999</v>
+      </c>
+      <c r="E274" s="19">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F274" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.6063999999999998</v>
+      </c>
+      <c r="G274" s="3"/>
+    </row>
+    <row r="275" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C275" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8326000000000002</v>
+      </c>
+      <c r="E275" s="19">
+        <f t="shared" si="15"/>
+        <v>52.8</v>
+      </c>
+      <c r="F275" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.3045999999999998</v>
+      </c>
+      <c r="G275" s="3"/>
+    </row>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C276" t="s">
+        <v>33</v>
+      </c>
+      <c r="D276" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.9104000000000003</v>
+      </c>
+      <c r="E276" s="19">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F276" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.8503999999999998</v>
+      </c>
+      <c r="G276" s="3"/>
+    </row>
+    <row r="277" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C277" t="s">
+        <v>34</v>
+      </c>
+      <c r="D277" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.7299999999999995</v>
+      </c>
+      <c r="E277" s="19">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F277" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.63</v>
+      </c>
+      <c r="G277" s="3"/>
+    </row>
+    <row r="278" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C278" t="s">
+        <v>59</v>
+      </c>
+      <c r="D278" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8540000000000001</v>
+      </c>
+      <c r="E278" s="19">
+        <f t="shared" si="15"/>
+        <v>43.6</v>
+      </c>
+      <c r="F278" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.4180000000000001</v>
+      </c>
+      <c r="G278" s="3"/>
+    </row>
+    <row r="279" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C279" t="s">
+        <v>35</v>
+      </c>
+      <c r="D279" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.8676000000000001</v>
+      </c>
+      <c r="E279" s="19">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F279" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.8076000000000001</v>
+      </c>
+      <c r="G279" s="3"/>
+    </row>
+    <row r="280" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C280" t="s">
+        <v>36</v>
+      </c>
+      <c r="D280" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.6514000000000002</v>
+      </c>
+      <c r="E280" s="19">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F280" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.5514000000000001</v>
+      </c>
+      <c r="G280" s="3"/>
+    </row>
+    <row r="281" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C281" t="s">
+        <v>63</v>
+      </c>
+      <c r="D281" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.7986</v>
+      </c>
+      <c r="E281" s="19">
+        <f t="shared" si="15"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F281" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.7545999999999999</v>
+      </c>
+      <c r="G281" s="3">
+        <f>AVERAGE(G146,G173,G200,G227,G254)</f>
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C282" t="s">
+        <v>62</v>
+      </c>
+      <c r="D282" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.0702000000000003</v>
+      </c>
+      <c r="E282" s="19">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F282" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.0101999999999998</v>
+      </c>
+      <c r="G282" s="3">
+        <f t="shared" si="15"/>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.7986</v>
+      </c>
+      <c r="E283" s="19">
+        <f t="shared" si="15"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F283" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.7545999999999999</v>
+      </c>
+      <c r="G283" s="3">
+        <f t="shared" si="15"/>
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C284" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D284" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.0702000000000003</v>
+      </c>
+      <c r="E284" s="19">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F284" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.0101999999999998</v>
+      </c>
+      <c r="G284" s="3">
+        <f t="shared" si="15"/>
+        <v>0.23199999999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C285" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D285" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8457999999999992</v>
+      </c>
+      <c r="E285" s="19">
+        <f t="shared" si="15"/>
+        <v>32.4</v>
+      </c>
+      <c r="F285" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.5218000000000003</v>
+      </c>
+      <c r="G285" s="3">
+        <f t="shared" si="15"/>
+        <v>16.948</v>
+      </c>
+    </row>
+    <row r="286" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C286" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D286" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.7090000000000005</v>
+      </c>
+      <c r="E286" s="19">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F286" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.649</v>
+      </c>
+      <c r="G286" s="3">
+        <f t="shared" si="15"/>
+        <v>41.423999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C287" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D287" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.7887999999999997</v>
+      </c>
+      <c r="E287" s="19">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F287" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.6888000000000005</v>
+      </c>
+      <c r="G287" s="3">
+        <f t="shared" si="15"/>
+        <v>18.510000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C288" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D288" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8404000000000003</v>
+      </c>
+      <c r="E288" s="19">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="F288" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.3404000000000003</v>
+      </c>
+      <c r="G288" s="3">
+        <f t="shared" si="15"/>
+        <v>9.8780000000000019</v>
+      </c>
+    </row>
+    <row r="289" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C289" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D289" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.6142000000000003</v>
+      </c>
+      <c r="E289" s="19">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F289" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.5541999999999998</v>
+      </c>
+      <c r="G289" s="3">
+        <f t="shared" si="15"/>
+        <v>33.363999999999997</v>
+      </c>
+    </row>
+    <row r="290" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C290" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D290" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.7518000000000002</v>
+      </c>
+      <c r="E290" s="19">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F290" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.6518000000000002</v>
+      </c>
+      <c r="G290" s="3">
+        <f t="shared" si="15"/>
+        <v>10.843999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C291" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D291" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.8536000000000001</v>
+      </c>
+      <c r="E291" s="19">
+        <f t="shared" si="15"/>
+        <v>40.4</v>
+      </c>
+      <c r="F291" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.4495999999999993</v>
+      </c>
+      <c r="G291" s="3">
+        <f t="shared" si="15"/>
+        <v>11.112</v>
+      </c>
+    </row>
+    <row r="292" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C292" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D292" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.7090000000000005</v>
+      </c>
+      <c r="E292" s="19">
+        <f t="shared" ref="E292:G292" si="16">AVERAGE(E157,E184,E211,E238,E265)</f>
+        <v>6</v>
+      </c>
+      <c r="F292" s="1">
+        <f t="shared" si="16"/>
+        <v>-2.649</v>
+      </c>
+      <c r="G292" s="3">
+        <f t="shared" si="16"/>
+        <v>39.532000000000004</v>
+      </c>
+    </row>
+    <row r="293" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C293" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D293" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.7814000000000001</v>
+      </c>
+      <c r="E293" s="19">
+        <f t="shared" ref="E293:G293" si="17">AVERAGE(E158,E185,E212,E239,E266)</f>
+        <v>10</v>
+      </c>
+      <c r="F293" s="1">
+        <f t="shared" si="17"/>
+        <v>-3.6814000000000009</v>
+      </c>
+      <c r="G293" s="3">
+        <f t="shared" si="17"/>
+        <v>24.024000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C294" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D294" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.8862000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -4292,6 +7147,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5EC59C-826A-9946-B4D2-773A781998E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
   <dimension ref="A1:H91"/>
   <sheetViews>
@@ -4328,7 +7195,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B2" t="s">
@@ -4352,7 +7219,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -4377,7 +7244,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>114</v>
       </c>
@@ -4402,7 +7269,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>115</v>
       </c>
@@ -4427,7 +7294,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -4452,7 +7319,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>117</v>
       </c>
@@ -4477,7 +7344,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -4502,7 +7369,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>119</v>
       </c>
@@ -4525,7 +7392,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>120</v>
       </c>
@@ -4548,7 +7415,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>121</v>
       </c>
@@ -4573,7 +7440,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -4596,7 +7463,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>123</v>
       </c>
@@ -4619,7 +7486,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" t="s">
         <v>178</v>
       </c>
@@ -4644,7 +7511,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>125</v>
       </c>
@@ -4669,7 +7536,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>124</v>
       </c>
@@ -4694,7 +7561,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
@@ -4716,7 +7583,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
@@ -4738,7 +7605,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
@@ -4760,7 +7627,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>255</v>
       </c>
@@ -4782,7 +7649,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
         <v>256</v>
       </c>
@@ -4804,7 +7671,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
         <v>257</v>
       </c>
@@ -4827,7 +7694,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B25" t="s">
@@ -4851,7 +7718,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
         <v>173</v>
       </c>
@@ -4876,7 +7743,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>174</v>
       </c>
@@ -4898,7 +7765,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" t="s">
         <v>175</v>
       </c>
@@ -4920,7 +7787,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>176</v>
       </c>
@@ -4942,7 +7809,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" t="s">
         <v>177</v>
       </c>
@@ -4964,7 +7831,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" t="s">
         <v>180</v>
       </c>
@@ -4986,7 +7853,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" t="s">
         <v>181</v>
       </c>
@@ -5008,7 +7875,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" t="s">
         <v>182</v>
       </c>
@@ -5030,7 +7897,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>183</v>
       </c>
@@ -5052,7 +7919,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>184</v>
       </c>
@@ -5074,7 +7941,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>185</v>
       </c>
@@ -5096,7 +7963,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" t="s">
         <v>179</v>
       </c>
@@ -5118,7 +7985,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="2" t="s">
         <v>186</v>
       </c>
@@ -5140,7 +8007,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="2" t="s">
         <v>187</v>
       </c>
@@ -5162,7 +8029,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="2" t="s">
         <v>188</v>
       </c>
@@ -5184,7 +8051,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="2" t="s">
         <v>189</v>
       </c>
@@ -5206,7 +8073,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="2" t="s">
         <v>190</v>
       </c>
@@ -5228,7 +8095,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="2" t="s">
         <v>258</v>
       </c>
@@ -5250,7 +8117,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="2" t="s">
         <v>259</v>
       </c>
@@ -5272,7 +8139,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="2" t="s">
         <v>260</v>
       </c>
@@ -5295,7 +8162,7 @@
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>266</v>
       </c>
       <c r="B48" t="s">
@@ -5319,7 +8186,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+      <c r="A49" s="18"/>
       <c r="B49" t="s">
         <v>200</v>
       </c>
@@ -5344,7 +8211,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="2" t="s">
         <v>201</v>
       </c>
@@ -5366,7 +8233,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
+      <c r="A51" s="18"/>
       <c r="B51" t="s">
         <v>192</v>
       </c>
@@ -5388,7 +8255,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
+      <c r="A52" s="18"/>
       <c r="B52" t="s">
         <v>193</v>
       </c>
@@ -5410,7 +8277,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
+      <c r="A53" s="18"/>
       <c r="B53" t="s">
         <v>194</v>
       </c>
@@ -5432,7 +8299,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
+      <c r="A54" s="18"/>
       <c r="B54" t="s">
         <v>202</v>
       </c>
@@ -5454,7 +8321,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
+      <c r="A55" s="18"/>
       <c r="B55" t="s">
         <v>203</v>
       </c>
@@ -5476,7 +8343,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+      <c r="A56" s="18"/>
       <c r="B56" t="s">
         <v>204</v>
       </c>
@@ -5498,7 +8365,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="2" t="s">
         <v>205</v>
       </c>
@@ -5520,7 +8387,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+      <c r="A58" s="18"/>
       <c r="B58" t="s">
         <v>206</v>
       </c>
@@ -5542,7 +8409,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+      <c r="A59" s="18"/>
       <c r="B59" t="s">
         <v>207</v>
       </c>
@@ -5564,7 +8431,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+      <c r="A60" s="18"/>
       <c r="B60" t="s">
         <v>208</v>
       </c>
@@ -5586,7 +8453,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="2" t="s">
         <v>195</v>
       </c>
@@ -5608,7 +8475,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="2" t="s">
         <v>196</v>
       </c>
@@ -5630,7 +8497,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="2" t="s">
         <v>198</v>
       </c>
@@ -5652,7 +8519,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="2" t="s">
         <v>197</v>
       </c>
@@ -5674,7 +8541,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="2" t="s">
         <v>199</v>
       </c>
@@ -5696,7 +8563,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="2" t="s">
         <v>252</v>
       </c>
@@ -5718,7 +8585,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2" t="s">
         <v>253</v>
       </c>
@@ -5740,7 +8607,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="2" t="s">
         <v>254</v>
       </c>
@@ -5763,7 +8630,7 @@
     </row>
     <row r="70" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="18" t="s">
         <v>267</v>
       </c>
       <c r="B71" t="s">
@@ -5787,7 +8654,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
+      <c r="A72" s="18"/>
       <c r="B72" t="s">
         <v>215</v>
       </c>
@@ -5812,7 +8679,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="2" t="s">
         <v>216</v>
       </c>
@@ -5834,7 +8701,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
+      <c r="A74" s="18"/>
       <c r="B74" t="s">
         <v>212</v>
       </c>
@@ -5856,7 +8723,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
+      <c r="A75" s="18"/>
       <c r="B75" t="s">
         <v>213</v>
       </c>
@@ -5878,7 +8745,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
+      <c r="A76" s="18"/>
       <c r="B76" t="s">
         <v>214</v>
       </c>
@@ -5900,7 +8767,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
+      <c r="A77" s="18"/>
       <c r="B77" t="s">
         <v>217</v>
       </c>
@@ -5922,7 +8789,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
+      <c r="A78" s="18"/>
       <c r="B78" t="s">
         <v>218</v>
       </c>
@@ -5944,7 +8811,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
+      <c r="A79" s="18"/>
       <c r="B79" t="s">
         <v>219</v>
       </c>
@@ -5966,7 +8833,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="2" t="s">
         <v>220</v>
       </c>
@@ -5988,7 +8855,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
+      <c r="A81" s="18"/>
       <c r="B81" t="s">
         <v>221</v>
       </c>
@@ -6010,7 +8877,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
+      <c r="A82" s="18"/>
       <c r="B82" t="s">
         <v>222</v>
       </c>
@@ -6032,7 +8899,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
+      <c r="A83" s="18"/>
       <c r="B83" t="s">
         <v>223</v>
       </c>
@@ -6054,7 +8921,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="2" t="s">
         <v>209</v>
       </c>
@@ -6076,7 +8943,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="2" t="s">
         <v>210</v>
       </c>
@@ -6098,7 +8965,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="2" t="s">
         <v>225</v>
       </c>
@@ -6120,7 +8987,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="2" t="s">
         <v>224</v>
       </c>
@@ -6142,7 +9009,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="2" t="s">
         <v>226</v>
       </c>
@@ -6164,7 +9031,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="2" t="s">
         <v>261</v>
       </c>
@@ -6186,7 +9053,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="2" t="s">
         <v>262</v>
       </c>
@@ -6208,7 +9075,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="17"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="2" t="s">
         <v>263</v>
       </c>
@@ -6240,7 +9107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842C86B-7D36-B04D-B09B-8D3C95D38C2E}">
   <dimension ref="B1:I70"/>
   <sheetViews>
@@ -7832,12 +10699,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="112" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView topLeftCell="A92" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105:H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9516,11 +12383,11 @@
         <v>48.72</v>
       </c>
       <c r="F77" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G77" s="1">
         <f>D77+E77*0.001+0.1*F77</f>
-        <v>5.0220000000000001E-2</v>
+        <v>5.0020000000000002E-2</v>
       </c>
       <c r="H77" s="3">
         <v>1403.03</v>
@@ -9615,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f>D81+E81*0.001</f>
+        <f t="shared" ref="G81:G88" si="3">D81+E81*0.001</f>
         <v>0.53700000000000003</v>
       </c>
       <c r="H81" s="9">
@@ -9639,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f>D82+E82*0.001</f>
+        <f t="shared" si="3"/>
         <v>1.0309999999999999</v>
       </c>
       <c r="H82" s="9">
@@ -9663,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f>D83+E83*0.001</f>
+        <f t="shared" si="3"/>
         <v>0.57699999999999996</v>
       </c>
       <c r="H83" s="9">
@@ -9687,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f>D84+E84*0.001</f>
+        <f t="shared" si="3"/>
         <v>0.30299999999999999</v>
       </c>
       <c r="H84" s="9">
@@ -9711,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f>D85+E85*0.001</f>
+        <f t="shared" si="3"/>
         <v>0.70600000000000007</v>
       </c>
       <c r="H85" s="9">
@@ -9735,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f>D86+E86*0.001</f>
+        <f t="shared" si="3"/>
         <v>0.70500000000000007</v>
       </c>
       <c r="H86" s="9">
@@ -9759,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f>D87+E87*0.001</f>
+        <f t="shared" si="3"/>
         <v>0.53299999999999992</v>
       </c>
       <c r="H87" s="9">
@@ -9783,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f>D88+E88*0.001</f>
+        <f t="shared" si="3"/>
         <v>1.038</v>
       </c>
       <c r="H88" s="9">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1DD674-C171-3840-8DAE-3909219086C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D15C9C6-E842-BD46-9C74-F68089FA9F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="5" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="431">
   <si>
     <t>Name</t>
   </si>
@@ -1341,6 +1342,30 @@
   </si>
   <si>
     <t>all switches: 3</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Input for QC</t>
+  </si>
+  <si>
+    <t>Output from QC</t>
+  </si>
+  <si>
+    <t>TR/ALB</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Control sequence, initial and target operator</t>
+  </si>
+  <si>
+    <t>Objective function, state value of time evolution and back propagation</t>
+  </si>
+  <si>
+    <t>Objective function</t>
   </si>
 </sst>
 </file>
@@ -1756,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:H294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B267" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284:G284"/>
+    <sheetView topLeftCell="B267" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10703,7 +10728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="112" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="112" workbookViewId="0">
       <selection activeCell="D105" sqref="D105:H105"/>
     </sheetView>
   </sheetViews>
@@ -13068,4 +13093,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1B372-4CC2-8848-A040-A5C43187FDD8}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D15C9C6-E842-BD46-9C74-F68089FA9F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F2B3F-A7C5-C44E-A8D5-F7AD2E835710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="5" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F2B3F-A7C5-C44E-A8D5-F7AD2E835710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CFB7A1-CB32-BA40-A913-194DCC8736C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="5" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -1366,14 +1366,30 @@
   </si>
   <si>
     <t>Objective function</t>
+  </si>
+  <si>
+    <t>Couenne</t>
+  </si>
+  <si>
+    <t>SCIP</t>
+  </si>
+  <si>
+    <t>MUCOD-II</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>run out of memory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -1430,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1464,6 +1480,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1779,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView topLeftCell="B267" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+    <sheetView tabSelected="1" topLeftCell="B317" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3792,7 +3809,7 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>99</v>
       </c>
@@ -3813,7 +3830,7 @@
         <v>79.12</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>150</v>
       </c>
@@ -3834,7 +3851,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
@@ -3855,7 +3872,7 @@
         <v>88.38</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>420</v>
@@ -3865,8 +3882,8 @@
       </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="102" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>129</v>
       </c>
@@ -3886,8 +3903,12 @@
       <c r="G103">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <f>D103/D131</f>
+        <v>0.99975000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>130</v>
       </c>
@@ -3910,8 +3931,12 @@
       <c r="H104" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <f>D104/D131</f>
+        <v>0.99824999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>131</v>
       </c>
@@ -3931,8 +3956,12 @@
       <c r="G105">
         <v>43.35</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <f>D105/D131</f>
+        <v>0.99975000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>132</v>
       </c>
@@ -3953,7 +3982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>133</v>
       </c>
@@ -3974,7 +4003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>134</v>
       </c>
@@ -3995,7 +4024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>135</v>
       </c>
@@ -4016,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>136</v>
       </c>
@@ -4037,7 +4066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>137</v>
       </c>
@@ -4058,7 +4087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>138</v>
       </c>
@@ -4415,7 +4444,7 @@
         <v>22.66</v>
       </c>
     </row>
-    <row r="129" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
         <v>149</v>
       </c>
@@ -4436,7 +4465,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>148</v>
       </c>
@@ -4457,7 +4486,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="131" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
         <v>421</v>
@@ -4467,8 +4496,8 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="133" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>27</v>
       </c>
@@ -4485,8 +4514,12 @@
       <c r="G134">
         <v>21.47</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <f>D134/D159</f>
+        <v>0.72816759212518922</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>28</v>
       </c>
@@ -4503,8 +4536,12 @@
       <c r="G135">
         <v>839.77</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <f>D135/D159</f>
+        <v>0.71706208985360931</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
         <v>46</v>
       </c>
@@ -4521,8 +4558,12 @@
       <c r="G136">
         <v>183.61</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <f>D136/D159</f>
+        <v>0.72715800100959105</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>29</v>
       </c>
@@ -4540,7 +4581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>30</v>
       </c>
@@ -4558,7 +4599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>31</v>
       </c>
@@ -4576,7 +4617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>32</v>
       </c>
@@ -4594,7 +4635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>33</v>
       </c>
@@ -4612,7 +4653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>34</v>
       </c>
@@ -4630,7 +4671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>59</v>
       </c>
@@ -4648,7 +4689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>35</v>
       </c>
@@ -4930,7 +4971,7 @@
       </c>
     </row>
     <row r="160" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>27</v>
       </c>
@@ -4947,8 +4988,12 @@
       <c r="G161">
         <v>32.619999999999997</v>
       </c>
-    </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <f>D161/D186</f>
+        <v>0.84537228131449438</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>28</v>
       </c>
@@ -4965,8 +5010,12 @@
       <c r="G162">
         <v>1275.9000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <f>D162/D186</f>
+        <v>0.84172090808064759</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C163" s="2" t="s">
         <v>46</v>
       </c>
@@ -4983,8 +5032,12 @@
       <c r="G163">
         <v>584.21</v>
       </c>
-    </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <f>D163/D186</f>
+        <v>0.84473725988252091</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>29</v>
       </c>
@@ -4999,7 +5052,7 @@
         <v>-4.8879999999999999</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>30</v>
       </c>
@@ -5014,7 +5067,7 @@
         <v>-2.04</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>31</v>
       </c>
@@ -5029,7 +5082,7 @@
         <v>-5.0860000000000003</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>32</v>
       </c>
@@ -5044,7 +5097,7 @@
         <v>-4.7130000000000001</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>33</v>
       </c>
@@ -5059,7 +5112,7 @@
         <v>-2.04</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>34</v>
       </c>
@@ -5074,7 +5127,7 @@
         <v>-5.0140000000000002</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>59</v>
       </c>
@@ -5089,7 +5142,7 @@
         <v>-4.8029999999999999</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>35</v>
       </c>
@@ -5104,7 +5157,7 @@
         <v>-2.04</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>36</v>
       </c>
@@ -5119,7 +5172,7 @@
         <v>-4.907</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>63</v>
       </c>
@@ -5137,7 +5190,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>62</v>
       </c>
@@ -5155,7 +5208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>68</v>
       </c>
@@ -5173,7 +5226,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:8" ht="51" x14ac:dyDescent="0.2">
       <c r="C176" s="2" t="s">
         <v>69</v>
       </c>
@@ -5191,7 +5244,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="177" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C177" s="2" t="s">
         <v>42</v>
       </c>
@@ -5209,7 +5262,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="178" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C178" s="2" t="s">
         <v>35</v>
       </c>
@@ -5227,7 +5280,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="179" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C179" s="2" t="s">
         <v>36</v>
       </c>
@@ -5245,7 +5298,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="180" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C180" s="2" t="s">
         <v>43</v>
       </c>
@@ -5263,7 +5316,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="181" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C181" s="2" t="s">
         <v>37</v>
       </c>
@@ -5281,7 +5334,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="182" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C182" s="2" t="s">
         <v>38</v>
       </c>
@@ -5299,7 +5352,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="183" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C183" s="2" t="s">
         <v>237</v>
       </c>
@@ -5317,7 +5370,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="184" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C184" s="2" t="s">
         <v>238</v>
       </c>
@@ -5335,7 +5388,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="185" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C185" s="2" t="s">
         <v>239</v>
       </c>
@@ -5353,7 +5406,7 @@
         <v>22.66</v>
       </c>
     </row>
-    <row r="186" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C186" s="2" t="s">
         <v>419</v>
       </c>
@@ -5361,8 +5414,8 @@
         <v>-6.2990000000000004</v>
       </c>
     </row>
-    <row r="187" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>27</v>
       </c>
@@ -5379,8 +5432,12 @@
       <c r="G188">
         <v>34.11</v>
       </c>
-    </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <f>D188/D213</f>
+        <v>0.78557914652091665</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
         <v>28</v>
       </c>
@@ -5397,8 +5454,12 @@
       <c r="G189">
         <v>1184.73</v>
       </c>
-    </row>
-    <row r="190" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <f>D189/D213</f>
+        <v>0.77927265083035524</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C190" s="2" t="s">
         <v>46</v>
       </c>
@@ -5415,8 +5476,12 @@
       <c r="G190">
         <v>267.57</v>
       </c>
-    </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <f>D190/D213</f>
+        <v>0.7851587134748792</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>29</v>
       </c>
@@ -5431,7 +5496,7 @@
         <v>-3.306</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>30</v>
       </c>
@@ -5713,7 +5778,7 @@
         <v>40.97</v>
       </c>
     </row>
-    <row r="209" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C209" s="2" t="s">
         <v>38</v>
       </c>
@@ -5731,7 +5796,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="210" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C210" s="2" t="s">
         <v>237</v>
       </c>
@@ -5749,7 +5814,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="211" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C211" s="2" t="s">
         <v>238</v>
       </c>
@@ -5767,7 +5832,7 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="212" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C212" s="2" t="s">
         <v>239</v>
       </c>
@@ -5785,7 +5850,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="213" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C213" s="2" t="s">
         <v>419</v>
       </c>
@@ -5793,8 +5858,8 @@
         <v>-4.7569999999999997</v>
       </c>
     </row>
-    <row r="214" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
         <v>27</v>
       </c>
@@ -5811,8 +5876,12 @@
       <c r="G215">
         <v>33.51</v>
       </c>
-    </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <f>D215/D240</f>
+        <v>0.77285579641847313</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
         <v>28</v>
       </c>
@@ -5829,8 +5898,12 @@
       <c r="G216">
         <v>1189.02</v>
       </c>
-    </row>
-    <row r="217" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <f>D216/D240</f>
+        <v>0.76927426955702183</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C217" s="2" t="s">
         <v>46</v>
       </c>
@@ -5847,8 +5920,12 @@
       <c r="G217">
         <v>402.05</v>
       </c>
-    </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <f>D217/D240</f>
+        <v>0.77229029217719147</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
         <v>29</v>
       </c>
@@ -5863,7 +5940,7 @@
         <v>-3.6749999999999998</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
         <v>30</v>
       </c>
@@ -5878,7 +5955,7 @@
         <v>-2.0259999999999998</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
         <v>31</v>
       </c>
@@ -5893,7 +5970,7 @@
         <v>-3.8220000000000001</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
         <v>32</v>
       </c>
@@ -5908,7 +5985,7 @@
         <v>-3.5830000000000002</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
         <v>33</v>
       </c>
@@ -5923,7 +6000,7 @@
         <v>-2.0259999999999998</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
         <v>34</v>
       </c>
@@ -5938,7 +6015,7 @@
         <v>-3.8279999999999998</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
         <v>59</v>
       </c>
@@ -6225,8 +6302,8 @@
         <v>-5.3049999999999997</v>
       </c>
     </row>
-    <row r="241" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C242" t="s">
         <v>27</v>
       </c>
@@ -6243,8 +6320,12 @@
       <c r="G242">
         <v>17.98</v>
       </c>
-    </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <f>D242/D267</f>
+        <v>0.80111976630963977</v>
+      </c>
+    </row>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C243" t="s">
         <v>28</v>
       </c>
@@ -6261,8 +6342,12 @@
       <c r="G243">
         <v>1487.63</v>
       </c>
-    </row>
-    <row r="244" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <f>D243/D267</f>
+        <v>0.79333008763388513</v>
+      </c>
+    </row>
+    <row r="244" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C244" s="2" t="s">
         <v>46</v>
       </c>
@@ -6279,8 +6364,12 @@
       <c r="G244">
         <v>269.70999999999998</v>
       </c>
-    </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <f>D244/D267</f>
+        <v>0.80111976630963977</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C245" t="s">
         <v>29</v>
       </c>
@@ -6295,7 +6384,7 @@
         <v>-2.8930000000000002</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C246" t="s">
         <v>30</v>
       </c>
@@ -6310,7 +6399,7 @@
         <v>-1.331</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C247" t="s">
         <v>31</v>
       </c>
@@ -6325,7 +6414,7 @@
         <v>-2.9750000000000001</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C248" t="s">
         <v>32</v>
       </c>
@@ -6340,7 +6429,7 @@
         <v>-2.758</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C249" t="s">
         <v>33</v>
       </c>
@@ -6355,7 +6444,7 @@
         <v>-1.5449999999999999</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C250" t="s">
         <v>34</v>
       </c>
@@ -6370,7 +6459,7 @@
         <v>-3.0989999999999998</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C251" t="s">
         <v>59</v>
       </c>
@@ -6385,7 +6474,7 @@
         <v>-2.8580000000000001</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C252" t="s">
         <v>35</v>
       </c>
@@ -6400,7 +6489,7 @@
         <v>-1.331</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C253" t="s">
         <v>36</v>
       </c>
@@ -6415,7 +6504,7 @@
         <v>-2.9750000000000001</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C254" t="s">
         <v>63</v>
       </c>
@@ -6433,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C255" t="s">
         <v>62</v>
       </c>
@@ -6451,7 +6540,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C256" t="s">
         <v>68</v>
       </c>
@@ -6469,7 +6558,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="257" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:8" ht="51" x14ac:dyDescent="0.2">
       <c r="C257" s="2" t="s">
         <v>69</v>
       </c>
@@ -6487,7 +6576,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="258" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C258" s="2" t="s">
         <v>42</v>
       </c>
@@ -6505,7 +6594,7 @@
         <v>43.22</v>
       </c>
     </row>
-    <row r="259" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C259" s="2" t="s">
         <v>35</v>
       </c>
@@ -6523,7 +6612,7 @@
         <v>41.39</v>
       </c>
     </row>
-    <row r="260" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C260" s="2" t="s">
         <v>36</v>
       </c>
@@ -6541,7 +6630,7 @@
         <v>27.34</v>
       </c>
     </row>
-    <row r="261" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C261" s="2" t="s">
         <v>43</v>
       </c>
@@ -6559,7 +6648,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="262" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C262" s="2" t="s">
         <v>37</v>
       </c>
@@ -6577,7 +6666,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="263" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C263" s="2" t="s">
         <v>38</v>
       </c>
@@ -6595,7 +6684,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="264" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C264" s="2" t="s">
         <v>237</v>
       </c>
@@ -6613,7 +6702,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="265" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C265" s="2" t="s">
         <v>238</v>
       </c>
@@ -6631,7 +6720,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="266" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C266" s="2" t="s">
         <v>239</v>
       </c>
@@ -6649,7 +6738,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="267" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C267" s="2" t="s">
         <v>419</v>
       </c>
@@ -6657,8 +6746,8 @@
         <v>-4.1079999999999997</v>
       </c>
     </row>
-    <row r="268" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C269" t="s">
         <v>27</v>
       </c>
@@ -6678,8 +6767,12 @@
         <f>AVERAGE(G134,G161,G188,G215,G242)</f>
         <v>27.937999999999995</v>
       </c>
-    </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H269" s="1">
+        <f>AVERAGE(H134,H161,H188,H215,H242)</f>
+        <v>0.78661891653774263</v>
+      </c>
+    </row>
+    <row r="270" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C270" t="s">
         <v>28</v>
       </c>
@@ -6699,42 +6792,50 @@
         <f>AVERAGE(G135,G162,G189,G216,G243)</f>
         <v>1195.4100000000001</v>
       </c>
-    </row>
-    <row r="271" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H270" s="1">
+        <f t="shared" ref="H270:H271" si="15">AVERAGE(H135,H162,H189,H216,H243)</f>
+        <v>0.78013200119110382</v>
+      </c>
+    </row>
+    <row r="271" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C271" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D271" s="1">
-        <f t="shared" ref="D271:G294" si="15">AVERAGE(D136,D163,D190,D217,D244)</f>
+        <f t="shared" ref="D271:G294" si="16">AVERAGE(D136,D163,D190,D217,D244)</f>
         <v>-3.8649999999999998</v>
       </c>
       <c r="E271" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5077999999999996</v>
       </c>
       <c r="F271" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8199219999999996</v>
       </c>
       <c r="G271" s="3">
         <f>AVERAGE(G136,G163,G190,G217,G244)</f>
         <v>341.43</v>
       </c>
-    </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H271" s="1">
+        <f t="shared" si="15"/>
+        <v>0.78609280657076452</v>
+      </c>
+    </row>
+    <row r="272" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C272" t="s">
         <v>29</v>
       </c>
       <c r="D272" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8537999999999997</v>
       </c>
-      <c r="E272" s="19">
-        <f t="shared" si="15"/>
+      <c r="E272" s="20">
+        <f t="shared" si="16"/>
         <v>38.799999999999997</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.4658000000000002</v>
       </c>
       <c r="G272" s="3"/>
@@ -6744,15 +6845,15 @@
         <v>30</v>
       </c>
       <c r="D273" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.5484000000000002</v>
       </c>
-      <c r="E273" s="19">
-        <f t="shared" si="15"/>
+      <c r="E273" s="20">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F273" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.4883999999999999</v>
       </c>
       <c r="G273" s="3"/>
@@ -6762,15 +6863,15 @@
         <v>31</v>
       </c>
       <c r="D274" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.7063999999999999</v>
       </c>
-      <c r="E274" s="19">
-        <f t="shared" si="15"/>
+      <c r="E274" s="20">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.6063999999999998</v>
       </c>
       <c r="G274" s="3"/>
@@ -6780,15 +6881,15 @@
         <v>32</v>
       </c>
       <c r="D275" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8326000000000002</v>
       </c>
-      <c r="E275" s="19">
-        <f t="shared" si="15"/>
+      <c r="E275" s="20">
+        <f t="shared" si="16"/>
         <v>52.8</v>
       </c>
       <c r="F275" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.3045999999999998</v>
       </c>
       <c r="G275" s="3"/>
@@ -6798,15 +6899,15 @@
         <v>33</v>
       </c>
       <c r="D276" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.9104000000000003</v>
       </c>
-      <c r="E276" s="19">
-        <f t="shared" si="15"/>
+      <c r="E276" s="20">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F276" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.8503999999999998</v>
       </c>
       <c r="G276" s="3"/>
@@ -6816,15 +6917,15 @@
         <v>34</v>
       </c>
       <c r="D277" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.7299999999999995</v>
       </c>
-      <c r="E277" s="19">
-        <f t="shared" si="15"/>
+      <c r="E277" s="20">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F277" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.63</v>
       </c>
       <c r="G277" s="3"/>
@@ -6834,15 +6935,15 @@
         <v>59</v>
       </c>
       <c r="D278" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8540000000000001</v>
       </c>
-      <c r="E278" s="19">
-        <f t="shared" si="15"/>
+      <c r="E278" s="20">
+        <f t="shared" si="16"/>
         <v>43.6</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.4180000000000001</v>
       </c>
       <c r="G278" s="3"/>
@@ -6852,15 +6953,15 @@
         <v>35</v>
       </c>
       <c r="D279" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.8676000000000001</v>
       </c>
-      <c r="E279" s="19">
-        <f t="shared" si="15"/>
+      <c r="E279" s="20">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.8076000000000001</v>
       </c>
       <c r="G279" s="3"/>
@@ -6870,15 +6971,15 @@
         <v>36</v>
       </c>
       <c r="D280" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.6514000000000002</v>
       </c>
-      <c r="E280" s="19">
-        <f t="shared" si="15"/>
+      <c r="E280" s="20">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.5514000000000001</v>
       </c>
       <c r="G280" s="3"/>
@@ -6888,15 +6989,15 @@
         <v>63</v>
       </c>
       <c r="D281" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.7986</v>
       </c>
-      <c r="E281" s="19">
-        <f t="shared" si="15"/>
+      <c r="E281" s="20">
+        <f t="shared" si="16"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.7545999999999999</v>
       </c>
       <c r="G281" s="3">
@@ -6909,19 +7010,19 @@
         <v>62</v>
       </c>
       <c r="D282" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.0702000000000003</v>
       </c>
-      <c r="E282" s="19">
-        <f t="shared" si="15"/>
+      <c r="E282" s="20">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F282" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.0101999999999998</v>
       </c>
       <c r="G282" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.20200000000000001</v>
       </c>
     </row>
@@ -6930,19 +7031,19 @@
         <v>68</v>
       </c>
       <c r="D283" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.7986</v>
       </c>
-      <c r="E283" s="19">
-        <f t="shared" si="15"/>
+      <c r="E283" s="20">
+        <f t="shared" si="16"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.7545999999999999</v>
       </c>
       <c r="G283" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.78200000000000003</v>
       </c>
     </row>
@@ -6951,19 +7052,19 @@
         <v>69</v>
       </c>
       <c r="D284" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.0702000000000003</v>
       </c>
-      <c r="E284" s="19">
-        <f t="shared" si="15"/>
+      <c r="E284" s="20">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.0101999999999998</v>
       </c>
       <c r="G284" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.23199999999999998</v>
       </c>
     </row>
@@ -6972,19 +7073,19 @@
         <v>42</v>
       </c>
       <c r="D285" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8457999999999992</v>
       </c>
-      <c r="E285" s="19">
-        <f t="shared" si="15"/>
+      <c r="E285" s="20">
+        <f t="shared" si="16"/>
         <v>32.4</v>
       </c>
       <c r="F285" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.5218000000000003</v>
       </c>
       <c r="G285" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16.948</v>
       </c>
     </row>
@@ -6993,19 +7094,19 @@
         <v>35</v>
       </c>
       <c r="D286" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.7090000000000005</v>
       </c>
-      <c r="E286" s="19">
-        <f t="shared" si="15"/>
+      <c r="E286" s="20">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F286" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.649</v>
       </c>
       <c r="G286" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41.423999999999999</v>
       </c>
     </row>
@@ -7014,19 +7115,19 @@
         <v>36</v>
       </c>
       <c r="D287" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.7887999999999997</v>
       </c>
-      <c r="E287" s="19">
-        <f t="shared" si="15"/>
+      <c r="E287" s="20">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F287" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.6888000000000005</v>
       </c>
       <c r="G287" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.510000000000002</v>
       </c>
     </row>
@@ -7035,134 +7136,902 @@
         <v>43</v>
       </c>
       <c r="D288" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8404000000000003</v>
       </c>
-      <c r="E288" s="19">
-        <f t="shared" si="15"/>
+      <c r="E288" s="20">
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="F288" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.3404000000000003</v>
       </c>
       <c r="G288" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.8780000000000019</v>
       </c>
     </row>
-    <row r="289" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C289" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D289" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.6142000000000003</v>
       </c>
-      <c r="E289" s="19">
-        <f t="shared" si="15"/>
+      <c r="E289" s="20">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F289" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.5541999999999998</v>
       </c>
       <c r="G289" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.363999999999997</v>
       </c>
     </row>
-    <row r="290" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C290" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D290" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.7518000000000002</v>
       </c>
-      <c r="E290" s="19">
-        <f t="shared" si="15"/>
+      <c r="E290" s="20">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F290" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.6518000000000002</v>
       </c>
       <c r="G290" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.843999999999999</v>
       </c>
     </row>
-    <row r="291" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C291" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D291" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.8536000000000001</v>
       </c>
-      <c r="E291" s="19">
-        <f t="shared" si="15"/>
+      <c r="E291" s="20">
+        <f t="shared" si="16"/>
         <v>40.4</v>
       </c>
       <c r="F291" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.4495999999999993</v>
       </c>
       <c r="G291" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.112</v>
       </c>
     </row>
-    <row r="292" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C292" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D292" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.7090000000000005</v>
       </c>
-      <c r="E292" s="19">
-        <f t="shared" ref="E292:G292" si="16">AVERAGE(E157,E184,E211,E238,E265)</f>
+      <c r="E292" s="20">
+        <f t="shared" ref="E292:G292" si="17">AVERAGE(E157,E184,E211,E238,E265)</f>
         <v>6</v>
       </c>
       <c r="F292" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-2.649</v>
       </c>
       <c r="G292" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.532000000000004</v>
       </c>
     </row>
-    <row r="293" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C293" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D293" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.7814000000000001</v>
       </c>
-      <c r="E293" s="19">
-        <f t="shared" ref="E293:G293" si="17">AVERAGE(E158,E185,E212,E239,E266)</f>
+      <c r="E293" s="20">
+        <f t="shared" ref="E293:G293" si="18">AVERAGE(E158,E185,E212,E239,E266)</f>
         <v>10</v>
       </c>
       <c r="F293" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.6814000000000009</v>
       </c>
       <c r="G293" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24.024000000000001</v>
       </c>
     </row>
-    <row r="294" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C294" s="2" t="s">
         <v>419</v>
       </c>
       <c r="D294" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.8862000000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C296" t="s">
+        <v>27</v>
+      </c>
+      <c r="D296" s="1">
+        <f>STDEV(D134,D161,D188,D215,D242)</f>
+        <v>0.9344853128861893</v>
+      </c>
+      <c r="E296" s="1">
+        <f t="shared" ref="E296:G296" si="19">STDEV(E134,E161,E188,E215,E242)</f>
+        <v>0.59964722962755368</v>
+      </c>
+      <c r="F296" s="1">
+        <f t="shared" si="19"/>
+        <v>0.93481350101504268</v>
+      </c>
+      <c r="G296" s="1">
+        <f t="shared" si="19"/>
+        <v>7.616736177655115</v>
+      </c>
+      <c r="H296" s="19">
+        <f>STDEV(H134,H161,H188,H215,H242)</f>
+        <v>4.2630078698567039E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" s="1">
+        <f t="shared" ref="D297:H321" si="20">STDEV(D135,D162,D189,D216,D243)</f>
+        <v>0.94190710794642551</v>
+      </c>
+      <c r="E297" s="1">
+        <f t="shared" si="20"/>
+        <v>0.6433507596948993</v>
+      </c>
+      <c r="F297" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93736643582966095</v>
+      </c>
+      <c r="G297" s="1">
+        <f t="shared" si="20"/>
+        <v>233.72305866131413</v>
+      </c>
+      <c r="H297" s="19">
+        <f t="shared" si="20"/>
+        <v>4.4899402760503679E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C298" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D298" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93386187415484589</v>
+      </c>
+      <c r="E298" s="1">
+        <f t="shared" si="20"/>
+        <v>0.27504581436553449</v>
+      </c>
+      <c r="F298" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93445987876419856</v>
+      </c>
+      <c r="G298" s="1">
+        <f t="shared" si="20"/>
+        <v>156.62305322014373</v>
+      </c>
+      <c r="H298" s="19">
+        <f t="shared" si="20"/>
+        <v>4.2806759580872412E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C299" t="s">
+        <v>29</v>
+      </c>
+      <c r="D299" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93545587816850329</v>
+      </c>
+      <c r="E299" s="1">
+        <f t="shared" si="20"/>
+        <v>5.2153619241621234</v>
+      </c>
+      <c r="F299" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89831714889564496</v>
+      </c>
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C300" t="s">
+        <v>30</v>
+      </c>
+      <c r="D300" s="1">
+        <f t="shared" si="20"/>
+        <v>0.56778895727197753</v>
+      </c>
+      <c r="E300" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F300" s="1">
+        <f t="shared" si="20"/>
+        <v>0.56778895727197787</v>
+      </c>
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C301" t="s">
+        <v>31</v>
+      </c>
+      <c r="D301" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93950588076924879</v>
+      </c>
+      <c r="E301" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F301" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9395058807692469</v>
+      </c>
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C302" t="s">
+        <v>32</v>
+      </c>
+      <c r="D302" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9451736877421002</v>
+      </c>
+      <c r="E302" s="1">
+        <f t="shared" si="20"/>
+        <v>3.3466401061363023</v>
+      </c>
+      <c r="F302" s="1">
+        <f t="shared" si="20"/>
+        <v>0.92120318062846507</v>
+      </c>
+      <c r="G302" s="1"/>
+    </row>
+    <row r="303" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C303" t="s">
+        <v>33</v>
+      </c>
+      <c r="D303" s="1">
+        <f t="shared" si="20"/>
+        <v>0.37853837321994011</v>
+      </c>
+      <c r="E303" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F303" s="1">
+        <f t="shared" si="20"/>
+        <v>0.37853837321994249</v>
+      </c>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C304" t="s">
+        <v>34</v>
+      </c>
+      <c r="D304" s="1">
+        <f t="shared" si="20"/>
+        <v>0.87387670755090152</v>
+      </c>
+      <c r="E304" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F304" s="1">
+        <f t="shared" si="20"/>
+        <v>0.87387670755090152</v>
+      </c>
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C305" t="s">
+        <v>59</v>
+      </c>
+      <c r="D305" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93090305617717128</v>
+      </c>
+      <c r="E305" s="1">
+        <f t="shared" si="20"/>
+        <v>3.577708763999663</v>
+      </c>
+      <c r="F305" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89994472052454388</v>
+      </c>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C306" t="s">
+        <v>35</v>
+      </c>
+      <c r="D306" s="1">
+        <f t="shared" si="20"/>
+        <v>0.43026538322295788</v>
+      </c>
+      <c r="E306" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F306" s="1">
+        <f t="shared" si="20"/>
+        <v>0.43026538322295893</v>
+      </c>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C307" t="s">
+        <v>36</v>
+      </c>
+      <c r="D307" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89544586659384318</v>
+      </c>
+      <c r="E307" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F307" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89544586659384318</v>
+      </c>
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C308" t="s">
+        <v>63</v>
+      </c>
+      <c r="D308" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5231763850585396</v>
+      </c>
+      <c r="E308" s="1">
+        <f t="shared" si="20"/>
+        <v>2.1908902300206647</v>
+      </c>
+      <c r="F308" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5019395127634139</v>
+      </c>
+      <c r="G308" s="1">
+        <f t="shared" si="20"/>
+        <v>0.36148305631108085</v>
+      </c>
+    </row>
+    <row r="309" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C309" t="s">
+        <v>62</v>
+      </c>
+      <c r="D309" s="1">
+        <f t="shared" si="20"/>
+        <v>0.7127921857035181</v>
+      </c>
+      <c r="E309" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F309" s="1">
+        <f t="shared" si="20"/>
+        <v>0.71279218570351943</v>
+      </c>
+      <c r="G309" s="1">
+        <f t="shared" si="20"/>
+        <v>3.9623225512317922E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5231763850585396</v>
+      </c>
+      <c r="E310" s="1">
+        <f t="shared" si="20"/>
+        <v>2.1908902300206647</v>
+      </c>
+      <c r="F310" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5019395127634139</v>
+      </c>
+      <c r="G310" s="1">
+        <f t="shared" si="20"/>
+        <v>0.4297324749189893</v>
+      </c>
+    </row>
+    <row r="311" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C311" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D311" s="1">
+        <f t="shared" si="20"/>
+        <v>0.7127921857035181</v>
+      </c>
+      <c r="E311" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F311" s="1">
+        <f t="shared" si="20"/>
+        <v>0.71279218570351943</v>
+      </c>
+      <c r="G311" s="1">
+        <f t="shared" si="20"/>
+        <v>6.7230945255886521E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C312" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D312" s="1">
+        <f t="shared" si="20"/>
+        <v>0.94343505340855793</v>
+      </c>
+      <c r="E312" s="1">
+        <f t="shared" si="20"/>
+        <v>13.446189051177287</v>
+      </c>
+      <c r="F312" s="1">
+        <f t="shared" si="20"/>
+        <v>0.84213876528752396</v>
+      </c>
+      <c r="G312" s="1">
+        <f t="shared" si="20"/>
+        <v>16.858864730461537</v>
+      </c>
+    </row>
+    <row r="313" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C313" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D313" s="1">
+        <f t="shared" si="20"/>
+        <v>0.53540311915415606</v>
+      </c>
+      <c r="E313" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F313" s="1">
+        <f t="shared" si="20"/>
+        <v>0.53540311915415773</v>
+      </c>
+      <c r="G313" s="1">
+        <f t="shared" si="20"/>
+        <v>20.13904367143585</v>
+      </c>
+    </row>
+    <row r="314" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C314" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D314" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89669431803709143</v>
+      </c>
+      <c r="E314" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F314" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89669431803708743</v>
+      </c>
+      <c r="G314" s="1">
+        <f t="shared" si="20"/>
+        <v>5.7204501571117525</v>
+      </c>
+    </row>
+    <row r="315" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C315" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D315" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93548131996314976</v>
+      </c>
+      <c r="E315" s="1">
+        <f t="shared" si="20"/>
+        <v>4.8989794855663558</v>
+      </c>
+      <c r="F315" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89284113928514619</v>
+      </c>
+      <c r="G315" s="1">
+        <f t="shared" si="20"/>
+        <v>5.7033560295671473</v>
+      </c>
+    </row>
+    <row r="316" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C316" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D316" s="1">
+        <f t="shared" si="20"/>
+        <v>0.53019873632440817</v>
+      </c>
+      <c r="E316" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F316" s="1">
+        <f t="shared" si="20"/>
+        <v>0.53019873632440817</v>
+      </c>
+      <c r="G316" s="1">
+        <f t="shared" si="20"/>
+        <v>24.73217701699549</v>
+      </c>
+    </row>
+    <row r="317" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C317" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D317" s="1">
+        <f t="shared" si="20"/>
+        <v>0.8815246451461245</v>
+      </c>
+      <c r="E317" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F317" s="1">
+        <f t="shared" si="20"/>
+        <v>0.8815246451461265</v>
+      </c>
+      <c r="G317" s="1">
+        <f t="shared" si="20"/>
+        <v>4.3649776631730868</v>
+      </c>
+    </row>
+    <row r="318" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C318" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D318" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93121281133798772</v>
+      </c>
+      <c r="E318" s="1">
+        <f t="shared" si="20"/>
+        <v>8.7635609200826554</v>
+      </c>
+      <c r="F318" s="1">
+        <f t="shared" si="20"/>
+        <v>0.87786861203713529</v>
+      </c>
+      <c r="G318" s="1">
+        <f t="shared" si="20"/>
+        <v>13.374143710907253</v>
+      </c>
+    </row>
+    <row r="319" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C319" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D319" s="1">
+        <f t="shared" si="20"/>
+        <v>0.53540311915415606</v>
+      </c>
+      <c r="E319" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F319" s="1">
+        <f t="shared" si="20"/>
+        <v>0.53540311915415773</v>
+      </c>
+      <c r="G319" s="1">
+        <f t="shared" si="20"/>
+        <v>20.665585401822014</v>
+      </c>
+    </row>
+    <row r="320" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C320" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D320" s="1">
+        <f t="shared" si="20"/>
+        <v>0.88230822278838672</v>
+      </c>
+      <c r="E320" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F320" s="1">
+        <f t="shared" si="20"/>
+        <v>0.88230822278838261</v>
+      </c>
+      <c r="G320" s="1">
+        <f t="shared" si="20"/>
+        <v>6.8898969513338804</v>
+      </c>
+    </row>
+    <row r="321" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C321" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D321" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95496476374785422</v>
+      </c>
+      <c r="E321" s="1"/>
+    </row>
+    <row r="324" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C324" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D324">
+        <v>-2.516</v>
+      </c>
+      <c r="E324">
+        <v>2.74</v>
+      </c>
+      <c r="F324">
+        <f>D324+E324*0.01</f>
+        <v>-2.4885999999999999</v>
+      </c>
+      <c r="G324">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="325" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C325" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D325">
+        <v>-2.516</v>
+      </c>
+      <c r="E325">
+        <v>2.74</v>
+      </c>
+      <c r="F325">
+        <f>D325+E325*0.01</f>
+        <v>-2.4885999999999999</v>
+      </c>
+      <c r="G325">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="326" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C326" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="E326">
+        <v>2</v>
+      </c>
+      <c r="F326">
+        <f>D326+E326*0.01</f>
+        <v>-0.45499999999999996</v>
+      </c>
+      <c r="G326">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="327" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C327" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D327">
+        <v>-2.141</v>
+      </c>
+      <c r="E327">
+        <v>6</v>
+      </c>
+      <c r="F327">
+        <f t="shared" ref="F327:F330" si="21">D327+E327*0.01</f>
+        <v>-2.081</v>
+      </c>
+      <c r="G327">
+        <v>301.01</v>
+      </c>
+    </row>
+    <row r="328" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C328" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>300.20999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C329" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D329">
+        <v>-1.748</v>
+      </c>
+      <c r="E329">
+        <v>22</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="21"/>
+        <v>-1.528</v>
+      </c>
+      <c r="G329">
+        <v>300.81</v>
+      </c>
+    </row>
+    <row r="330" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C330" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D330">
+        <v>-3.9990000000000001</v>
+      </c>
+      <c r="E330">
+        <v>14.36</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="21"/>
+        <v>-3.8553999999999999</v>
+      </c>
+      <c r="G330">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="331" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C331" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D331">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="333" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C333" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D333">
+        <v>-1.659</v>
+      </c>
+      <c r="E333">
+        <v>4.76</v>
+      </c>
+      <c r="F333">
+        <f>D333+E333*0.01</f>
+        <v>-1.6113999999999999</v>
+      </c>
+      <c r="G333">
+        <v>199.64</v>
+      </c>
+    </row>
+    <row r="334" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C334" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D334">
+        <v>-1.659</v>
+      </c>
+      <c r="E334">
+        <v>4.76</v>
+      </c>
+      <c r="F334">
+        <f>D334+E334*0.01</f>
+        <v>-1.6113999999999999</v>
+      </c>
+      <c r="G334">
+        <v>46.85</v>
+      </c>
+    </row>
+    <row r="335" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C335" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H335" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="336" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C336" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D336">
+        <v>-1.3009999999999999</v>
+      </c>
+      <c r="E336">
+        <v>6</v>
+      </c>
+      <c r="F336">
+        <f t="shared" ref="F336:F339" si="22">D336+E336*0.01</f>
+        <v>-1.2409999999999999</v>
+      </c>
+      <c r="G336">
+        <v>311.10000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C337" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H337" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="338" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C338" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>300.88</v>
+      </c>
+    </row>
+    <row r="339" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C339" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D339">
+        <v>-5.3029999999999999</v>
+      </c>
+      <c r="E339" t="s">
+        <v>434</v>
+      </c>
+      <c r="F339" t="s">
+        <v>434</v>
+      </c>
+      <c r="G339">
+        <v>320.61</v>
+      </c>
+    </row>
+    <row r="340" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C340" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D340">
+        <v>-6.2990000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -13099,7 +13968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1B372-4CC2-8848-A040-A5C43187FDD8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CFB7A1-CB32-BA40-A913-194DCC8736C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B8ADC-DF3D-F143-BAD2-952C80EDE8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="435">
   <si>
     <t>Name</t>
   </si>
@@ -1375,9 +1375,6 @@
   </si>
   <si>
     <t>MUCOD-II</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>run out of memory</t>
@@ -1392,7 +1389,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1417,6 +1414,12 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1446,7 +1449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1482,6 +1485,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B317" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340"/>
+    <sheetView tabSelected="1" topLeftCell="B322" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D343" sqref="D343:G343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7929,11 +7933,11 @@
         <v>-1.659</v>
       </c>
       <c r="E333">
-        <v>4.76</v>
+        <v>4.758</v>
       </c>
       <c r="F333">
         <f>D333+E333*0.01</f>
-        <v>-1.6113999999999999</v>
+        <v>-1.6114200000000001</v>
       </c>
       <c r="G333">
         <v>199.64</v>
@@ -7947,11 +7951,11 @@
         <v>-1.659</v>
       </c>
       <c r="E334">
-        <v>4.76</v>
+        <v>4.758</v>
       </c>
       <c r="F334">
         <f>D334+E334*0.01</f>
-        <v>-1.6113999999999999</v>
+        <v>-1.6114200000000001</v>
       </c>
       <c r="G334">
         <v>46.85</v>
@@ -7962,7 +7966,7 @@
         <v>54</v>
       </c>
       <c r="H335" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="336" spans="3:8" ht="17" x14ac:dyDescent="0.2">
@@ -7988,7 +7992,7 @@
         <v>431</v>
       </c>
       <c r="H337" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="338" spans="3:8" ht="17" x14ac:dyDescent="0.2">
@@ -8016,11 +8020,12 @@
       <c r="D339">
         <v>-5.3029999999999999</v>
       </c>
-      <c r="E339" t="s">
-        <v>434</v>
-      </c>
-      <c r="F339" t="s">
-        <v>434</v>
+      <c r="E339">
+        <v>13.087999999999999</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="22"/>
+        <v>-5.1721199999999996</v>
       </c>
       <c r="G339">
         <v>320.61</v>
@@ -8032,6 +8037,42 @@
       </c>
       <c r="D340">
         <v>-6.2990000000000004</v>
+      </c>
+    </row>
+    <row r="342" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C342" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D342">
+        <v>-1.343</v>
+      </c>
+      <c r="E342">
+        <v>10</v>
+      </c>
+      <c r="F342">
+        <f>D342+E342*0.01</f>
+        <v>-1.2429999999999999</v>
+      </c>
+      <c r="G342" s="21">
+        <v>4877.3500000000004</v>
+      </c>
+    </row>
+    <row r="343" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="C343" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D343" s="16">
+        <v>-5.3239999999999998</v>
+      </c>
+      <c r="E343">
+        <v>16.907</v>
+      </c>
+      <c r="F343">
+        <f>D343+E343*0.01</f>
+        <v>-5.1549300000000002</v>
+      </c>
+      <c r="G343">
+        <v>4399.54</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B8ADC-DF3D-F143-BAD2-952C80EDE8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90881D39-1545-5C46-AECE-3CA22904F241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="442">
   <si>
     <t>Name</t>
   </si>
@@ -1378,6 +1378,27 @@
   </si>
   <si>
     <t>run out of memory</t>
+  </si>
+  <si>
+    <t>GRAPE+ST</t>
+  </si>
+  <si>
+    <t>TR+ST</t>
+  </si>
+  <si>
+    <t>GRAPE+STMT</t>
+  </si>
+  <si>
+    <t>ADMM+STMT</t>
+  </si>
+  <si>
+    <t>TR+STMT</t>
+  </si>
+  <si>
+    <t>p-GRAPE+ST</t>
+  </si>
+  <si>
+    <t>p-GRAPE+STMT</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1408,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1477,15 +1498,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B322" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D343" sqref="D343:G343"/>
+    <sheetView topLeftCell="B390" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F407" sqref="F407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2251,14 +2272,14 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.91600000000000004</v>
+        <v>-0.95699999999999996</v>
       </c>
       <c r="G19">
         <v>3.15</v>
@@ -4162,17 +4183,17 @@
         <v>63</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>-3.9969999999999999</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>-3.9369999999999998</v>
       </c>
       <c r="G115">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
@@ -4183,17 +4204,17 @@
         <v>62</v>
       </c>
       <c r="D116">
-        <v>-3.8839999999999999</v>
+        <v>-3.9340000000000002</v>
       </c>
       <c r="E116">
         <v>6</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
+        <v>-3.8740000000000001</v>
       </c>
       <c r="G116">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
@@ -4204,17 +4225,17 @@
         <v>68</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>-3.9969999999999999</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>-3.9369999999999998</v>
       </c>
       <c r="G117">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4225,17 +4246,17 @@
         <v>69</v>
       </c>
       <c r="D118">
-        <v>-3.8839999999999999</v>
+        <v>-3.9340000000000002</v>
       </c>
       <c r="E118">
         <v>6</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="6"/>
-        <v>-3.8239999999999998</v>
+        <v>-3.8740000000000001</v>
       </c>
       <c r="G118">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -4744,7 +4765,7 @@
         <v>-2.2549999999999999</v>
       </c>
       <c r="G146">
-        <v>1.04</v>
+        <v>0.77</v>
       </c>
       <c r="H146" t="s">
         <v>422</v>
@@ -4755,17 +4776,17 @@
         <v>62</v>
       </c>
       <c r="D147">
-        <v>-1.427</v>
+        <v>-2.2130000000000001</v>
       </c>
       <c r="E147">
         <v>6</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" ref="F147:F149" si="8">D147+E147*0.01</f>
-        <v>-1.367</v>
+        <v>-2.153</v>
       </c>
       <c r="G147">
-        <v>0.18</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="148" spans="3:8" x14ac:dyDescent="0.2">
@@ -4783,7 +4804,7 @@
         <v>-2.2549999999999999</v>
       </c>
       <c r="G148">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="149" spans="3:8" ht="51" x14ac:dyDescent="0.2">
@@ -4791,17 +4812,17 @@
         <v>69</v>
       </c>
       <c r="D149" s="7">
-        <v>-1.427</v>
+        <v>-2.2130000000000001</v>
       </c>
       <c r="E149">
         <v>6</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="8"/>
-        <v>-1.367</v>
+        <v>-2.153</v>
       </c>
       <c r="G149">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="150" spans="3:8" ht="17" x14ac:dyDescent="0.2">
@@ -5181,17 +5202,17 @@
         <v>63</v>
       </c>
       <c r="D173">
-        <v>-0.36099999999999999</v>
+        <v>-4.4039999999999999</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="9"/>
-        <v>-0.34099999999999997</v>
+        <v>-4.3440000000000003</v>
       </c>
       <c r="G173">
-        <v>0.47</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="174" spans="3:8" x14ac:dyDescent="0.2">
@@ -5199,14 +5220,14 @@
         <v>62</v>
       </c>
       <c r="D174">
-        <v>-3.113</v>
+        <v>-3.6659999999999999</v>
       </c>
       <c r="E174">
         <v>6</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="9"/>
-        <v>-3.0529999999999999</v>
+        <v>-3.6059999999999999</v>
       </c>
       <c r="G174">
         <v>0.25</v>
@@ -5217,17 +5238,17 @@
         <v>68</v>
       </c>
       <c r="D175">
-        <v>-0.36099999999999999</v>
+        <v>-4.4039999999999999</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F175" s="1">
         <f>D175+E175*0.01</f>
-        <v>-0.34099999999999997</v>
+        <v>-4.3440000000000003</v>
       </c>
       <c r="G175">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="176" spans="3:8" ht="51" x14ac:dyDescent="0.2">
@@ -5235,14 +5256,14 @@
         <v>69</v>
       </c>
       <c r="D176">
-        <v>-3.113</v>
+        <v>-3.6659999999999999</v>
       </c>
       <c r="E176">
         <v>6</v>
       </c>
       <c r="F176" s="1">
         <f>D176+E176*0.01</f>
-        <v>-3.0529999999999999</v>
+        <v>-3.6059999999999999</v>
       </c>
       <c r="G176">
         <v>0.26</v>
@@ -5643,17 +5664,17 @@
         <v>62</v>
       </c>
       <c r="D201">
-        <v>-2.3340000000000001</v>
+        <v>-2.9649999999999999</v>
       </c>
       <c r="E201">
         <v>6</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" si="10"/>
-        <v>-2.274</v>
+        <v>-2.9049999999999998</v>
       </c>
       <c r="G201">
-        <v>0.17</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.2">
@@ -5679,17 +5700,17 @@
         <v>69</v>
       </c>
       <c r="D203">
-        <v>-2.3340000000000001</v>
+        <v>-2.9649999999999999</v>
       </c>
       <c r="E203">
         <v>6</v>
       </c>
       <c r="F203" s="1">
         <f t="shared" si="11"/>
-        <v>-2.274</v>
+        <v>-2.9049999999999998</v>
       </c>
       <c r="G203">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="204" spans="3:7" ht="17" x14ac:dyDescent="0.2">
@@ -6069,17 +6090,17 @@
         <v>63</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>-3.613</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F227" s="1">
         <f t="shared" si="13"/>
-        <v>0.02</v>
+        <v>-3.5529999999999999</v>
       </c>
       <c r="G227">
-        <v>0.23</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="228" spans="3:7" x14ac:dyDescent="0.2">
@@ -6087,17 +6108,17 @@
         <v>62</v>
       </c>
       <c r="D228">
-        <v>-2.0859999999999999</v>
+        <v>-3.371</v>
       </c>
       <c r="E228">
         <v>6</v>
       </c>
       <c r="F228" s="1">
         <f t="shared" si="13"/>
-        <v>-2.0259999999999998</v>
+        <v>-3.3109999999999999</v>
       </c>
       <c r="G228">
-        <v>0.24</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="229" spans="3:7" x14ac:dyDescent="0.2">
@@ -6105,17 +6126,17 @@
         <v>68</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>-3.613</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F229" s="1">
         <f t="shared" si="13"/>
-        <v>0.02</v>
+        <v>-3.5529999999999999</v>
       </c>
       <c r="G229">
-        <v>0.19</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="230" spans="3:7" ht="51" x14ac:dyDescent="0.2">
@@ -6123,17 +6144,17 @@
         <v>69</v>
       </c>
       <c r="D230">
-        <v>-2.0859999999999999</v>
+        <v>-3.371</v>
       </c>
       <c r="E230">
         <v>6</v>
       </c>
       <c r="F230" s="1">
         <f t="shared" si="13"/>
-        <v>-2.0259999999999998</v>
+        <v>-3.3109999999999999</v>
       </c>
       <c r="G230">
-        <v>0.23</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="231" spans="3:7" ht="17" x14ac:dyDescent="0.2">
@@ -6531,17 +6552,17 @@
         <v>62</v>
       </c>
       <c r="D255">
-        <v>-1.391</v>
+        <v>-2.9649999999999999</v>
       </c>
       <c r="E255">
         <v>6</v>
       </c>
       <c r="F255" s="1">
         <f t="shared" si="14"/>
-        <v>-1.331</v>
+        <v>-2.9049999999999998</v>
       </c>
       <c r="G255">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="256" spans="3:8" x14ac:dyDescent="0.2">
@@ -6567,17 +6588,17 @@
         <v>69</v>
       </c>
       <c r="D257">
-        <v>-1.391</v>
+        <v>-2.9649999999999999</v>
       </c>
       <c r="E257">
         <v>6</v>
       </c>
       <c r="F257" s="1">
         <f t="shared" si="14"/>
-        <v>-1.331</v>
+        <v>-2.9049999999999998</v>
       </c>
       <c r="G257">
-        <v>0.17</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="258" spans="3:8" ht="17" x14ac:dyDescent="0.2">
@@ -6834,7 +6855,7 @@
         <f t="shared" si="16"/>
         <v>-3.8537999999999997</v>
       </c>
-      <c r="E272" s="20">
+      <c r="E272" s="18">
         <f t="shared" si="16"/>
         <v>38.799999999999997</v>
       </c>
@@ -6852,7 +6873,7 @@
         <f t="shared" si="16"/>
         <v>-1.5484000000000002</v>
       </c>
-      <c r="E273" s="20">
+      <c r="E273" s="18">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
@@ -6870,7 +6891,7 @@
         <f t="shared" si="16"/>
         <v>-3.7063999999999999</v>
       </c>
-      <c r="E274" s="20">
+      <c r="E274" s="18">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -6888,7 +6909,7 @@
         <f t="shared" si="16"/>
         <v>-3.8326000000000002</v>
       </c>
-      <c r="E275" s="20">
+      <c r="E275" s="18">
         <f t="shared" si="16"/>
         <v>52.8</v>
       </c>
@@ -6906,7 +6927,7 @@
         <f t="shared" si="16"/>
         <v>-1.9104000000000003</v>
       </c>
-      <c r="E276" s="20">
+      <c r="E276" s="18">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
@@ -6924,7 +6945,7 @@
         <f t="shared" si="16"/>
         <v>-3.7299999999999995</v>
       </c>
-      <c r="E277" s="20">
+      <c r="E277" s="18">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -6942,7 +6963,7 @@
         <f t="shared" si="16"/>
         <v>-3.8540000000000001</v>
       </c>
-      <c r="E278" s="20">
+      <c r="E278" s="18">
         <f t="shared" si="16"/>
         <v>43.6</v>
       </c>
@@ -6960,7 +6981,7 @@
         <f t="shared" si="16"/>
         <v>-1.8676000000000001</v>
       </c>
-      <c r="E279" s="20">
+      <c r="E279" s="18">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
@@ -6978,7 +6999,7 @@
         <f t="shared" si="16"/>
         <v>-3.6514000000000002</v>
       </c>
-      <c r="E280" s="20">
+      <c r="E280" s="18">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -6994,19 +7015,19 @@
       </c>
       <c r="D281" s="1">
         <f t="shared" si="16"/>
-        <v>-1.7986</v>
-      </c>
-      <c r="E281" s="20">
+        <v>-3.3298000000000001</v>
+      </c>
+      <c r="E281" s="18">
         <f t="shared" si="16"/>
-        <v>4.4000000000000004</v>
+        <v>6</v>
       </c>
       <c r="F281" s="1">
         <f t="shared" si="16"/>
-        <v>-1.7545999999999999</v>
+        <v>-3.2698</v>
       </c>
       <c r="G281" s="3">
         <f>AVERAGE(G146,G173,G200,G227,G254)</f>
-        <v>0.73199999999999998</v>
+        <v>0.85399999999999987</v>
       </c>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.2">
@@ -7015,19 +7036,19 @@
       </c>
       <c r="D282" s="1">
         <f t="shared" si="16"/>
-        <v>-2.0702000000000003</v>
-      </c>
-      <c r="E282" s="20">
+        <v>-3.036</v>
+      </c>
+      <c r="E282" s="18">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F282" s="1">
         <f t="shared" si="16"/>
-        <v>-2.0101999999999998</v>
+        <v>-2.976</v>
       </c>
       <c r="G282" s="3">
         <f t="shared" si="16"/>
-        <v>0.20200000000000001</v>
+        <v>0.49800000000000005</v>
       </c>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.2">
@@ -7036,19 +7057,19 @@
       </c>
       <c r="D283" s="1">
         <f t="shared" si="16"/>
-        <v>-1.7986</v>
-      </c>
-      <c r="E283" s="20">
+        <v>-3.3298000000000001</v>
+      </c>
+      <c r="E283" s="18">
         <f t="shared" si="16"/>
-        <v>4.4000000000000004</v>
+        <v>6</v>
       </c>
       <c r="F283" s="1">
         <f t="shared" si="16"/>
-        <v>-1.7545999999999999</v>
+        <v>-3.2698</v>
       </c>
       <c r="G283" s="3">
         <f t="shared" si="16"/>
-        <v>0.78200000000000003</v>
+        <v>0.89599999999999991</v>
       </c>
     </row>
     <row r="284" spans="3:7" ht="51" x14ac:dyDescent="0.2">
@@ -7057,19 +7078,19 @@
       </c>
       <c r="D284" s="1">
         <f t="shared" si="16"/>
-        <v>-2.0702000000000003</v>
-      </c>
-      <c r="E284" s="20">
+        <v>-3.036</v>
+      </c>
+      <c r="E284" s="18">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="F284" s="1">
         <f t="shared" si="16"/>
-        <v>-2.0101999999999998</v>
+        <v>-2.976</v>
       </c>
       <c r="G284" s="3">
         <f t="shared" si="16"/>
-        <v>0.23199999999999998</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="285" spans="3:7" ht="17" x14ac:dyDescent="0.2">
@@ -7080,7 +7101,7 @@
         <f t="shared" si="16"/>
         <v>-3.8457999999999992</v>
       </c>
-      <c r="E285" s="20">
+      <c r="E285" s="18">
         <f t="shared" si="16"/>
         <v>32.4</v>
       </c>
@@ -7101,7 +7122,7 @@
         <f t="shared" si="16"/>
         <v>-2.7090000000000005</v>
       </c>
-      <c r="E286" s="20">
+      <c r="E286" s="18">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
@@ -7122,7 +7143,7 @@
         <f t="shared" si="16"/>
         <v>-3.7887999999999997</v>
       </c>
-      <c r="E287" s="20">
+      <c r="E287" s="18">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -7143,7 +7164,7 @@
         <f t="shared" si="16"/>
         <v>-3.8404000000000003</v>
       </c>
-      <c r="E288" s="20">
+      <c r="E288" s="18">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -7164,7 +7185,7 @@
         <f t="shared" si="16"/>
         <v>-2.6142000000000003</v>
       </c>
-      <c r="E289" s="20">
+      <c r="E289" s="18">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
@@ -7185,7 +7206,7 @@
         <f t="shared" si="16"/>
         <v>-3.7518000000000002</v>
       </c>
-      <c r="E290" s="20">
+      <c r="E290" s="18">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -7206,7 +7227,7 @@
         <f t="shared" si="16"/>
         <v>-3.8536000000000001</v>
       </c>
-      <c r="E291" s="20">
+      <c r="E291" s="18">
         <f t="shared" si="16"/>
         <v>40.4</v>
       </c>
@@ -7227,7 +7248,7 @@
         <f t="shared" si="16"/>
         <v>-2.7090000000000005</v>
       </c>
-      <c r="E292" s="20">
+      <c r="E292" s="18">
         <f t="shared" ref="E292:G292" si="17">AVERAGE(E157,E184,E211,E238,E265)</f>
         <v>6</v>
       </c>
@@ -7248,7 +7269,7 @@
         <f t="shared" si="16"/>
         <v>-3.7814000000000001</v>
       </c>
-      <c r="E293" s="20">
+      <c r="E293" s="18">
         <f t="shared" ref="E293:G293" si="18">AVERAGE(E158,E185,E212,E239,E266)</f>
         <v>10</v>
       </c>
@@ -7291,7 +7312,7 @@
         <f t="shared" si="19"/>
         <v>7.616736177655115</v>
       </c>
-      <c r="H296" s="19">
+      <c r="H296" s="17">
         <f>STDEV(H134,H161,H188,H215,H242)</f>
         <v>4.2630078698567039E-2</v>
       </c>
@@ -7316,7 +7337,7 @@
         <f t="shared" si="20"/>
         <v>233.72305866131413</v>
       </c>
-      <c r="H297" s="19">
+      <c r="H297" s="17">
         <f t="shared" si="20"/>
         <v>4.4899402760503679E-2</v>
       </c>
@@ -7341,7 +7362,7 @@
         <f t="shared" si="20"/>
         <v>156.62305322014373</v>
       </c>
-      <c r="H298" s="19">
+      <c r="H298" s="17">
         <f t="shared" si="20"/>
         <v>4.2806759580872412E-2</v>
       </c>
@@ -7514,19 +7535,19 @@
       </c>
       <c r="D308" s="1">
         <f t="shared" si="20"/>
-        <v>1.5231763850585396</v>
+        <v>0.76418237352087437</v>
       </c>
       <c r="E308" s="1">
         <f t="shared" si="20"/>
-        <v>2.1908902300206647</v>
+        <v>0</v>
       </c>
       <c r="F308" s="1">
         <f t="shared" si="20"/>
-        <v>1.5019395127634139</v>
+        <v>0.76418237352087659</v>
       </c>
       <c r="G308" s="1">
         <f t="shared" si="20"/>
-        <v>0.36148305631108085</v>
+        <v>0.10968135666557105</v>
       </c>
     </row>
     <row r="309" spans="3:7" x14ac:dyDescent="0.2">
@@ -7535,7 +7556,7 @@
       </c>
       <c r="D309" s="1">
         <f t="shared" si="20"/>
-        <v>0.7127921857035181</v>
+        <v>0.54693143994471438</v>
       </c>
       <c r="E309" s="1">
         <f t="shared" si="20"/>
@@ -7543,11 +7564,11 @@
       </c>
       <c r="F309" s="1">
         <f t="shared" si="20"/>
-        <v>0.71279218570351943</v>
+        <v>0.5469314399447176</v>
       </c>
       <c r="G309" s="1">
         <f t="shared" si="20"/>
-        <v>3.9623225512317922E-2</v>
+        <v>0.17683325479106005</v>
       </c>
     </row>
     <row r="310" spans="3:7" x14ac:dyDescent="0.2">
@@ -7556,19 +7577,19 @@
       </c>
       <c r="D310" s="1">
         <f t="shared" si="20"/>
-        <v>1.5231763850585396</v>
+        <v>0.76418237352087437</v>
       </c>
       <c r="E310" s="1">
         <f t="shared" si="20"/>
-        <v>2.1908902300206647</v>
+        <v>0</v>
       </c>
       <c r="F310" s="1">
         <f t="shared" si="20"/>
-        <v>1.5019395127634139</v>
+        <v>0.76418237352087659</v>
       </c>
       <c r="G310" s="1">
         <f t="shared" si="20"/>
-        <v>0.4297324749189893</v>
+        <v>0.2369177072318577</v>
       </c>
     </row>
     <row r="311" spans="3:7" ht="51" x14ac:dyDescent="0.2">
@@ -7577,7 +7598,7 @@
       </c>
       <c r="D311" s="1">
         <f t="shared" si="20"/>
-        <v>0.7127921857035181</v>
+        <v>0.54693143994471438</v>
       </c>
       <c r="E311" s="1">
         <f t="shared" si="20"/>
@@ -7585,11 +7606,11 @@
       </c>
       <c r="F311" s="1">
         <f t="shared" si="20"/>
-        <v>0.71279218570351943</v>
+        <v>0.5469314399447176</v>
       </c>
       <c r="G311" s="1">
         <f t="shared" si="20"/>
-        <v>6.7230945255886521E-2</v>
+        <v>0.20554804791094469</v>
       </c>
     </row>
     <row r="312" spans="3:7" ht="17" x14ac:dyDescent="0.2">
@@ -8053,7 +8074,7 @@
         <f>D342+E342*0.01</f>
         <v>-1.2429999999999999</v>
       </c>
-      <c r="G342" s="21">
+      <c r="G342" s="19">
         <v>4877.3500000000004</v>
       </c>
     </row>
@@ -8073,6 +8094,1188 @@
       </c>
       <c r="G343">
         <v>4399.54</v>
+      </c>
+    </row>
+    <row r="348" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C348" t="s">
+        <v>435</v>
+      </c>
+      <c r="D348">
+        <v>-0.999</v>
+      </c>
+      <c r="E348">
+        <v>8</v>
+      </c>
+      <c r="F348">
+        <f>D348+E348*0.01</f>
+        <v>-0.91900000000000004</v>
+      </c>
+      <c r="G348">
+        <v>0.09</v>
+      </c>
+      <c r="H348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C349" t="s">
+        <v>276</v>
+      </c>
+      <c r="D349">
+        <v>-0.999</v>
+      </c>
+      <c r="E349">
+        <v>8</v>
+      </c>
+      <c r="F349">
+        <f>D349+E349*0.01</f>
+        <v>-0.91900000000000004</v>
+      </c>
+      <c r="G349">
+        <v>0.27</v>
+      </c>
+      <c r="H349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C350" t="s">
+        <v>436</v>
+      </c>
+      <c r="D350">
+        <v>-0.999</v>
+      </c>
+      <c r="E350">
+        <v>12</v>
+      </c>
+      <c r="F350">
+        <f t="shared" ref="F350:F353" si="23">D350+E350*0.01</f>
+        <v>-0.879</v>
+      </c>
+      <c r="G350">
+        <v>0.13</v>
+      </c>
+      <c r="H350">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C351" t="s">
+        <v>437</v>
+      </c>
+      <c r="D351">
+        <v>-0.90900000000000003</v>
+      </c>
+      <c r="E351">
+        <v>4</v>
+      </c>
+      <c r="F351">
+        <f t="shared" si="23"/>
+        <v>-0.86899999999999999</v>
+      </c>
+      <c r="G351">
+        <v>0.02</v>
+      </c>
+      <c r="H351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C352" t="s">
+        <v>438</v>
+      </c>
+      <c r="D352">
+        <v>-0.90900000000000003</v>
+      </c>
+      <c r="E352">
+        <v>4</v>
+      </c>
+      <c r="F352">
+        <f t="shared" si="23"/>
+        <v>-0.86899999999999999</v>
+      </c>
+      <c r="G352">
+        <v>0.04</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C353" t="s">
+        <v>439</v>
+      </c>
+      <c r="D353">
+        <v>-0.76500000000000001</v>
+      </c>
+      <c r="E353">
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <f t="shared" si="23"/>
+        <v>-0.70500000000000007</v>
+      </c>
+      <c r="G353">
+        <v>0.01</v>
+      </c>
+      <c r="H353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C355" t="s">
+        <v>435</v>
+      </c>
+      <c r="D355">
+        <v>-3.9969999999999999</v>
+      </c>
+      <c r="E355">
+        <v>6</v>
+      </c>
+      <c r="F355">
+        <f>D355+E355*0.01</f>
+        <v>-3.9369999999999998</v>
+      </c>
+      <c r="G355">
+        <v>0.15</v>
+      </c>
+      <c r="H355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C356" t="s">
+        <v>276</v>
+      </c>
+      <c r="D356">
+        <v>-3.9990000000000001</v>
+      </c>
+      <c r="E356">
+        <v>14</v>
+      </c>
+      <c r="F356">
+        <f>D356+E356*0.01</f>
+        <v>-3.859</v>
+      </c>
+      <c r="G356" s="7">
+        <v>1.17</v>
+      </c>
+      <c r="H356" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C357" t="s">
+        <v>436</v>
+      </c>
+      <c r="D357">
+        <v>-3.9969999999999999</v>
+      </c>
+      <c r="E357">
+        <v>6</v>
+      </c>
+      <c r="F357">
+        <f t="shared" ref="F357:G377" si="24">D357+E357*0.01</f>
+        <v>-3.9369999999999998</v>
+      </c>
+      <c r="G357">
+        <v>0.16</v>
+      </c>
+      <c r="H357" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C358" t="s">
+        <v>437</v>
+      </c>
+      <c r="D358">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E358">
+        <v>6</v>
+      </c>
+      <c r="F358">
+        <f t="shared" si="24"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G358">
+        <v>0.04</v>
+      </c>
+      <c r="H358" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C359" t="s">
+        <v>438</v>
+      </c>
+      <c r="D359">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E359">
+        <v>6</v>
+      </c>
+      <c r="F359">
+        <f t="shared" si="24"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G359">
+        <v>0.03</v>
+      </c>
+      <c r="H359" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C360" t="s">
+        <v>439</v>
+      </c>
+      <c r="D360">
+        <v>-3.8839999999999999</v>
+      </c>
+      <c r="E360">
+        <v>6</v>
+      </c>
+      <c r="F360">
+        <f t="shared" si="24"/>
+        <v>-3.8239999999999998</v>
+      </c>
+      <c r="G360">
+        <v>0.03</v>
+      </c>
+      <c r="H360" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C362" t="s">
+        <v>435</v>
+      </c>
+      <c r="D362">
+        <v>-2.8780000000000001</v>
+      </c>
+      <c r="E362">
+        <v>14</v>
+      </c>
+      <c r="F362">
+        <f t="shared" si="24"/>
+        <v>-2.738</v>
+      </c>
+      <c r="G362">
+        <v>4.03</v>
+      </c>
+      <c r="H362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C363" t="s">
+        <v>276</v>
+      </c>
+      <c r="D363">
+        <v>-2.883</v>
+      </c>
+      <c r="E363">
+        <v>22</v>
+      </c>
+      <c r="F363">
+        <f t="shared" si="24"/>
+        <v>-2.6629999999999998</v>
+      </c>
+      <c r="G363">
+        <v>22.19</v>
+      </c>
+      <c r="H363">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C364" t="s">
+        <v>436</v>
+      </c>
+      <c r="D364">
+        <v>-2.8780000000000001</v>
+      </c>
+      <c r="E364">
+        <v>14</v>
+      </c>
+      <c r="F364">
+        <f t="shared" si="24"/>
+        <v>-2.738</v>
+      </c>
+      <c r="G364">
+        <v>3.4</v>
+      </c>
+      <c r="H364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C365" t="s">
+        <v>437</v>
+      </c>
+      <c r="D365">
+        <v>-2.2130000000000001</v>
+      </c>
+      <c r="E365">
+        <v>6</v>
+      </c>
+      <c r="F365">
+        <f t="shared" si="24"/>
+        <v>-2.153</v>
+      </c>
+      <c r="G365">
+        <v>0.49</v>
+      </c>
+      <c r="H365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C366" t="s">
+        <v>438</v>
+      </c>
+      <c r="D366">
+        <v>-2.2130000000000001</v>
+      </c>
+      <c r="E366">
+        <v>6</v>
+      </c>
+      <c r="F366">
+        <f t="shared" si="24"/>
+        <v>-2.153</v>
+      </c>
+      <c r="G366">
+        <v>0.42</v>
+      </c>
+      <c r="H366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C367" t="s">
+        <v>439</v>
+      </c>
+      <c r="D367">
+        <v>-2.2130000000000001</v>
+      </c>
+      <c r="E367">
+        <v>6</v>
+      </c>
+      <c r="F367">
+        <f t="shared" si="24"/>
+        <v>-2.153</v>
+      </c>
+      <c r="G367">
+        <v>0.4</v>
+      </c>
+      <c r="H367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C369" t="s">
+        <v>435</v>
+      </c>
+      <c r="D369">
+        <v>-5.3120000000000003</v>
+      </c>
+      <c r="E369">
+        <v>22</v>
+      </c>
+      <c r="F369">
+        <f t="shared" si="24"/>
+        <v>-5.0920000000000005</v>
+      </c>
+      <c r="G369">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="H369">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C370" t="s">
+        <v>276</v>
+      </c>
+      <c r="D370">
+        <v>-5.3049999999999997</v>
+      </c>
+      <c r="E370">
+        <v>18</v>
+      </c>
+      <c r="F370">
+        <f t="shared" si="24"/>
+        <v>-5.125</v>
+      </c>
+      <c r="G370">
+        <v>14.34</v>
+      </c>
+      <c r="H370">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C371" t="s">
+        <v>436</v>
+      </c>
+      <c r="D371">
+        <v>-5.3159999999999998</v>
+      </c>
+      <c r="E371">
+        <v>26</v>
+      </c>
+      <c r="F371">
+        <f t="shared" si="24"/>
+        <v>-5.056</v>
+      </c>
+      <c r="G371">
+        <v>21.83</v>
+      </c>
+      <c r="H371">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C372" t="s">
+        <v>437</v>
+      </c>
+      <c r="D372">
+        <v>-2.1</v>
+      </c>
+      <c r="E372">
+        <v>6</v>
+      </c>
+      <c r="F372">
+        <f t="shared" si="24"/>
+        <v>-2.04</v>
+      </c>
+      <c r="G372">
+        <v>0.11</v>
+      </c>
+      <c r="H372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C373" t="s">
+        <v>438</v>
+      </c>
+      <c r="D373">
+        <v>-3.6659999999999999</v>
+      </c>
+      <c r="E373">
+        <v>6</v>
+      </c>
+      <c r="F373">
+        <f t="shared" si="24"/>
+        <v>-3.6059999999999999</v>
+      </c>
+      <c r="G373">
+        <v>0.37</v>
+      </c>
+      <c r="H373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
+        <v>439</v>
+      </c>
+      <c r="D374">
+        <v>-2.1</v>
+      </c>
+      <c r="E374">
+        <v>6</v>
+      </c>
+      <c r="F374">
+        <f t="shared" si="24"/>
+        <v>-2.04</v>
+      </c>
+      <c r="G374">
+        <v>0.11</v>
+      </c>
+      <c r="H374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C376" t="s">
+        <v>435</v>
+      </c>
+      <c r="D376">
+        <v>-3.7309999999999999</v>
+      </c>
+      <c r="E376">
+        <v>26</v>
+      </c>
+      <c r="F376">
+        <f t="shared" si="24"/>
+        <v>-3.4710000000000001</v>
+      </c>
+      <c r="G376">
+        <v>20.29</v>
+      </c>
+      <c r="H376">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C377" t="s">
+        <v>276</v>
+      </c>
+      <c r="D377">
+        <v>-3.7280000000000002</v>
+      </c>
+      <c r="E377">
+        <v>22</v>
+      </c>
+      <c r="F377">
+        <f t="shared" si="24"/>
+        <v>-3.508</v>
+      </c>
+      <c r="G377">
+        <v>21.52</v>
+      </c>
+      <c r="H377">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C378" t="s">
+        <v>436</v>
+      </c>
+      <c r="D378">
+        <v>-3.7280000000000002</v>
+      </c>
+      <c r="E378">
+        <v>22</v>
+      </c>
+      <c r="F378">
+        <f t="shared" ref="F378:H395" si="25">D378+E378*0.01</f>
+        <v>-3.508</v>
+      </c>
+      <c r="G378">
+        <v>14.01</v>
+      </c>
+      <c r="H378">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C379" t="s">
+        <v>437</v>
+      </c>
+      <c r="D379">
+        <v>-2.9649999999999999</v>
+      </c>
+      <c r="E379">
+        <v>6</v>
+      </c>
+      <c r="F379">
+        <f t="shared" si="25"/>
+        <v>-2.9049999999999998</v>
+      </c>
+      <c r="G379">
+        <v>0.51</v>
+      </c>
+      <c r="H379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C380" t="s">
+        <v>438</v>
+      </c>
+      <c r="D380">
+        <v>-2.9649999999999999</v>
+      </c>
+      <c r="E380">
+        <v>6</v>
+      </c>
+      <c r="F380">
+        <f t="shared" si="25"/>
+        <v>-2.9049999999999998</v>
+      </c>
+      <c r="G380">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C381" t="s">
+        <v>439</v>
+      </c>
+      <c r="D381">
+        <v>-2.9649999999999999</v>
+      </c>
+      <c r="E381">
+        <v>6</v>
+      </c>
+      <c r="F381">
+        <f t="shared" si="25"/>
+        <v>-2.9049999999999998</v>
+      </c>
+      <c r="G381">
+        <v>0.77</v>
+      </c>
+      <c r="H381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C383" t="s">
+        <v>435</v>
+      </c>
+      <c r="D383">
+        <v>-4.0730000000000004</v>
+      </c>
+      <c r="E383">
+        <v>14</v>
+      </c>
+      <c r="F383">
+        <f t="shared" si="25"/>
+        <v>-3.9330000000000003</v>
+      </c>
+      <c r="G383">
+        <v>6.87</v>
+      </c>
+      <c r="H383">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C384" t="s">
+        <v>276</v>
+      </c>
+      <c r="D384">
+        <v>-4.0730000000000004</v>
+      </c>
+      <c r="E384">
+        <v>14</v>
+      </c>
+      <c r="F384">
+        <f t="shared" si="25"/>
+        <v>-3.9330000000000003</v>
+      </c>
+      <c r="G384">
+        <v>7.84</v>
+      </c>
+      <c r="H384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C385" t="s">
+        <v>436</v>
+      </c>
+      <c r="D385">
+        <v>-4.0449999999999999</v>
+      </c>
+      <c r="E385">
+        <v>10</v>
+      </c>
+      <c r="F385">
+        <f t="shared" si="25"/>
+        <v>-3.9449999999999998</v>
+      </c>
+      <c r="G385">
+        <v>1.75</v>
+      </c>
+      <c r="H385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C386" t="s">
+        <v>437</v>
+      </c>
+      <c r="D386">
+        <v>-2.681</v>
+      </c>
+      <c r="E386">
+        <v>4</v>
+      </c>
+      <c r="F386">
+        <f t="shared" si="25"/>
+        <v>-2.641</v>
+      </c>
+      <c r="G386">
+        <v>0.3</v>
+      </c>
+      <c r="H386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C387" t="s">
+        <v>438</v>
+      </c>
+      <c r="D387">
+        <v>-3.371</v>
+      </c>
+      <c r="E387">
+        <v>6</v>
+      </c>
+      <c r="F387">
+        <f t="shared" si="25"/>
+        <v>-3.3109999999999999</v>
+      </c>
+      <c r="G387">
+        <v>0.54</v>
+      </c>
+      <c r="H387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C388" t="s">
+        <v>439</v>
+      </c>
+      <c r="D388">
+        <v>-3.371</v>
+      </c>
+      <c r="E388">
+        <v>6</v>
+      </c>
+      <c r="F388">
+        <f t="shared" si="25"/>
+        <v>-3.3109999999999999</v>
+      </c>
+      <c r="G388">
+        <v>0.62</v>
+      </c>
+      <c r="H388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C390" t="s">
+        <v>435</v>
+      </c>
+      <c r="D390">
+        <v>-3.2879999999999998</v>
+      </c>
+      <c r="E390">
+        <v>22</v>
+      </c>
+      <c r="F390">
+        <f t="shared" si="25"/>
+        <v>-3.0679999999999996</v>
+      </c>
+      <c r="G390">
+        <v>29.41</v>
+      </c>
+      <c r="H390">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C391" t="s">
+        <v>276</v>
+      </c>
+      <c r="D391">
+        <v>-3.286</v>
+      </c>
+      <c r="E391">
+        <v>18</v>
+      </c>
+      <c r="F391">
+        <f t="shared" si="25"/>
+        <v>-3.1059999999999999</v>
+      </c>
+      <c r="G391">
+        <v>16.72</v>
+      </c>
+      <c r="H391">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C392" t="s">
+        <v>436</v>
+      </c>
+      <c r="D392">
+        <v>-3.282</v>
+      </c>
+      <c r="E392">
+        <v>14</v>
+      </c>
+      <c r="F392">
+        <f t="shared" si="25"/>
+        <v>-3.1419999999999999</v>
+      </c>
+      <c r="G392">
+        <v>6.15</v>
+      </c>
+      <c r="H392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C393" t="s">
+        <v>437</v>
+      </c>
+      <c r="D393">
+        <v>-2.9340000000000002</v>
+      </c>
+      <c r="E393">
+        <v>6</v>
+      </c>
+      <c r="F393">
+        <f t="shared" si="25"/>
+        <v>-2.8740000000000001</v>
+      </c>
+      <c r="G393">
+        <v>0.67</v>
+      </c>
+      <c r="H393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C394" t="s">
+        <v>438</v>
+      </c>
+      <c r="D394">
+        <v>-2.9340000000000002</v>
+      </c>
+      <c r="E394">
+        <v>6</v>
+      </c>
+      <c r="F394">
+        <f t="shared" si="25"/>
+        <v>-2.8740000000000001</v>
+      </c>
+      <c r="G394">
+        <v>0.61</v>
+      </c>
+      <c r="H394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C395" t="s">
+        <v>439</v>
+      </c>
+      <c r="D395">
+        <v>-2.9340000000000002</v>
+      </c>
+      <c r="E395">
+        <v>6</v>
+      </c>
+      <c r="F395">
+        <f t="shared" si="25"/>
+        <v>-2.8740000000000001</v>
+      </c>
+      <c r="G395">
+        <v>0.66</v>
+      </c>
+      <c r="H395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C397" t="s">
+        <v>435</v>
+      </c>
+      <c r="D397" s="1">
+        <f>AVERAGE(D362,D369,D376,D383,D390)</f>
+        <v>-3.8563999999999998</v>
+      </c>
+      <c r="E397">
+        <f>AVERAGE(E362,E369,E376,E383,E390)</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F397" s="1">
+        <f>AVERAGE(F362,F369,F376,F383,F390)</f>
+        <v>-3.6604000000000001</v>
+      </c>
+      <c r="G397" s="3">
+        <f>AVERAGE(G362,G369,G376,G383,G390)</f>
+        <v>15.408000000000001</v>
+      </c>
+      <c r="H397">
+        <f>AVERAGE(H362,H369,H376,H383,H390)</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="398" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C398" t="s">
+        <v>276</v>
+      </c>
+      <c r="D398" s="1">
+        <f t="shared" ref="D398:H398" si="26">AVERAGE(D363,D370,D377,D384,D391)</f>
+        <v>-3.8549999999999995</v>
+      </c>
+      <c r="E398">
+        <f t="shared" si="26"/>
+        <v>18.8</v>
+      </c>
+      <c r="F398" s="1">
+        <f t="shared" si="26"/>
+        <v>-3.6670000000000003</v>
+      </c>
+      <c r="G398" s="3">
+        <f t="shared" si="26"/>
+        <v>16.521999999999998</v>
+      </c>
+      <c r="H398">
+        <f t="shared" si="26"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C399" t="s">
+        <v>436</v>
+      </c>
+      <c r="D399" s="1">
+        <f t="shared" ref="D399:H399" si="27">AVERAGE(D364,D371,D378,D385,D392)</f>
+        <v>-3.8497999999999997</v>
+      </c>
+      <c r="E399">
+        <f t="shared" si="27"/>
+        <v>17.2</v>
+      </c>
+      <c r="F399" s="1">
+        <f t="shared" si="27"/>
+        <v>-3.6778</v>
+      </c>
+      <c r="G399" s="3">
+        <f t="shared" si="27"/>
+        <v>9.427999999999999</v>
+      </c>
+      <c r="H399">
+        <f t="shared" si="27"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="400" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C400" t="s">
+        <v>437</v>
+      </c>
+      <c r="D400" s="1">
+        <f t="shared" ref="D400:H400" si="28">AVERAGE(D365,D372,D379,D386,D393)</f>
+        <v>-2.5786000000000002</v>
+      </c>
+      <c r="E400">
+        <f t="shared" si="28"/>
+        <v>5.6</v>
+      </c>
+      <c r="F400" s="1">
+        <f t="shared" si="28"/>
+        <v>-2.5225999999999997</v>
+      </c>
+      <c r="G400" s="3">
+        <f t="shared" si="28"/>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="H400">
+        <f t="shared" si="28"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="401" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C401" t="s">
+        <v>438</v>
+      </c>
+      <c r="D401" s="1">
+        <f t="shared" ref="D401:H401" si="29">AVERAGE(D366,D373,D380,D387,D394)</f>
+        <v>-3.0298000000000003</v>
+      </c>
+      <c r="E401">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="F401" s="1">
+        <f t="shared" si="29"/>
+        <v>-2.9698000000000002</v>
+      </c>
+      <c r="G401" s="3">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="H401">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C402" t="s">
+        <v>439</v>
+      </c>
+      <c r="D402" s="1">
+        <f t="shared" ref="D402:H402" si="30">AVERAGE(D367,D374,D381,D388,D395)</f>
+        <v>-2.7166000000000006</v>
+      </c>
+      <c r="E402">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="F402" s="1">
+        <f t="shared" si="30"/>
+        <v>-2.6566000000000001</v>
+      </c>
+      <c r="G402" s="3">
+        <f t="shared" si="30"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H402">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C404" t="s">
+        <v>435</v>
+      </c>
+      <c r="D404">
+        <f>STDEV(D362,D369,D376,D383,D390)</f>
+        <v>0.93028990105235587</v>
+      </c>
+      <c r="E404">
+        <f t="shared" ref="E404:H404" si="31">STDEV(E362,E369,E376,E383,E390)</f>
+        <v>5.3665631459994962</v>
+      </c>
+      <c r="F404">
+        <f t="shared" si="31"/>
+        <v>0.91670895053992052</v>
+      </c>
+      <c r="G404">
+        <f t="shared" si="31"/>
+        <v>10.287264942636595</v>
+      </c>
+      <c r="H404">
+        <f t="shared" si="31"/>
+        <v>2.6832815729997481</v>
+      </c>
+    </row>
+    <row r="405" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C405" t="s">
+        <v>276</v>
+      </c>
+      <c r="D405">
+        <f t="shared" ref="D405:D409" si="32">STDEV(D363,D370,D377,D384,D391)</f>
+        <v>0.92664691225946627</v>
+      </c>
+      <c r="E405">
+        <f t="shared" ref="E405:H405" si="33">STDEV(E363,E370,E377,E384,E391)</f>
+        <v>3.3466401061363005</v>
+      </c>
+      <c r="F405">
+        <f t="shared" si="33"/>
+        <v>0.94134717293886883</v>
+      </c>
+      <c r="G405">
+        <f t="shared" si="33"/>
+        <v>5.8584059265298443</v>
+      </c>
+      <c r="H405">
+        <f t="shared" si="33"/>
+        <v>2.2803508501982734</v>
+      </c>
+    </row>
+    <row r="406" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C406" t="s">
+        <v>436</v>
+      </c>
+      <c r="D406">
+        <f t="shared" si="32"/>
+        <v>0.93132604387507867</v>
+      </c>
+      <c r="E406">
+        <f t="shared" ref="E406:H406" si="34">STDEV(E364,E371,E378,E385,E392)</f>
+        <v>6.5726706900619929</v>
+      </c>
+      <c r="F406">
+        <f t="shared" si="34"/>
+        <v>0.89022030981100497</v>
+      </c>
+      <c r="G406">
+        <f t="shared" si="34"/>
+        <v>8.3791121248017681</v>
+      </c>
+      <c r="H406">
+        <f t="shared" si="34"/>
+        <v>3.2863353450309964</v>
+      </c>
+    </row>
+    <row r="407" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C407" t="s">
+        <v>437</v>
+      </c>
+      <c r="D407">
+        <f t="shared" si="32"/>
+        <v>0.4027471911758046</v>
+      </c>
+      <c r="E407">
+        <f t="shared" ref="E407:H407" si="35">STDEV(E365,E372,E379,E386,E393)</f>
+        <v>0.8944271909999143</v>
+      </c>
+      <c r="F407">
+        <f t="shared" si="35"/>
+        <v>0.40411545380002578</v>
+      </c>
+      <c r="G407">
+        <f t="shared" si="35"/>
+        <v>0.21559220765138989</v>
+      </c>
+      <c r="H407">
+        <f t="shared" si="35"/>
+        <v>0.44721359549995715</v>
+      </c>
+    </row>
+    <row r="408" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C408" t="s">
+        <v>438</v>
+      </c>
+      <c r="D408">
+        <f t="shared" si="32"/>
+        <v>0.54811194112151873</v>
+      </c>
+      <c r="E408">
+        <f t="shared" ref="E408:H408" si="36">STDEV(E366,E373,E380,E387,E394)</f>
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <f t="shared" si="36"/>
+        <v>0.54811194112151873</v>
+      </c>
+      <c r="G408">
+        <f t="shared" si="36"/>
+        <v>0.10074720839804939</v>
+      </c>
+      <c r="H408">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C409" t="s">
+        <v>439</v>
+      </c>
+      <c r="D409">
+        <f t="shared" si="32"/>
+        <v>0.54106681657628719</v>
+      </c>
+      <c r="E409">
+        <f t="shared" ref="E409:H409" si="37">STDEV(E367,E374,E381,E388,E395)</f>
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <f t="shared" si="37"/>
+        <v>0.54106681657628874</v>
+      </c>
+      <c r="G409">
+        <f t="shared" si="37"/>
+        <v>0.26185874054535579</v>
+      </c>
+      <c r="H409">
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8130,7 +9333,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>264</v>
       </c>
       <c r="B2" t="s">
@@ -8154,7 +9357,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -8179,7 +9382,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>114</v>
       </c>
@@ -8204,7 +9407,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>115</v>
       </c>
@@ -8229,7 +9432,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -8254,7 +9457,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>117</v>
       </c>
@@ -8279,7 +9482,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -8304,7 +9507,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>119</v>
       </c>
@@ -8327,7 +9530,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>120</v>
       </c>
@@ -8350,7 +9553,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2" t="s">
         <v>121</v>
       </c>
@@ -8375,7 +9578,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -8398,7 +9601,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>123</v>
       </c>
@@ -8421,7 +9624,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>178</v>
       </c>
@@ -8446,7 +9649,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>125</v>
       </c>
@@ -8471,7 +9674,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>124</v>
       </c>
@@ -8496,7 +9699,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
@@ -8518,7 +9721,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
@@ -8540,7 +9743,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
@@ -8562,7 +9765,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>255</v>
       </c>
@@ -8584,7 +9787,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2" t="s">
         <v>256</v>
       </c>
@@ -8606,7 +9809,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2" t="s">
         <v>257</v>
       </c>
@@ -8629,7 +9832,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>265</v>
       </c>
       <c r="B25" t="s">
@@ -8653,7 +9856,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" t="s">
         <v>173</v>
       </c>
@@ -8678,7 +9881,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="2" t="s">
         <v>174</v>
       </c>
@@ -8700,7 +9903,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" t="s">
         <v>175</v>
       </c>
@@ -8722,7 +9925,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" t="s">
         <v>176</v>
       </c>
@@ -8744,7 +9947,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" t="s">
         <v>177</v>
       </c>
@@ -8766,7 +9969,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" t="s">
         <v>180</v>
       </c>
@@ -8788,7 +9991,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" t="s">
         <v>181</v>
       </c>
@@ -8810,7 +10013,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" t="s">
         <v>182</v>
       </c>
@@ -8832,7 +10035,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="2" t="s">
         <v>183</v>
       </c>
@@ -8854,7 +10057,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" t="s">
         <v>184</v>
       </c>
@@ -8876,7 +10079,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" t="s">
         <v>185</v>
       </c>
@@ -8898,7 +10101,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" t="s">
         <v>179</v>
       </c>
@@ -8920,7 +10123,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="2" t="s">
         <v>186</v>
       </c>
@@ -8942,7 +10145,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="2" t="s">
         <v>187</v>
       </c>
@@ -8964,7 +10167,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="2" t="s">
         <v>188</v>
       </c>
@@ -8986,7 +10189,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="2" t="s">
         <v>189</v>
       </c>
@@ -9008,7 +10211,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="2" t="s">
         <v>190</v>
       </c>
@@ -9030,7 +10233,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="2" t="s">
         <v>258</v>
       </c>
@@ -9052,7 +10255,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
         <v>259</v>
       </c>
@@ -9074,7 +10277,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="2" t="s">
         <v>260</v>
       </c>
@@ -9097,7 +10300,7 @@
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="21" t="s">
         <v>266</v>
       </c>
       <c r="B48" t="s">
@@ -9121,7 +10324,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
       <c r="B49" t="s">
         <v>200</v>
       </c>
@@ -9146,7 +10349,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="2" t="s">
         <v>201</v>
       </c>
@@ -9168,7 +10371,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="21"/>
       <c r="B51" t="s">
         <v>192</v>
       </c>
@@ -9190,7 +10393,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
+      <c r="A52" s="21"/>
       <c r="B52" t="s">
         <v>193</v>
       </c>
@@ -9212,7 +10415,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="21"/>
       <c r="B53" t="s">
         <v>194</v>
       </c>
@@ -9234,7 +10437,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
+      <c r="A54" s="21"/>
       <c r="B54" t="s">
         <v>202</v>
       </c>
@@ -9256,7 +10459,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="21"/>
       <c r="B55" t="s">
         <v>203</v>
       </c>
@@ -9278,7 +10481,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+      <c r="A56" s="21"/>
       <c r="B56" t="s">
         <v>204</v>
       </c>
@@ -9300,7 +10503,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="2" t="s">
         <v>205</v>
       </c>
@@ -9322,7 +10525,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="21"/>
       <c r="B58" t="s">
         <v>206</v>
       </c>
@@ -9344,7 +10547,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="21"/>
       <c r="B59" t="s">
         <v>207</v>
       </c>
@@ -9366,7 +10569,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="21"/>
       <c r="B60" t="s">
         <v>208</v>
       </c>
@@ -9388,7 +10591,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>195</v>
       </c>
@@ -9410,7 +10613,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="2" t="s">
         <v>196</v>
       </c>
@@ -9432,7 +10635,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="2" t="s">
         <v>198</v>
       </c>
@@ -9454,7 +10657,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="2" t="s">
         <v>197</v>
       </c>
@@ -9476,7 +10679,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="2" t="s">
         <v>199</v>
       </c>
@@ -9498,7 +10701,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="2" t="s">
         <v>252</v>
       </c>
@@ -9520,7 +10723,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>253</v>
       </c>
@@ -9542,7 +10745,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="2" t="s">
         <v>254</v>
       </c>
@@ -9565,7 +10768,7 @@
     </row>
     <row r="70" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="21" t="s">
         <v>267</v>
       </c>
       <c r="B71" t="s">
@@ -9589,7 +10792,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
+      <c r="A72" s="21"/>
       <c r="B72" t="s">
         <v>215</v>
       </c>
@@ -9614,7 +10817,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="2" t="s">
         <v>216</v>
       </c>
@@ -9636,7 +10839,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="21"/>
       <c r="B74" t="s">
         <v>212</v>
       </c>
@@ -9658,7 +10861,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="21"/>
       <c r="B75" t="s">
         <v>213</v>
       </c>
@@ -9680,7 +10883,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="21"/>
       <c r="B76" t="s">
         <v>214</v>
       </c>
@@ -9702,7 +10905,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="21"/>
       <c r="B77" t="s">
         <v>217</v>
       </c>
@@ -9724,7 +10927,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="21"/>
       <c r="B78" t="s">
         <v>218</v>
       </c>
@@ -9746,7 +10949,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="21"/>
       <c r="B79" t="s">
         <v>219</v>
       </c>
@@ -9768,7 +10971,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="2" t="s">
         <v>220</v>
       </c>
@@ -9790,7 +10993,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="21"/>
       <c r="B81" t="s">
         <v>221</v>
       </c>
@@ -9812,7 +11015,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="21"/>
       <c r="B82" t="s">
         <v>222</v>
       </c>
@@ -9834,7 +11037,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
+      <c r="A83" s="21"/>
       <c r="B83" t="s">
         <v>223</v>
       </c>
@@ -9856,7 +11059,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="2" t="s">
         <v>209</v>
       </c>
@@ -9878,7 +11081,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="2" t="s">
         <v>210</v>
       </c>
@@ -9900,7 +11103,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="2" t="s">
         <v>225</v>
       </c>
@@ -9922,7 +11125,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="2" t="s">
         <v>224</v>
       </c>
@@ -9944,7 +11147,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="2" t="s">
         <v>226</v>
       </c>
@@ -9966,7 +11169,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="2" t="s">
         <v>261</v>
       </c>
@@ -9988,7 +11191,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="2" t="s">
         <v>262</v>
       </c>
@@ -10010,7 +11213,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="2" t="s">
         <v>263</v>
       </c>
@@ -11636,10 +12839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105:H105"/>
+    <sheetView tabSelected="1" topLeftCell="B104" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12436,7 +13639,7 @@
         <v>278</v>
       </c>
       <c r="D33" s="9">
-        <v>0.70599999999999996</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -12446,7 +13649,7 @@
       </c>
       <c r="G33" s="9">
         <f t="shared" si="0"/>
-        <v>0.71399999999999997</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="H33" s="9">
         <v>0.01</v>
@@ -13784,7 +14987,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>402</v>
       </c>
@@ -13808,7 +15011,7 @@
         <v>59.21</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>403</v>
       </c>
@@ -13832,7 +15035,7 @@
         <v>39.78</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>404</v>
       </c>
@@ -13856,7 +15059,7 @@
         <v>46.26</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>405</v>
       </c>
@@ -13880,7 +15083,7 @@
         <v>74.88</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>406</v>
       </c>
@@ -13904,7 +15107,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>412</v>
       </c>
@@ -13928,7 +15131,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>413</v>
       </c>
@@ -13952,7 +15155,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>414</v>
       </c>
@@ -13976,7 +15179,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>415</v>
       </c>
@@ -13984,7 +15187,7 @@
         <v>278</v>
       </c>
       <c r="D105" s="9">
-        <v>0.46200000000000002</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="E105">
         <v>64</v>
@@ -13994,10 +15197,184 @@
       </c>
       <c r="G105" s="1">
         <f t="shared" si="2"/>
-        <v>0.52600000000000002</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="H105" s="9">
-        <v>16.89</v>
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>440</v>
+      </c>
+      <c r="D110" s="8">
+        <v>5.7800000000000001E-7</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" s="9">
+        <f>D110+E110*0.001</f>
+        <v>2.0000578000000001E-2</v>
+      </c>
+      <c r="H110">
+        <v>0.72</v>
+      </c>
+      <c r="I110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>276</v>
+      </c>
+      <c r="D111" s="8">
+        <v>1.4000000000000001E-7</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" s="9">
+        <f t="shared" ref="G111:G115" si="4">D111+E111*0.001</f>
+        <v>8.0001399999999993E-3</v>
+      </c>
+      <c r="H111">
+        <v>0.16</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>436</v>
+      </c>
+      <c r="D112">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E112">
+        <v>16</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" s="9">
+        <f t="shared" si="4"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H112">
+        <v>0.17</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>441</v>
+      </c>
+      <c r="D113">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E113">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" s="9">
+        <f t="shared" si="4"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H113">
+        <v>0.26</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>438</v>
+      </c>
+      <c r="D114">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" s="9">
+        <f t="shared" si="4"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H114">
+        <v>0.06</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>439</v>
+      </c>
+      <c r="D115">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="H115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D13628-49B0-4D42-BEAB-C75DFE474416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81859DA-FE88-8344-B4B3-64ACA2F9E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="15800" activeTab="5" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="524">
   <si>
     <t>Name</t>
   </si>
@@ -1601,6 +1601,51 @@
   </si>
   <si>
     <t>700 iteration</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t># qubits</t>
+  </si>
+  <si>
+    <t># controllers</t>
+  </si>
+  <si>
+    <t># time steps</t>
+  </si>
+  <si>
+    <t>TV parameter</t>
+  </si>
+  <si>
+    <t>Energy2</t>
+  </si>
+  <si>
+    <t>Energy4</t>
+  </si>
+  <si>
+    <t>Energy6</t>
+  </si>
+  <si>
+    <t>CNOT5</t>
+  </si>
+  <si>
+    <t>CNOT10</t>
+  </si>
+  <si>
+    <t>CNOT15</t>
+  </si>
+  <si>
+    <t>CNOT20</t>
+  </si>
+  <si>
+    <t>CircuitH2</t>
+  </si>
+  <si>
+    <t>CircuitLiH</t>
+  </si>
+  <si>
+    <t># variables</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1657,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1644,6 +1689,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1680,7 +1732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1688,11 +1740,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1731,10 +1795,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2048,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:L634"/>
   <sheetViews>
-    <sheetView topLeftCell="B582" zoomScale="118" workbookViewId="0">
-      <selection activeCell="K602" sqref="K602"/>
+    <sheetView topLeftCell="B266" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J281" sqref="J281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2104,6 +2172,10 @@
       <c r="G2">
         <v>0.13</v>
       </c>
+      <c r="J2">
+        <f>F2/D40</f>
+        <v>0.98900999999999994</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
@@ -2128,6 +2200,10 @@
       <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="J3" s="11">
+        <f>F3/D40</f>
+        <v>0.995</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -2153,6 +2229,10 @@
       <c r="H4" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="J4" s="11">
+        <f>F4/D40</f>
+        <v>0.99333000000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
@@ -2178,6 +2258,10 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
+      <c r="J5">
+        <f>F5/D40</f>
+        <v>0.45899999999999996</v>
+      </c>
       <c r="K5">
         <f>(D5-D2)/D2</f>
         <v>0</v>
@@ -2207,6 +2291,10 @@
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J6">
+        <f>D6/D40</f>
+        <v>0.84099999999999997</v>
+      </c>
       <c r="K6">
         <f>(D2-D6)/D2</f>
         <v>0.15815815815815817</v>
@@ -2236,6 +2324,10 @@
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J7">
+        <f>D7/D40</f>
+        <v>0.97099999999999997</v>
+      </c>
       <c r="K7">
         <f>(D2-D7)/D2</f>
         <v>2.8028028028028052E-2</v>
@@ -2265,6 +2357,10 @@
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="J8">
+        <f>F8/D40</f>
+        <v>0.51900000000000002</v>
+      </c>
       <c r="K8">
         <f>(D8-D3)/D3</f>
         <v>0</v>
@@ -2292,6 +2388,10 @@
         <v>14</v>
       </c>
       <c r="H9" s="5"/>
+      <c r="J9">
+        <f>D9/D40</f>
+        <v>0.84599999999999997</v>
+      </c>
       <c r="K9">
         <f>(D3-D9)/D3</f>
         <v>0.15315315315315317</v>
@@ -2319,6 +2419,10 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="5"/>
+      <c r="J10">
+        <f>D10/D40</f>
+        <v>0.97199999999999998</v>
+      </c>
       <c r="K10">
         <f>(D3-D10)/D3</f>
         <v>2.7027027027027049E-2</v>
@@ -2348,6 +2452,10 @@
       <c r="H11" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="J11">
+        <f>F11/D40</f>
+        <v>0.45499999999999996</v>
+      </c>
       <c r="K11">
         <f>(D4-D11)/D4</f>
         <v>4.0040040040040074E-3</v>
@@ -2375,6 +2483,10 @@
         <v>14</v>
       </c>
       <c r="H12" s="5"/>
+      <c r="J12">
+        <f>D12/D40</f>
+        <v>0.84099999999999997</v>
+      </c>
       <c r="K12">
         <f>(D4-D12)/D4</f>
         <v>0.15815815815815817</v>
@@ -2402,6 +2514,10 @@
         <v>0.01</v>
       </c>
       <c r="H13" s="5"/>
+      <c r="J13">
+        <f>D13/D40</f>
+        <v>0.96</v>
+      </c>
       <c r="K13">
         <f>(D4-D13)/D4</f>
         <v>3.9039039039039075E-2</v>
@@ -2539,11 +2655,15 @@
       <c r="H18" t="s">
         <v>19</v>
       </c>
+      <c r="J18">
+        <f>F18/D40</f>
+        <v>0.89700000000000002</v>
+      </c>
       <c r="K18">
         <f>(D2-D18)/D2</f>
         <v>2.0020020020020037E-3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="26">
         <f>(F18-F5)/F5</f>
         <v>0.95424836601307206</v>
       </c>
@@ -2572,11 +2692,15 @@
       <c r="H19" t="s">
         <v>23</v>
       </c>
+      <c r="J19">
+        <f>D19/D40</f>
+        <v>0.997</v>
+      </c>
       <c r="K19">
         <f>(D2-D19)/D2</f>
         <v>2.0020020020020037E-3</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="26">
         <f>(D19-D6)/D6</f>
         <v>0.18549346016646853</v>
       </c>
@@ -2605,11 +2729,15 @@
       <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="J20">
+        <f>D20/D40</f>
+        <v>0.999</v>
+      </c>
       <c r="K20">
         <f>(D2-D20)/D2</f>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="26">
         <f>(D20-D7)/D7</f>
         <v>2.8836251287332672E-2</v>
       </c>
@@ -2635,11 +2763,15 @@
       <c r="G21">
         <v>2.2599999999999998</v>
       </c>
+      <c r="J21">
+        <f>F21/D40</f>
+        <v>0.95699999999999996</v>
+      </c>
       <c r="K21">
         <f>(D3-D21)/D3</f>
         <v>2.0020020020020037E-3</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="26">
         <f>(F21-F8)/F8</f>
         <v>0.8439306358381502</v>
       </c>
@@ -2665,11 +2797,15 @@
       <c r="G22">
         <v>1.59</v>
       </c>
+      <c r="J22">
+        <f>D22/D40</f>
+        <v>0.95899999999999996</v>
+      </c>
       <c r="K22">
         <f>(D3-D22)/D3</f>
         <v>4.0040040040040074E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="26">
         <f>(D22-D9)/D9</f>
         <v>0.13356973995271867</v>
       </c>
@@ -2695,11 +2831,15 @@
       <c r="G23">
         <v>1.24</v>
       </c>
+      <c r="J23">
+        <f>D23/D40</f>
+        <v>0.998</v>
+      </c>
       <c r="K23">
         <f>(D3-D23)/D3</f>
         <v>1.0010010010010019E-3</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="26">
         <f>(D23-D10)/D10</f>
         <v>2.6748971193415662E-2</v>
       </c>
@@ -2791,11 +2931,15 @@
       <c r="G27">
         <v>5.21</v>
       </c>
+      <c r="J27">
+        <f>F27/D40</f>
+        <v>0.91500000000000004</v>
+      </c>
       <c r="K27">
         <f>(D4-D27)/D4</f>
         <v>4.0040040040040074E-3</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="26">
         <f>(F27-F11)/F11</f>
         <v>1.0109890109890112</v>
       </c>
@@ -2821,11 +2965,15 @@
       <c r="G28">
         <v>2.46</v>
       </c>
+      <c r="J28">
+        <f>D28/D40</f>
+        <v>0.997</v>
+      </c>
       <c r="K28">
         <f>(D4-D28)/D4</f>
         <v>2.0020020020020037E-3</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="26">
         <f>(D28-D12)/D12</f>
         <v>0.18549346016646853</v>
       </c>
@@ -2851,11 +2999,15 @@
       <c r="G29">
         <v>1.9</v>
       </c>
+      <c r="J29">
+        <f>D29/D40</f>
+        <v>0.997</v>
+      </c>
       <c r="K29">
         <f>(D4-D29)/D4</f>
         <v>2.0020020020020037E-3</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="26">
         <f>(D29-D13)/D13</f>
         <v>3.8541666666666703E-2</v>
       </c>
@@ -6958,7 +7110,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="257" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C257" t="s">
         <v>68</v>
       </c>
@@ -6976,7 +7128,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="258" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:10" ht="51" x14ac:dyDescent="0.2">
       <c r="C258" s="2" t="s">
         <v>69</v>
       </c>
@@ -6994,7 +7146,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="259" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C259" s="2" t="s">
         <v>42</v>
       </c>
@@ -7012,7 +7164,7 @@
         <v>43.22</v>
       </c>
     </row>
-    <row r="260" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C260" s="2" t="s">
         <v>35</v>
       </c>
@@ -7030,7 +7182,7 @@
         <v>41.39</v>
       </c>
     </row>
-    <row r="261" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C261" s="2" t="s">
         <v>36</v>
       </c>
@@ -7048,7 +7200,7 @@
         <v>27.34</v>
       </c>
     </row>
-    <row r="262" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C262" s="2" t="s">
         <v>43</v>
       </c>
@@ -7066,7 +7218,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="263" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C263" s="2" t="s">
         <v>37</v>
       </c>
@@ -7084,7 +7236,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="264" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C264" s="2" t="s">
         <v>38</v>
       </c>
@@ -7102,7 +7254,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="265" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C265" s="2" t="s">
         <v>237</v>
       </c>
@@ -7120,7 +7272,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="266" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C266" s="2" t="s">
         <v>238</v>
       </c>
@@ -7138,7 +7290,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="267" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C267" s="2" t="s">
         <v>239</v>
       </c>
@@ -7156,7 +7308,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="268" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C268" s="2" t="s">
         <v>419</v>
       </c>
@@ -7164,8 +7316,8 @@
         <v>-4.1079999999999997</v>
       </c>
     </row>
-    <row r="269" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C270" t="s">
         <v>27</v>
       </c>
@@ -7189,8 +7341,12 @@
         <f>AVERAGE(H135,H162,H189,H216,H243)</f>
         <v>0.78661891653774263</v>
       </c>
-    </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J270">
+        <f>F270/D295</f>
+        <v>0.7792587286644016</v>
+      </c>
+    </row>
+    <row r="271" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C271" t="s">
         <v>28</v>
       </c>
@@ -7214,8 +7370,12 @@
         <f t="shared" ref="H271:H272" si="15">AVERAGE(H136,H163,H190,H217,H244)</f>
         <v>0.78013200119110382</v>
       </c>
-    </row>
-    <row r="272" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="J271" s="11">
+        <f>F271/D295</f>
+        <v>0.77885309647578893</v>
+      </c>
+    </row>
+    <row r="272" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C272" s="2" t="s">
         <v>46</v>
       </c>
@@ -7239,6 +7399,10 @@
         <f t="shared" si="15"/>
         <v>0.78609280657076452</v>
       </c>
+      <c r="J272" s="11">
+        <f>F272/D295</f>
+        <v>0.78177765953092371</v>
+      </c>
     </row>
     <row r="273" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C273" t="s">
@@ -7257,6 +7421,10 @@
         <v>-3.4658000000000002</v>
       </c>
       <c r="G273" s="3"/>
+      <c r="J273">
+        <f>F273/D295</f>
+        <v>0.70930375342802177</v>
+      </c>
       <c r="K273">
         <f>(D270-D273)/D270</f>
         <v>3.568104250698288E-3</v>
@@ -7279,6 +7447,10 @@
         <v>-1.4883999999999999</v>
       </c>
       <c r="G274" s="3"/>
+      <c r="J274">
+        <f>D274/D295</f>
+        <v>0.31689247267815479</v>
+      </c>
       <c r="K274">
         <f>(D270-D274)/D270</f>
         <v>0.59964836074051098</v>
@@ -7301,6 +7473,10 @@
         <v>-3.6063999999999998</v>
       </c>
       <c r="G275" s="3"/>
+      <c r="J275">
+        <f>D275/D295</f>
+        <v>0.75854447218697552</v>
+      </c>
       <c r="K275">
         <f>(D270-D275)/D270</f>
         <v>4.1679594580618581E-2</v>
@@ -7323,6 +7499,10 @@
         <v>-3.3045999999999998</v>
       </c>
       <c r="G276" s="3"/>
+      <c r="J276">
+        <f>F276/D295</f>
+        <v>0.67631288117555555</v>
+      </c>
       <c r="K276">
         <f>(D271-D276)/D271</f>
         <v>1.4069828035434731E-3</v>
@@ -7345,6 +7525,10 @@
         <v>-1.8503999999999998</v>
       </c>
       <c r="G277" s="3"/>
+      <c r="J277">
+        <f>D277/D295</f>
+        <v>0.39097867463468544</v>
+      </c>
       <c r="K277">
         <f>(D271-D277)/D271</f>
         <v>0.50224075039082849</v>
@@ -7367,6 +7551,10 @@
         <v>-3.63</v>
       </c>
       <c r="G278" s="3"/>
+      <c r="J278">
+        <f>D278/D295</f>
+        <v>0.76337440137530166</v>
+      </c>
       <c r="K278">
         <f>(D271-D278)/D271</f>
         <v>2.8139656070870385E-2</v>
@@ -7389,6 +7577,10 @@
         <v>-3.4180000000000001</v>
       </c>
       <c r="G279" s="3"/>
+      <c r="J279">
+        <f>F279/D295</f>
+        <v>0.69952110024149639</v>
+      </c>
       <c r="K279">
         <f>(D272-D279)/D272</f>
         <v>2.8460543337644703E-3</v>
@@ -7411,6 +7603,10 @@
         <v>-1.8076000000000001</v>
       </c>
       <c r="G280" s="3"/>
+      <c r="J280">
+        <f>D280/D295</f>
+        <v>0.38221931153043265</v>
+      </c>
       <c r="K280">
         <f>(D272-D280)/D272</f>
         <v>0.51679172056921074</v>
@@ -7433,6 +7629,10 @@
         <v>-3.5514000000000001</v>
       </c>
       <c r="G281" s="3"/>
+      <c r="J281">
+        <f>D281/D295</f>
+        <v>0.74728828128197777</v>
+      </c>
       <c r="K281">
         <f>(D272-D281)/D272</f>
         <v>5.5265200517464315E-2</v>
@@ -7458,6 +7658,10 @@
         <f>AVERAGE(G147,G174,G201,G228,G255)</f>
         <v>0.85399999999999987</v>
       </c>
+      <c r="J282">
+        <f>F282/D295</f>
+        <v>0.66919078220293882</v>
+      </c>
       <c r="K282">
         <f>(D271-D282)/D271</f>
         <v>0.13241271495570608</v>
@@ -7483,6 +7687,10 @@
         <f t="shared" si="16"/>
         <v>0.49800000000000005</v>
       </c>
+      <c r="J283">
+        <f>D283/D295</f>
+        <v>0.62134173795587566</v>
+      </c>
       <c r="K283">
         <f>(D271-D283)/D271</f>
         <v>0.20896300156331424</v>
@@ -7508,6 +7716,10 @@
         <f t="shared" si="16"/>
         <v>0.89599999999999991</v>
       </c>
+      <c r="J284">
+        <f>F284/D295</f>
+        <v>0.66919078220293882</v>
+      </c>
       <c r="K284">
         <f>(D272-D284)/D272</f>
         <v>0.13847347994825349</v>
@@ -7533,6 +7745,10 @@
         <f t="shared" si="16"/>
         <v>0.52</v>
       </c>
+      <c r="J285">
+        <f>D285/D295</f>
+        <v>0.62134173795587566</v>
+      </c>
       <c r="K285">
         <f>(D272-D285)/D272</f>
         <v>0.21448900388098313</v>
@@ -7558,11 +7774,15 @@
         <f t="shared" si="16"/>
         <v>16.948</v>
       </c>
+      <c r="J286">
+        <f>F286/D295</f>
+        <v>0.72076460234947404</v>
+      </c>
       <c r="K286">
         <f>(D270-D286)/D270</f>
         <v>5.6365704829871629E-3</v>
       </c>
-      <c r="L286">
+      <c r="L286" s="26">
         <f>(F286-F273)/F273</f>
         <v>1.6157885625252482E-2</v>
       </c>
@@ -7587,11 +7807,15 @@
         <f t="shared" si="16"/>
         <v>41.423999999999999</v>
       </c>
+      <c r="J287">
+        <f>D287/D295</f>
+        <v>0.55441856657525279</v>
+      </c>
       <c r="K287">
         <f>(D270-D287)/D270</f>
         <v>0.29956562209121929</v>
       </c>
-      <c r="L287">
+      <c r="L287" s="26">
         <f>(D287-D274)/D274</f>
         <v>0.74954792043399643</v>
       </c>
@@ -7616,11 +7840,15 @@
         <f t="shared" si="16"/>
         <v>18.510000000000002</v>
       </c>
+      <c r="J288">
+        <f>D288/D295</f>
+        <v>0.77540829274282663</v>
+      </c>
       <c r="K288">
         <f>(D270-D288)/D270</f>
         <v>2.0374392388044432E-2</v>
       </c>
-      <c r="L288">
+      <c r="L288" s="26">
         <f>(D288-D275)/D275</f>
         <v>2.2231815238506317E-2</v>
       </c>
@@ -7645,11 +7873,15 @@
         <f t="shared" si="16"/>
         <v>9.8780000000000019</v>
       </c>
+      <c r="J289">
+        <f>F289/D295</f>
+        <v>0.68363963816462692</v>
+      </c>
       <c r="K289">
         <f>(D271-D289)/D271</f>
         <v>-6.2532569046383003E-4</v>
       </c>
-      <c r="L289">
+      <c r="L289" s="26">
         <f>(F289-F276)/F276</f>
         <v>1.0833383768081009E-2</v>
       </c>
@@ -7674,11 +7906,15 @@
         <f t="shared" si="16"/>
         <v>33.363999999999997</v>
       </c>
+      <c r="J290">
+        <f>D290/D295</f>
+        <v>0.53501698661536568</v>
+      </c>
       <c r="K290">
         <f>(D271-D290)/D271</f>
         <v>0.31886399166232404</v>
       </c>
-      <c r="L290">
+      <c r="L290" s="26">
         <f>(D290-D277)/D277</f>
         <v>0.36840452261306528</v>
       </c>
@@ -7703,11 +7939,15 @@
         <f t="shared" si="16"/>
         <v>10.843999999999999</v>
       </c>
+      <c r="J291">
+        <f>D291/D295</f>
+        <v>0.76783594613401007</v>
+      </c>
       <c r="K291">
         <f>(D271-D291)/D271</f>
         <v>2.2459614382490837E-2</v>
       </c>
-      <c r="L291">
+      <c r="L291" s="26">
         <f>(D291-D278)/D278</f>
         <v>5.8445040214479115E-3</v>
       </c>
@@ -7732,11 +7972,15 @@
         <f t="shared" si="16"/>
         <v>11.112</v>
       </c>
+      <c r="J292">
+        <f>F292/D295</f>
+        <v>0.70598829356145854</v>
+      </c>
       <c r="K292">
         <f>(D272-D292)/D272</f>
         <v>2.9495472186286246E-3</v>
       </c>
-      <c r="L292">
+      <c r="L292" s="26">
         <f>(F292-F279)/F279</f>
         <v>9.2451726155644183E-3</v>
       </c>
@@ -7761,11 +8005,15 @@
         <f t="shared" si="17"/>
         <v>39.532000000000004</v>
       </c>
+      <c r="J293">
+        <f>D293/D295</f>
+        <v>0.55441856657525279</v>
+      </c>
       <c r="K293">
         <f>(D272-D293)/D272</f>
         <v>0.29909443725743839</v>
       </c>
-      <c r="L293">
+      <c r="L293" s="26">
         <f>(D293-D280)/D280</f>
         <v>0.45052473763118456</v>
       </c>
@@ -7790,11 +8038,15 @@
         <f t="shared" si="18"/>
         <v>24.024000000000001</v>
       </c>
+      <c r="J294">
+        <f>D294/D295</f>
+        <v>0.77389382342106339</v>
+      </c>
       <c r="K294">
         <f>(D272-D294)/D272</f>
         <v>2.1630012936610526E-2</v>
       </c>
-      <c r="L294">
+      <c r="L294" s="26">
         <f>(D294-D281)/D281</f>
         <v>3.5602782494385685E-2</v>
       </c>
@@ -12792,6 +13044,10 @@
         <f>AVERAGE(I447,I474,I501,I528,I555)</f>
         <v>0.84535402561666861</v>
       </c>
+      <c r="J582">
+        <f>F582/D607</f>
+        <v>0.84209274673008316</v>
+      </c>
     </row>
     <row r="583" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C583" t="s">
@@ -12821,6 +13077,10 @@
         <f>AVERAGE(I448,I475,I502,I529,I556)</f>
         <v>0.83128396362964874</v>
       </c>
+      <c r="J583">
+        <f>F583/D607</f>
+        <v>0.84208765075590286</v>
+      </c>
     </row>
     <row r="584" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C584" s="2" t="s">
@@ -12850,6 +13110,10 @@
         <f>AVERAGE(I449,I476,I503,I530,I557)</f>
         <v>0.84416642506284278</v>
       </c>
+      <c r="J584">
+        <f>F584/D607</f>
+        <v>0.84527773059283162</v>
+      </c>
     </row>
     <row r="585" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C585" t="s">
@@ -12875,6 +13139,10 @@
         <f>AVERAGE(H450,H477,H504,H531,H558)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="J585">
+        <f>F585/D607</f>
+        <v>0.74562595549515887</v>
+      </c>
       <c r="K585">
         <f>(D582-D585)/D582</f>
         <v>4.819040125885036E-3</v>
@@ -12904,6 +13172,10 @@
         <f>AVERAGE(H451,H478,H505,H532,H559)</f>
         <v>15.2</v>
       </c>
+      <c r="J586">
+        <f>D586/D607</f>
+        <v>0.65372855444199074</v>
+      </c>
       <c r="K586">
         <f>(D582-D586)/D582</f>
         <v>0.24301730920535011</v>
@@ -12933,6 +13205,10 @@
         <f>AVERAGE(H452,H479,H506,H533,H560)</f>
         <v>759.4</v>
       </c>
+      <c r="J587">
+        <f>D587/D607</f>
+        <v>0.85450993714965173</v>
+      </c>
       <c r="K587">
         <f>(D582-D587)/D582</f>
         <v>1.0523210070810319E-2</v>
@@ -12962,6 +13238,10 @@
         <f>AVERAGE(H453,H480,H507,H534,H561)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="J588">
+        <f>F588/D607</f>
+        <v>0.66205197893664003</v>
+      </c>
       <c r="K588">
         <f>(D583-D588)/D583</f>
         <v>1.5918814048351646E-3</v>
@@ -12991,6 +13271,10 @@
         <f>AVERAGE(H454,H481,H508,H535,H562)</f>
         <v>17</v>
       </c>
+      <c r="J589">
+        <f>D589/D607</f>
+        <v>0.64931204348564642</v>
+      </c>
       <c r="K589">
         <f>(D583-D589)/D583</f>
         <v>0.23937916625211406</v>
@@ -13020,6 +13304,10 @@
         <f>AVERAGE(H455,H482,H509,H536,H563)</f>
         <v>2578.1999999999998</v>
       </c>
+      <c r="J590">
+        <f>D590/D607</f>
+        <v>0.82987939527773047</v>
+      </c>
       <c r="K590">
         <f>(D583-D590)/D583</f>
         <v>2.7857924584618474E-2</v>
@@ -13049,6 +13337,10 @@
         <f>AVERAGE(H456,H483,H510,H537,H564)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="J591">
+        <f>F591/D607</f>
+        <v>0.72269407168337008</v>
+      </c>
       <c r="K591">
         <f>(D584-D591)/D584</f>
         <v>2.8548926954126055E-3</v>
@@ -13078,6 +13370,10 @@
         <f>AVERAGE(H457,H484,H511,H538,H565)</f>
         <v>16.8</v>
       </c>
+      <c r="J592">
+        <f>D592/D607</f>
+        <v>0.6996772549685748</v>
+      </c>
       <c r="K592">
         <f>(D584-D592)/D584</f>
         <v>0.18901358535144719</v>
@@ -13107,6 +13403,10 @@
         <f>AVERAGE(H458,H485,H512,H539,H566)</f>
         <v>925</v>
       </c>
+      <c r="J593">
+        <f>D593/D607</f>
+        <v>0.85586886359775805</v>
+      </c>
       <c r="K593">
         <f>(D584-D593)/D584</f>
         <v>7.9740106320139535E-3</v>
@@ -13136,6 +13436,10 @@
         <f>AVERAGE(H459,H486,H513,H540,H567)</f>
         <v>4.5999999999999996</v>
       </c>
+      <c r="J594">
+        <f>F594/D607</f>
+        <v>0.62272804484457289</v>
+      </c>
       <c r="K594">
         <f>(D583-D594)/D583</f>
         <v>0.25062182867376376</v>
@@ -13165,6 +13469,10 @@
         <f>AVERAGE(H460,H487,H514,H541,H568)</f>
         <v>4.2</v>
       </c>
+      <c r="J595">
+        <f>D595/D607</f>
+        <v>0.6357227790045864</v>
+      </c>
       <c r="K595">
         <f>(D583-D595)/D583</f>
         <v>0.25529798030046746</v>
@@ -13194,6 +13502,10 @@
         <f>AVERAGE(H461,H488,H515,H542,H569)</f>
         <v>7.25</v>
       </c>
+      <c r="J596">
+        <f>F596/D607</f>
+        <v>0.83013419398675048</v>
+      </c>
       <c r="K596">
         <f>(D584-D596)/D584</f>
         <v>8.2693443591257756E-3</v>
@@ -13223,6 +13535,10 @@
         <f>AVERAGE(H462,H489,H516,H543,H570)</f>
         <v>5.2</v>
       </c>
+      <c r="J597">
+        <f>D597/D607</f>
+        <v>0.83701375913028708</v>
+      </c>
       <c r="K597">
         <f>(D584-D597)/D584</f>
         <v>2.9828706438275242E-2</v>
@@ -13252,11 +13568,15 @@
         <f>AVERAGE(H463,H490,H517,H544,H571)</f>
         <v>127.8</v>
       </c>
+      <c r="J598">
+        <f>F598/D607</f>
+        <v>0.78520468829624601</v>
+      </c>
       <c r="K598">
         <f>(D582-D598)/D582</f>
         <v>6.1959087332808544E-3</v>
       </c>
-      <c r="L598">
+      <c r="L598" s="26">
         <f>(F598-F585)/F585</f>
         <v>5.3081216539469282E-2</v>
       </c>
@@ -13285,11 +13605,15 @@
         <f>AVERAGE(H464,H491,H518,H545,H572)</f>
         <v>207.4</v>
       </c>
+      <c r="J599">
+        <f>D599/D607</f>
+        <v>0.83446577204008832</v>
+      </c>
       <c r="K599">
         <f>(D582-D599)/D582</f>
         <v>3.3733280881195905E-2</v>
       </c>
-      <c r="L599">
+      <c r="L599" s="26">
         <f>(D599-D586)/D586</f>
         <v>0.27647135247499027</v>
       </c>
@@ -13318,11 +13642,15 @@
         <f>AVERAGE(H465,H492,H519,H546,H573)</f>
         <v>43.4</v>
       </c>
+      <c r="J600">
+        <f>D600/D607</f>
+        <v>0.85705792423985039</v>
+      </c>
       <c r="K600">
         <f>(D582-D600)/D582</f>
         <v>7.5727773406766728E-3</v>
       </c>
-      <c r="L600">
+      <c r="L600" s="26">
         <f>(D600-D587)/D587</f>
         <v>2.9818109531854604E-3</v>
       </c>
@@ -13351,11 +13679,15 @@
         <f>AVERAGE(H466,H493,H520,H547,H574)</f>
         <v>280.60000000000002</v>
       </c>
+      <c r="J601">
+        <f>F601/D607</f>
+        <v>0.79072532699167664</v>
+      </c>
       <c r="K601">
         <f>(D583-D601)/D583</f>
         <v>2.0893443438461537E-3</v>
       </c>
-      <c r="L601">
+      <c r="L601" s="26">
         <f>(F601-F588)/F588</f>
         <v>0.19435535599743436</v>
       </c>
@@ -13384,11 +13716,15 @@
         <f>AVERAGE(H467,H494,H521,H548,H575)</f>
         <v>194.6</v>
       </c>
+      <c r="J602">
+        <f>D602/D607</f>
+        <v>0.81654492950569046</v>
+      </c>
       <c r="K602">
         <f>(D583-D602)/D583</f>
         <v>4.3478260869565181E-2</v>
       </c>
-      <c r="L602">
+      <c r="L602" s="26">
         <f>(D602-D589)/D589</f>
         <v>0.25755395683453214</v>
       </c>
@@ -13417,11 +13753,15 @@
         <f>AVERAGE(H468,H495,H522,H549,H576)</f>
         <v>68.400000000000006</v>
       </c>
+      <c r="J603">
+        <f>D603/D607</f>
+        <v>0.84049600815355874</v>
+      </c>
       <c r="K603">
         <f>(D583-D603)/D583</f>
         <v>1.5421351109342204E-2</v>
       </c>
-      <c r="L603">
+      <c r="L603" s="26">
         <f>(D603-D590)/D590</f>
         <v>1.2792958755501157E-2</v>
       </c>
@@ -13450,11 +13790,15 @@
         <f>AVERAGE(H469,H496,H523,H550,H577)</f>
         <v>191.6</v>
       </c>
+      <c r="J604">
+        <f>F604/D607</f>
+        <v>0.79701036181416673</v>
+      </c>
       <c r="K604">
         <f>(D584-D604)/D584</f>
         <v>7.2848986020870969E-3</v>
       </c>
-      <c r="L604">
+      <c r="L604" s="26">
         <f>(F604-F591)/F591</f>
         <v>0.10283229521682914</v>
       </c>
@@ -13483,11 +13827,15 @@
         <f>AVERAGE(H470,H497,H524,H551,H578)</f>
         <v>207</v>
       </c>
+      <c r="J605">
+        <f>D605/D607</f>
+        <v>0.83446577204008832</v>
+      </c>
       <c r="K605">
         <f>(D584-D605)/D584</f>
         <v>3.2782043709391716E-2</v>
       </c>
-      <c r="L605">
+      <c r="L605" s="26">
         <f>(D605-D592)/D592</f>
         <v>0.19264384559359063</v>
       </c>
@@ -13516,11 +13864,15 @@
         <f>AVERAGE(H471,H498,H525,H552,H579)</f>
         <v>43.4</v>
       </c>
+      <c r="J606">
+        <f>D606/D607</f>
+        <v>0.8574825887548837</v>
+      </c>
       <c r="K606">
         <f>(D584-D606)/D584</f>
         <v>6.1035636936404639E-3</v>
       </c>
-      <c r="L606">
+      <c r="L606" s="26">
         <f>(D606-D593)/D593</f>
         <v>1.8854817902151338E-3</v>
       </c>
@@ -14447,12 +14799,228 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5EC59C-826A-9946-B4D2-773A781998E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" s="25">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25">
+        <v>2</v>
+      </c>
+      <c r="D2" s="25">
+        <v>40</v>
+      </c>
+      <c r="E2" s="25">
+        <f>C2*D2</f>
+        <v>80</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="25">
+        <v>4</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25">
+        <v>40</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>80</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="25">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25">
+        <v>40</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25">
+        <v>100</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2</v>
+      </c>
+      <c r="D6" s="25">
+        <v>200</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="25">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2</v>
+      </c>
+      <c r="D7" s="25">
+        <v>300</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25">
+        <v>400</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25">
+        <v>80</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="25">
+        <v>4</v>
+      </c>
+      <c r="C10" s="25">
+        <v>12</v>
+      </c>
+      <c r="D10" s="25">
+        <v>200</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14461,8 +15029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83:L91"/>
+    <sheetView topLeftCell="C26" zoomScale="119" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14516,6 +15084,10 @@
       <c r="G2">
         <v>0.75</v>
       </c>
+      <c r="J2" s="1">
+        <f>1-F2</f>
+        <v>0.97902099884100002</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
@@ -14541,6 +15113,10 @@
       <c r="H3" t="s">
         <v>87</v>
       </c>
+      <c r="J3" s="1">
+        <f>1-F3</f>
+        <v>0.98862320000000004</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
@@ -14566,6 +15142,10 @@
       <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="J4" s="1">
+        <f>1-F4</f>
+        <v>0.98454059999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
@@ -14591,6 +15171,10 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="1">
+        <f>1-F5</f>
+        <v>0.88339909999999999</v>
+      </c>
       <c r="K5" s="8">
         <f>(D5-D2)/D5</f>
         <v>0.99999807122649353</v>
@@ -14620,6 +15204,10 @@
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J6" s="1">
+        <f>1-D6</f>
+        <v>0.84199999999999997</v>
+      </c>
       <c r="K6" s="8">
         <f>(D6-D2)/D6</f>
         <v>0.99999999266455697</v>
@@ -14649,6 +15237,10 @@
       <c r="H7" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="J7" s="1">
+        <f>1-D7</f>
+        <v>0.98899999999999999</v>
+      </c>
       <c r="K7" s="8">
         <f>(D7-D2)/D7</f>
         <v>0.99999989463636363</v>
@@ -14678,6 +15270,10 @@
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="J8" s="1">
+        <f>1-F8</f>
+        <v>0.91300000000000003</v>
+      </c>
       <c r="K8" s="8">
         <f>(D8-D3)/D8</f>
         <v>0.67920000000000003</v>
@@ -14705,6 +15301,10 @@
         <v>6.49</v>
       </c>
       <c r="H9" s="5"/>
+      <c r="J9" s="1">
+        <f>1-D9</f>
+        <v>0.91600000000000004</v>
+      </c>
       <c r="K9" s="8">
         <f>(D9-D3)/D9</f>
         <v>0.99618095238095239</v>
@@ -14732,6 +15332,10 @@
         <v>61.83</v>
       </c>
       <c r="H10" s="5"/>
+      <c r="J10" s="1">
+        <f>1-D10</f>
+        <v>0.99399999999999999</v>
+      </c>
       <c r="K10" s="8">
         <f>(D10-D3)/D10</f>
         <v>0.94653333333333345</v>
@@ -14761,6 +15365,10 @@
       <c r="H11" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="J11" s="1">
+        <f>1-F11</f>
+        <v>0.88300000000000001</v>
+      </c>
       <c r="K11" s="8">
         <f>(D11-D4)/D11</f>
         <v>0.73459999999999992</v>
@@ -14788,6 +15396,10 @@
         <v>13.5</v>
       </c>
       <c r="H12" s="5"/>
+      <c r="J12" s="1">
+        <f>1-D12</f>
+        <v>0.67700000000000005</v>
+      </c>
       <c r="K12" s="8">
         <f>(D12-D4)/D12</f>
         <v>0.99917832817337449</v>
@@ -14815,6 +15427,10 @@
         <v>61.83</v>
       </c>
       <c r="H13" s="5"/>
+      <c r="J13" s="1">
+        <f>1-D13</f>
+        <v>0.98099999999999998</v>
+      </c>
       <c r="K13" s="8">
         <f>(D13-D4)/D13</f>
         <v>0.98603157894736848</v>
@@ -14844,11 +15460,15 @@
       <c r="H14" t="s">
         <v>19</v>
       </c>
+      <c r="J14" s="1">
+        <f>1-F14</f>
+        <v>0.96899999999999997</v>
+      </c>
       <c r="K14" s="8">
         <f>(D14-D2)/D14</f>
         <v>0.99999884100000003</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="26">
         <f>(F5-F14)/F5</f>
         <v>0.7341358428622764</v>
       </c>
@@ -14877,11 +15497,15 @@
       <c r="H15" t="s">
         <v>23</v>
       </c>
+      <c r="J15">
+        <f>1-D15</f>
+        <v>0.996</v>
+      </c>
       <c r="K15" s="8">
         <f>(D15-D2)/D15</f>
         <v>0.99999971025000001</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="26">
         <f>(D6-D15)/D6</f>
         <v>0.97468354430379744</v>
       </c>
@@ -14910,11 +15534,15 @@
       <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="J16">
+        <f>1-D16</f>
+        <v>0.999</v>
+      </c>
       <c r="K16" s="8">
         <f>(D16-D2)/D16</f>
         <v>0.99999884100000003</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="26">
         <f>(D7-D16)/D7</f>
         <v>0.90909090909090895</v>
       </c>
@@ -14940,11 +15568,15 @@
       <c r="G17">
         <v>56.9</v>
       </c>
+      <c r="J17" s="1">
+        <f>1-F17</f>
+        <v>0.97899999999999998</v>
+      </c>
       <c r="K17" s="8">
         <f>(D17-D3)/D17</f>
         <v>0.67920000000000003</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="26">
         <f>(F8-F17)/F8</f>
         <v>0.75862068965517238</v>
       </c>
@@ -14970,11 +15602,15 @@
       <c r="G18">
         <v>51.37</v>
       </c>
+      <c r="J18">
+        <f>1-D18</f>
+        <v>0.99399999999999999</v>
+      </c>
       <c r="K18" s="8">
         <f>(D18-D3)/D18</f>
         <v>0.94653333333333345</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="26">
         <f>(D9-D18)/D9</f>
         <v>0.92857142857142849</v>
       </c>
@@ -15000,11 +15636,15 @@
       <c r="G19">
         <v>16.649999999999999</v>
       </c>
+      <c r="J19">
+        <f>1-D19</f>
+        <v>0.999</v>
+      </c>
       <c r="K19" s="8">
         <f>(D19-D4)/D19</f>
         <v>0.73459999999999992</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="26">
         <f>(D10-D19)/D10</f>
         <v>0.83333333333333337</v>
       </c>
@@ -15030,11 +15670,15 @@
       <c r="G20">
         <v>56.97</v>
       </c>
+      <c r="J20" s="1">
+        <f>1-F20</f>
+        <v>0.96399999999999997</v>
+      </c>
       <c r="K20" s="8">
         <f>(D20-D4)/D20</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="26">
         <f>(F11-F20)/F11</f>
         <v>0.69230769230769229</v>
       </c>
@@ -15060,11 +15704,15 @@
       <c r="G21">
         <v>84.95</v>
       </c>
+      <c r="J21">
+        <f>1-D21</f>
+        <v>0.99099999999999999</v>
+      </c>
       <c r="K21" s="8">
         <f>(D21-D4)/D21</f>
         <v>0.97051111111111099</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="26">
         <f>(D12-D21)/D12</f>
         <v>0.97213622291021673</v>
       </c>
@@ -15090,11 +15738,15 @@
       <c r="G22">
         <v>24.04</v>
       </c>
+      <c r="J22">
+        <f>1-D22</f>
+        <v>0.999</v>
+      </c>
       <c r="K22" s="8">
         <f>(D22-D4)/D22</f>
         <v>0.73459999999999992</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="26">
         <f>(D13-D22)/D13</f>
         <v>0.94736842105263153</v>
       </c>
@@ -15123,6 +15775,10 @@
       <c r="G25">
         <v>1.02</v>
       </c>
+      <c r="J25" s="1">
+        <f>1-F25</f>
+        <v>0.99738379940730004</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
@@ -15148,6 +15804,10 @@
       <c r="H26" t="s">
         <v>171</v>
       </c>
+      <c r="J26" s="1">
+        <f>1-F26</f>
+        <v>0.99848929289999999</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
@@ -15170,6 +15830,10 @@
       <c r="G27">
         <v>432.73</v>
       </c>
+      <c r="J27" s="1">
+        <f>1-F27</f>
+        <v>0.99764783700000004</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
@@ -15192,6 +15856,10 @@
       <c r="G28">
         <v>0.06</v>
       </c>
+      <c r="J28" s="1">
+        <f>1-F28</f>
+        <v>0.94989999999999997</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
@@ -15214,6 +15882,10 @@
       <c r="G29">
         <v>28.46</v>
       </c>
+      <c r="J29" s="1">
+        <f>1-D29</f>
+        <v>0.21799999999999997</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
@@ -15236,6 +15908,10 @@
       <c r="G30">
         <v>67.41</v>
       </c>
+      <c r="J30" s="1">
+        <f>1-D30</f>
+        <v>0.34599999999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -15258,6 +15934,10 @@
       <c r="G31">
         <v>0.06</v>
       </c>
+      <c r="J31" s="1">
+        <f>1-F31</f>
+        <v>0.95230000000000004</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
@@ -15280,6 +15960,10 @@
       <c r="G32">
         <v>38.42</v>
       </c>
+      <c r="J32" s="1">
+        <f>1-D32</f>
+        <v>0.48299999999999998</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
@@ -15302,6 +15986,10 @@
       <c r="G33">
         <v>67.3</v>
       </c>
+      <c r="J33" s="1">
+        <f>1-D33</f>
+        <v>0.38100000000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -15324,6 +16012,10 @@
       <c r="G34">
         <v>0.06</v>
       </c>
+      <c r="J34" s="1">
+        <f>1-F34</f>
+        <v>0.95099999999999996</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
@@ -15346,6 +16038,10 @@
       <c r="G35">
         <v>22.86</v>
       </c>
+      <c r="J35" s="1">
+        <f>1-D35</f>
+        <v>0.68599999999999994</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
@@ -15368,6 +16064,10 @@
       <c r="G36">
         <v>67.22</v>
       </c>
+      <c r="J36" s="1">
+        <f>1-D36</f>
+        <v>0.30300000000000005</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
@@ -15390,7 +16090,11 @@
       <c r="G37">
         <v>27.82</v>
       </c>
-      <c r="L37" s="8">
+      <c r="J37" s="1">
+        <f>1-F37</f>
+        <v>0.95164439999999995</v>
+      </c>
+      <c r="L37" s="26">
         <f>(F28-F37)/F28</f>
         <v>3.4818363273453092E-2</v>
       </c>
@@ -15416,7 +16120,11 @@
       <c r="G38">
         <v>208.79</v>
       </c>
-      <c r="L38" s="8">
+      <c r="J38">
+        <f>1-D38</f>
+        <v>0.999</v>
+      </c>
+      <c r="L38" s="26">
         <f>(D29-D38)/D29</f>
         <v>0.99872122762148341</v>
       </c>
@@ -15442,7 +16150,11 @@
       <c r="G39">
         <v>153.63</v>
       </c>
-      <c r="L39" s="8">
+      <c r="J39">
+        <f>1-D39</f>
+        <v>0.99905310000000003</v>
+      </c>
+      <c r="L39" s="26">
         <f>(D30-D39)/D30</f>
         <v>0.99855214067278286</v>
       </c>
@@ -15468,7 +16180,11 @@
       <c r="G40">
         <v>33.770000000000003</v>
       </c>
-      <c r="L40" s="8">
+      <c r="J40" s="1">
+        <f>1-F40</f>
+        <v>0.95539269999999998</v>
+      </c>
+      <c r="L40" s="26">
         <f>(F31-F40)/F31</f>
         <v>6.4836477987421454E-2</v>
       </c>
@@ -15494,7 +16210,11 @@
       <c r="G41">
         <v>157.57</v>
       </c>
-      <c r="L41" s="8">
+      <c r="J41">
+        <f>1-D41</f>
+        <v>0.999</v>
+      </c>
+      <c r="L41" s="26">
         <f>(D32-D41)/D32</f>
         <v>0.99806576402321079</v>
       </c>
@@ -15520,7 +16240,11 @@
       <c r="G42">
         <v>157.87</v>
       </c>
-      <c r="L42" s="8">
+      <c r="J42">
+        <f>1-D42</f>
+        <v>0.99925509999999995</v>
+      </c>
+      <c r="L42" s="26">
         <f>(D33-D42)/D33</f>
         <v>0.9987966074313408</v>
       </c>
@@ -15546,7 +16270,11 @@
       <c r="G43">
         <v>26.22</v>
       </c>
-      <c r="L43" s="8">
+      <c r="J43" s="1">
+        <f>1-F43</f>
+        <v>0.95228679999999999</v>
+      </c>
+      <c r="L43" s="26">
         <f>(F34-F43)/F34</f>
         <v>2.626122448979587E-2</v>
       </c>
@@ -15572,7 +16300,11 @@
       <c r="G44">
         <v>139.69</v>
       </c>
-      <c r="L44" s="8">
+      <c r="J44">
+        <f>1-D44</f>
+        <v>0.99917769999999995</v>
+      </c>
+      <c r="L44" s="26">
         <f>(D35-D44)/D35</f>
         <v>0.99738121019108283</v>
       </c>
@@ -15598,7 +16330,11 @@
       <c r="G45">
         <v>155.07</v>
       </c>
-      <c r="L45" s="8">
+      <c r="J45">
+        <f>1-D45</f>
+        <v>0.997</v>
+      </c>
+      <c r="L45" s="26">
         <f>(D36-D45)/D36</f>
         <v>0.99569583931133432</v>
       </c>
@@ -15627,6 +16363,10 @@
       <c r="G48">
         <v>1.1200000000000001</v>
       </c>
+      <c r="J48" s="1">
+        <f>1-F48</f>
+        <v>0.67100000000000004</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -15652,6 +16392,10 @@
       <c r="H49" t="s">
         <v>170</v>
       </c>
+      <c r="J49" s="1">
+        <f>1-F49</f>
+        <v>0.74805999999999995</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -15674,6 +16418,10 @@
       <c r="G50">
         <v>79.55</v>
       </c>
+      <c r="J50" s="1">
+        <f>1-F50</f>
+        <v>0.78181</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -15696,6 +16444,10 @@
       <c r="G51" t="s">
         <v>14</v>
       </c>
+      <c r="J51" s="1">
+        <f>1-F51</f>
+        <v>0.66999999999999993</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
@@ -15718,6 +16470,10 @@
       <c r="G52">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J52" s="1">
+        <f>1-D52</f>
+        <v>0.75700000000000001</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -15740,6 +16496,10 @@
       <c r="G53">
         <v>0.5</v>
       </c>
+      <c r="J53" s="1">
+        <f>1-D53</f>
+        <v>0.83</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -15762,6 +16522,10 @@
       <c r="G54" t="s">
         <v>14</v>
       </c>
+      <c r="J54" s="1">
+        <f>1-F54</f>
+        <v>0.39999999999999991</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -15784,6 +16548,10 @@
       <c r="G55">
         <v>0.56999999999999995</v>
       </c>
+      <c r="J55" s="1">
+        <f>1-D55</f>
+        <v>0.71500000000000008</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
@@ -15806,6 +16574,10 @@
       <c r="G56">
         <v>0.72</v>
       </c>
+      <c r="J56" s="1">
+        <f>1-D56</f>
+        <v>0.80899999999999994</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -15828,6 +16600,10 @@
       <c r="G57" t="s">
         <v>14</v>
       </c>
+      <c r="J57" s="1">
+        <f>1-F57</f>
+        <v>0.42799999999999994</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -15850,6 +16626,10 @@
       <c r="G58">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J58" s="1">
+        <f>1-D58</f>
+        <v>0.47499999999999998</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -15872,6 +16652,10 @@
       <c r="G59">
         <v>0.52</v>
       </c>
+      <c r="J59" s="1">
+        <f>1-D59</f>
+        <v>0.40700000000000003</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -15894,7 +16678,11 @@
       <c r="G60">
         <v>12.69</v>
       </c>
-      <c r="L60" s="8">
+      <c r="J60" s="1">
+        <f>1-F60</f>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="L60" s="26">
         <f>(F51-F60)/F51</f>
         <v>0.19393939393939394</v>
       </c>
@@ -15920,7 +16708,11 @@
       <c r="G61">
         <v>19.670000000000002</v>
       </c>
-      <c r="L61" s="8">
+      <c r="J61">
+        <f>1-D61</f>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="L61" s="26">
         <f>(D52-D61)/D52</f>
         <v>0.19753086419753083</v>
       </c>
@@ -15946,7 +16738,11 @@
       <c r="G62">
         <v>0.91</v>
       </c>
-      <c r="L62" s="8">
+      <c r="J62">
+        <f>1-D62</f>
+        <v>0.83</v>
+      </c>
+      <c r="L62" s="26">
         <f>(D53-D62)/D53</f>
         <v>0</v>
       </c>
@@ -15972,7 +16768,11 @@
       <c r="G63">
         <v>30.09</v>
       </c>
-      <c r="L63" s="8">
+      <c r="J63" s="1">
+        <f>1-F63</f>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="L63" s="26">
         <f>(F54-F63)/F54</f>
         <v>0.55666666666666675</v>
       </c>
@@ -15998,7 +16798,11 @@
       <c r="G64">
         <v>21.46</v>
       </c>
-      <c r="L64" s="8">
+      <c r="J64">
+        <f>1-D64</f>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="L64" s="26">
         <f>(D55-D64)/D55</f>
         <v>0.31578947368421045</v>
       </c>
@@ -16024,7 +16828,11 @@
       <c r="G65">
         <v>12.58</v>
       </c>
-      <c r="L65" s="8">
+      <c r="J65">
+        <f>1-D65</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="L65" s="26">
         <f>(D56-D65)/D56</f>
         <v>9.9476439790576007E-2</v>
       </c>
@@ -16050,7 +16858,11 @@
       <c r="G66">
         <v>16.96</v>
       </c>
-      <c r="L66" s="8">
+      <c r="J66" s="1">
+        <f>1-F66</f>
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="L66" s="26">
         <f>(F57-F66)/F57</f>
         <v>0.5174825174825175</v>
       </c>
@@ -16076,7 +16888,11 @@
       <c r="G67">
         <v>20.34</v>
       </c>
-      <c r="L67" s="8">
+      <c r="J67">
+        <f>1-D67</f>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L67" s="26">
         <f>(D58-D67)/D58</f>
         <v>0.62666666666666671</v>
       </c>
@@ -16102,7 +16918,11 @@
       <c r="G68">
         <v>33.99</v>
       </c>
-      <c r="L68" s="8">
+      <c r="J68">
+        <f>1-D68</f>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="L68" s="26">
         <f>(D59-D68)/D59</f>
         <v>0.70826306913996628</v>
       </c>
@@ -16131,6 +16951,10 @@
       <c r="G71">
         <v>1.26</v>
       </c>
+      <c r="J71" s="1">
+        <f>1-F71</f>
+        <v>0.99701539989959997</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
@@ -16156,6 +16980,10 @@
       <c r="H72" t="s">
         <v>171</v>
       </c>
+      <c r="J72" s="1">
+        <f>1-F72</f>
+        <v>0.99831684700000001</v>
+      </c>
     </row>
     <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
@@ -16178,6 +17006,10 @@
       <c r="G73">
         <v>348.96</v>
       </c>
+      <c r="J73" s="1">
+        <f>1-F73</f>
+        <v>0.99755677300000001</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
@@ -16200,6 +17032,10 @@
       <c r="G74">
         <v>0.03</v>
       </c>
+      <c r="J74" s="1">
+        <f>1-F74</f>
+        <v>0.97240000000000004</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
@@ -16222,6 +17058,10 @@
       <c r="G75">
         <v>7.92</v>
       </c>
+      <c r="J75" s="1">
+        <f>1-D75</f>
+        <v>0.46099999999999997</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
@@ -16244,6 +17084,10 @@
       <c r="G76">
         <v>64.36</v>
       </c>
+      <c r="J76" s="1">
+        <f>1-D76</f>
+        <v>0.67500000000000004</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
@@ -16266,6 +17110,10 @@
       <c r="G77">
         <v>0.03</v>
       </c>
+      <c r="J77" s="1">
+        <f>1-F77</f>
+        <v>0.96909999999999996</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
@@ -16288,6 +17136,10 @@
       <c r="G78">
         <v>25.79</v>
       </c>
+      <c r="J78" s="1">
+        <f>1-D78</f>
+        <v>0.82400000000000007</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
@@ -16310,6 +17162,10 @@
       <c r="G79">
         <v>64.7</v>
       </c>
+      <c r="J79" s="1">
+        <f>1-D79</f>
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
@@ -16332,6 +17188,10 @@
       <c r="G80">
         <v>0.04</v>
       </c>
+      <c r="J80" s="1">
+        <f>1-F80</f>
+        <v>0.97040000000000004</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
@@ -16354,6 +17214,10 @@
       <c r="G81">
         <v>8.89</v>
       </c>
+      <c r="J81" s="1">
+        <f>1-D81</f>
+        <v>0.71</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
@@ -16376,6 +17240,10 @@
       <c r="G82">
         <v>64.62</v>
       </c>
+      <c r="J82" s="1">
+        <f>1-D82</f>
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
@@ -16398,7 +17266,11 @@
       <c r="G83">
         <v>9.1199999999999992</v>
       </c>
-      <c r="L83" s="8">
+      <c r="J83" s="1">
+        <f>1-F83</f>
+        <v>0.97324100000000002</v>
+      </c>
+      <c r="L83" s="26">
         <f>(F74-F83)/F74</f>
         <v>3.0471014492753672E-2</v>
       </c>
@@ -16424,7 +17296,11 @@
       <c r="G84">
         <v>150.25</v>
       </c>
-      <c r="L84" s="8">
+      <c r="J84">
+        <f>1-D84</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L84" s="26">
         <f>(D75-D84)/D75</f>
         <v>0.98886827458256032</v>
       </c>
@@ -16450,7 +17326,11 @@
       <c r="G85">
         <v>113.02</v>
       </c>
-      <c r="L85" s="8">
+      <c r="J85">
+        <f>1-D85</f>
+        <v>0.999</v>
+      </c>
+      <c r="L85" s="26">
         <f>(D76-D85)/D76</f>
         <v>0.99692307692307691</v>
       </c>
@@ -16476,7 +17356,11 @@
       <c r="G86">
         <v>25.57</v>
       </c>
-      <c r="L86" s="8">
+      <c r="J86" s="1">
+        <f>1-F86</f>
+        <v>0.97284919999999997</v>
+      </c>
+      <c r="L86" s="26">
         <f>(F77-F86)/F77</f>
         <v>0.12133333333333336</v>
       </c>
@@ -16502,7 +17386,11 @@
       <c r="G87">
         <v>107.17</v>
       </c>
-      <c r="L87" s="8">
+      <c r="J87">
+        <f>1-D87</f>
+        <v>0.999</v>
+      </c>
+      <c r="L87" s="26">
         <f>(D78-D87)/D78</f>
         <v>0.99431818181818177</v>
       </c>
@@ -16528,7 +17416,11 @@
       <c r="G88">
         <v>82.44</v>
       </c>
-      <c r="L88" s="8">
+      <c r="J88">
+        <f>1-D88</f>
+        <v>0.998</v>
+      </c>
+      <c r="L88" s="26">
         <f>(D79-D88)/D79</f>
         <v>0.99065420560747663</v>
       </c>
@@ -16554,7 +17446,11 @@
       <c r="G89">
         <v>30.48</v>
       </c>
-      <c r="L89" s="8">
+      <c r="J89" s="1">
+        <f>1-F89</f>
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="L89" s="26">
         <f>(F80-F89)/F80</f>
         <v>0</v>
       </c>
@@ -16580,7 +17476,11 @@
       <c r="G90">
         <v>169.47</v>
       </c>
-      <c r="L90" s="8">
+      <c r="J90">
+        <f>1-D90</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L90" s="26">
         <f>(D81-D90)/D81</f>
         <v>0.97931034482758617</v>
       </c>
@@ -16606,7 +17506,11 @@
       <c r="G91">
         <v>129.21</v>
       </c>
-      <c r="L91" s="8">
+      <c r="J91">
+        <f>1-D91</f>
+        <v>0.997</v>
+      </c>
+      <c r="L91" s="26">
         <f>(D82-D91)/D82</f>
         <v>0.98943661971830987</v>
       </c>
@@ -16619,6 +17523,7 @@
     <mergeCell ref="A71:A91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -16626,7 +17531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842C86B-7D36-B04D-B09B-8D3C95D38C2E}">
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B42" workbookViewId="0">
       <selection activeCell="L55" sqref="L55:L66"/>
     </sheetView>
   </sheetViews>
@@ -17074,7 +17979,7 @@
       <c r="H18" s="9">
         <v>7.6</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="26">
         <f>(F6-F18)/F6</f>
         <v>0.91302223308086972</v>
       </c>
@@ -17102,7 +18007,7 @@
       <c r="H19" s="9">
         <v>17.420000000000002</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="26">
         <f>(D7-D19)/D7</f>
         <v>0.28424657534246578</v>
       </c>
@@ -17130,7 +18035,7 @@
       <c r="H20" s="9">
         <v>6.28</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="26">
         <f>(D8-D20)/D8</f>
         <v>0.93743016759776532</v>
       </c>
@@ -17158,7 +18063,7 @@
       <c r="H21" s="9">
         <v>6.33</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="26">
         <f>(F9-F21)/F9</f>
         <v>0.71055179090029041</v>
       </c>
@@ -17186,7 +18091,7 @@
       <c r="H22" s="9">
         <v>13.87</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="26">
         <f>(D10-D22)/D10</f>
         <v>0.77263157894736845</v>
       </c>
@@ -17214,7 +18119,7 @@
       <c r="H23" s="9">
         <v>11.13</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="26">
         <f>(D11-D23)/D11</f>
         <v>0.84603886397608374</v>
       </c>
@@ -17242,7 +18147,7 @@
       <c r="H24" s="9">
         <v>4.22</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="26">
         <f>(F12-F24)/F12</f>
         <v>0.67251461988304095</v>
       </c>
@@ -17270,7 +18175,7 @@
       <c r="H25" s="9">
         <v>4.93</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="26">
         <f>(D13-D25)/D13</f>
         <v>0.78650442477876115</v>
       </c>
@@ -17298,7 +18203,7 @@
       <c r="H26" s="9">
         <v>9.9499999999999993</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="26">
         <f>(D14-D26)/D14</f>
         <v>0.83132530120481929</v>
       </c>
@@ -17326,7 +18231,7 @@
       <c r="H27" s="9">
         <v>7.85</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="26">
         <f>(F15-F27)/F15</f>
         <v>0.75807609475951176</v>
       </c>
@@ -17354,7 +18259,7 @@
       <c r="H28" s="9">
         <v>8.43</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="26">
         <f>(D16-D28)/D16</f>
         <v>0.42951907131011613</v>
       </c>
@@ -17382,7 +18287,7 @@
       <c r="H29" s="9">
         <v>20.18</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="26">
         <f>(D17-D29)/D17</f>
         <v>0.94012944983818769</v>
       </c>
@@ -17896,7 +18801,7 @@
       <c r="H55" s="9">
         <v>34.67</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="26">
         <f>(F43-F55)/F43</f>
         <v>0.77748759467223816</v>
       </c>
@@ -17924,7 +18829,7 @@
       <c r="H56" s="9">
         <v>23.94</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="26">
         <f>(D44-D56)/D44</f>
         <v>0.67924528301886788</v>
       </c>
@@ -17952,7 +18857,7 @@
       <c r="H57" s="9">
         <v>33.71</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="26">
         <f>(D45-D57)/D45</f>
         <v>0.75056433408577883</v>
       </c>
@@ -17980,7 +18885,7 @@
       <c r="H58" s="9">
         <v>18.010000000000002</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="26">
         <f>(F46-F58)/F46</f>
         <v>0.73193473193473191</v>
       </c>
@@ -18008,7 +18913,7 @@
       <c r="H59" s="9">
         <v>38.22</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="26">
         <f>(D47-D59)/D47</f>
         <v>0.58122362869198307</v>
       </c>
@@ -18036,7 +18941,7 @@
       <c r="H60" s="9">
         <v>30.65</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="26">
         <f>(D48-D60)/D48</f>
         <v>0.69973890339425593</v>
       </c>
@@ -18064,7 +18969,7 @@
       <c r="H61" s="9">
         <v>13.72</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="26">
         <f>(F49-F61)/F49</f>
         <v>0.57868852459016396</v>
       </c>
@@ -18092,7 +18997,7 @@
       <c r="H62" s="9">
         <v>30.65</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="26">
         <f>(D50-D62)/D50</f>
         <v>0.4660804020100503</v>
       </c>
@@ -18120,7 +19025,7 @@
       <c r="H63" s="9">
         <v>36.51</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="26">
         <f>(D51-D63)/D51</f>
         <v>0.82219827586206895</v>
       </c>
@@ -18148,7 +19053,7 @@
       <c r="H64" s="9">
         <v>28.23</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="26">
         <f>(F52-F64)/F52</f>
         <v>0.70772116286339481</v>
       </c>
@@ -18176,7 +19081,7 @@
       <c r="H65" s="9">
         <v>29.64</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="26">
         <f>(D53-D65)/D53</f>
         <v>0.55246913580246904</v>
       </c>
@@ -18204,7 +19109,7 @@
       <c r="H66" s="9">
         <v>41.58</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="26">
         <f>(D54-D66)/D54</f>
         <v>0.84309392265193372</v>
       </c>
@@ -18312,10 +19217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
-  <dimension ref="B1:I122"/>
+  <dimension ref="B1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="B124" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18325,7 +19230,7 @@
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -18348,7 +19253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>376</v>
       </c>
@@ -18374,8 +19279,12 @@
       <c r="I2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1">
+        <f>1-G2</f>
+        <v>-166.50651643679998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>283</v>
       </c>
@@ -18401,8 +19310,12 @@
       <c r="I3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <f>1-G3</f>
+        <v>0.98127919640000005</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>298</v>
       </c>
@@ -18428,8 +19341,12 @@
       <c r="I4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <f>1-G4</f>
+        <v>0.99724243369999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>299</v>
       </c>
@@ -18452,8 +19369,12 @@
       <c r="H5" s="3">
         <v>154.05000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <f>1-G5</f>
+        <v>0.98445530000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>284</v>
       </c>
@@ -18461,17 +19382,17 @@
         <v>29</v>
       </c>
       <c r="D6" s="9">
-        <v>0.91900000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="E6">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G33" si="0">D6+E6*0.001</f>
-        <v>1.0210000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="H6" s="9">
         <v>0.85</v>
@@ -18479,8 +19400,12 @@
       <c r="I6" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <f>1-G6</f>
+        <v>-6.2000000000000055E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>285</v>
       </c>
@@ -18503,8 +19428,12 @@
       <c r="H7" s="9">
         <v>32.47</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <f>1-D7</f>
+        <v>0.29100000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>286</v>
       </c>
@@ -18527,8 +19456,12 @@
       <c r="H8" s="9">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <f>1-D8</f>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>287</v>
       </c>
@@ -18536,7 +19469,7 @@
         <v>229</v>
       </c>
       <c r="D9" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -18546,13 +19479,17 @@
       </c>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>5.3000000000000005E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H9" s="3">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
+        <f>1-G9</f>
+        <v>0.94100000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>288</v>
       </c>
@@ -18575,8 +19512,12 @@
       <c r="H10" s="9">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <f>1-D10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>289</v>
       </c>
@@ -18599,8 +19540,12 @@
       <c r="H11" s="9">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <f>1-D11</f>
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>296</v>
       </c>
@@ -18608,23 +19553,27 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>3.5999999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>0.11599999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H12" s="9">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <f>1-G12</f>
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>295</v>
       </c>
@@ -18647,8 +19596,12 @@
       <c r="H13" s="9">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="1">
+        <f>1-D13</f>
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>294</v>
       </c>
@@ -18671,8 +19624,12 @@
       <c r="H14" s="9">
         <v>60.76</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J14" s="1">
+        <f>1-D14</f>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>293</v>
       </c>
@@ -18680,23 +19637,27 @@
         <v>59</v>
       </c>
       <c r="D15" s="9">
-        <v>3.5000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>6.9000000000000006E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H15" s="9">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
+        <f>1-G15</f>
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>297</v>
       </c>
@@ -18719,8 +19680,12 @@
       <c r="H16" s="9">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f>1-D16</f>
+        <v>0.40900000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>300</v>
       </c>
@@ -18743,8 +19708,12 @@
       <c r="H17" s="9">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f>1-D17</f>
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>301</v>
       </c>
@@ -18752,23 +19721,31 @@
         <v>42</v>
       </c>
       <c r="D18" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H18" s="9">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <f>1-G18</f>
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="L18" s="26">
+        <f>(G6-G18)/G6</f>
+        <v>0.97834274952919031</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>302</v>
       </c>
@@ -18791,8 +19768,16 @@
       <c r="H19" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>1-D19</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L19" s="26">
+        <f>(D7-D19)/D7</f>
+        <v>0.98871650211565587</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>290</v>
       </c>
@@ -18815,8 +19800,16 @@
       <c r="H20" s="9">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f>1-D20</f>
+        <v>0.997</v>
+      </c>
+      <c r="L20" s="26">
+        <f>(D8-D20)/D8</f>
+        <v>0.99610389610389605</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>314</v>
       </c>
@@ -18824,23 +19817,31 @@
         <v>232</v>
       </c>
       <c r="D21" s="9">
-        <v>1.7000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F21" s="9">
         <v>0</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H21" s="9">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="1">
+        <f>1-G21</f>
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="L21" s="26">
+        <f>(G9-G21)/G9</f>
+        <v>0.5423728813559322</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>291</v>
       </c>
@@ -18863,8 +19864,16 @@
       <c r="H22" s="9">
         <v>16.73</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f>1-D22</f>
+        <v>0.755</v>
+      </c>
+      <c r="L22" s="26">
+        <f>(D10-D22)/D10</f>
+        <v>0.59166666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>303</v>
       </c>
@@ -18887,8 +19896,16 @@
       <c r="H23" s="9">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f>1-D23</f>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L23" s="26">
+        <f>(D11-D23)/D11</f>
+        <v>0.46153846153846151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>304</v>
       </c>
@@ -18896,23 +19913,31 @@
         <v>43</v>
       </c>
       <c r="D24" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>7.5000000000000011E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H24" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="1">
+        <f>1-G24</f>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L24" s="26">
+        <f>(G12-G24)/G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>305</v>
       </c>
@@ -18935,8 +19960,16 @@
       <c r="H25" s="9">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f>1-D25</f>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L25" s="26">
+        <f>(D13-D25)/D13</f>
+        <v>0.14285714285714288</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>306</v>
       </c>
@@ -18959,8 +19992,16 @@
       <c r="H26" s="9">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f>1-D26</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L26" s="26">
+        <f>(D14-D26)/D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>308</v>
       </c>
@@ -18968,7 +20009,7 @@
         <v>273</v>
       </c>
       <c r="D27" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E27">
         <v>32</v>
@@ -18978,13 +20019,21 @@
       </c>
       <c r="G27" s="9">
         <f t="shared" si="0"/>
-        <v>3.6000000000000004E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H27" s="9">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="1">
+        <f>1-G27</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="L27" s="26">
+        <f>(G15-G27)/G15</f>
+        <v>0.28571428571428575</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>307</v>
       </c>
@@ -19007,8 +20056,16 @@
       <c r="H28" s="9">
         <v>9.2100000000000009</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f>1-D28</f>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="L28" s="26">
+        <f>(D16-D28)/D16</f>
+        <v>0.98815566835871405</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>309</v>
       </c>
@@ -19031,8 +20088,16 @@
       <c r="H29" s="9">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f>1-D29</f>
+        <v>0.997</v>
+      </c>
+      <c r="L29" s="26">
+        <f>(D17-D29)/D17</f>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>310</v>
       </c>
@@ -19055,8 +20120,12 @@
       <c r="H30" s="9">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f>1-G30</f>
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>311</v>
       </c>
@@ -19079,8 +20148,12 @@
       <c r="H31" s="9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f>1-D31</f>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>312</v>
       </c>
@@ -19103,8 +20176,12 @@
       <c r="H32" s="9">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f>1-G32</f>
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>313</v>
       </c>
@@ -19127,8 +20204,12 @@
       <c r="H33" s="9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f>1-D33</f>
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>380</v>
       </c>
@@ -19155,7 +20236,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>377</v>
       </c>
@@ -19182,7 +20263,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>382</v>
       </c>
@@ -19209,7 +20290,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>381</v>
       </c>
@@ -19233,7 +20314,7 @@
         <v>1170.396</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>383</v>
       </c>
@@ -19260,7 +20341,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>384</v>
       </c>
@@ -19284,7 +20365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>385</v>
       </c>
@@ -19308,7 +20389,7 @@
         <v>13.23</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>386</v>
       </c>
@@ -19332,7 +20413,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>387</v>
       </c>
@@ -19356,7 +20437,7 @@
         <v>72.52</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>388</v>
       </c>
@@ -19380,7 +20461,7 @@
         <v>44.21</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>389</v>
       </c>
@@ -19404,7 +20485,7 @@
         <v>71.34</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>390</v>
       </c>
@@ -19428,7 +20509,7 @@
         <v>70.92</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>391</v>
       </c>
@@ -19452,7 +20533,7 @@
         <v>70.849999999999994</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>392</v>
       </c>
@@ -19476,7 +20557,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>393</v>
       </c>
@@ -19500,7 +20581,7 @@
         <v>70.83</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>394</v>
       </c>
@@ -19524,7 +20605,7 @@
         <v>40.54</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>395</v>
       </c>
@@ -19547,8 +20628,9 @@
       <c r="H54" s="3">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>396</v>
       </c>
@@ -19571,8 +20653,9 @@
       <c r="H55" s="9">
         <v>88.08</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>397</v>
       </c>
@@ -19595,8 +20678,9 @@
       <c r="H56" s="9">
         <v>22.98</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>398</v>
       </c>
@@ -19619,8 +20703,9 @@
       <c r="H57" s="9">
         <v>9.67</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>399</v>
       </c>
@@ -19643,8 +20728,9 @@
       <c r="H58" s="9">
         <v>60.18</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>400</v>
       </c>
@@ -19667,8 +20753,9 @@
       <c r="H59" s="9">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>401</v>
       </c>
@@ -19691,8 +20778,9 @@
       <c r="H60" s="9">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>402</v>
       </c>
@@ -19715,8 +20803,9 @@
       <c r="H61" s="9">
         <v>96.51</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>403</v>
       </c>
@@ -19739,8 +20828,9 @@
       <c r="H62" s="9">
         <v>42.98</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>404</v>
       </c>
@@ -19763,8 +20853,9 @@
       <c r="H63" s="3">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>405</v>
       </c>
@@ -19787,8 +20878,9 @@
       <c r="H64" s="9">
         <v>31.96</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>406</v>
       </c>
@@ -19811,8 +20903,9 @@
       <c r="H65" s="3">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>407</v>
       </c>
@@ -19836,7 +20929,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>408</v>
       </c>
@@ -19860,7 +20953,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>409</v>
       </c>
@@ -19884,7 +20977,7 @@
         <v>39.58</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>410</v>
       </c>
@@ -19908,7 +21001,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>411</v>
       </c>
@@ -19932,7 +21025,7 @@
         <v>905.15300000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>377</v>
       </c>
@@ -19956,7 +21049,7 @@
         <v>663.07600000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>382</v>
       </c>
@@ -19980,7 +21073,7 @@
         <v>564.94500000000005</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>381</v>
       </c>
@@ -20004,7 +21097,7 @@
         <v>1403.03</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>383</v>
       </c>
@@ -20028,7 +21121,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>384</v>
       </c>
@@ -20052,7 +21145,7 @@
         <v>71.209999999999994</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>385</v>
       </c>
@@ -20076,7 +21169,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>386</v>
       </c>
@@ -20100,7 +21193,7 @@
         <v>60.26</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>387</v>
       </c>
@@ -20124,7 +21217,7 @@
         <v>70.94</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>388</v>
       </c>
@@ -20148,7 +21241,7 @@
         <v>71.45</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>389</v>
       </c>
@@ -20172,7 +21265,7 @@
         <v>71.33</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>390</v>
       </c>
@@ -20196,7 +21289,7 @@
         <v>71.010000000000005</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>391</v>
       </c>
@@ -20220,7 +21313,7 @@
         <v>71.23</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>392</v>
       </c>
@@ -20244,7 +21337,7 @@
         <v>70.77</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>393</v>
       </c>
@@ -20268,7 +21361,7 @@
         <v>70.87</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>394</v>
       </c>
@@ -20292,7 +21385,7 @@
         <v>70.83</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>395</v>
       </c>
@@ -20315,8 +21408,12 @@
       <c r="H90" s="3">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L90" s="26">
+        <f>(G78-G90)/G78</f>
+        <v>0.22916666666666669</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>396</v>
       </c>
@@ -20339,8 +21436,12 @@
       <c r="H91" s="9">
         <v>202.39</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L91" s="26">
+        <f>(D79-D91)/D79</f>
+        <v>0.95987963891675021</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>397</v>
       </c>
@@ -20363,8 +21464,12 @@
       <c r="H92" s="9">
         <v>13.65</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L92" s="26">
+        <f>(D80-D92)/D80</f>
+        <v>0.99397590361445787</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>398</v>
       </c>
@@ -20387,8 +21492,12 @@
       <c r="H93" s="9">
         <v>16.91</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L93" s="26">
+        <f>(G81-G93)/G81</f>
+        <v>0.10800744878957179</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>399</v>
       </c>
@@ -20411,8 +21520,12 @@
       <c r="H94" s="9">
         <v>64.290000000000006</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L94" s="26">
+        <f>(D82-D94)/D82</f>
+        <v>0.99792315680166144</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>400</v>
       </c>
@@ -20435,8 +21548,12 @@
       <c r="H95" s="9">
         <v>41.43</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="L95" s="26">
+        <f>(D83-D95)/D83</f>
+        <v>0.42508710801393723</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>401</v>
       </c>
@@ -20459,8 +21576,12 @@
       <c r="H96" s="9">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="L96" s="26">
+        <f>(G84-G96)/G84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>402</v>
       </c>
@@ -20483,8 +21604,12 @@
       <c r="H97" s="9">
         <v>59.21</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="L97" s="26">
+        <f>(D85-D97)/D85</f>
+        <v>0.46048632218844993</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>403</v>
       </c>
@@ -20507,8 +21632,12 @@
       <c r="H98" s="9">
         <v>39.78</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="L98" s="26">
+        <f>(D86-D98)/D86</f>
+        <v>0.9622980251346499</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>404</v>
       </c>
@@ -20531,8 +21660,12 @@
       <c r="H99" s="3">
         <v>46.26</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="L99" s="26">
+        <f>(G87-G99)/G87</f>
+        <v>0.9793621013133208</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>405</v>
       </c>
@@ -20555,8 +21688,12 @@
       <c r="H100" s="9">
         <v>74.88</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="L100" s="26">
+        <f>(D88-D100)/D88</f>
+        <v>0.48654244306418221</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>406</v>
       </c>
@@ -20579,8 +21716,12 @@
       <c r="H101" s="3">
         <v>20.02</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="L101" s="26">
+        <f>(D89-D101)/D89</f>
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>412</v>
       </c>
@@ -20604,7 +21745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>413</v>
       </c>
@@ -20628,7 +21769,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>414</v>
       </c>
@@ -20652,7 +21793,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>415</v>
       </c>
@@ -20676,7 +21817,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>440</v>
       </c>
@@ -20700,7 +21841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>276</v>
       </c>
@@ -20724,7 +21865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>436</v>
       </c>
@@ -20748,7 +21889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>441</v>
       </c>
@@ -20772,7 +21913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>438</v>
       </c>
@@ -20796,7 +21937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>439</v>
       </c>
@@ -20820,7 +21961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>440</v>
       </c>
@@ -20844,7 +21985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>276</v>
       </c>
@@ -20868,7 +22009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>436</v>
       </c>
@@ -20892,7 +22033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>441</v>
       </c>
@@ -20916,7 +22057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>438</v>
       </c>
@@ -20940,7 +22081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>439</v>
       </c>
@@ -20964,8 +22105,857 @@
         <v>32</v>
       </c>
     </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="8">
+        <v>1.855E-5</v>
+      </c>
+      <c r="E126">
+        <v>342.26299999999998</v>
+      </c>
+      <c r="F126">
+        <v>4980.88</v>
+      </c>
+      <c r="G126" s="1">
+        <f>D126+E126*0.001+0.1*F126</f>
+        <v>498.43028155000002</v>
+      </c>
+      <c r="H126" s="3">
+        <v>905.15300000000002</v>
+      </c>
+      <c r="J126" s="1">
+        <f>1-G126</f>
+        <v>-497.43028155000002</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E127" s="1">
+        <v>53.975999999999999</v>
+      </c>
+      <c r="F127" s="8">
+        <v>6.2819999999999997E-7</v>
+      </c>
+      <c r="G127" s="1">
+        <f>D127+E127*0.001+0.1*F127</f>
+        <v>5.4976062820000005E-2</v>
+      </c>
+      <c r="H127" s="3">
+        <v>663.07600000000002</v>
+      </c>
+      <c r="J127" s="1">
+        <f>1-G127</f>
+        <v>0.94502393718</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E128">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F128" s="8">
+        <v>5.9289999999999997E-7</v>
+      </c>
+      <c r="G128" s="1">
+        <f>D128+E128*0.001+0.1*F128</f>
+        <v>1.6770592900000002E-3</v>
+      </c>
+      <c r="H128" s="3">
+        <v>564.94500000000005</v>
+      </c>
+      <c r="J128" s="1">
+        <f>1-G128</f>
+        <v>0.99832294071000005</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C129" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>48.72</v>
+      </c>
+      <c r="F129" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G129" s="1">
+        <f>D129+E129*0.001+0.1*F129</f>
+        <v>5.0020000000000002E-2</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1403.03</v>
+      </c>
+      <c r="J129" s="1">
+        <f>1-G129</f>
+        <v>0.94998000000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" s="9">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="E130">
+        <v>380</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <f t="shared" ref="G130:G157" si="6">D130+E130*0.001</f>
+        <v>1.171</v>
+      </c>
+      <c r="H130" s="3">
+        <v>12.49</v>
+      </c>
+      <c r="J130" s="1">
+        <f>1-G130</f>
+        <v>-0.17100000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="E131">
+        <v>48</v>
+      </c>
+      <c r="F131" s="9">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="H131" s="3">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="J131" s="1">
+        <f>1-D131</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="9">
+        <v>0.996</v>
+      </c>
+      <c r="E132">
+        <v>208</v>
+      </c>
+      <c r="F132" s="9">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <f t="shared" si="6"/>
+        <v>1.204</v>
+      </c>
+      <c r="H132" s="3">
+        <v>13.01</v>
+      </c>
+      <c r="J132" s="1">
+        <f>1-D132</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>229</v>
+      </c>
+      <c r="D133" s="9">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E133">
+        <v>380</v>
+      </c>
+      <c r="F133" s="9">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <f t="shared" si="6"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H133" s="9">
+        <v>60.26</v>
+      </c>
+      <c r="J133" s="1">
+        <f>1-G133</f>
+        <v>0.45199999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="9">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E134">
+        <v>68</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="H134" s="9">
+        <v>70.94</v>
+      </c>
+      <c r="J134" s="1">
+        <f>1-D134</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>231</v>
+      </c>
+      <c r="D135" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E135">
+        <v>290</v>
+      </c>
+      <c r="F135" s="9">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
+        <f t="shared" si="6"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="H135" s="9">
+        <v>71.45</v>
+      </c>
+      <c r="J135" s="1">
+        <f>1-D135</f>
+        <v>0.71300000000000008</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E136">
+        <v>252</v>
+      </c>
+      <c r="F136" s="9">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <f t="shared" si="6"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="H136" s="9">
+        <v>71.33</v>
+      </c>
+      <c r="J136" s="1">
+        <f>1-G136</f>
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="9">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E137">
+        <v>48</v>
+      </c>
+      <c r="F137" s="9">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <f t="shared" si="6"/>
+        <v>0.70600000000000007</v>
+      </c>
+      <c r="H137" s="9">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="J137" s="1">
+        <f>1-D137</f>
+        <v>0.34199999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E138">
+        <v>148</v>
+      </c>
+      <c r="F138" s="9">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <f t="shared" si="6"/>
+        <v>0.70500000000000007</v>
+      </c>
+      <c r="H138" s="9">
+        <v>71.23</v>
+      </c>
+      <c r="J138" s="1">
+        <f>1-D138</f>
+        <v>0.44299999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="9">
+        <v>0.182</v>
+      </c>
+      <c r="E139">
+        <v>380</v>
+      </c>
+      <c r="F139" s="9">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
+        <f t="shared" si="6"/>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H139" s="9">
+        <v>70.77</v>
+      </c>
+      <c r="J139" s="1">
+        <f>1-G139</f>
+        <v>0.43799999999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" s="9">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E140">
+        <v>72</v>
+      </c>
+      <c r="F140" s="9">
+        <v>0</v>
+      </c>
+      <c r="G140" s="1">
+        <f t="shared" si="6"/>
+        <v>1.038</v>
+      </c>
+      <c r="H140" s="9">
+        <v>70.87</v>
+      </c>
+      <c r="J140">
+        <f>1-D140</f>
+        <v>3.400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" s="9">
+        <v>0.224</v>
+      </c>
+      <c r="E141">
+        <v>288</v>
+      </c>
+      <c r="F141" s="9">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
+        <f t="shared" si="6"/>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H141" s="9">
+        <v>70.83</v>
+      </c>
+      <c r="J141">
+        <f>1-D141</f>
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="9">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="F142" s="9">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" si="6"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="J142" s="1">
+        <f>1-G142</f>
+        <v>0.54499999999999993</v>
+      </c>
+      <c r="L142" s="26">
+        <f>(G130-G142)/G130</f>
+        <v>0.61144321093082832</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C143" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="E143">
+        <v>18</v>
+      </c>
+      <c r="F143" s="9">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <f>D143+E143*0.001</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H143" s="9">
+        <v>202.39</v>
+      </c>
+      <c r="J143">
+        <f>1-D143</f>
+        <v>0.96</v>
+      </c>
+      <c r="L143" s="26">
+        <f>(D131-D143)/D131</f>
+        <v>0.95987963891675021</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C144" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E144">
+        <v>50</v>
+      </c>
+      <c r="F144" s="9">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" ref="G144:G157" si="7">D144+E144*0.001</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H144" s="9">
+        <v>13.65</v>
+      </c>
+      <c r="J144">
+        <f>1-D144</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L144" s="26">
+        <f>(D132-D144)/D132</f>
+        <v>0.99397590361445787</v>
+      </c>
+    </row>
+    <row r="145" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C145" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D145" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E145">
+        <v>378</v>
+      </c>
+      <c r="F145" s="9">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <f t="shared" si="7"/>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H145" s="9">
+        <v>16.91</v>
+      </c>
+      <c r="J145" s="1">
+        <f>1-G145</f>
+        <v>0.55299999999999994</v>
+      </c>
+      <c r="L145" s="26">
+        <f>(G133-G145)/G133</f>
+        <v>0.18430656934306575</v>
+      </c>
+    </row>
+    <row r="146" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C146" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D146" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="E146">
+        <v>6</v>
+      </c>
+      <c r="F146" s="9">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H146" s="9">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="J146">
+        <f>1-D146</f>
+        <v>0.998</v>
+      </c>
+      <c r="L146" s="26">
+        <f>(D134-D146)/D134</f>
+        <v>0.99792315680166144</v>
+      </c>
+    </row>
+    <row r="147" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C147" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E147">
+        <v>286</v>
+      </c>
+      <c r="F147" s="9">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45100000000000007</v>
+      </c>
+      <c r="H147" s="9">
+        <v>41.43</v>
+      </c>
+      <c r="J147">
+        <f>1-D147</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L147" s="26">
+        <f>(D135-D147)/D135</f>
+        <v>0.42508710801393723</v>
+      </c>
+    </row>
+    <row r="148" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E148">
+        <v>252</v>
+      </c>
+      <c r="F148" s="9">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1">
+        <f t="shared" si="7"/>
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="H148" s="9">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="J148" s="1">
+        <f>1-G148</f>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="L148" s="26">
+        <f>(G136-G148)/G136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C149" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" s="9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E149">
+        <v>48</v>
+      </c>
+      <c r="F149" s="9">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" si="7"/>
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="H149" s="9">
+        <v>59.21</v>
+      </c>
+      <c r="J149">
+        <f>1-D149</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="L149" s="26">
+        <f>(D137-D149)/D137</f>
+        <v>0.46048632218844993</v>
+      </c>
+    </row>
+    <row r="150" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C150" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E150">
+        <v>158</v>
+      </c>
+      <c r="F150" s="9">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H150" s="9">
+        <v>39.78</v>
+      </c>
+      <c r="J150">
+        <f>1-D150</f>
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L150" s="26">
+        <f>(D138-D150)/D138</f>
+        <v>0.9622980251346499</v>
+      </c>
+    </row>
+    <row r="151" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C151" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D151" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E151">
+        <v>378</v>
+      </c>
+      <c r="F151" s="9">
+        <v>0</v>
+      </c>
+      <c r="G151" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H151" s="3">
+        <v>46.26</v>
+      </c>
+      <c r="J151" s="1">
+        <f>1-G151</f>
+        <v>0.53899999999999992</v>
+      </c>
+      <c r="L151" s="26">
+        <f>(G139-G151)/G139</f>
+        <v>0.17971530249110323</v>
+      </c>
+    </row>
+    <row r="152" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C152" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D152" s="9">
+        <v>0.496</v>
+      </c>
+      <c r="E152">
+        <v>70</v>
+      </c>
+      <c r="F152" s="9">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1">
+        <f t="shared" si="7"/>
+        <v>0.56600000000000006</v>
+      </c>
+      <c r="H152" s="9">
+        <v>74.88</v>
+      </c>
+      <c r="J152">
+        <f>1-D152</f>
+        <v>0.504</v>
+      </c>
+      <c r="L152" s="26">
+        <f>(D140-D152)/D140</f>
+        <v>0.48654244306418221</v>
+      </c>
+    </row>
+    <row r="153" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C153" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D153" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E153">
+        <v>290</v>
+      </c>
+      <c r="F153" s="9">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
+        <f t="shared" si="7"/>
+        <v>0.41</v>
+      </c>
+      <c r="H153" s="3">
+        <v>20.02</v>
+      </c>
+      <c r="J153">
+        <f>1-D153</f>
+        <v>0.88</v>
+      </c>
+      <c r="L153" s="26">
+        <f>(D141-D153)/D141</f>
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="154" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C154" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D154" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" s="9">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" si="7"/>
+        <v>0.999</v>
+      </c>
+      <c r="H154" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="J154">
+        <f>1-G154</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C155" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D155" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" s="9">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="7"/>
+        <v>0.999</v>
+      </c>
+      <c r="H155" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="J155">
+        <f>1-D155</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C156" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E156">
+        <v>48</v>
+      </c>
+      <c r="F156" s="9">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="7"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H156" s="9">
+        <v>12.47</v>
+      </c>
+      <c r="J156">
+        <f>1-G156</f>
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C157" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" s="9">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="E157">
+        <v>64</v>
+      </c>
+      <c r="F157" s="9">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H157" s="9">
+        <v>7.43</v>
+      </c>
+      <c r="J157">
+        <f>1-D157</f>
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20973,7 +22963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1B372-4CC2-8848-A040-A5C43187FDD8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B16"/>
     </sheetView>
   </sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81859DA-FE88-8344-B4B3-64ACA2F9E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCAB622-1D61-454A-A5E7-A4C16209E90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="15800" activeTab="5" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
@@ -2114,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
-  <dimension ref="A1:L634"/>
+  <dimension ref="A1:O634"/>
   <sheetViews>
-    <sheetView topLeftCell="B266" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J281" sqref="J281"/>
+    <sheetView topLeftCell="C586" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M601" sqref="M601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2129,7 @@
     <col min="8" max="8" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -2176,8 +2176,12 @@
         <f>F2/D40</f>
         <v>0.98900999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <f>D2/D40</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -2204,8 +2208,12 @@
         <f>F3/D40</f>
         <v>0.995</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="M3" s="11">
+        <f>D3/D40</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="11" t="s">
         <v>45</v>
@@ -2233,8 +2241,12 @@
         <f>F4/D40</f>
         <v>0.99333000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="11">
+        <f>D4/D40</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>6</v>
@@ -2266,8 +2278,12 @@
         <f>(D5-D2)/D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="M5" s="11">
+        <f>D5/D40</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>9</v>
@@ -2299,8 +2315,12 @@
         <f>(D2-D6)/D2</f>
         <v>0.15815815815815817</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="M6" s="11">
+        <f>D6/D40</f>
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>12</v>
@@ -2332,8 +2352,12 @@
         <f>(D2-D7)/D2</f>
         <v>2.8028028028028052E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="11">
+        <f>D7/D40</f>
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>13</v>
@@ -2365,8 +2389,12 @@
         <f>(D8-D3)/D3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="11">
+        <f>D8/D40</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>16</v>
@@ -2396,8 +2424,12 @@
         <f>(D3-D9)/D3</f>
         <v>0.15315315315315317</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="11">
+        <f>D9/D40</f>
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>17</v>
@@ -2427,8 +2459,12 @@
         <f>(D3-D10)/D3</f>
         <v>2.7027027027027049E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="11">
+        <f>D10/D40</f>
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>60</v>
@@ -2460,8 +2496,12 @@
         <f>(D4-D11)/D4</f>
         <v>4.0040040040040074E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="11">
+        <f>D11/D40</f>
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>61</v>
@@ -2491,8 +2531,12 @@
         <f>(D4-D12)/D4</f>
         <v>0.15815815815815817</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="11">
+        <f>D12/D40</f>
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>160</v>
@@ -2522,8 +2566,12 @@
         <f>(D4-D13)/D4</f>
         <v>3.9039039039039075E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="11">
+        <f>D13/D40</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>64</v>
@@ -2550,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>65</v>
@@ -2577,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>67</v>
@@ -2604,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>66</v>
@@ -2631,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -2667,8 +2715,20 @@
         <f>(F18-F5)/F5</f>
         <v>0.95424836601307206</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f>D18/D40</f>
+        <v>0.997</v>
+      </c>
+      <c r="N18" s="26">
+        <f>(D18-D5)/D5</f>
+        <v>-2.0020020020020037E-3</v>
+      </c>
+      <c r="O18" s="26">
+        <f>(E5-E18)/E5</f>
+        <v>0.81481481481481477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>159</v>
@@ -2704,8 +2764,20 @@
         <f>(D19-D6)/D6</f>
         <v>0.18549346016646853</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f>D19/D40</f>
+        <v>0.997</v>
+      </c>
+      <c r="N19" s="26">
+        <f>(D19-D6)/D6</f>
+        <v>0.18549346016646853</v>
+      </c>
+      <c r="O19" s="26">
+        <f>(E6-E19)/E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>161</v>
@@ -2741,8 +2813,20 @@
         <f>(D20-D7)/D7</f>
         <v>2.8836251287332672E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f>D20/D40</f>
+        <v>0.999</v>
+      </c>
+      <c r="N20" s="26">
+        <f>(D20-D7)/D7</f>
+        <v>2.8836251287332672E-2</v>
+      </c>
+      <c r="O20" s="26">
+        <f>(E7-E20)/E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -2775,8 +2859,20 @@
         <f>(F21-F8)/F8</f>
         <v>0.8439306358381502</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f>D21/D40</f>
+        <v>0.997</v>
+      </c>
+      <c r="N21" s="26">
+        <f>(D21-D8)/D8</f>
+        <v>-2.0020020020020037E-3</v>
+      </c>
+      <c r="O21" s="26">
+        <f>(E8-E21)/E8</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>158</v>
@@ -2809,8 +2905,20 @@
         <f>(D22-D9)/D9</f>
         <v>0.13356973995271867</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f>D22/D40</f>
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="N22" s="26">
+        <f>(D22-D9)/D9</f>
+        <v>0.13356973995271867</v>
+      </c>
+      <c r="O22" s="26">
+        <f>(E9-E22)/E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>162</v>
@@ -2843,8 +2951,20 @@
         <f>(D23-D10)/D10</f>
         <v>2.6748971193415662E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <f>D23/D40</f>
+        <v>0.998</v>
+      </c>
+      <c r="N23" s="26">
+        <f>(D23-D10)/D10</f>
+        <v>2.6748971193415662E-2</v>
+      </c>
+      <c r="O23" s="26">
+        <f>(E10-E23)/E10</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -2866,7 +2986,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>151</v>
@@ -2888,7 +3008,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -2910,7 +3030,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>242</v>
@@ -2943,8 +3063,20 @@
         <f>(F27-F11)/F11</f>
         <v>1.0109890109890112</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f>D27/D40</f>
+        <v>0.995</v>
+      </c>
+      <c r="N27" s="26">
+        <f>(D27-D11)/D11</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="26">
+        <f>(E11-E27)/E11</f>
+        <v>0.85185185185185186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>244</v>
@@ -2977,8 +3109,20 @@
         <f>(D28-D12)/D12</f>
         <v>0.18549346016646853</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <f>D28/D40</f>
+        <v>0.997</v>
+      </c>
+      <c r="N28" s="26">
+        <f>(D28-D12)/D12</f>
+        <v>0.18549346016646853</v>
+      </c>
+      <c r="O28" s="26">
+        <f>(E12-E28)/E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>243</v>
@@ -3011,8 +3155,20 @@
         <f>(D29-D13)/D13</f>
         <v>3.8541666666666703E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <f>D29/D40</f>
+        <v>0.997</v>
+      </c>
+      <c r="N29" s="26">
+        <f>(D29-D13)/D13</f>
+        <v>3.8541666666666703E-2</v>
+      </c>
+      <c r="O29" s="26">
+        <f>(E13-E29)/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>51</v>
@@ -3037,7 +3193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>52</v>
@@ -3062,7 +3218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>55</v>
@@ -7342,8 +7498,8 @@
         <v>0.78661891653774263</v>
       </c>
       <c r="J270">
-        <f>F270/D295</f>
-        <v>0.7792587286644016</v>
+        <f>D270/D295</f>
+        <v>0.79153534443944173</v>
       </c>
     </row>
     <row r="271" spans="3:10" x14ac:dyDescent="0.2">
@@ -7371,8 +7527,8 @@
         <v>0.78013200119110382</v>
       </c>
       <c r="J271" s="11">
-        <f>F271/D295</f>
-        <v>0.77885309647578893</v>
+        <f>D271/D295</f>
+        <v>0.78547746715238831</v>
       </c>
     </row>
     <row r="272" spans="3:10" ht="17" x14ac:dyDescent="0.2">
@@ -7400,11 +7556,11 @@
         <v>0.78609280657076452</v>
       </c>
       <c r="J272" s="11">
-        <f>F272/D295</f>
-        <v>0.78177765953092371</v>
-      </c>
-    </row>
-    <row r="273" spans="3:12" x14ac:dyDescent="0.2">
+        <f>D272/D295</f>
+        <v>0.7910032335966598</v>
+      </c>
+    </row>
+    <row r="273" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C273" t="s">
         <v>29</v>
       </c>
@@ -7422,15 +7578,15 @@
       </c>
       <c r="G273" s="3"/>
       <c r="J273">
-        <f>F273/D295</f>
-        <v>0.70930375342802177</v>
+        <f>D273/D295</f>
+        <v>0.78871106381236933</v>
       </c>
       <c r="K273">
         <f>(D270-D273)/D270</f>
         <v>3.568104250698288E-3</v>
       </c>
     </row>
-    <row r="274" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C274" t="s">
         <v>30</v>
       </c>
@@ -7456,7 +7612,7 @@
         <v>0.59964836074051098</v>
       </c>
     </row>
-    <row r="275" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C275" t="s">
         <v>31</v>
       </c>
@@ -7482,7 +7638,7 @@
         <v>4.1679594580618581E-2</v>
       </c>
     </row>
-    <row r="276" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C276" t="s">
         <v>32</v>
       </c>
@@ -7500,15 +7656,15 @@
       </c>
       <c r="G276" s="3"/>
       <c r="J276">
-        <f>F276/D295</f>
-        <v>0.67631288117555555</v>
+        <f>D276/D295</f>
+        <v>0.78437231386353401</v>
       </c>
       <c r="K276">
         <f>(D271-D276)/D271</f>
         <v>1.4069828035434731E-3</v>
       </c>
     </row>
-    <row r="277" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C277" t="s">
         <v>33</v>
       </c>
@@ -7534,7 +7690,7 @@
         <v>0.50224075039082849</v>
       </c>
     </row>
-    <row r="278" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C278" t="s">
         <v>34</v>
       </c>
@@ -7560,7 +7716,7 @@
         <v>2.8139656070870385E-2</v>
       </c>
     </row>
-    <row r="279" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C279" t="s">
         <v>59</v>
       </c>
@@ -7578,15 +7734,15 @@
       </c>
       <c r="G279" s="3"/>
       <c r="J279">
-        <f>F279/D295</f>
-        <v>0.69952110024149639</v>
+        <f>D279/D295</f>
+        <v>0.78875199541566032</v>
       </c>
       <c r="K279">
         <f>(D272-D279)/D272</f>
         <v>2.8460543337644703E-3</v>
       </c>
     </row>
-    <row r="280" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C280" t="s">
         <v>35</v>
       </c>
@@ -7612,7 +7768,7 @@
         <v>0.51679172056921074</v>
       </c>
     </row>
-    <row r="281" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C281" t="s">
         <v>36</v>
       </c>
@@ -7638,7 +7794,7 @@
         <v>5.5265200517464315E-2</v>
       </c>
     </row>
-    <row r="282" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C282" t="s">
         <v>63</v>
       </c>
@@ -7659,15 +7815,15 @@
         <v>0.85399999999999987</v>
       </c>
       <c r="J282">
-        <f>F282/D295</f>
-        <v>0.66919078220293882</v>
+        <f>D282/D295</f>
+        <v>0.68147026319020909</v>
       </c>
       <c r="K282">
         <f>(D271-D282)/D271</f>
         <v>0.13241271495570608</v>
       </c>
     </row>
-    <row r="283" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C283" t="s">
         <v>62</v>
       </c>
@@ -7696,7 +7852,7 @@
         <v>0.20896300156331424</v>
       </c>
     </row>
-    <row r="284" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C284" t="s">
         <v>68</v>
       </c>
@@ -7717,15 +7873,15 @@
         <v>0.89599999999999991</v>
       </c>
       <c r="J284">
-        <f>F284/D295</f>
-        <v>0.66919078220293882</v>
+        <f>D284/D295</f>
+        <v>0.68147026319020909</v>
       </c>
       <c r="K284">
         <f>(D272-D284)/D272</f>
         <v>0.13847347994825349</v>
       </c>
     </row>
-    <row r="285" spans="3:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:14" ht="51" x14ac:dyDescent="0.2">
       <c r="C285" s="2" t="s">
         <v>69</v>
       </c>
@@ -7754,7 +7910,7 @@
         <v>0.21448900388098313</v>
       </c>
     </row>
-    <row r="286" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C286" s="2" t="s">
         <v>42</v>
       </c>
@@ -7775,8 +7931,8 @@
         <v>16.948</v>
       </c>
       <c r="J286">
-        <f>F286/D295</f>
-        <v>0.72076460234947404</v>
+        <f>D286/D295</f>
+        <v>0.78707379968073321</v>
       </c>
       <c r="K286">
         <f>(D270-D286)/D270</f>
@@ -7786,8 +7942,16 @@
         <f>(F286-F273)/F273</f>
         <v>1.6157885625252482E-2</v>
       </c>
-    </row>
-    <row r="287" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M286" s="26">
+        <f>(D286-D273)/D273</f>
+        <v>-2.0758731641497877E-3</v>
+      </c>
+      <c r="N286" s="26">
+        <f>-(E286-E273)/E273</f>
+        <v>0.16494845360824739</v>
+      </c>
+    </row>
+    <row r="287" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C287" s="2" t="s">
         <v>35</v>
       </c>
@@ -7819,8 +7983,16 @@
         <f>(D287-D274)/D274</f>
         <v>0.74954792043399643</v>
       </c>
-    </row>
-    <row r="288" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M287" s="26">
+        <f>(D287-D274)/D274</f>
+        <v>0.74954792043399643</v>
+      </c>
+      <c r="N287" s="26">
+        <f>(E287-E274)/E274</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C288" s="2" t="s">
         <v>36</v>
       </c>
@@ -7852,8 +8024,16 @@
         <f>(D288-D275)/D275</f>
         <v>2.2231815238506317E-2</v>
       </c>
-    </row>
-    <row r="289" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M288" s="26">
+        <f>(D288-D275)/D275</f>
+        <v>2.2231815238506317E-2</v>
+      </c>
+      <c r="N288" s="26">
+        <f>(E288-E275)/E275</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C289" s="2" t="s">
         <v>43</v>
       </c>
@@ -7874,8 +8054,8 @@
         <v>9.8780000000000019</v>
       </c>
       <c r="J289">
-        <f>F289/D295</f>
-        <v>0.68363963816462692</v>
+        <f>D289/D295</f>
+        <v>0.78596864639187913</v>
       </c>
       <c r="K289">
         <f>(D271-D289)/D271</f>
@@ -7885,8 +8065,16 @@
         <f>(F289-F276)/F276</f>
         <v>1.0833383768081009E-2</v>
       </c>
-    </row>
-    <row r="290" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M289" s="26">
+        <f>(D289-D276)/D276</f>
+        <v>2.0351719459374912E-3</v>
+      </c>
+      <c r="N289" s="26">
+        <f>-(E289-E276)/E276</f>
+        <v>5.3030303030302976E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C290" s="2" t="s">
         <v>37</v>
       </c>
@@ -7918,8 +8106,16 @@
         <f>(D290-D277)/D277</f>
         <v>0.36840452261306528</v>
       </c>
-    </row>
-    <row r="291" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M290" s="26">
+        <f>(D290-D277)/D277</f>
+        <v>0.36840452261306528</v>
+      </c>
+      <c r="N290" s="26">
+        <f>(E290-E277)/E277</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C291" s="2" t="s">
         <v>38</v>
       </c>
@@ -7951,8 +8147,16 @@
         <f>(D291-D278)/D278</f>
         <v>5.8445040214479115E-3</v>
       </c>
-    </row>
-    <row r="292" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M291" s="26">
+        <f>(D291-D278)/D278</f>
+        <v>5.8445040214479115E-3</v>
+      </c>
+      <c r="N291" s="26">
+        <f>(E291-E278)/E278</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C292" s="2" t="s">
         <v>237</v>
       </c>
@@ -7973,8 +8177,8 @@
         <v>11.112</v>
       </c>
       <c r="J292">
-        <f>F292/D295</f>
-        <v>0.70598829356145854</v>
+        <f>D292/D295</f>
+        <v>0.78867013220907856</v>
       </c>
       <c r="K292">
         <f>(D272-D292)/D272</f>
@@ -7984,8 +8188,16 @@
         <f>(F292-F279)/F279</f>
         <v>9.2451726155644183E-3</v>
       </c>
-    </row>
-    <row r="293" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M292" s="26">
+        <f>(D292-D279)/D279</f>
+        <v>-1.0378827192526101E-4</v>
+      </c>
+      <c r="N292" s="26">
+        <f>-(E292-E279)/E279</f>
+        <v>7.3394495412844096E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C293" s="2" t="s">
         <v>238</v>
       </c>
@@ -8017,8 +8229,16 @@
         <f>(D293-D280)/D280</f>
         <v>0.45052473763118456</v>
       </c>
-    </row>
-    <row r="294" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M293" s="26">
+        <f>(D293-D280)/D280</f>
+        <v>0.45052473763118456</v>
+      </c>
+      <c r="N293" s="26">
+        <f>(E293-E280)/E280</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C294" s="2" t="s">
         <v>239</v>
       </c>
@@ -8050,8 +8270,16 @@
         <f>(D294-D281)/D281</f>
         <v>3.5602782494385685E-2</v>
       </c>
-    </row>
-    <row r="295" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M294" s="26">
+        <f>(D294-D281)/D281</f>
+        <v>3.5602782494385685E-2</v>
+      </c>
+      <c r="N294" s="26">
+        <f>(E294-E281)/E281</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C295" s="2" t="s">
         <v>419</v>
       </c>
@@ -8060,8 +8288,8 @@
         <v>-4.8862000000000005</v>
       </c>
     </row>
-    <row r="296" spans="3:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C297" t="s">
         <v>27</v>
       </c>
@@ -8086,7 +8314,7 @@
         <v>4.2630078698567039E-2</v>
       </c>
     </row>
-    <row r="298" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C298" t="s">
         <v>28</v>
       </c>
@@ -8111,7 +8339,7 @@
         <v>4.4899402760503679E-2</v>
       </c>
     </row>
-    <row r="299" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C299" s="2" t="s">
         <v>46</v>
       </c>
@@ -8136,7 +8364,7 @@
         <v>4.2806759580872412E-2</v>
       </c>
     </row>
-    <row r="300" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C300" t="s">
         <v>29</v>
       </c>
@@ -8154,7 +8382,7 @@
       </c>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
         <v>30</v>
       </c>
@@ -8172,7 +8400,7 @@
       </c>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C302" t="s">
         <v>31</v>
       </c>
@@ -8190,7 +8418,7 @@
       </c>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
         <v>32</v>
       </c>
@@ -8208,7 +8436,7 @@
       </c>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C304" t="s">
         <v>33</v>
       </c>
@@ -13045,8 +13273,8 @@
         <v>0.84535402561666861</v>
       </c>
       <c r="J582">
-        <f>F582/D607</f>
-        <v>0.84209274673008316</v>
+        <f>D582/D607</f>
+        <v>0.86359775777136061</v>
       </c>
     </row>
     <row r="583" spans="3:11" x14ac:dyDescent="0.2">
@@ -13078,8 +13306,8 @@
         <v>0.83128396362964874</v>
       </c>
       <c r="J583">
-        <f>F583/D607</f>
-        <v>0.84208765075590286</v>
+        <f>D583/D607</f>
+        <v>0.85366060811958544</v>
       </c>
     </row>
     <row r="584" spans="3:11" ht="17" x14ac:dyDescent="0.2">
@@ -13111,8 +13339,8 @@
         <v>0.84416642506284278</v>
       </c>
       <c r="J584">
-        <f>F584/D607</f>
-        <v>0.84527773059283162</v>
+        <f>D584/D607</f>
+        <v>0.86274842874129443</v>
       </c>
     </row>
     <row r="585" spans="3:11" x14ac:dyDescent="0.2">
@@ -13140,8 +13368,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J585">
-        <f>F585/D607</f>
-        <v>0.74562595549515887</v>
+        <f>D585/D607</f>
+        <v>0.85943604552403607</v>
       </c>
       <c r="K585">
         <f>(D582-D585)/D582</f>
@@ -13239,8 +13467,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J588">
-        <f>F588/D607</f>
-        <v>0.66205197893664003</v>
+        <f>D588/D607</f>
+        <v>0.85230168167147957</v>
       </c>
       <c r="K588">
         <f>(D583-D588)/D583</f>
@@ -13338,8 +13566,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J591">
-        <f>F591/D607</f>
-        <v>0.72269407168337008</v>
+        <f>D591/D607</f>
+        <v>0.86028537455410214</v>
       </c>
       <c r="K591">
         <f>(D584-D591)/D584</f>
@@ -13379,7 +13607,7 @@
         <v>0.18901358535144719</v>
       </c>
     </row>
-    <row r="593" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C593" t="s">
         <v>36</v>
       </c>
@@ -13412,7 +13640,7 @@
         <v>7.9740106320139535E-3</v>
       </c>
     </row>
-    <row r="594" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C594" t="s">
         <v>63</v>
       </c>
@@ -13437,15 +13665,15 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J594">
-        <f>F594/D607</f>
-        <v>0.62272804484457289</v>
+        <f>D594/D607</f>
+        <v>0.63971462544589774</v>
       </c>
       <c r="K594">
         <f>(D583-D594)/D583</f>
         <v>0.25062182867376376</v>
       </c>
     </row>
-    <row r="595" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C595" t="s">
         <v>62</v>
       </c>
@@ -13478,7 +13706,7 @@
         <v>0.25529798030046746</v>
       </c>
     </row>
-    <row r="596" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C596" t="s">
         <v>68</v>
       </c>
@@ -13503,15 +13731,15 @@
         <v>7.25</v>
       </c>
       <c r="J596">
-        <f>F596/D607</f>
-        <v>0.83013419398675048</v>
+        <f>D596/D607</f>
+        <v>0.85561406488873792</v>
       </c>
       <c r="K596">
         <f>(D584-D596)/D584</f>
         <v>8.2693443591257756E-3</v>
       </c>
     </row>
-    <row r="597" spans="3:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:14" ht="51" x14ac:dyDescent="0.2">
       <c r="C597" s="2" t="s">
         <v>69</v>
       </c>
@@ -13544,7 +13772,7 @@
         <v>2.9828706438275242E-2</v>
       </c>
     </row>
-    <row r="598" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C598" s="2" t="s">
         <v>42</v>
       </c>
@@ -13569,8 +13797,8 @@
         <v>127.8</v>
       </c>
       <c r="J598">
-        <f>F598/D607</f>
-        <v>0.78520468829624601</v>
+        <f>D598/D607</f>
+        <v>0.85824698488194318</v>
       </c>
       <c r="K598">
         <f>(D582-D598)/D582</f>
@@ -13580,8 +13808,16 @@
         <f>(F598-F585)/F585</f>
         <v>5.3081216539469282E-2</v>
       </c>
-    </row>
-    <row r="599" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M598" s="26">
+        <f>(D598-D585)/D585</f>
+        <v>-1.3835359225220555E-3</v>
+      </c>
+      <c r="N598" s="26">
+        <f>-(E598-E585)/E585</f>
+        <v>0.35820895522388063</v>
+      </c>
+    </row>
+    <row r="599" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C599" s="2" t="s">
         <v>35</v>
       </c>
@@ -13617,8 +13853,16 @@
         <f>(D599-D586)/D586</f>
         <v>0.27647135247499027</v>
       </c>
-    </row>
-    <row r="600" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M599" s="26">
+        <f>(D599-D586)/D586</f>
+        <v>0.27647135247499027</v>
+      </c>
+      <c r="N599" s="26">
+        <f>-(E599-E586)/E586</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C600" s="2" t="s">
         <v>36</v>
       </c>
@@ -13654,8 +13898,16 @@
         <f>(D600-D587)/D587</f>
         <v>2.9818109531854604E-3</v>
       </c>
-    </row>
-    <row r="601" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M600" s="26">
+        <f>(D600-D587)/D587</f>
+        <v>2.9818109531854604E-3</v>
+      </c>
+      <c r="N600" s="26">
+        <f>-(E600-E587)/E587</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C601" s="2" t="s">
         <v>43</v>
       </c>
@@ -13680,8 +13932,8 @@
         <v>280.60000000000002</v>
       </c>
       <c r="J601">
-        <f>F601/D607</f>
-        <v>0.79072532699167664</v>
+        <f>D601/D607</f>
+        <v>0.85187701715644648</v>
       </c>
       <c r="K601">
         <f>(D583-D601)/D583</f>
@@ -13691,8 +13943,16 @@
         <f>(F601-F588)/F588</f>
         <v>0.19435535599743436</v>
       </c>
-    </row>
-    <row r="602" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M601" s="26">
+        <f>(D601-D588)/D588</f>
+        <v>-4.9825610363721468E-4</v>
+      </c>
+      <c r="N601" s="26">
+        <f>-(E601-E588)/E588</f>
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="602" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C602" s="2" t="s">
         <v>37</v>
       </c>
@@ -13728,8 +13988,16 @@
         <f>(D602-D589)/D589</f>
         <v>0.25755395683453214</v>
       </c>
-    </row>
-    <row r="603" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M602" s="26">
+        <f>(D602-D589)/D589</f>
+        <v>0.25755395683453214</v>
+      </c>
+      <c r="N602" s="26">
+        <f>-(E602-E589)/E589</f>
+        <v>6.6666666666666721E-2</v>
+      </c>
+    </row>
+    <row r="603" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C603" s="2" t="s">
         <v>38</v>
       </c>
@@ -13765,8 +14033,16 @@
         <f>(D603-D590)/D590</f>
         <v>1.2792958755501157E-2</v>
       </c>
-    </row>
-    <row r="604" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M603" s="26">
+        <f>(D603-D590)/D590</f>
+        <v>1.2792958755501157E-2</v>
+      </c>
+      <c r="N603" s="26">
+        <f>-(E603-E590)/E590</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C604" s="2" t="s">
         <v>237</v>
       </c>
@@ -13791,8 +14067,8 @@
         <v>191.6</v>
       </c>
       <c r="J604">
-        <f>F604/D607</f>
-        <v>0.79701036181416673</v>
+        <f>D604/D607</f>
+        <v>0.85646339391880411</v>
       </c>
       <c r="K604">
         <f>(D584-D604)/D584</f>
@@ -13802,8 +14078,16 @@
         <f>(F604-F591)/F591</f>
         <v>0.10283229521682914</v>
       </c>
-    </row>
-    <row r="605" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M604" s="26">
+        <f>(D604-D591)/D591</f>
+        <v>-4.4426893079276822E-3</v>
+      </c>
+      <c r="N604" s="26">
+        <f>-(E604-E591)/E591</f>
+        <v>0.5679012345679012</v>
+      </c>
+    </row>
+    <row r="605" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C605" s="2" t="s">
         <v>238</v>
       </c>
@@ -13839,8 +14123,16 @@
         <f>(D605-D592)/D592</f>
         <v>0.19264384559359063</v>
       </c>
-    </row>
-    <row r="606" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M605" s="26">
+        <f>(D605-D592)/D592</f>
+        <v>0.19264384559359063</v>
+      </c>
+      <c r="N605" s="26">
+        <f>-(E605-E592)/E592</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C606" s="2" t="s">
         <v>239</v>
       </c>
@@ -13876,8 +14168,16 @@
         <f>(D606-D593)/D593</f>
         <v>1.8854817902151338E-3</v>
       </c>
-    </row>
-    <row r="607" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M606" s="26">
+        <f>(D606-D593)/D593</f>
+        <v>1.8854817902151338E-3</v>
+      </c>
+      <c r="N606" s="26">
+        <f>-(E606-E593)/E593</f>
+        <v>0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="607" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C607" s="2" t="s">
         <v>419</v>
       </c>
@@ -13886,7 +14186,7 @@
         <v>-2.3548</v>
       </c>
     </row>
-    <row r="608" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="3:14" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="609" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C609" t="s">
         <v>27</v>
@@ -15027,10 +15327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" zoomScale="119" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15041,7 +15341,7 @@
     <col min="8" max="8" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -15061,7 +15361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>264</v>
       </c>
@@ -15085,11 +15385,11 @@
         <v>0.75</v>
       </c>
       <c r="J2" s="1">
-        <f>1-F2</f>
-        <v>0.97902099884100002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D2</f>
+        <v>0.99999999884099999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>113</v>
@@ -15114,11 +15414,11 @@
         <v>87</v>
       </c>
       <c r="J3" s="1">
-        <f>1-F3</f>
-        <v>0.98862320000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <f>1-D3</f>
+        <v>0.99967919999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>114</v>
@@ -15143,11 +15443,11 @@
         <v>47</v>
       </c>
       <c r="J4" s="1">
-        <f>1-F4</f>
-        <v>0.98454059999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D4</f>
+        <v>0.99973460000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>115</v>
@@ -15172,15 +15472,15 @@
         <v>8</v>
       </c>
       <c r="J5" s="1">
-        <f>1-F5</f>
-        <v>0.88339909999999999</v>
+        <f>1-D5</f>
+        <v>0.99939909999999998</v>
       </c>
       <c r="K5" s="8">
         <f>(D5-D2)/D5</f>
         <v>0.99999807122649353</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>116</v>
@@ -15213,7 +15513,7 @@
         <v>0.99999999266455697</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>117</v>
@@ -15246,7 +15546,7 @@
         <v>0.99999989463636363</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>118</v>
@@ -15271,15 +15571,15 @@
         <v>18</v>
       </c>
       <c r="J8" s="1">
-        <f>1-F8</f>
-        <v>0.91300000000000003</v>
+        <f>1-D8</f>
+        <v>0.999</v>
       </c>
       <c r="K8" s="8">
         <f>(D8-D3)/D8</f>
         <v>0.67920000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>119</v>
@@ -15310,7 +15610,7 @@
         <v>0.99618095238095239</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>120</v>
@@ -15341,7 +15641,7 @@
         <v>0.94653333333333345</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>121</v>
@@ -15349,15 +15649,15 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11">
-        <v>1E-3</v>
+      <c r="D11" s="8">
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="E11">
         <v>116</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.11700000000000001</v>
+        <v>0.11778000000000001</v>
       </c>
       <c r="G11">
         <v>0.01</v>
@@ -15366,15 +15666,15 @@
         <v>112</v>
       </c>
       <c r="J11" s="1">
-        <f>1-F11</f>
-        <v>0.88300000000000001</v>
+        <f>1-D11</f>
+        <v>0.99822</v>
       </c>
       <c r="K11" s="8">
         <f>(D11-D4)/D11</f>
-        <v>0.73459999999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.85089887640449435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>122</v>
@@ -15405,7 +15705,7 @@
         <v>0.99917832817337449</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" t="s">
         <v>123</v>
@@ -15436,7 +15736,7 @@
         <v>0.98603157894736848</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" t="s">
         <v>178</v>
@@ -15461,8 +15761,8 @@
         <v>19</v>
       </c>
       <c r="J14" s="1">
-        <f>1-F14</f>
-        <v>0.96899999999999997</v>
+        <f>1-D14</f>
+        <v>0.999</v>
       </c>
       <c r="K14" s="8">
         <f>(D14-D2)/D14</f>
@@ -15472,8 +15772,16 @@
         <f>(F5-F14)/F5</f>
         <v>0.7341358428622764</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M14" s="26">
+        <f>(D5-D14)/D5</f>
+        <v>-0.66417041105009145</v>
+      </c>
+      <c r="N14" s="26">
+        <f>(E5-E14)/E5</f>
+        <v>0.74137931034482762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="2" t="s">
         <v>125</v>
@@ -15509,8 +15817,16 @@
         <f>(D6-D15)/D6</f>
         <v>0.97468354430379744</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M15" s="26">
+        <f t="shared" ref="M15:M22" si="1">(D6-D15)/D6</f>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="N15" s="26">
+        <f t="shared" ref="N15:N22" si="2">(E6-E15)/E6</f>
+        <v>-4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>124</v>
@@ -15546,8 +15862,16 @@
         <f>(D7-D16)/D7</f>
         <v>0.90909090909090895</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M16" s="26">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="N16" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>128</v>
@@ -15569,8 +15893,8 @@
         <v>56.9</v>
       </c>
       <c r="J17" s="1">
-        <f>1-F17</f>
-        <v>0.97899999999999998</v>
+        <f>1-D17</f>
+        <v>0.999</v>
       </c>
       <c r="K17" s="8">
         <f>(D17-D3)/D17</f>
@@ -15580,8 +15904,16 @@
         <f>(F8-F17)/F8</f>
         <v>0.75862068965517238</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M17" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
+        <f t="shared" si="2"/>
+        <v>0.76744186046511631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>127</v>
@@ -15614,8 +15946,16 @@
         <f>(D9-D18)/D9</f>
         <v>0.92857142857142849</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M18" s="26">
+        <f t="shared" si="1"/>
+        <v>0.92857142857142849</v>
+      </c>
+      <c r="N18" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
@@ -15648,8 +15988,16 @@
         <f>(D10-D19)/D10</f>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="26">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N19" s="26">
+        <f t="shared" si="2"/>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>255</v>
@@ -15657,33 +16005,41 @@
       <c r="C20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D20">
-        <v>2E-3</v>
+      <c r="D20" s="8">
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="E20">
         <v>34</v>
       </c>
       <c r="F20" s="1">
         <f>D20+E20*0.001</f>
-        <v>3.6000000000000004E-2</v>
+        <v>3.6459999999999999E-2</v>
       </c>
       <c r="G20">
         <v>56.97</v>
       </c>
       <c r="J20" s="1">
-        <f>1-F20</f>
-        <v>0.96399999999999997</v>
+        <f>1-D20</f>
+        <v>0.99753999999999998</v>
       </c>
       <c r="K20" s="8">
         <f>(D20-D4)/D20</f>
-        <v>0.86729999999999996</v>
+        <v>0.89211382113821147</v>
       </c>
       <c r="L20" s="26">
         <f>(F11-F20)/F11</f>
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.69043980302258445</v>
+      </c>
+      <c r="M20" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.3820224719101124</v>
+      </c>
+      <c r="N20" s="26">
+        <f t="shared" si="2"/>
+        <v>0.7068965517241379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
         <v>256</v>
@@ -15716,8 +16072,16 @@
         <f>(D12-D21)/D12</f>
         <v>0.97213622291021673</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="26">
+        <f t="shared" si="1"/>
+        <v>0.97213622291021673</v>
+      </c>
+      <c r="N21" s="26">
+        <f t="shared" si="2"/>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="2" t="s">
         <v>257</v>
@@ -15750,9 +16114,17 @@
         <f>(D13-D22)/D13</f>
         <v>0.94736842105263153</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="26">
+        <f t="shared" si="1"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="N22" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>265</v>
       </c>
@@ -15776,11 +16148,11 @@
         <v>1.02</v>
       </c>
       <c r="J25" s="1">
-        <f>1-F25</f>
-        <v>0.99738379940730004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D25</f>
+        <v>0.9999999994073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" t="s">
         <v>173</v>
@@ -15805,11 +16177,11 @@
         <v>171</v>
       </c>
       <c r="J26" s="1">
-        <f>1-F26</f>
-        <v>0.99848929289999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <f>1-D26</f>
+        <v>0.99999919289999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
         <v>174</v>
@@ -15824,18 +16196,18 @@
         <v>23.481000000000002</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27:F45" si="1">D27+E27*0.0001</f>
+        <f t="shared" ref="F27:F45" si="3">D27+E27*0.0001</f>
         <v>2.352163E-3</v>
       </c>
       <c r="G27">
         <v>432.73</v>
       </c>
       <c r="J27" s="1">
-        <f>1-F27</f>
-        <v>0.99764783700000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D27</f>
+        <v>0.999995937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" t="s">
         <v>175</v>
@@ -15850,18 +16222,18 @@
         <v>491</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0100000000000006E-2</v>
       </c>
       <c r="G28">
         <v>0.06</v>
       </c>
       <c r="J28" s="1">
-        <f>1-F28</f>
-        <v>0.94989999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D28</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" t="s">
         <v>176</v>
@@ -15876,7 +16248,7 @@
         <v>53</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.7873</v>
       </c>
       <c r="G29">
@@ -15887,7 +16259,7 @@
         <v>0.21799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" t="s">
         <v>177</v>
@@ -15902,7 +16274,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65790000000000004</v>
       </c>
       <c r="G30">
@@ -15913,7 +16285,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" t="s">
         <v>180</v>
@@ -15928,18 +16300,18 @@
         <v>467</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.7700000000000006E-2</v>
       </c>
       <c r="G31">
         <v>0.06</v>
       </c>
       <c r="J31" s="1">
-        <f>1-F31</f>
-        <v>0.95230000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D31</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" t="s">
         <v>181</v>
@@ -15954,7 +16326,7 @@
         <v>47</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52170000000000005</v>
       </c>
       <c r="G32">
@@ -15965,7 +16337,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" t="s">
         <v>182</v>
@@ -15980,7 +16352,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.62290000000000001</v>
       </c>
       <c r="G33">
@@ -15991,7 +16363,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
         <v>183</v>
@@ -16006,18 +16378,18 @@
         <v>480</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="G34">
         <v>0.06</v>
       </c>
       <c r="J34" s="1">
-        <f>1-F34</f>
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D34</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" t="s">
         <v>184</v>
@@ -16032,7 +16404,7 @@
         <v>51</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31909999999999999</v>
       </c>
       <c r="G35">
@@ -16043,7 +16415,7 @@
         <v>0.68599999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" t="s">
         <v>185</v>
@@ -16058,7 +16430,7 @@
         <v>39</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70089999999999997</v>
       </c>
       <c r="G36">
@@ -16069,7 +16441,7 @@
         <v>0.30300000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" t="s">
         <v>179</v>
@@ -16084,22 +16456,30 @@
         <v>479</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8355600000000006E-2</v>
       </c>
       <c r="G37">
         <v>27.82</v>
       </c>
       <c r="J37" s="1">
-        <f>1-F37</f>
-        <v>0.95164439999999995</v>
+        <f>1-D37</f>
+        <v>0.9995444</v>
       </c>
       <c r="L37" s="26">
         <f>(F28-F37)/F28</f>
         <v>3.4818363273453092E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M37" s="26">
+        <f>(D28-D37)/D28</f>
+        <v>0.5444</v>
+      </c>
+      <c r="N37" s="26">
+        <f>(E28-E37)/E28</f>
+        <v>2.4439918533604887E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="2" t="s">
         <v>186</v>
@@ -16114,7 +16494,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8000000000000004E-3</v>
       </c>
       <c r="G38">
@@ -16128,8 +16508,16 @@
         <f>(D29-D38)/D29</f>
         <v>0.99872122762148341</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M38" s="26">
+        <f t="shared" ref="M38:M45" si="4">(D29-D38)/D29</f>
+        <v>0.99872122762148341</v>
+      </c>
+      <c r="N38" s="26">
+        <f t="shared" ref="N38:N45" si="5">(E29-E38)/E29</f>
+        <v>0.28301886792452829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>187</v>
@@ -16144,7 +16532,7 @@
         <v>40</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.9468999999999997E-3</v>
       </c>
       <c r="G39">
@@ -16158,8 +16546,16 @@
         <f>(D30-D39)/D30</f>
         <v>0.99855214067278286</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M39" s="26">
+        <f t="shared" si="4"/>
+        <v>0.99855214067278286</v>
+      </c>
+      <c r="N39" s="26">
+        <f t="shared" si="5"/>
+        <v>-2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="2" t="s">
         <v>188</v>
@@ -16174,22 +16570,30 @@
         <v>441</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4607300000000003E-2</v>
       </c>
       <c r="G40">
         <v>33.770000000000003</v>
       </c>
       <c r="J40" s="1">
-        <f>1-F40</f>
-        <v>0.95539269999999998</v>
+        <f>1-D40</f>
+        <v>0.99949270000000001</v>
       </c>
       <c r="L40" s="26">
         <f>(F31-F40)/F31</f>
         <v>6.4836477987421454E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M40" s="26">
+        <f t="shared" si="4"/>
+        <v>0.49269999999999997</v>
+      </c>
+      <c r="N40" s="26">
+        <f t="shared" si="5"/>
+        <v>5.5674518201284794E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>189</v>
@@ -16204,7 +16608,7 @@
         <v>48</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8000000000000005E-3</v>
       </c>
       <c r="G41">
@@ -16218,8 +16622,16 @@
         <f>(D32-D41)/D32</f>
         <v>0.99806576402321079</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M41" s="26">
+        <f t="shared" si="4"/>
+        <v>0.99806576402321079</v>
+      </c>
+      <c r="N41" s="26">
+        <f t="shared" si="5"/>
+        <v>-2.1276595744680851E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="B42" s="2" t="s">
         <v>190</v>
@@ -16234,7 +16646,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.7448999999999998E-3</v>
       </c>
       <c r="G42">
@@ -16248,8 +16660,16 @@
         <f>(D33-D42)/D33</f>
         <v>0.9987966074313408</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M42" s="26">
+        <f t="shared" si="4"/>
+        <v>0.9987966074313408</v>
+      </c>
+      <c r="N42" s="26">
+        <f t="shared" si="5"/>
+        <v>-2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="B43" s="2" t="s">
         <v>258</v>
@@ -16264,22 +16684,30 @@
         <v>471</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.7713200000000004E-2</v>
       </c>
       <c r="G43">
         <v>26.22</v>
       </c>
       <c r="J43" s="1">
-        <f>1-F43</f>
-        <v>0.95228679999999999</v>
+        <f>1-D43</f>
+        <v>0.99938680000000002</v>
       </c>
       <c r="L43" s="26">
         <f>(F34-F43)/F34</f>
         <v>2.626122448979587E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M43" s="26">
+        <f t="shared" si="4"/>
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="N43" s="26">
+        <f t="shared" si="5"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="2" t="s">
         <v>259</v>
@@ -16294,7 +16722,7 @@
         <v>49</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.7222999999999996E-3</v>
       </c>
       <c r="G44">
@@ -16308,8 +16736,16 @@
         <f>(D35-D44)/D35</f>
         <v>0.99738121019108283</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M44" s="26">
+        <f t="shared" si="4"/>
+        <v>0.99738121019108283</v>
+      </c>
+      <c r="N44" s="26">
+        <f t="shared" si="5"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="2" t="s">
         <v>260</v>
@@ -16324,7 +16760,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G45">
@@ -16338,9 +16774,17 @@
         <f>(D36-D45)/D36</f>
         <v>0.99569583931133432</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="26">
+        <f t="shared" si="4"/>
+        <v>0.99569583931133432</v>
+      </c>
+      <c r="N45" s="26">
+        <f t="shared" si="5"/>
+        <v>-2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>266</v>
       </c>
@@ -16364,11 +16808,11 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J48" s="1">
-        <f>1-F48</f>
-        <v>0.67100000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D48</f>
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
       <c r="B49" t="s">
         <v>200</v>
@@ -16383,7 +16827,7 @@
         <v>6.0940000000000003</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ref="F49:F68" si="2">D49+E49*0.01</f>
+        <f t="shared" ref="F49:F68" si="6">D49+E49*0.01</f>
         <v>0.25194</v>
       </c>
       <c r="G49">
@@ -16393,11 +16837,11 @@
         <v>170</v>
       </c>
       <c r="J49" s="1">
-        <f>1-F49</f>
-        <v>0.74805999999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <f>1-D49</f>
+        <v>0.80899999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
       <c r="B50" s="2" t="s">
         <v>201</v>
@@ -16412,18 +16856,18 @@
         <v>9.4190000000000005</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.21819</v>
       </c>
       <c r="G50">
         <v>79.55</v>
       </c>
       <c r="J50" s="1">
-        <f>1-F50</f>
-        <v>0.78181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D50</f>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
       <c r="B51" t="s">
         <v>192</v>
@@ -16438,18 +16882,18 @@
         <v>16</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
       </c>
       <c r="J51" s="1">
-        <f>1-F51</f>
-        <v>0.66999999999999993</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D51</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>193</v>
@@ -16464,7 +16908,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.34299999999999997</v>
       </c>
       <c r="G52">
@@ -16475,7 +16919,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>194</v>
@@ -16490,7 +16934,7 @@
         <v>16</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33</v>
       </c>
       <c r="G53">
@@ -16501,7 +16945,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
       <c r="B54" t="s">
         <v>202</v>
@@ -16516,18 +16960,18 @@
         <v>41</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
       <c r="J54" s="1">
-        <f>1-F54</f>
-        <v>0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D54</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
       <c r="B55" t="s">
         <v>203</v>
@@ -16542,7 +16986,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="G55">
@@ -16553,7 +16997,7 @@
         <v>0.71500000000000008</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
       <c r="B56" t="s">
         <v>204</v>
@@ -16568,7 +17012,7 @@
         <v>32</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51100000000000001</v>
       </c>
       <c r="G56">
@@ -16579,7 +17023,7 @@
         <v>0.80899999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
       <c r="B57" s="2" t="s">
         <v>205</v>
@@ -16594,18 +17038,18 @@
         <v>24</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57200000000000006</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
       <c r="J57" s="1">
-        <f>1-F57</f>
-        <v>0.42799999999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D57</f>
+        <v>0.66799999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
       <c r="B58" t="s">
         <v>206</v>
@@ -16620,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="G58">
@@ -16631,7 +17075,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
       <c r="B59" t="s">
         <v>207</v>
@@ -16646,7 +17090,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.74299999999999999</v>
       </c>
       <c r="G59">
@@ -16657,7 +17101,7 @@
         <v>0.40700000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
       <c r="B60" t="s">
         <v>208</v>
@@ -16672,22 +17116,30 @@
         <v>9</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="G60">
         <v>12.69</v>
       </c>
       <c r="J60" s="1">
-        <f>1-F60</f>
-        <v>0.73399999999999999</v>
+        <f>1-D60</f>
+        <v>0.82400000000000007</v>
       </c>
       <c r="L60" s="26">
         <f>(F51-F60)/F51</f>
         <v>0.19393939393939394</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M60" s="26">
+        <f>(D51-D60)/D51</f>
+        <v>-3.5294117647058691E-2</v>
+      </c>
+      <c r="N60" s="26">
+        <f>(E51-E60)/E51</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
       <c r="B61" s="2" t="s">
         <v>195</v>
@@ -16702,7 +17154,7 @@
         <v>9</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28500000000000003</v>
       </c>
       <c r="G61">
@@ -16716,8 +17168,16 @@
         <f>(D52-D61)/D52</f>
         <v>0.19753086419753083</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M61" s="26">
+        <f t="shared" ref="M61:M68" si="7">(D52-D61)/D52</f>
+        <v>0.19753086419753083</v>
+      </c>
+      <c r="N61" s="26">
+        <f t="shared" ref="N61:N68" si="8">(E52-E61)/E52</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
       <c r="B62" s="2" t="s">
         <v>196</v>
@@ -16732,7 +17192,7 @@
         <v>16</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33</v>
       </c>
       <c r="G62">
@@ -16746,8 +17206,16 @@
         <f>(D53-D62)/D53</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M62" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="2" t="s">
         <v>198</v>
@@ -16762,22 +17230,30 @@
         <v>9</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="G63">
         <v>30.09</v>
       </c>
       <c r="J63" s="1">
-        <f>1-F63</f>
-        <v>0.73399999999999999</v>
+        <f>1-D63</f>
+        <v>0.82400000000000007</v>
       </c>
       <c r="L63" s="26">
         <f>(F54-F63)/F54</f>
         <v>0.55666666666666675</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M63" s="26">
+        <f t="shared" si="7"/>
+        <v>7.3684210526315852E-2</v>
+      </c>
+      <c r="N63" s="26">
+        <f t="shared" si="8"/>
+        <v>0.78048780487804881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
       <c r="B64" s="2" t="s">
         <v>197</v>
@@ -16792,7 +17268,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28500000000000003</v>
       </c>
       <c r="G64">
@@ -16806,8 +17282,16 @@
         <f>(D55-D64)/D55</f>
         <v>0.31578947368421045</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M64" s="26">
+        <f t="shared" si="7"/>
+        <v>0.31578947368421045</v>
+      </c>
+      <c r="N64" s="26">
+        <f t="shared" si="8"/>
+        <v>-0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
       <c r="B65" s="2" t="s">
         <v>199</v>
@@ -16822,7 +17306,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33199999999999996</v>
       </c>
       <c r="G65">
@@ -16836,8 +17320,16 @@
         <f>(D56-D65)/D56</f>
         <v>9.9476439790576007E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M65" s="26">
+        <f t="shared" si="7"/>
+        <v>9.9476439790576007E-2</v>
+      </c>
+      <c r="N65" s="26">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="22"/>
       <c r="B66" s="2" t="s">
         <v>252</v>
@@ -16852,22 +17344,30 @@
         <v>7</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27600000000000002</v>
       </c>
       <c r="G66">
         <v>16.96</v>
       </c>
       <c r="J66" s="1">
-        <f>1-F66</f>
-        <v>0.72399999999999998</v>
+        <f>1-D66</f>
+        <v>0.79400000000000004</v>
       </c>
       <c r="L66" s="26">
         <f>(F57-F66)/F57</f>
         <v>0.5174825174825175</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M66" s="26">
+        <f t="shared" si="7"/>
+        <v>0.37951807228915668</v>
+      </c>
+      <c r="N66" s="26">
+        <f t="shared" si="8"/>
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
       <c r="B67" s="2" t="s">
         <v>253</v>
@@ -16882,7 +17382,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.29600000000000004</v>
       </c>
       <c r="G67">
@@ -16896,8 +17396,16 @@
         <f>(D58-D67)/D58</f>
         <v>0.62666666666666671</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M67" s="26">
+        <f t="shared" si="7"/>
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="N67" s="26">
+        <f t="shared" si="8"/>
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
       <c r="B68" s="2" t="s">
         <v>254</v>
@@ -16912,7 +17420,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.373</v>
       </c>
       <c r="G68">
@@ -16926,9 +17434,17 @@
         <f>(D59-D68)/D59</f>
         <v>0.70826306913996628</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="26">
+        <f t="shared" si="7"/>
+        <v>0.70826306913996628</v>
+      </c>
+      <c r="N68" s="26">
+        <f t="shared" si="8"/>
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>267</v>
       </c>
@@ -16952,11 +17468,11 @@
         <v>1.26</v>
       </c>
       <c r="J71" s="1">
-        <f>1-F71</f>
-        <v>0.99701539989959997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D71</f>
+        <v>0.99999999989959998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
       <c r="B72" t="s">
         <v>215</v>
@@ -16971,7 +17487,7 @@
         <v>16.795000000000002</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" ref="F72:F91" si="3">D72+E72*0.0001</f>
+        <f t="shared" ref="F72:F91" si="9">D72+E72*0.0001</f>
         <v>1.6831530000000002E-3</v>
       </c>
       <c r="G72">
@@ -16981,11 +17497,11 @@
         <v>171</v>
       </c>
       <c r="J72" s="1">
-        <f>1-F72</f>
-        <v>0.99831684700000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <f>1-D72</f>
+        <v>0.99999634699999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="2" t="s">
         <v>216</v>
@@ -17000,18 +17516,18 @@
         <v>24.347999999999999</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.4432270000000001E-3</v>
       </c>
       <c r="G73">
         <v>348.96</v>
       </c>
       <c r="J73" s="1">
-        <f>1-F73</f>
-        <v>0.99755677300000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D73</f>
+        <v>0.99999157299999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" t="s">
         <v>212</v>
@@ -17026,18 +17542,18 @@
         <v>266</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7600000000000003E-2</v>
       </c>
       <c r="G74">
         <v>0.03</v>
       </c>
       <c r="J74" s="1">
-        <f>1-F74</f>
-        <v>0.97240000000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D74</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
       <c r="B75" t="s">
         <v>213</v>
@@ -17052,7 +17568,7 @@
         <v>37</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.54270000000000007</v>
       </c>
       <c r="G75">
@@ -17063,7 +17579,7 @@
         <v>0.46099999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
       <c r="B76" t="s">
         <v>214</v>
@@ -17078,7 +17594,7 @@
         <v>38</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.32880000000000004</v>
       </c>
       <c r="G76">
@@ -17089,7 +17605,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
       <c r="B77" t="s">
         <v>217</v>
@@ -17104,18 +17620,18 @@
         <v>279</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.09E-2</v>
       </c>
       <c r="G77">
         <v>0.03</v>
       </c>
       <c r="J77" s="1">
-        <f>1-F77</f>
-        <v>0.96909999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D77</f>
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
       <c r="B78" t="s">
         <v>218</v>
@@ -17130,7 +17646,7 @@
         <v>27</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1787</v>
       </c>
       <c r="G78">
@@ -17141,7 +17657,7 @@
         <v>0.82400000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
       <c r="B79" t="s">
         <v>219</v>
@@ -17156,7 +17672,7 @@
         <v>39</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.21789999999999998</v>
       </c>
       <c r="G79">
@@ -17167,7 +17683,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
       <c r="B80" s="2" t="s">
         <v>220</v>
@@ -17182,18 +17698,18 @@
         <v>276</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="G80">
         <v>0.04</v>
       </c>
       <c r="J80" s="1">
-        <f>1-F80</f>
-        <v>0.97040000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1-D80</f>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
       <c r="B81" t="s">
         <v>221</v>
@@ -17208,7 +17724,7 @@
         <v>36</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.29359999999999997</v>
       </c>
       <c r="G81">
@@ -17219,7 +17735,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
       <c r="B82" t="s">
         <v>222</v>
@@ -17234,7 +17750,7 @@
         <v>40</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.28799999999999998</v>
       </c>
       <c r="G82">
@@ -17245,7 +17761,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
       <c r="B83" t="s">
         <v>223</v>
@@ -17260,22 +17776,30 @@
         <v>262</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.6759000000000002E-2</v>
       </c>
       <c r="G83">
         <v>9.1199999999999992</v>
       </c>
       <c r="J83" s="1">
-        <f>1-F83</f>
-        <v>0.97324100000000002</v>
+        <f>1-D83</f>
+        <v>0.99944100000000002</v>
       </c>
       <c r="L83" s="26">
         <f>(F74-F83)/F74</f>
         <v>3.0471014492753672E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M83" s="26">
+        <f>(D74-D83)/D74</f>
+        <v>0.441</v>
+      </c>
+      <c r="N83" s="26">
+        <f>(E74-E83)/E74</f>
+        <v>1.5037593984962405E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
       <c r="B84" s="2" t="s">
         <v>209</v>
@@ -17290,7 +17814,7 @@
         <v>33</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="G84">
@@ -17304,8 +17828,16 @@
         <f>(D75-D84)/D75</f>
         <v>0.98886827458256032</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M84" s="26">
+        <f t="shared" ref="M84:M91" si="10">(D75-D84)/D75</f>
+        <v>0.98886827458256032</v>
+      </c>
+      <c r="N84" s="26">
+        <f t="shared" ref="N84:N91" si="11">(E75-E84)/E75</f>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
       <c r="B85" s="2" t="s">
         <v>210</v>
@@ -17320,7 +17852,7 @@
         <v>39</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="G85">
@@ -17334,8 +17866,16 @@
         <f>(D76-D85)/D76</f>
         <v>0.99692307692307691</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M85" s="26">
+        <f t="shared" si="10"/>
+        <v>0.99692307692307691</v>
+      </c>
+      <c r="N85" s="26">
+        <f t="shared" si="11"/>
+        <v>-2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
       <c r="B86" s="2" t="s">
         <v>225</v>
@@ -17350,22 +17890,30 @@
         <v>263</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7150799999999999E-2</v>
       </c>
       <c r="G86">
         <v>25.57</v>
       </c>
       <c r="J86" s="1">
-        <f>1-F86</f>
-        <v>0.97284919999999997</v>
+        <f>1-D86</f>
+        <v>0.99914919999999996</v>
       </c>
       <c r="L86" s="26">
         <f>(F77-F86)/F77</f>
         <v>0.12133333333333336</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M86" s="26">
+        <f t="shared" si="10"/>
+        <v>0.71639999999999993</v>
+      </c>
+      <c r="N86" s="26">
+        <f t="shared" si="11"/>
+        <v>5.7347670250896057E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
       <c r="B87" s="2" t="s">
         <v>224</v>
@@ -17380,7 +17928,7 @@
         <v>30</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G87">
@@ -17394,8 +17942,16 @@
         <f>(D78-D87)/D78</f>
         <v>0.99431818181818177</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M87" s="26">
+        <f t="shared" si="10"/>
+        <v>0.99431818181818177</v>
+      </c>
+      <c r="N87" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
       <c r="B88" s="2" t="s">
         <v>226</v>
@@ -17410,7 +17966,7 @@
         <v>40</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G88">
@@ -17424,8 +17980,16 @@
         <f>(D79-D88)/D79</f>
         <v>0.99065420560747663</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M88" s="26">
+        <f t="shared" si="10"/>
+        <v>0.99065420560747663</v>
+      </c>
+      <c r="N88" s="26">
+        <f t="shared" si="11"/>
+        <v>-2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="22"/>
       <c r="B89" s="2" t="s">
         <v>261</v>
@@ -17433,29 +17997,37 @@
       <c r="C89" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="9">
-        <v>4.0000000000000001E-3</v>
+      <c r="D89" s="8">
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="E89">
         <v>256</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9600000000000001E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.6067E-2</v>
       </c>
       <c r="G89">
         <v>30.48</v>
       </c>
       <c r="J89" s="1">
-        <f>1-F89</f>
-        <v>0.97040000000000004</v>
+        <f>1-D89</f>
+        <v>0.999533</v>
       </c>
       <c r="L89" s="26">
         <f>(F80-F89)/F80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>0.11935810810810815</v>
+      </c>
+      <c r="M89" s="26">
+        <f t="shared" si="10"/>
+        <v>0.76650000000000007</v>
+      </c>
+      <c r="N89" s="26">
+        <f t="shared" si="11"/>
+        <v>7.2463768115942032E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
       <c r="B90" s="2" t="s">
         <v>262</v>
@@ -17470,22 +18042,30 @@
         <v>34</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="G90">
         <v>169.47</v>
       </c>
-      <c r="J90">
-        <f>1-D90</f>
-        <v>0.99399999999999999</v>
+      <c r="J90" s="8">
+        <f>1-D89</f>
+        <v>0.999533</v>
       </c>
       <c r="L90" s="26">
         <f>(D81-D90)/D81</f>
         <v>0.97931034482758617</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M90" s="26">
+        <f t="shared" si="10"/>
+        <v>0.97931034482758617</v>
+      </c>
+      <c r="N90" s="26">
+        <f t="shared" si="11"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="22"/>
       <c r="B91" s="2" t="s">
         <v>263</v>
@@ -17500,7 +18080,7 @@
         <v>39</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="G91">
@@ -17513,6 +18093,14 @@
       <c r="L91" s="26">
         <f>(D82-D91)/D82</f>
         <v>0.98943661971830987</v>
+      </c>
+      <c r="M91" s="26">
+        <f t="shared" si="10"/>
+        <v>0.98943661971830987</v>
+      </c>
+      <c r="N91" s="26">
+        <f t="shared" si="11"/>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -19217,10 +19805,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
-  <dimension ref="B1:L157"/>
+  <dimension ref="B1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView tabSelected="1" topLeftCell="B126" workbookViewId="0">
+      <selection activeCell="J126" sqref="J126:J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19280,8 +19868,8 @@
         <v>282</v>
       </c>
       <c r="J2" s="1">
-        <f>1-G2</f>
-        <v>-166.50651643679998</v>
+        <f>1-D2</f>
+        <v>0.99999956320000005</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -19311,8 +19899,8 @@
         <v>269</v>
       </c>
       <c r="J3" s="1">
-        <f>1-G3</f>
-        <v>0.98127919640000005</v>
+        <f>1-D3</f>
+        <v>0.99999975169999999</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -19342,8 +19930,8 @@
         <v>281</v>
       </c>
       <c r="J4" s="1">
-        <f>1-G4</f>
-        <v>0.99724243369999999</v>
+        <f>1-D4</f>
+        <v>0.99998673999999999</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -19370,8 +19958,8 @@
         <v>154.05000000000001</v>
       </c>
       <c r="J5" s="1">
-        <f>1-G5</f>
-        <v>0.98445530000000003</v>
+        <f>1-D5</f>
+        <v>0.99987630000000005</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -19401,8 +19989,8 @@
         <v>378</v>
       </c>
       <c r="J6" s="1">
-        <f>1-G6</f>
-        <v>-6.2000000000000055E-2</v>
+        <f>1-D6</f>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -19485,8 +20073,8 @@
         <v>0.94</v>
       </c>
       <c r="J9" s="1">
-        <f>1-G9</f>
-        <v>0.94100000000000006</v>
+        <f>1-D9</f>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -19569,8 +20157,8 @@
         <v>1.05</v>
       </c>
       <c r="J12" s="1">
-        <f>1-G12</f>
-        <v>0.91800000000000004</v>
+        <f>1-D12</f>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="34" x14ac:dyDescent="0.2">
@@ -19653,8 +20241,8 @@
         <v>0.91</v>
       </c>
       <c r="J15" s="1">
-        <f>1-G15</f>
-        <v>0.93700000000000006</v>
+        <f>1-D15</f>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -19685,7 +20273,7 @@
         <v>0.40900000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>300</v>
       </c>
@@ -19713,7 +20301,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>301</v>
       </c>
@@ -19737,15 +20325,23 @@
         <v>4.95</v>
       </c>
       <c r="J18" s="1">
-        <f>1-G18</f>
-        <v>0.97699999999999998</v>
+        <f>1-D18</f>
+        <v>0.99299999999999999</v>
       </c>
       <c r="L18" s="26">
         <f>(G6-G18)/G6</f>
         <v>0.97834274952919031</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="26">
+        <f>(D6-D18)/D6</f>
+        <v>0.99263157894736842</v>
+      </c>
+      <c r="N18" s="26">
+        <f>(E6-E18)/E6</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>302</v>
       </c>
@@ -19776,8 +20372,16 @@
         <f>(D7-D19)/D7</f>
         <v>0.98871650211565587</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="M19" s="26">
+        <f>(D7-D19)/D7</f>
+        <v>0.98871650211565587</v>
+      </c>
+      <c r="N19" s="26">
+        <f t="shared" ref="N19:N29" si="1">(E7-E19)/E7</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>290</v>
       </c>
@@ -19808,8 +20412,16 @@
         <f>(D8-D20)/D8</f>
         <v>0.99610389610389605</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M20" s="26">
+        <f>(D8-D20)/D8</f>
+        <v>0.99610389610389605</v>
+      </c>
+      <c r="N20" s="26">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>314</v>
       </c>
@@ -19833,15 +20445,23 @@
         <v>3.21</v>
       </c>
       <c r="J21" s="1">
-        <f>1-G21</f>
-        <v>0.97299999999999998</v>
+        <f>1-D21</f>
+        <v>0.997</v>
       </c>
       <c r="L21" s="26">
         <f>(G9-G21)/G9</f>
         <v>0.5423728813559322</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="26">
+        <f>(D9-D21)/D9</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="N21" s="26">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>291</v>
       </c>
@@ -19872,8 +20492,16 @@
         <f>(D10-D22)/D10</f>
         <v>0.59166666666666667</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="26">
+        <f>(D10-D22)/D10</f>
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="N22" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>303</v>
       </c>
@@ -19904,8 +20532,16 @@
         <f>(D11-D23)/D11</f>
         <v>0.46153846153846151</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="26">
+        <f>(D11-D23)/D11</f>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="N23" s="26">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>304</v>
       </c>
@@ -19929,15 +20565,23 @@
         <v>4.7</v>
       </c>
       <c r="J24" s="1">
-        <f>1-G24</f>
-        <v>0.91800000000000004</v>
+        <f>1-D24</f>
+        <v>0.99399999999999999</v>
       </c>
       <c r="L24" s="26">
         <f>(G12-G24)/G12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="26">
+        <f>(D12-D24)/D12</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>305</v>
       </c>
@@ -19968,8 +20612,16 @@
         <f>(D13-D25)/D13</f>
         <v>0.14285714285714288</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="26">
+        <f>(D13-D25)/D13</f>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="N25" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>306</v>
       </c>
@@ -20000,8 +20652,16 @@
         <f>(D14-D26)/D14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="26">
+        <f>(D14-D26)/D14</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>308</v>
       </c>
@@ -20025,15 +20685,23 @@
         <v>3.18</v>
       </c>
       <c r="J27" s="1">
-        <f>1-G27</f>
-        <v>0.95499999999999996</v>
+        <f>1-D27</f>
+        <v>0.98699999999999999</v>
       </c>
       <c r="L27" s="26">
         <f>(G15-G27)/G15</f>
         <v>0.28571428571428575</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="26">
+        <f>(D15-D27)/D15</f>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="N27" s="26">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>307</v>
       </c>
@@ -20064,8 +20732,16 @@
         <f>(D16-D28)/D16</f>
         <v>0.98815566835871405</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="26">
+        <f>(D16-D28)/D16</f>
+        <v>0.98815566835871405</v>
+      </c>
+      <c r="N28" s="26">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>309</v>
       </c>
@@ -20096,8 +20772,16 @@
         <f>(D17-D29)/D17</f>
         <v>0.92105263157894735</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M29" s="26">
+        <f>(D17-D29)/D17</f>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="N29" s="26">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>310</v>
       </c>
@@ -20121,11 +20805,11 @@
         <v>0.02</v>
       </c>
       <c r="J30">
-        <f>1-G30</f>
-        <v>0.86499999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+        <f>1-D30</f>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>311</v>
       </c>
@@ -20153,7 +20837,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>312</v>
       </c>
@@ -20177,8 +20861,8 @@
         <v>0.04</v>
       </c>
       <c r="J32">
-        <f>1-G32</f>
-        <v>0.98699999999999999</v>
+        <f>1-D32</f>
+        <v>0.995</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -20331,7 +21015,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" ref="G42:G69" si="1">D42+E42*0.001</f>
+        <f t="shared" ref="G42:G69" si="2">D42+E42*0.001</f>
         <v>1.256</v>
       </c>
       <c r="H42" s="9">
@@ -20358,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99199999999999999</v>
       </c>
       <c r="H43" s="3">
@@ -20382,7 +21066,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1579999999999999</v>
       </c>
       <c r="H44" s="9">
@@ -20406,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44700000000000001</v>
       </c>
       <c r="H45" s="3">
@@ -20430,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.03</v>
       </c>
       <c r="H46" s="9">
@@ -20454,7 +21138,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45600000000000002</v>
       </c>
       <c r="H47" s="9">
@@ -20478,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56099999999999994</v>
       </c>
       <c r="H48" s="9">
@@ -20502,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.877</v>
       </c>
       <c r="H49" s="9">
@@ -20526,7 +21210,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.746</v>
       </c>
       <c r="H50" s="9">
@@ -20550,7 +21234,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46200000000000002</v>
       </c>
       <c r="H51" s="9">
@@ -20574,7 +21258,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0569999999999999</v>
       </c>
       <c r="H52" s="9">
@@ -20598,7 +21282,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45800000000000002</v>
       </c>
       <c r="H53" s="9">
@@ -20622,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.749</v>
       </c>
       <c r="H54" s="3">
@@ -20647,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85200000000000009</v>
       </c>
       <c r="H55" s="9">
@@ -20672,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92600000000000005</v>
       </c>
       <c r="H56" s="9">
@@ -20697,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44700000000000001</v>
       </c>
       <c r="H57" s="9">
@@ -20722,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
       <c r="H58" s="9">
@@ -20747,7 +21431,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45600000000000002</v>
       </c>
       <c r="H59" s="9">
@@ -20772,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56099999999999994</v>
       </c>
       <c r="H60" s="9">
@@ -20797,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55699999999999994</v>
       </c>
       <c r="H61" s="9">
@@ -20822,7 +21506,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53600000000000003</v>
       </c>
       <c r="H62" s="9">
@@ -20847,7 +21531,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44600000000000006</v>
       </c>
       <c r="H63" s="3">
@@ -20872,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98199999999999998</v>
       </c>
       <c r="H64" s="9">
@@ -20897,7 +21581,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
       <c r="H65" s="3">
@@ -20922,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73399999999999999</v>
       </c>
       <c r="H66" s="9">
@@ -20946,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73699999999999999</v>
       </c>
       <c r="H67" s="9">
@@ -20970,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14600000000000002</v>
       </c>
       <c r="H68" s="9">
@@ -20994,7 +21678,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
       <c r="H69" s="9">
@@ -21114,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78:G105" si="2">D78+E78*0.001</f>
+        <f t="shared" ref="G78:G105" si="3">D78+E78*0.001</f>
         <v>1.296</v>
       </c>
       <c r="H78" s="3">
@@ -21138,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0449999999999999</v>
       </c>
       <c r="H79" s="3">
@@ -21162,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.204</v>
       </c>
       <c r="H80" s="3">
@@ -21186,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G88" si="3">D81+E81*0.001</f>
+        <f t="shared" ref="G81:G88" si="4">D81+E81*0.001</f>
         <v>0.53700000000000003</v>
       </c>
       <c r="H81" s="9">
@@ -21210,7 +21894,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0309999999999999</v>
       </c>
       <c r="H82" s="9">
@@ -21234,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57699999999999996</v>
       </c>
       <c r="H83" s="9">
@@ -21258,7 +21942,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30299999999999999</v>
       </c>
       <c r="H84" s="9">
@@ -21282,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70600000000000007</v>
       </c>
       <c r="H85" s="9">
@@ -21306,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70500000000000007</v>
       </c>
       <c r="H86" s="9">
@@ -21330,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53299999999999992</v>
       </c>
       <c r="H87" s="9">
@@ -21354,7 +22038,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.038</v>
       </c>
       <c r="H88" s="9">
@@ -21378,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51200000000000001</v>
       </c>
       <c r="H89" s="9">
@@ -21402,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.999</v>
       </c>
       <c r="H90" s="3">
@@ -21458,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H92" s="9">
@@ -21486,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47899999999999998</v>
       </c>
       <c r="H93" s="9">
@@ -21514,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H94" s="9">
@@ -21542,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45100000000000007</v>
       </c>
       <c r="H95" s="9">
@@ -21570,7 +22254,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30299999999999999</v>
       </c>
       <c r="H96" s="9">
@@ -21598,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40299999999999997</v>
       </c>
       <c r="H97" s="9">
@@ -21626,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17899999999999999</v>
       </c>
       <c r="H98" s="9">
@@ -21654,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H99" s="3">
@@ -21682,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56600000000000006</v>
       </c>
       <c r="H100" s="9">
@@ -21710,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41</v>
       </c>
       <c r="H101" s="3">
@@ -21738,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.999</v>
       </c>
       <c r="H102" s="9">
@@ -21762,7 +22446,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.999</v>
       </c>
       <c r="H103" s="9">
@@ -21786,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="H104" s="9">
@@ -21810,7 +22494,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="H105" s="9">
@@ -21855,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="9">
-        <f t="shared" ref="G111:G115" si="4">D111+E111*0.001</f>
+        <f t="shared" ref="G111:G115" si="5">D111+E111*0.001</f>
         <v>8.0001399999999993E-3</v>
       </c>
       <c r="H111">
@@ -21879,7 +22563,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H112">
@@ -21903,7 +22587,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H113">
@@ -21927,7 +22611,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H114">
@@ -21951,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="H115">
@@ -21999,7 +22683,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" ref="G118:G122" si="5">D118+E118*0.001</f>
+        <f t="shared" ref="G118:G122" si="6">D118+E118*0.001</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H118">
@@ -22023,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="H119">
@@ -22047,7 +22731,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="H120">
@@ -22071,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="H121">
@@ -22095,7 +22779,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="H122">
@@ -22126,8 +22810,8 @@
         <v>905.15300000000002</v>
       </c>
       <c r="J126" s="1">
-        <f>1-G126</f>
-        <v>-497.43028155000002</v>
+        <f>1-D126</f>
+        <v>0.99998145000000005</v>
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.2">
@@ -22151,8 +22835,8 @@
         <v>663.07600000000002</v>
       </c>
       <c r="J127" s="1">
-        <f>1-G127</f>
-        <v>0.94502393718</v>
+        <f t="shared" ref="J127:J157" si="7">1-D127</f>
+        <v>0.999</v>
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.2">
@@ -22176,11 +22860,11 @@
         <v>564.94500000000005</v>
       </c>
       <c r="J128" s="1">
-        <f>1-G128</f>
-        <v>0.99832294071000005</v>
-      </c>
-    </row>
-    <row r="129" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
         <v>228</v>
       </c>
@@ -22201,11 +22885,11 @@
         <v>1403.03</v>
       </c>
       <c r="J129" s="1">
-        <f>1-G129</f>
-        <v>0.94998000000000005</v>
-      </c>
-    </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>29</v>
       </c>
@@ -22219,18 +22903,18 @@
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" ref="G130:G157" si="6">D130+E130*0.001</f>
+        <f t="shared" ref="G130:G157" si="8">D130+E130*0.001</f>
         <v>1.171</v>
       </c>
       <c r="H130" s="3">
         <v>12.49</v>
       </c>
       <c r="J130" s="1">
-        <f>1-G130</f>
-        <v>-0.17100000000000004</v>
-      </c>
-    </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.20899999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>30</v>
       </c>
@@ -22244,18 +22928,18 @@
         <v>0</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0449999999999999</v>
       </c>
       <c r="H131" s="3">
         <v>71.209999999999994</v>
       </c>
       <c r="J131" s="1">
-        <f>1-D131</f>
+        <f t="shared" si="7"/>
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>31</v>
       </c>
@@ -22269,18 +22953,18 @@
         <v>0</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.204</v>
       </c>
       <c r="H132" s="3">
         <v>13.01</v>
       </c>
       <c r="J132" s="1">
-        <f>1-D132</f>
+        <f t="shared" si="7"/>
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>229</v>
       </c>
@@ -22294,18 +22978,18 @@
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.54800000000000004</v>
       </c>
       <c r="H133" s="9">
         <v>60.26</v>
       </c>
       <c r="J133" s="1">
-        <f>1-G133</f>
-        <v>0.45199999999999996</v>
-      </c>
-    </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>230</v>
       </c>
@@ -22319,18 +23003,18 @@
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0309999999999999</v>
       </c>
       <c r="H134" s="9">
         <v>70.94</v>
       </c>
       <c r="J134" s="1">
-        <f>1-D134</f>
+        <f t="shared" si="7"/>
         <v>3.7000000000000033E-2</v>
       </c>
     </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>231</v>
       </c>
@@ -22344,18 +23028,18 @@
         <v>0</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.57699999999999996</v>
       </c>
       <c r="H135" s="9">
         <v>71.45</v>
       </c>
       <c r="J135" s="1">
-        <f>1-D135</f>
+        <f t="shared" si="7"/>
         <v>0.71300000000000008</v>
       </c>
     </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>32</v>
       </c>
@@ -22369,18 +23053,18 @@
         <v>0</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28500000000000003</v>
       </c>
       <c r="H136" s="9">
         <v>71.33</v>
       </c>
       <c r="J136" s="1">
-        <f>1-G136</f>
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>33</v>
       </c>
@@ -22394,18 +23078,18 @@
         <v>0</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.70600000000000007</v>
       </c>
       <c r="H137" s="9">
         <v>71.010000000000005</v>
       </c>
       <c r="J137" s="1">
-        <f>1-D137</f>
+        <f t="shared" si="7"/>
         <v>0.34199999999999997</v>
       </c>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>34</v>
       </c>
@@ -22419,18 +23103,18 @@
         <v>0</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.70500000000000007</v>
       </c>
       <c r="H138" s="9">
         <v>71.23</v>
       </c>
       <c r="J138" s="1">
-        <f>1-D138</f>
+        <f t="shared" si="7"/>
         <v>0.44299999999999995</v>
       </c>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>59</v>
       </c>
@@ -22444,18 +23128,18 @@
         <v>0</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56200000000000006</v>
       </c>
       <c r="H139" s="9">
         <v>70.77</v>
       </c>
       <c r="J139" s="1">
-        <f>1-G139</f>
-        <v>0.43799999999999994</v>
-      </c>
-    </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.81800000000000006</v>
+      </c>
+    </row>
+    <row r="140" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>35</v>
       </c>
@@ -22469,18 +23153,18 @@
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.038</v>
       </c>
       <c r="H140" s="9">
         <v>70.87</v>
       </c>
-      <c r="J140">
-        <f>1-D140</f>
+      <c r="J140" s="1">
+        <f t="shared" si="7"/>
         <v>3.400000000000003E-2</v>
       </c>
     </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>36</v>
       </c>
@@ -22494,18 +23178,18 @@
         <v>0</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.51200000000000001</v>
       </c>
       <c r="H141" s="9">
         <v>70.83</v>
       </c>
-      <c r="J141">
-        <f>1-D141</f>
+      <c r="J141" s="1">
+        <f t="shared" si="7"/>
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="142" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
         <v>42</v>
       </c>
@@ -22519,22 +23203,30 @@
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="H142" s="3">
         <v>1.62</v>
       </c>
       <c r="J142" s="1">
-        <f>1-G142</f>
-        <v>0.54499999999999993</v>
+        <f t="shared" si="7"/>
+        <v>0.55099999999999993</v>
       </c>
       <c r="L142" s="26">
         <f>(G130-G142)/G130</f>
         <v>0.61144321093082832</v>
       </c>
-    </row>
-    <row r="143" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M142" s="26">
+        <f>(D130-D142)/D130</f>
+        <v>0.43236409608091025</v>
+      </c>
+      <c r="N142" s="26">
+        <f>(E130-E142)/E130</f>
+        <v>0.98421052631578942</v>
+      </c>
+    </row>
+    <row r="143" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
         <v>35</v>
       </c>
@@ -22554,16 +23246,24 @@
       <c r="H143" s="9">
         <v>202.39</v>
       </c>
-      <c r="J143">
-        <f>1-D143</f>
+      <c r="J143" s="1">
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
       <c r="L143" s="26">
         <f>(D131-D143)/D131</f>
         <v>0.95987963891675021</v>
       </c>
-    </row>
-    <row r="144" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M143" s="26">
+        <f>(D131-D143)/D131</f>
+        <v>0.95987963891675021</v>
+      </c>
+      <c r="N143" s="26">
+        <f t="shared" ref="N143:N153" si="9">(E131-E143)/E131</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="144" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
         <v>36</v>
       </c>
@@ -22577,22 +23277,30 @@
         <v>0</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" ref="G144:G157" si="7">D144+E144*0.001</f>
+        <f t="shared" ref="G144:G157" si="10">D144+E144*0.001</f>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H144" s="9">
         <v>13.65</v>
       </c>
-      <c r="J144">
-        <f>1-D144</f>
+      <c r="J144" s="1">
+        <f t="shared" si="7"/>
         <v>0.99399999999999999</v>
       </c>
       <c r="L144" s="26">
         <f>(D132-D144)/D132</f>
         <v>0.99397590361445787</v>
       </c>
-    </row>
-    <row r="145" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M144" s="26">
+        <f>(D132-D144)/D132</f>
+        <v>0.99397590361445787</v>
+      </c>
+      <c r="N144" s="26">
+        <f t="shared" si="9"/>
+        <v>0.75961538461538458</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
         <v>232</v>
       </c>
@@ -22606,22 +23314,30 @@
         <v>0</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.44700000000000001</v>
       </c>
       <c r="H145" s="9">
         <v>16.91</v>
       </c>
       <c r="J145" s="1">
-        <f>1-G145</f>
-        <v>0.55299999999999994</v>
+        <f t="shared" si="7"/>
+        <v>0.93100000000000005</v>
       </c>
       <c r="L145" s="26">
         <f>(G133-G145)/G133</f>
         <v>0.18430656934306575</v>
       </c>
-    </row>
-    <row r="146" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M145" s="26">
+        <f>(D133-D145)/D133</f>
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="N145" s="26">
+        <f t="shared" si="9"/>
+        <v>5.263157894736842E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
         <v>233</v>
       </c>
@@ -22635,22 +23351,30 @@
         <v>0</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H146" s="9">
         <v>64.290000000000006</v>
       </c>
-      <c r="J146">
-        <f>1-D146</f>
+      <c r="J146" s="1">
+        <f t="shared" si="7"/>
         <v>0.998</v>
       </c>
       <c r="L146" s="26">
         <f>(D134-D146)/D134</f>
         <v>0.99792315680166144</v>
       </c>
-    </row>
-    <row r="147" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M146" s="26">
+        <f>(D134-D146)/D134</f>
+        <v>0.99792315680166144</v>
+      </c>
+      <c r="N146" s="26">
+        <f t="shared" si="9"/>
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="147" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
         <v>234</v>
       </c>
@@ -22664,22 +23388,30 @@
         <v>0</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.45100000000000007</v>
       </c>
       <c r="H147" s="9">
         <v>41.43</v>
       </c>
-      <c r="J147">
-        <f>1-D147</f>
+      <c r="J147" s="1">
+        <f t="shared" si="7"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="L147" s="26">
         <f>(D135-D147)/D135</f>
         <v>0.42508710801393723</v>
       </c>
-    </row>
-    <row r="148" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M147" s="26">
+        <f>(D135-D147)/D135</f>
+        <v>0.42508710801393723</v>
+      </c>
+      <c r="N147" s="26">
+        <f t="shared" si="9"/>
+        <v>1.3793103448275862E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
         <v>43</v>
       </c>
@@ -22693,22 +23425,30 @@
         <v>0</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.28500000000000003</v>
       </c>
       <c r="H148" s="9">
         <v>9.0500000000000007</v>
       </c>
       <c r="J148" s="1">
-        <f>1-G148</f>
-        <v>0.71499999999999997</v>
+        <f t="shared" si="7"/>
+        <v>0.96699999999999997</v>
       </c>
       <c r="L148" s="26">
         <f>(G136-G148)/G136</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M148" s="26">
+        <f>(D136-D148)/D136</f>
+        <v>0</v>
+      </c>
+      <c r="N148" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
         <v>37</v>
       </c>
@@ -22722,22 +23462,30 @@
         <v>0</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.40299999999999997</v>
       </c>
       <c r="H149" s="9">
         <v>59.21</v>
       </c>
-      <c r="J149">
-        <f>1-D149</f>
+      <c r="J149" s="1">
+        <f t="shared" si="7"/>
         <v>0.64500000000000002</v>
       </c>
       <c r="L149" s="26">
         <f>(D137-D149)/D137</f>
         <v>0.46048632218844993</v>
       </c>
-    </row>
-    <row r="150" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M149" s="26">
+        <f>(D137-D149)/D137</f>
+        <v>0.46048632218844993</v>
+      </c>
+      <c r="N149" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
         <v>38</v>
       </c>
@@ -22751,22 +23499,30 @@
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.17899999999999999</v>
       </c>
       <c r="H150" s="9">
         <v>39.78</v>
       </c>
-      <c r="J150">
-        <f>1-D150</f>
+      <c r="J150" s="1">
+        <f t="shared" si="7"/>
         <v>0.97899999999999998</v>
       </c>
       <c r="L150" s="26">
         <f>(D138-D150)/D138</f>
         <v>0.9622980251346499</v>
       </c>
-    </row>
-    <row r="151" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M150" s="26">
+        <f>(D138-D150)/D138</f>
+        <v>0.9622980251346499</v>
+      </c>
+      <c r="N150" s="26">
+        <f t="shared" si="9"/>
+        <v>-6.7567567567567571E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C151" s="10" t="s">
         <v>273</v>
       </c>
@@ -22780,22 +23536,30 @@
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.46100000000000002</v>
       </c>
       <c r="H151" s="3">
         <v>46.26</v>
       </c>
       <c r="J151" s="1">
-        <f>1-G151</f>
-        <v>0.53899999999999992</v>
+        <f t="shared" si="7"/>
+        <v>0.91700000000000004</v>
       </c>
       <c r="L151" s="26">
         <f>(G139-G151)/G139</f>
         <v>0.17971530249110323</v>
       </c>
-    </row>
-    <row r="152" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M151" s="26">
+        <f>(D139-D151)/D139</f>
+        <v>0.54395604395604391</v>
+      </c>
+      <c r="N151" s="26">
+        <f t="shared" si="9"/>
+        <v>5.263157894736842E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C152" s="10" t="s">
         <v>274</v>
       </c>
@@ -22809,22 +23573,30 @@
         <v>0</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.56600000000000006</v>
       </c>
       <c r="H152" s="9">
         <v>74.88</v>
       </c>
-      <c r="J152">
-        <f>1-D152</f>
+      <c r="J152" s="1">
+        <f t="shared" si="7"/>
         <v>0.504</v>
       </c>
       <c r="L152" s="26">
         <f>(D140-D152)/D140</f>
         <v>0.48654244306418221</v>
       </c>
-    </row>
-    <row r="153" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M152" s="26">
+        <f>(D140-D152)/D140</f>
+        <v>0.48654244306418221</v>
+      </c>
+      <c r="N152" s="26">
+        <f t="shared" si="9"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C153" s="10" t="s">
         <v>275</v>
       </c>
@@ -22838,22 +23610,30 @@
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.41</v>
       </c>
       <c r="H153" s="3">
         <v>20.02</v>
       </c>
-      <c r="J153">
-        <f>1-D153</f>
+      <c r="J153" s="1">
+        <f t="shared" si="7"/>
         <v>0.88</v>
       </c>
       <c r="L153" s="26">
         <f>(D141-D153)/D141</f>
         <v>0.4642857142857143</v>
       </c>
-    </row>
-    <row r="154" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="M153" s="26">
+        <f>(D141-D153)/D141</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="N153" s="26">
+        <f t="shared" si="9"/>
+        <v>-6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C154" s="10" t="s">
         <v>276</v>
       </c>
@@ -22867,68 +23647,68 @@
         <v>0</v>
       </c>
       <c r="G154" s="1">
+        <f t="shared" si="10"/>
+        <v>0.999</v>
+      </c>
+      <c r="H154" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="J154" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="C155" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D155" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" s="9">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="10"/>
+        <v>0.999</v>
+      </c>
+      <c r="H155" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="J155" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="C156" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E156">
+        <v>48</v>
+      </c>
+      <c r="F156" s="9">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="10"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H156" s="9">
+        <v>12.47</v>
+      </c>
+      <c r="J156" s="1">
         <f t="shared" si="7"/>
         <v>0.999</v>
       </c>
-      <c r="H154" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="J154">
-        <f>1-G154</f>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="3:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="C155" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D155" s="9">
-        <v>0.999</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155" s="9">
-        <v>0</v>
-      </c>
-      <c r="G155" s="1">
-        <f t="shared" si="7"/>
-        <v>0.999</v>
-      </c>
-      <c r="H155" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="J155">
-        <f>1-D155</f>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="3:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="C156" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D156" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E156">
-        <v>48</v>
-      </c>
-      <c r="F156" s="9">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
-        <f t="shared" si="7"/>
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="H156" s="9">
-        <v>12.47</v>
-      </c>
-      <c r="J156">
-        <f>1-G156</f>
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="157" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="3:14" ht="17" x14ac:dyDescent="0.2">
       <c r="C157" s="10" t="s">
         <v>278</v>
       </c>
@@ -22942,14 +23722,14 @@
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="H157" s="9">
         <v>7.43</v>
       </c>
-      <c r="J157">
-        <f>1-D157</f>
+      <c r="J157" s="1">
+        <f t="shared" si="7"/>
         <v>0.59299999999999997</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C71EB-D32E-D844-816F-AAA2DB5EF552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8917BD-F8F9-C445-AA13-D91015769277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="28800" windowHeight="15800" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:Q770"/>
   <sheetViews>
-    <sheetView topLeftCell="B319" workbookViewId="0">
-      <selection activeCell="I337" sqref="I337"/>
+    <sheetView tabSelected="1" topLeftCell="B158" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3508,14 +3508,14 @@
         <v>56</v>
       </c>
       <c r="D35">
-        <v>-0.999</v>
+        <v>-0.99999999409999996</v>
       </c>
       <c r="E35">
         <v>8.6370000000000005</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="5"/>
-        <v>-0.91263000000000005</v>
+        <v>-0.9136299940999999</v>
       </c>
       <c r="G35">
         <v>1.67</v>
@@ -3526,9 +3526,13 @@
       <c r="I35" t="s">
         <v>496</v>
       </c>
+      <c r="J35">
+        <f>1-D35/-1</f>
+        <v>5.900000044078979E-9</v>
+      </c>
       <c r="O35">
         <f t="shared" si="6"/>
-        <v>1.0000000000000009E-3</v>
+        <v>5.900000044078979E-9</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17">
@@ -5378,7 +5382,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="34">
+    <row r="129" spans="2:10" ht="34">
       <c r="B129" s="2" t="s">
         <v>147</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>22.66</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="34">
+    <row r="130" spans="2:10" ht="34">
       <c r="B130" s="2" t="s">
         <v>149</v>
       </c>
@@ -5420,7 +5424,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="34">
+    <row r="131" spans="2:10" ht="34">
       <c r="B131" s="2" t="s">
         <v>148</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="17">
+    <row r="132" spans="2:10" ht="17">
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
         <v>421</v>
@@ -5451,8 +5455,8 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="134" spans="2:9" s="6" customFormat="1"/>
-    <row r="135" spans="2:9">
+    <row r="134" spans="2:10" s="6" customFormat="1"/>
+    <row r="135" spans="2:10">
       <c r="C135" t="s">
         <v>27</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>0.72816759212518922</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:10">
       <c r="C136" t="s">
         <v>28</v>
       </c>
@@ -5495,8 +5499,12 @@
         <f>D136/D160</f>
         <v>0.71706208985360931</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" ht="17">
+      <c r="J136">
+        <f>1-I136</f>
+        <v>0.28293791014639069</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="17">
       <c r="C137" s="2" t="s">
         <v>46</v>
       </c>
@@ -5518,7 +5526,7 @@
         <v>0.72715800100959105</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:10">
       <c r="C138" t="s">
         <v>29</v>
       </c>
@@ -5540,7 +5548,7 @@
         <v>0.72362443210499749</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:10">
       <c r="C139" t="s">
         <v>30</v>
       </c>
@@ -5562,7 +5570,7 @@
         <v>0.36017163048965167</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="2:10">
       <c r="C140" t="s">
         <v>31</v>
       </c>
@@ -5584,7 +5592,7 @@
         <v>0.69863705199394233</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="2:10">
       <c r="C141" t="s">
         <v>32</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>0.71075214538112053</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:10">
       <c r="C142" t="s">
         <v>33</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>0.36017163048965167</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="2:10">
       <c r="C143" t="s">
         <v>34</v>
       </c>
@@ -5650,7 +5658,7 @@
         <v>0.71680969207470968</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="2:10">
       <c r="C144" t="s">
         <v>59</v>
       </c>
@@ -5672,7 +5680,7 @@
         <v>0.72539121655729433</v>
       </c>
     </row>
-    <row r="145" spans="3:9">
+    <row r="145" spans="3:10">
       <c r="C145" t="s">
         <v>35</v>
       </c>
@@ -5694,7 +5702,7 @@
         <v>0.36017163048965167</v>
       </c>
     </row>
-    <row r="146" spans="3:9">
+    <row r="146" spans="3:10">
       <c r="C146" t="s">
         <v>36</v>
       </c>
@@ -5716,7 +5724,7 @@
         <v>0.67440686521958604</v>
       </c>
     </row>
-    <row r="147" spans="3:9">
+    <row r="147" spans="3:10">
       <c r="C147" t="s">
         <v>63</v>
       </c>
@@ -5740,8 +5748,12 @@
         <f>D147/D160</f>
         <v>0.58430085815244825</v>
       </c>
-    </row>
-    <row r="148" spans="3:9">
+      <c r="J147">
+        <f>1-I147</f>
+        <v>0.41569914184755175</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10">
       <c r="C148" t="s">
         <v>62</v>
       </c>
@@ -5752,7 +5764,7 @@
         <v>6</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" ref="F148:F150" si="11">D148+E148*0.01</f>
+        <f>D148+E148*0.01</f>
         <v>-2.153</v>
       </c>
       <c r="G148">
@@ -5763,7 +5775,7 @@
         <v>0.55855628470469454</v>
       </c>
     </row>
-    <row r="149" spans="3:9">
+    <row r="149" spans="3:10">
       <c r="C149" t="s">
         <v>68</v>
       </c>
@@ -5774,7 +5786,7 @@
         <v>6</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="11"/>
+        <f>D149+E149*0.01</f>
         <v>-2.2549999999999999</v>
       </c>
       <c r="G149">
@@ -5785,7 +5797,7 @@
         <v>0.58430085815244825</v>
       </c>
     </row>
-    <row r="150" spans="3:9" ht="51">
+    <row r="150" spans="3:10" ht="51">
       <c r="C150" s="2" t="s">
         <v>69</v>
       </c>
@@ -5796,7 +5808,7 @@
         <v>6</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="11"/>
+        <f>D150+E150*0.01</f>
         <v>-2.153</v>
       </c>
       <c r="G150">
@@ -5807,7 +5819,7 @@
         <v>0.55855628470469454</v>
       </c>
     </row>
-    <row r="151" spans="3:9" ht="17">
+    <row r="151" spans="3:10" ht="17">
       <c r="C151" s="2" t="s">
         <v>42</v>
       </c>
@@ -5829,7 +5841,7 @@
         <v>0.71958606764260469</v>
       </c>
     </row>
-    <row r="152" spans="3:9" ht="17">
+    <row r="152" spans="3:10" ht="17">
       <c r="C152" s="2" t="s">
         <v>35</v>
       </c>
@@ -5851,7 +5863,7 @@
         <v>0.55855628470469454</v>
       </c>
     </row>
-    <row r="153" spans="3:9" ht="17">
+    <row r="153" spans="3:10" ht="17">
       <c r="C153" s="2" t="s">
         <v>36</v>
       </c>
@@ -5873,7 +5885,7 @@
         <v>0.7198384654215042</v>
       </c>
     </row>
-    <row r="154" spans="3:9" ht="17">
+    <row r="154" spans="3:10" ht="17">
       <c r="C154" s="2" t="s">
         <v>43</v>
       </c>
@@ -5895,7 +5907,7 @@
         <v>0.7198384654215042</v>
       </c>
     </row>
-    <row r="155" spans="3:9" ht="17">
+    <row r="155" spans="3:10" ht="17">
       <c r="C155" s="2" t="s">
         <v>37</v>
       </c>
@@ -5917,7 +5929,7 @@
         <v>0.55855628470469454</v>
       </c>
     </row>
-    <row r="156" spans="3:9" ht="17">
+    <row r="156" spans="3:10" ht="17">
       <c r="C156" s="2" t="s">
         <v>38</v>
       </c>
@@ -5939,7 +5951,7 @@
         <v>0.721100454316002</v>
       </c>
     </row>
-    <row r="157" spans="3:9" ht="17">
+    <row r="157" spans="3:10" ht="17">
       <c r="C157" s="2" t="s">
         <v>237</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>0.72539121655729433</v>
       </c>
     </row>
-    <row r="158" spans="3:9" ht="17">
+    <row r="158" spans="3:10" ht="17">
       <c r="C158" s="2" t="s">
         <v>238</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>0.55855628470469454</v>
       </c>
     </row>
-    <row r="159" spans="3:9" ht="17">
+    <row r="159" spans="3:10" ht="17">
       <c r="C159" s="2" t="s">
         <v>239</v>
       </c>
@@ -6005,7 +6017,7 @@
         <v>0.7198384654215042</v>
       </c>
     </row>
-    <row r="160" spans="3:9" ht="17">
+    <row r="160" spans="3:10" ht="17">
       <c r="C160" s="2" t="s">
         <v>419</v>
       </c>
@@ -6013,8 +6025,8 @@
         <v>-3.9620000000000002</v>
       </c>
     </row>
-    <row r="161" spans="3:9" s="6" customFormat="1"/>
-    <row r="162" spans="3:9">
+    <row r="161" spans="3:10" s="6" customFormat="1"/>
+    <row r="162" spans="3:10">
       <c r="C162" t="s">
         <v>27</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>6.3150000000000004</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" ref="F162:F186" si="12">D162+E162*0.01</f>
+        <f t="shared" ref="F162:F186" si="11">D162+E162*0.01</f>
         <v>-5.2618499999999999</v>
       </c>
       <c r="G162">
@@ -6040,7 +6052,7 @@
         <v>0.84537228131449438</v>
       </c>
     </row>
-    <row r="163" spans="3:9">
+    <row r="163" spans="3:10">
       <c r="C163" t="s">
         <v>28</v>
       </c>
@@ -6051,7 +6063,7 @@
         <v>3.839</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.2636099999999999</v>
       </c>
       <c r="G163">
@@ -6066,7 +6078,7 @@
         <v>0.84172090808064759</v>
       </c>
     </row>
-    <row r="164" spans="3:9" ht="17">
+    <row r="164" spans="3:10" ht="17">
       <c r="C164" s="2" t="s">
         <v>46</v>
       </c>
@@ -6077,7 +6089,7 @@
         <v>4.6029999999999998</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.2749699999999997</v>
       </c>
       <c r="G164">
@@ -6092,7 +6104,7 @@
         <v>0.84473725988252091</v>
       </c>
     </row>
-    <row r="165" spans="3:9">
+    <row r="165" spans="3:10">
       <c r="C165" t="s">
         <v>29</v>
       </c>
@@ -6103,15 +6115,19 @@
         <v>42</v>
       </c>
       <c r="F165" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.8879999999999999</v>
       </c>
       <c r="I165">
         <f>D165/D187</f>
         <v>0.84267344022860768</v>
       </c>
-    </row>
-    <row r="166" spans="3:9">
+      <c r="J165">
+        <f>1-I165</f>
+        <v>0.15732655977139232</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10">
       <c r="C166" t="s">
         <v>30</v>
       </c>
@@ -6122,7 +6138,7 @@
         <v>6</v>
       </c>
       <c r="F166" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.04</v>
       </c>
       <c r="I166">
@@ -6130,7 +6146,7 @@
         <v>0.33338625178599779</v>
       </c>
     </row>
-    <row r="167" spans="3:9">
+    <row r="167" spans="3:10">
       <c r="C167" t="s">
         <v>31</v>
       </c>
@@ -6141,7 +6157,7 @@
         <v>10</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.0860000000000003</v>
       </c>
       <c r="I167">
@@ -6149,7 +6165,7 @@
         <v>0.82330528655342117</v>
       </c>
     </row>
-    <row r="168" spans="3:9">
+    <row r="168" spans="3:10">
       <c r="C168" t="s">
         <v>32</v>
       </c>
@@ -6160,7 +6176,7 @@
         <v>58</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.7130000000000001</v>
       </c>
       <c r="I168">
@@ -6168,7 +6184,7 @@
         <v>0.84029210985870773</v>
       </c>
     </row>
-    <row r="169" spans="3:9">
+    <row r="169" spans="3:10">
       <c r="C169" t="s">
         <v>33</v>
       </c>
@@ -6179,7 +6195,7 @@
         <v>6</v>
       </c>
       <c r="F169" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.04</v>
       </c>
       <c r="I169">
@@ -6187,7 +6203,7 @@
         <v>0.33338625178599779</v>
       </c>
     </row>
-    <row r="170" spans="3:9">
+    <row r="170" spans="3:10">
       <c r="C170" t="s">
         <v>34</v>
       </c>
@@ -6198,7 +6214,7 @@
         <v>10</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.0140000000000002</v>
       </c>
       <c r="I170">
@@ -6206,7 +6222,7 @@
         <v>0.81187490077790114</v>
       </c>
     </row>
-    <row r="171" spans="3:9">
+    <row r="171" spans="3:10">
       <c r="C171" t="s">
         <v>59</v>
       </c>
@@ -6217,7 +6233,7 @@
         <v>50</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.8029999999999999</v>
       </c>
       <c r="I171">
@@ -6225,7 +6241,7 @@
         <v>0.84187966343864096</v>
       </c>
     </row>
-    <row r="172" spans="3:9">
+    <row r="172" spans="3:10">
       <c r="C172" t="s">
         <v>35</v>
       </c>
@@ -6236,7 +6252,7 @@
         <v>6</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.04</v>
       </c>
       <c r="I172">
@@ -6244,7 +6260,7 @@
         <v>0.33338625178599779</v>
       </c>
     </row>
-    <row r="173" spans="3:9">
+    <row r="173" spans="3:10">
       <c r="C173" t="s">
         <v>36</v>
       </c>
@@ -6255,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.907</v>
       </c>
       <c r="I173">
@@ -6263,7 +6279,7 @@
         <v>0.79488807747261458</v>
       </c>
     </row>
-    <row r="174" spans="3:9">
+    <row r="174" spans="3:10">
       <c r="C174" t="s">
         <v>63</v>
       </c>
@@ -6274,7 +6290,7 @@
         <v>6</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.3440000000000003</v>
       </c>
       <c r="G174">
@@ -6285,7 +6301,7 @@
         <v>0.69915859660263524</v>
       </c>
     </row>
-    <row r="175" spans="3:9">
+    <row r="175" spans="3:10">
       <c r="C175" t="s">
         <v>62</v>
       </c>
@@ -6296,7 +6312,7 @@
         <v>6</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3.6059999999999999</v>
       </c>
       <c r="G175">
@@ -6307,7 +6323,7 @@
         <v>0.58199714240355604</v>
       </c>
     </row>
-    <row r="176" spans="3:9">
+    <row r="176" spans="3:10">
       <c r="C176" t="s">
         <v>68</v>
       </c>
@@ -6362,7 +6378,7 @@
         <v>42</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.8879999999999999</v>
       </c>
       <c r="G178">
@@ -6384,7 +6400,7 @@
         <v>6</v>
       </c>
       <c r="F179" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.04</v>
       </c>
       <c r="G179">
@@ -6406,7 +6422,7 @@
         <v>10</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.0870000000000006</v>
       </c>
       <c r="G180">
@@ -6428,7 +6444,7 @@
         <v>58</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.7130000000000001</v>
       </c>
       <c r="G181">
@@ -6450,7 +6466,7 @@
         <v>6</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.04</v>
       </c>
       <c r="G182">
@@ -6472,7 +6488,7 @@
         <v>10</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.0500000000000007</v>
       </c>
       <c r="G183">
@@ -6494,7 +6510,7 @@
         <v>50</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.8029999999999999</v>
       </c>
       <c r="G184">
@@ -6516,7 +6532,7 @@
         <v>6</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.04</v>
       </c>
       <c r="G185">
@@ -6538,7 +6554,7 @@
         <v>10</v>
       </c>
       <c r="F186" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.0500000000000007</v>
       </c>
       <c r="G186">
@@ -6569,7 +6585,7 @@
         <v>5.6669999999999998</v>
       </c>
       <c r="F189" s="1">
-        <f t="shared" ref="F189:F202" si="13">D189+E189*0.01</f>
+        <f t="shared" ref="F189:F202" si="12">D189+E189*0.01</f>
         <v>-3.6803300000000001</v>
       </c>
       <c r="G189">
@@ -6595,7 +6611,7 @@
         <v>3.0209999999999999</v>
       </c>
       <c r="F190" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.67679</v>
       </c>
       <c r="G190">
@@ -6621,7 +6637,7 @@
         <v>4.1319999999999997</v>
       </c>
       <c r="F191" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.6936800000000001</v>
       </c>
       <c r="G191">
@@ -6647,7 +6663,7 @@
         <v>42</v>
       </c>
       <c r="F192" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.306</v>
       </c>
       <c r="I192">
@@ -6666,7 +6682,7 @@
         <v>6</v>
       </c>
       <c r="F193" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.67799999999999994</v>
       </c>
       <c r="I193">
@@ -6685,7 +6701,7 @@
         <v>10</v>
       </c>
       <c r="F194" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.4809999999999999</v>
       </c>
       <c r="I194">
@@ -6704,7 +6720,7 @@
         <v>54</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.173</v>
       </c>
       <c r="I195">
@@ -6723,7 +6739,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-2.274</v>
       </c>
       <c r="I196">
@@ -6742,7 +6758,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.4689999999999999</v>
       </c>
       <c r="I197">
@@ -6761,7 +6777,7 @@
         <v>42</v>
       </c>
       <c r="F198" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.302</v>
       </c>
       <c r="I198">
@@ -6780,7 +6796,7 @@
         <v>6</v>
       </c>
       <c r="F199" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-2.274</v>
       </c>
       <c r="I199">
@@ -6799,7 +6815,7 @@
         <v>10</v>
       </c>
       <c r="F200" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.4809999999999999</v>
       </c>
       <c r="I200">
@@ -6818,7 +6834,7 @@
         <v>6</v>
       </c>
       <c r="F201" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.18</v>
       </c>
       <c r="G201">
@@ -6840,7 +6856,7 @@
         <v>6</v>
       </c>
       <c r="F202" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G202">
@@ -6862,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="F203" s="1">
-        <f t="shared" ref="F203:F204" si="14">D203+E203*0.01</f>
+        <f>D203+E203*0.01</f>
         <v>-3.18</v>
       </c>
       <c r="G203">
@@ -6884,7 +6900,7 @@
         <v>6</v>
       </c>
       <c r="F204" s="1">
-        <f t="shared" si="14"/>
+        <f>D204+E204*0.01</f>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G204">
@@ -6906,7 +6922,7 @@
         <v>42</v>
       </c>
       <c r="F205" s="1">
-        <f t="shared" ref="F205:F213" si="15">D205+E205*0.01</f>
+        <f t="shared" ref="F205:F213" si="13">D205+E205*0.01</f>
         <v>-3.306</v>
       </c>
       <c r="G205">
@@ -6928,7 +6944,7 @@
         <v>6</v>
       </c>
       <c r="F206" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.887</v>
       </c>
       <c r="G206">
@@ -6950,7 +6966,7 @@
         <v>10</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.58</v>
       </c>
       <c r="G207">
@@ -6972,7 +6988,7 @@
         <v>46</v>
       </c>
       <c r="F208" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.2560000000000002</v>
       </c>
       <c r="G208">
@@ -6994,7 +7010,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.887</v>
       </c>
       <c r="G209">
@@ -7016,7 +7032,7 @@
         <v>10</v>
       </c>
       <c r="F210" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.5249999999999999</v>
       </c>
       <c r="G210">
@@ -7038,7 +7054,7 @@
         <v>42</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.302</v>
       </c>
       <c r="G211">
@@ -7060,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="F212" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-2.887</v>
       </c>
       <c r="G212">
@@ -7082,7 +7098,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>-3.58</v>
       </c>
       <c r="G213">
@@ -7113,7 +7129,7 @@
         <v>5.6929999999999996</v>
       </c>
       <c r="F216" s="1">
-        <f t="shared" ref="F216:F240" si="16">D216+E216*0.01</f>
+        <f t="shared" ref="F216:F240" si="14">D216+E216*0.01</f>
         <v>-4.0430699999999993</v>
       </c>
       <c r="G216">
@@ -7139,7 +7155,7 @@
         <v>3.88</v>
       </c>
       <c r="F217" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-4.0422000000000002</v>
       </c>
       <c r="G217">
@@ -7165,7 +7181,7 @@
         <v>4.3879999999999999</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-4.0531200000000007</v>
       </c>
       <c r="G218">
@@ -7191,7 +7207,7 @@
         <v>42</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.6749999999999998</v>
       </c>
       <c r="I219">
@@ -7210,7 +7226,7 @@
         <v>6</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-2.0259999999999998</v>
       </c>
       <c r="I220">
@@ -7229,7 +7245,7 @@
         <v>10</v>
       </c>
       <c r="F221" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.8220000000000001</v>
       </c>
       <c r="I221">
@@ -7248,7 +7264,7 @@
         <v>50</v>
       </c>
       <c r="F222" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.5830000000000002</v>
       </c>
       <c r="I222">
@@ -7267,7 +7283,7 @@
         <v>6</v>
       </c>
       <c r="F223" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-2.0259999999999998</v>
       </c>
       <c r="I223">
@@ -7286,7 +7302,7 @@
         <v>10</v>
       </c>
       <c r="F224" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.8279999999999998</v>
       </c>
       <c r="I224">
@@ -7305,7 +7321,7 @@
         <v>42</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.673</v>
       </c>
       <c r="I225">
@@ -7324,7 +7340,7 @@
         <v>6</v>
       </c>
       <c r="F226" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-2.0259999999999998</v>
       </c>
       <c r="I226">
@@ -7343,7 +7359,7 @@
         <v>10</v>
       </c>
       <c r="F227" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.8220000000000001</v>
       </c>
       <c r="I227">
@@ -7362,7 +7378,7 @@
         <v>6</v>
       </c>
       <c r="F228" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.5529999999999999</v>
       </c>
       <c r="G228">
@@ -7384,7 +7400,7 @@
         <v>6</v>
       </c>
       <c r="F229" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.3109999999999999</v>
       </c>
       <c r="G229">
@@ -7406,7 +7422,7 @@
         <v>6</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.5529999999999999</v>
       </c>
       <c r="G230">
@@ -7428,7 +7444,7 @@
         <v>6</v>
       </c>
       <c r="F231" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.3109999999999999</v>
       </c>
       <c r="G231">
@@ -7450,7 +7466,7 @@
         <v>42</v>
       </c>
       <c r="F232" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.6749999999999998</v>
       </c>
       <c r="G232">
@@ -7472,7 +7488,7 @@
         <v>6</v>
       </c>
       <c r="F233" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.3029999999999999</v>
       </c>
       <c r="G233">
@@ -7494,7 +7510,7 @@
         <v>10</v>
       </c>
       <c r="F234" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.9060000000000001</v>
       </c>
       <c r="G234">
@@ -7516,7 +7532,7 @@
         <v>50</v>
       </c>
       <c r="F235" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.5830000000000002</v>
       </c>
       <c r="G235">
@@ -7538,7 +7554,7 @@
         <v>6</v>
       </c>
       <c r="F236" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.3029999999999999</v>
       </c>
       <c r="G236">
@@ -7560,7 +7576,7 @@
         <v>10</v>
       </c>
       <c r="F237" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.8279999999999998</v>
       </c>
       <c r="G237">
@@ -7582,7 +7598,7 @@
         <v>42</v>
       </c>
       <c r="F238" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.673</v>
       </c>
       <c r="G238">
@@ -7604,7 +7620,7 @@
         <v>6</v>
       </c>
       <c r="F239" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.3029999999999999</v>
       </c>
       <c r="G239">
@@ -7626,7 +7642,7 @@
         <v>10</v>
       </c>
       <c r="F240" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-3.9060000000000001</v>
       </c>
       <c r="G240">
@@ -7657,7 +7673,7 @@
         <v>5.423</v>
       </c>
       <c r="F243" s="1">
-        <f t="shared" ref="F243:F267" si="17">D243+E243*0.01</f>
+        <f t="shared" ref="F243:F267" si="15">D243+E243*0.01</f>
         <v>-3.2367699999999999</v>
       </c>
       <c r="G243">
@@ -7683,7 +7699,7 @@
         <v>2.3330000000000002</v>
       </c>
       <c r="F244" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.2356699999999998</v>
       </c>
       <c r="G244">
@@ -7709,7 +7725,7 @@
         <v>4.5380000000000003</v>
       </c>
       <c r="F245" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.2456199999999997</v>
       </c>
       <c r="G245">
@@ -7735,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="F246" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.8930000000000002</v>
       </c>
       <c r="I246">
@@ -7754,7 +7770,7 @@
         <v>6</v>
       </c>
       <c r="F247" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.331</v>
       </c>
       <c r="I247">
@@ -7773,7 +7789,7 @@
         <v>10</v>
       </c>
       <c r="F248" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.9750000000000001</v>
       </c>
       <c r="I248">
@@ -7792,7 +7808,7 @@
         <v>50</v>
       </c>
       <c r="F249" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.758</v>
       </c>
       <c r="I249">
@@ -7811,7 +7827,7 @@
         <v>6</v>
       </c>
       <c r="F250" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.5449999999999999</v>
       </c>
       <c r="I250">
@@ -7830,7 +7846,7 @@
         <v>10</v>
       </c>
       <c r="F251" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.0989999999999998</v>
       </c>
       <c r="I251">
@@ -7849,7 +7865,7 @@
         <v>42</v>
       </c>
       <c r="F252" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.8580000000000001</v>
       </c>
       <c r="I252">
@@ -7868,7 +7884,7 @@
         <v>6</v>
       </c>
       <c r="F253" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.331</v>
       </c>
       <c r="I253">
@@ -7887,7 +7903,7 @@
         <v>10</v>
       </c>
       <c r="F254" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.9750000000000001</v>
       </c>
       <c r="I254">
@@ -7906,7 +7922,7 @@
         <v>6</v>
       </c>
       <c r="F255" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.0169999999999999</v>
       </c>
       <c r="G255">
@@ -7928,7 +7944,7 @@
         <v>6</v>
       </c>
       <c r="F256" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G256">
@@ -7950,7 +7966,7 @@
         <v>6</v>
       </c>
       <c r="F257" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.0169999999999999</v>
       </c>
       <c r="G257">
@@ -7972,7 +7988,7 @@
         <v>6</v>
       </c>
       <c r="F258" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G258">
@@ -7994,7 +8010,7 @@
         <v>22</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.0289999999999999</v>
       </c>
       <c r="G259">
@@ -8016,7 +8032,7 @@
         <v>6</v>
       </c>
       <c r="F260" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.8620000000000001</v>
       </c>
       <c r="G260">
@@ -8038,7 +8054,7 @@
         <v>10</v>
       </c>
       <c r="F261" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.1189999999999998</v>
       </c>
       <c r="G261">
@@ -8060,7 +8076,7 @@
         <v>50</v>
       </c>
       <c r="F262" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.758</v>
       </c>
       <c r="G262">
@@ -8082,7 +8098,7 @@
         <v>6</v>
       </c>
       <c r="F263" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.3879999999999999</v>
       </c>
       <c r="G263">
@@ -8104,7 +8120,7 @@
         <v>10</v>
       </c>
       <c r="F264" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.0989999999999998</v>
       </c>
       <c r="G264">
@@ -8126,7 +8142,7 @@
         <v>26</v>
       </c>
       <c r="F265" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.016</v>
       </c>
       <c r="G265">
@@ -8148,7 +8164,7 @@
         <v>6</v>
       </c>
       <c r="F266" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.8620000000000001</v>
       </c>
       <c r="G266">
@@ -8170,7 +8186,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.1189999999999998</v>
       </c>
       <c r="G267">
@@ -8195,19 +8211,19 @@
         <v>27</v>
       </c>
       <c r="D270" s="1">
-        <f t="shared" ref="D270:G271" si="18">AVERAGE(D135,D162,D189,D216,D243)</f>
+        <f t="shared" ref="D270:G271" si="16">AVERAGE(D135,D162,D189,D216,D243)</f>
         <v>-3.8676000000000004</v>
       </c>
       <c r="E270" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5.9986000000000006</v>
       </c>
       <c r="F270" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-3.8076139999999996</v>
       </c>
       <c r="G270" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>27.937999999999995</v>
       </c>
       <c r="H270" s="1">
@@ -8232,19 +8248,19 @@
         <v>28</v>
       </c>
       <c r="D271" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-3.8380000000000001</v>
       </c>
       <c r="E271" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.2367999999999997</v>
       </c>
       <c r="F271" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-3.8056320000000001</v>
       </c>
       <c r="G271" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1195.4100000000001</v>
       </c>
       <c r="H271" s="1">
@@ -8252,7 +8268,7 @@
         <v>0.78013200119110382</v>
       </c>
       <c r="I271" s="29">
-        <f t="shared" ref="I271:I294" si="19">AVERAGE(I136,I163,I190,I217,I244)</f>
+        <f t="shared" ref="I271:I294" si="17">AVERAGE(I136,I163,I190,I217,I244)</f>
         <v>0.78013200119110382</v>
       </c>
       <c r="J271" s="11">
@@ -8260,7 +8276,7 @@
         <v>0.78547746715238831</v>
       </c>
       <c r="P271" s="29">
-        <f t="shared" ref="P271:P293" si="20">1-I271</f>
+        <f t="shared" ref="P271:P293" si="18">1-I271</f>
         <v>0.21986799880889618</v>
       </c>
     </row>
@@ -8269,15 +8285,15 @@
         <v>46</v>
       </c>
       <c r="D272" s="1">
-        <f t="shared" ref="D272:G295" si="21">AVERAGE(D137,D164,D191,D218,D245)</f>
+        <f t="shared" ref="D272:G295" si="19">AVERAGE(D137,D164,D191,D218,D245)</f>
         <v>-3.8649999999999998</v>
       </c>
       <c r="E272" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>4.5077999999999996</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.8199219999999996</v>
       </c>
       <c r="G272" s="3">
@@ -8289,7 +8305,7 @@
         <v>0.78609280657076452</v>
       </c>
       <c r="I272" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.78609280657076452</v>
       </c>
       <c r="J272" s="11">
@@ -8297,7 +8313,7 @@
         <v>0.7910032335966598</v>
       </c>
       <c r="P272" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.21390719342923548</v>
       </c>
     </row>
@@ -8306,20 +8322,20 @@
         <v>29</v>
       </c>
       <c r="D273" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.8537999999999997</v>
       </c>
       <c r="E273" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>38.799999999999997</v>
       </c>
       <c r="F273" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.4658000000000002</v>
       </c>
       <c r="G273" s="3"/>
       <c r="I273" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.78364319970110274</v>
       </c>
       <c r="J273">
@@ -8331,7 +8347,7 @@
         <v>3.568104250698288E-3</v>
       </c>
       <c r="P273" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.21635680029889726</v>
       </c>
     </row>
@@ -8340,20 +8356,20 @@
         <v>30</v>
       </c>
       <c r="D274" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-1.5484000000000002</v>
       </c>
       <c r="E274" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-1.4883999999999999</v>
       </c>
       <c r="G274" s="3"/>
       <c r="I274" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.31610384406095682</v>
       </c>
       <c r="J274">
@@ -8365,7 +8381,7 @@
         <v>0.59964836074051098</v>
       </c>
       <c r="P274" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.68389615593904318</v>
       </c>
     </row>
@@ -8374,20 +8390,20 @@
         <v>31</v>
       </c>
       <c r="D275" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.7063999999999999</v>
       </c>
       <c r="E275" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F275" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.6063999999999998</v>
       </c>
       <c r="G275" s="3"/>
       <c r="I275" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.75251393749894868</v>
       </c>
       <c r="J275">
@@ -8399,7 +8415,7 @@
         <v>4.1679594580618581E-2</v>
       </c>
       <c r="P275" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.24748606250105132</v>
       </c>
     </row>
@@ -8408,20 +8424,20 @@
         <v>32</v>
       </c>
       <c r="D276" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.8326000000000002</v>
       </c>
       <c r="E276" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>52.8</v>
       </c>
       <c r="F276" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.3045999999999998</v>
       </c>
       <c r="G276" s="3"/>
       <c r="I276" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.77886322755362136</v>
       </c>
       <c r="J276">
@@ -8433,7 +8449,7 @@
         <v>1.4069828035434731E-3</v>
       </c>
       <c r="P276" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.22113677244637864</v>
       </c>
     </row>
@@ -8442,20 +8458,20 @@
         <v>33</v>
       </c>
       <c r="D277" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-1.9104000000000003</v>
       </c>
       <c r="E277" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F277" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-1.8503999999999998</v>
       </c>
       <c r="G277" s="3"/>
       <c r="I277" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.39362365343735062</v>
       </c>
       <c r="J277">
@@ -8467,7 +8483,7 @@
         <v>0.50224075039082849</v>
       </c>
       <c r="P277" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.60637634656264938</v>
       </c>
     </row>
@@ -8476,20 +8492,20 @@
         <v>34</v>
       </c>
       <c r="D278" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.7299999999999995</v>
       </c>
       <c r="E278" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.63</v>
       </c>
       <c r="G278" s="3"/>
       <c r="I278" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.7596210713749757</v>
       </c>
       <c r="J278">
@@ -8501,7 +8517,7 @@
         <v>2.8139656070870385E-2</v>
       </c>
       <c r="P278" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.2403789286250243</v>
       </c>
     </row>
@@ -8510,20 +8526,20 @@
         <v>59</v>
       </c>
       <c r="D279" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.8540000000000001</v>
       </c>
       <c r="E279" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>43.6</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.4180000000000001</v>
       </c>
       <c r="G279" s="3"/>
       <c r="I279" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.78383765490826696</v>
       </c>
       <c r="J279">
@@ -8535,7 +8551,7 @@
         <v>2.8460543337644703E-3</v>
       </c>
       <c r="P279" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.21616234509173304</v>
       </c>
     </row>
@@ -8544,20 +8560,20 @@
         <v>35</v>
       </c>
       <c r="D280" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-1.8676000000000001</v>
       </c>
       <c r="E280" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-1.8076000000000001</v>
       </c>
       <c r="G280" s="3"/>
       <c r="I280" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.38320495820852879</v>
       </c>
       <c r="J280">
@@ -8569,7 +8585,7 @@
         <v>0.51679172056921074</v>
       </c>
       <c r="P280" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.61679504179147115</v>
       </c>
     </row>
@@ -8578,20 +8594,20 @@
         <v>36</v>
       </c>
       <c r="D281" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.6514000000000002</v>
       </c>
       <c r="E281" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.5514000000000001</v>
       </c>
       <c r="G281" s="3"/>
       <c r="I281" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.74198445832791604</v>
       </c>
       <c r="J281">
@@ -8603,7 +8619,7 @@
         <v>5.5265200517464315E-2</v>
       </c>
       <c r="P281" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.25801554167208396</v>
       </c>
     </row>
@@ -8612,15 +8628,15 @@
         <v>63</v>
       </c>
       <c r="D282" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.3298000000000001</v>
       </c>
       <c r="E282" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F282" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.2698</v>
       </c>
       <c r="G282" s="3">
@@ -8628,7 +8644,7 @@
         <v>0.85399999999999987</v>
       </c>
       <c r="I282" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.67892857748365842</v>
       </c>
       <c r="J282">
@@ -8640,7 +8656,7 @@
         <v>0.13241271495570608</v>
       </c>
       <c r="P282" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.32107142251634158</v>
       </c>
     </row>
@@ -8649,23 +8665,23 @@
         <v>62</v>
       </c>
       <c r="D283" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.036</v>
       </c>
       <c r="E283" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.976</v>
       </c>
       <c r="G283" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.49800000000000005</v>
       </c>
       <c r="I283" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.62420921968922138</v>
       </c>
       <c r="J283">
@@ -8677,7 +8693,7 @@
         <v>0.20896300156331424</v>
       </c>
       <c r="P283" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.37579078031077862</v>
       </c>
     </row>
@@ -8686,23 +8702,23 @@
         <v>68</v>
       </c>
       <c r="D284" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.3298000000000001</v>
       </c>
       <c r="E284" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.2698</v>
       </c>
       <c r="G284" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.89599999999999991</v>
       </c>
       <c r="I284" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.67892857748365842</v>
       </c>
       <c r="J284">
@@ -8714,7 +8730,7 @@
         <v>0.13847347994825349</v>
       </c>
       <c r="P284" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.32107142251634158</v>
       </c>
     </row>
@@ -8723,23 +8739,23 @@
         <v>69</v>
       </c>
       <c r="D285" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.036</v>
       </c>
       <c r="E285" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F285" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.976</v>
       </c>
       <c r="G285" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.52</v>
       </c>
       <c r="I285" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.62420921968922138</v>
       </c>
       <c r="J285">
@@ -8751,7 +8767,7 @@
         <v>0.21448900388098313</v>
       </c>
       <c r="P285" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.37579078031077862</v>
       </c>
     </row>
@@ -8760,23 +8776,23 @@
         <v>42</v>
       </c>
       <c r="D286" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.8457999999999992</v>
       </c>
       <c r="E286" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>32.4</v>
       </c>
       <c r="F286" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.5218000000000003</v>
       </c>
       <c r="G286" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>16.948</v>
       </c>
       <c r="I286" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.78166707500726096</v>
       </c>
       <c r="J286">
@@ -8792,7 +8808,7 @@
         <v>1.6157885625252482E-2</v>
       </c>
       <c r="M286" s="25">
-        <f t="shared" ref="M286:M294" si="22">(D286-D273)/D273</f>
+        <f t="shared" ref="M286:M294" si="20">(D286-D273)/D273</f>
         <v>-2.0758731641497877E-3</v>
       </c>
       <c r="N286" s="25">
@@ -8800,15 +8816,15 @@
         <v>0.16494845360824739</v>
       </c>
       <c r="O286" s="28">
-        <f t="shared" ref="O286:O294" si="23">(I286-I273)/I273</f>
+        <f t="shared" ref="O286:O294" si="21">(I286-I273)/I273</f>
         <v>-2.5217148500689076E-3</v>
       </c>
       <c r="P286" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.21833292499273904</v>
       </c>
       <c r="Q286" s="28">
-        <f t="shared" ref="Q286:Q294" si="24">(P273-P286)/P273</f>
+        <f t="shared" ref="Q286:Q294" si="22">(P273-P286)/P273</f>
         <v>-9.1336380049610918E-3</v>
       </c>
     </row>
@@ -8817,23 +8833,23 @@
         <v>35</v>
       </c>
       <c r="D287" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.7090000000000005</v>
       </c>
       <c r="E287" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F287" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.649</v>
       </c>
       <c r="G287" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>41.423999999999999</v>
       </c>
       <c r="I287" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.57133518367671632</v>
       </c>
       <c r="J287">
@@ -8849,7 +8865,7 @@
         <v>0.74954792043399643</v>
       </c>
       <c r="M287" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.74954792043399643</v>
       </c>
       <c r="N287" s="25">
@@ -8857,15 +8873,15 @@
         <v>0</v>
       </c>
       <c r="O287" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.80742877510385858</v>
       </c>
       <c r="P287" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.42866481632328368</v>
       </c>
       <c r="Q287" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.37320189242079715</v>
       </c>
     </row>
@@ -8874,23 +8890,23 @@
         <v>36</v>
       </c>
       <c r="D288" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.7887999999999997</v>
       </c>
       <c r="E288" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F288" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.6888000000000005</v>
       </c>
       <c r="G288" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>18.510000000000002</v>
       </c>
       <c r="I288" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.77112579297118744</v>
       </c>
       <c r="J288">
@@ -8906,7 +8922,7 @@
         <v>2.2231815238506317E-2</v>
       </c>
       <c r="M288" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.2231815238506317E-2</v>
       </c>
       <c r="N288" s="25">
@@ -8914,15 +8930,15 @@
         <v>0</v>
       </c>
       <c r="O288" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.4732904661004716E-2</v>
       </c>
       <c r="P288" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.22887420702881256</v>
       </c>
       <c r="Q288" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>7.5203651002204192E-2</v>
       </c>
     </row>
@@ -8931,23 +8947,23 @@
         <v>43</v>
       </c>
       <c r="D289" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.8404000000000003</v>
       </c>
       <c r="E289" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="F289" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.3404000000000003</v>
       </c>
       <c r="G289" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9.8780000000000019</v>
       </c>
       <c r="I289" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.78080662147550928</v>
       </c>
       <c r="J289">
@@ -8963,7 +8979,7 @@
         <v>1.0833383768081009E-2</v>
       </c>
       <c r="M289" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.0351719459374912E-3</v>
       </c>
       <c r="N289" s="25">
@@ -8971,15 +8987,15 @@
         <v>5.3030303030302976E-2</v>
       </c>
       <c r="O289" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.4951671270860205E-3</v>
       </c>
       <c r="P289" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.21919337852449072</v>
       </c>
       <c r="Q289" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>8.7881988164548713E-3</v>
       </c>
     </row>
@@ -8988,23 +9004,23 @@
         <v>37</v>
       </c>
       <c r="D290" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.6142000000000003</v>
       </c>
       <c r="E290" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="F290" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.5541999999999998</v>
       </c>
       <c r="G290" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>33.363999999999997</v>
       </c>
       <c r="I290" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.54825826059979321</v>
       </c>
       <c r="J290">
@@ -9020,7 +9036,7 @@
         <v>0.36840452261306528</v>
       </c>
       <c r="M290" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.36840452261306528</v>
       </c>
       <c r="N290" s="25">
@@ -9028,15 +9044,15 @@
         <v>0</v>
       </c>
       <c r="O290" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.39284886924879459</v>
       </c>
       <c r="P290" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.45174173940020679</v>
       </c>
       <c r="Q290" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.25501424657972888</v>
       </c>
     </row>
@@ -9045,23 +9061,23 @@
         <v>38</v>
       </c>
       <c r="D291" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.7518000000000002</v>
       </c>
       <c r="E291" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="F291" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.6518000000000002</v>
       </c>
       <c r="G291" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10.843999999999999</v>
       </c>
       <c r="I291" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.76397668745859582</v>
       </c>
       <c r="J291">
@@ -9077,7 +9093,7 @@
         <v>5.8445040214479115E-3</v>
       </c>
       <c r="M291" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>5.8445040214479115E-3</v>
       </c>
       <c r="N291" s="25">
@@ -9085,15 +9101,15 @@
         <v>0</v>
       </c>
       <c r="O291" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>5.7339326774283649E-3</v>
       </c>
       <c r="P291" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.23602331254140418</v>
       </c>
       <c r="Q291" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1.8119791566317357E-2</v>
       </c>
     </row>
@@ -9102,23 +9118,23 @@
         <v>237</v>
       </c>
       <c r="D292" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.8536000000000001</v>
       </c>
       <c r="E292" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>40.4</v>
       </c>
       <c r="F292" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.4495999999999993</v>
       </c>
       <c r="G292" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>11.112</v>
       </c>
       <c r="I292" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.78374028392482009</v>
       </c>
       <c r="J292">
@@ -9134,7 +9150,7 @@
         <v>9.2451726155644183E-3</v>
       </c>
       <c r="M292" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-1.0378827192526101E-4</v>
       </c>
       <c r="N292" s="25">
@@ -9142,15 +9158,15 @@
         <v>7.3394495412844096E-2</v>
       </c>
       <c r="O292" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-1.242234062591193E-4</v>
       </c>
       <c r="P292" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.21625971607517991</v>
       </c>
       <c r="Q292" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-4.5045303059394358E-4</v>
       </c>
     </row>
@@ -9159,23 +9175,23 @@
         <v>238</v>
       </c>
       <c r="D293" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.7090000000000005</v>
       </c>
       <c r="E293" s="18">
-        <f t="shared" ref="E293:G293" si="25">AVERAGE(E158,E185,E212,E239,E266)</f>
+        <f t="shared" ref="E293:G294" si="23">AVERAGE(E158,E185,E212,E239,E266)</f>
         <v>6</v>
       </c>
       <c r="F293" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-2.649</v>
       </c>
       <c r="G293" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>39.532000000000004</v>
       </c>
       <c r="I293" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.57133518367671632</v>
       </c>
       <c r="J293">
@@ -9191,7 +9207,7 @@
         <v>0.45052473763118456</v>
       </c>
       <c r="M293" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.45052473763118456</v>
       </c>
       <c r="N293" s="25">
@@ -9199,15 +9215,15 @@
         <v>0</v>
       </c>
       <c r="O293" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.49093891255397754</v>
       </c>
       <c r="P293" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.42866481632328368</v>
       </c>
       <c r="Q293" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.30501254504537895</v>
       </c>
     </row>
@@ -9216,23 +9232,23 @@
         <v>239</v>
       </c>
       <c r="D294" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-3.7814000000000001</v>
       </c>
       <c r="E294" s="18">
-        <f t="shared" ref="E294:G294" si="26">AVERAGE(E159,E186,E213,E240,E267)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F294" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-3.6814000000000009</v>
       </c>
       <c r="G294" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>24.024000000000001</v>
       </c>
       <c r="I294" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.76995100332203681</v>
       </c>
       <c r="J294">
@@ -9248,7 +9264,7 @@
         <v>3.5602782494385685E-2</v>
       </c>
       <c r="M294" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>3.5602782494385685E-2</v>
       </c>
       <c r="N294" s="25">
@@ -9256,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="O294" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>3.7691550921624697E-2</v>
       </c>
       <c r="P294" s="29">
@@ -9264,7 +9280,7 @@
         <v>0.23004899667796319</v>
       </c>
       <c r="Q294" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.10839093185194205</v>
       </c>
     </row>
@@ -9273,7 +9289,7 @@
         <v>419</v>
       </c>
       <c r="D295" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-4.8862000000000005</v>
       </c>
     </row>
@@ -9287,15 +9303,15 @@
         <v>0.9344853128861893</v>
       </c>
       <c r="E297" s="1">
-        <f t="shared" ref="E297:G297" si="27">STDEV(E135,E162,E189,E216,E243)</f>
+        <f>STDEV(E135,E162,E189,E216,E243)</f>
         <v>0.59964722962755368</v>
       </c>
       <c r="F297" s="1">
-        <f t="shared" si="27"/>
+        <f>STDEV(F135,F162,F189,F216,F243)</f>
         <v>0.93481350101504268</v>
       </c>
       <c r="G297" s="1">
-        <f t="shared" si="27"/>
+        <f>STDEV(G135,G162,G189,G216,G243)</f>
         <v>7.616736177655115</v>
       </c>
       <c r="H297" s="17">
@@ -9308,19 +9324,19 @@
         <v>28</v>
       </c>
       <c r="D298" s="1">
-        <f t="shared" ref="D298:G322" si="28">STDEV(D136,D163,D190,D217,D244)</f>
+        <f t="shared" ref="D298:G322" si="24">STDEV(D136,D163,D190,D217,D244)</f>
         <v>0.94190710794642551</v>
       </c>
       <c r="E298" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.6433507596948993</v>
       </c>
       <c r="F298" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93736643582966095</v>
       </c>
       <c r="G298" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>233.72305866131413</v>
       </c>
       <c r="H298" s="17">
@@ -9333,19 +9349,19 @@
         <v>46</v>
       </c>
       <c r="D299" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93386187415484589</v>
       </c>
       <c r="E299" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.27504581436553449</v>
       </c>
       <c r="F299" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93445987876419856</v>
       </c>
       <c r="G299" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>156.62305322014373</v>
       </c>
       <c r="H299" s="17">
@@ -9358,15 +9374,15 @@
         <v>29</v>
       </c>
       <c r="D300" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93545587816850329</v>
       </c>
       <c r="E300" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5.2153619241621234</v>
       </c>
       <c r="F300" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.89831714889564496</v>
       </c>
       <c r="G300" s="1"/>
@@ -9376,15 +9392,15 @@
         <v>30</v>
       </c>
       <c r="D301" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.56778895727197753</v>
       </c>
       <c r="E301" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F301" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.56778895727197787</v>
       </c>
       <c r="G301" s="1"/>
@@ -9394,15 +9410,15 @@
         <v>31</v>
       </c>
       <c r="D302" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93950588076924879</v>
       </c>
       <c r="E302" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F302" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.9395058807692469</v>
       </c>
       <c r="G302" s="1"/>
@@ -9412,15 +9428,15 @@
         <v>32</v>
       </c>
       <c r="D303" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.9451736877421002</v>
       </c>
       <c r="E303" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>3.3466401061363023</v>
       </c>
       <c r="F303" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.92120318062846507</v>
       </c>
       <c r="G303" s="1"/>
@@ -9430,15 +9446,15 @@
         <v>33</v>
       </c>
       <c r="D304" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.37853837321994011</v>
       </c>
       <c r="E304" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F304" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.37853837321994249</v>
       </c>
       <c r="G304" s="1"/>
@@ -9448,15 +9464,15 @@
         <v>34</v>
       </c>
       <c r="D305" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.87387670755090152</v>
       </c>
       <c r="E305" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F305" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.87387670755090152</v>
       </c>
       <c r="G305" s="1"/>
@@ -9466,15 +9482,15 @@
         <v>59</v>
       </c>
       <c r="D306" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93090305617717128</v>
       </c>
       <c r="E306" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>3.577708763999663</v>
       </c>
       <c r="F306" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.89994472052454388</v>
       </c>
       <c r="G306" s="1"/>
@@ -9484,15 +9500,15 @@
         <v>35</v>
       </c>
       <c r="D307" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.43026538322295788</v>
       </c>
       <c r="E307" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F307" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.43026538322295893</v>
       </c>
       <c r="G307" s="1"/>
@@ -9502,15 +9518,15 @@
         <v>36</v>
       </c>
       <c r="D308" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.89544586659384318</v>
       </c>
       <c r="E308" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F308" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.89544586659384318</v>
       </c>
       <c r="G308" s="1"/>
@@ -9520,19 +9536,19 @@
         <v>63</v>
       </c>
       <c r="D309" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.76418237352087437</v>
       </c>
       <c r="E309" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F309" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.76418237352087659</v>
       </c>
       <c r="G309" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.10968135666557105</v>
       </c>
     </row>
@@ -9541,19 +9557,19 @@
         <v>62</v>
       </c>
       <c r="D310" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.54693143994471438</v>
       </c>
       <c r="E310" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F310" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.5469314399447176</v>
       </c>
       <c r="G310" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.17683325479106005</v>
       </c>
     </row>
@@ -9562,19 +9578,19 @@
         <v>68</v>
       </c>
       <c r="D311" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.76418237352087437</v>
       </c>
       <c r="E311" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F311" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.76418237352087659</v>
       </c>
       <c r="G311" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.2369177072318577</v>
       </c>
     </row>
@@ -9583,19 +9599,19 @@
         <v>69</v>
       </c>
       <c r="D312" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.54693143994471438</v>
       </c>
       <c r="E312" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F312" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.5469314399447176</v>
       </c>
       <c r="G312" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.20554804791094469</v>
       </c>
     </row>
@@ -9604,19 +9620,19 @@
         <v>42</v>
       </c>
       <c r="D313" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.94343505340855793</v>
       </c>
       <c r="E313" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>13.446189051177287</v>
       </c>
       <c r="F313" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.84213876528752396</v>
       </c>
       <c r="G313" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>16.858864730461537</v>
       </c>
     </row>
@@ -9625,19 +9641,19 @@
         <v>35</v>
       </c>
       <c r="D314" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.53540311915415606</v>
       </c>
       <c r="E314" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F314" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.53540311915415773</v>
       </c>
       <c r="G314" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>20.13904367143585</v>
       </c>
     </row>
@@ -9646,19 +9662,19 @@
         <v>36</v>
       </c>
       <c r="D315" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.89669431803709143</v>
       </c>
       <c r="E315" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F315" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.89669431803708743</v>
       </c>
       <c r="G315" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5.7204501571117525</v>
       </c>
     </row>
@@ -9667,19 +9683,19 @@
         <v>43</v>
       </c>
       <c r="D316" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93548131996314976</v>
       </c>
       <c r="E316" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>4.8989794855663558</v>
       </c>
       <c r="F316" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.89284113928514619</v>
       </c>
       <c r="G316" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>5.7033560295671473</v>
       </c>
     </row>
@@ -9688,19 +9704,19 @@
         <v>37</v>
       </c>
       <c r="D317" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.53019873632440817</v>
       </c>
       <c r="E317" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F317" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.53019873632440817</v>
       </c>
       <c r="G317" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>24.73217701699549</v>
       </c>
     </row>
@@ -9709,19 +9725,19 @@
         <v>38</v>
       </c>
       <c r="D318" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.8815246451461245</v>
       </c>
       <c r="E318" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F318" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.8815246451461265</v>
       </c>
       <c r="G318" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>4.3649776631730868</v>
       </c>
     </row>
@@ -9730,19 +9746,19 @@
         <v>237</v>
       </c>
       <c r="D319" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.93121281133798772</v>
       </c>
       <c r="E319" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>8.7635609200826554</v>
       </c>
       <c r="F319" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.87786861203713529</v>
       </c>
       <c r="G319" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>13.374143710907253</v>
       </c>
     </row>
@@ -9751,19 +9767,19 @@
         <v>238</v>
       </c>
       <c r="D320" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.53540311915415606</v>
       </c>
       <c r="E320" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F320" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.53540311915415773</v>
       </c>
       <c r="G320" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>20.665585401822014</v>
       </c>
     </row>
@@ -9772,19 +9788,19 @@
         <v>239</v>
       </c>
       <c r="D321" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.88230822278838672</v>
       </c>
       <c r="E321" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F321" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.88230822278838261</v>
       </c>
       <c r="G321" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>6.8898969513338804</v>
       </c>
     </row>
@@ -9793,7 +9809,7 @@
         <v>419</v>
       </c>
       <c r="D322" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.95496476374785422</v>
       </c>
       <c r="E322" s="1"/>
@@ -9809,7 +9825,7 @@
         <v>2.74</v>
       </c>
       <c r="F325">
-        <f>D325+E325*0.01</f>
+        <f t="shared" ref="F325:F331" si="25">D325+E325*0.01</f>
         <v>-2.4885999999999999</v>
       </c>
       <c r="G325">
@@ -9827,7 +9843,7 @@
         <v>2.74</v>
       </c>
       <c r="F326">
-        <f>D326+E326*0.01</f>
+        <f t="shared" si="25"/>
         <v>-2.4885999999999999</v>
       </c>
       <c r="G326">
@@ -9845,7 +9861,7 @@
         <v>2</v>
       </c>
       <c r="F327">
-        <f>D327+E327*0.01</f>
+        <f t="shared" si="25"/>
         <v>-0.45499999999999996</v>
       </c>
       <c r="G327">
@@ -9863,7 +9879,7 @@
         <v>6</v>
       </c>
       <c r="F328">
-        <f t="shared" ref="F328:F331" si="29">D328+E328*0.01</f>
+        <f t="shared" si="25"/>
         <v>-2.081</v>
       </c>
       <c r="G328">
@@ -9881,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="F329">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G329">
@@ -9899,7 +9915,7 @@
         <v>22</v>
       </c>
       <c r="F330">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>-1.528</v>
       </c>
       <c r="G330">
@@ -9917,7 +9933,7 @@
         <v>14.36</v>
       </c>
       <c r="F331">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>-3.8553999999999999</v>
       </c>
       <c r="G331">
@@ -9991,7 +10007,7 @@
         <v>6</v>
       </c>
       <c r="F337">
-        <f t="shared" ref="F337:F340" si="30">D337+E337*0.01</f>
+        <f>D337+E337*0.01</f>
         <v>-1.2409999999999999</v>
       </c>
       <c r="G337">
@@ -10021,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <f t="shared" si="30"/>
+        <f>D339+E339*0.01</f>
         <v>0</v>
       </c>
       <c r="G339">
@@ -10039,7 +10055,7 @@
         <v>13.087999999999999</v>
       </c>
       <c r="F340">
-        <f t="shared" si="30"/>
+        <f>D340+E340*0.01</f>
         <v>-5.1721199999999996</v>
       </c>
       <c r="G340">
@@ -10105,7 +10121,7 @@
         <v>8</v>
       </c>
       <c r="F349">
-        <f>D349+E349*0.01</f>
+        <f t="shared" ref="F349:F354" si="26">D349+E349*0.01</f>
         <v>-0.91999986147102009</v>
       </c>
       <c r="G349">
@@ -10115,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="I349">
-        <f t="shared" ref="I349:I355" si="31">1-D349/-1</f>
+        <f t="shared" ref="I349:I355" si="27">1-D349/-1</f>
         <v>1.3852897995381142E-7</v>
       </c>
     </row>
@@ -10130,7 +10146,7 @@
         <v>8</v>
       </c>
       <c r="F350">
-        <f>D350+E350*0.01</f>
+        <f t="shared" si="26"/>
         <v>-0.91999999409530409</v>
       </c>
       <c r="G350">
@@ -10140,7 +10156,7 @@
         <v>6</v>
       </c>
       <c r="I350">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.9046959544062361E-9</v>
       </c>
     </row>
@@ -10155,7 +10171,7 @@
         <v>12</v>
       </c>
       <c r="F351">
-        <f t="shared" ref="F351:F354" si="32">D351+E351*0.01</f>
+        <f t="shared" si="26"/>
         <v>-0.87999998919299605</v>
       </c>
       <c r="G351">
@@ -10165,7 +10181,7 @@
         <v>10</v>
       </c>
       <c r="I351">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1.0807003958390737E-8</v>
       </c>
     </row>
@@ -10180,7 +10196,7 @@
         <v>4</v>
       </c>
       <c r="F352">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>-0.86899999999999999</v>
       </c>
       <c r="G352">
@@ -10190,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="I352">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>9.099999999999997E-2</v>
       </c>
     </row>
@@ -10205,7 +10221,7 @@
         <v>4</v>
       </c>
       <c r="F353">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>-0.86899999999999999</v>
       </c>
       <c r="G353">
@@ -10215,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="I353">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>9.099999999999997E-2</v>
       </c>
     </row>
@@ -10230,7 +10246,7 @@
         <v>6</v>
       </c>
       <c r="F354">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>-0.70500000000000007</v>
       </c>
       <c r="G354">
@@ -10240,7 +10256,7 @@
         <v>3</v>
       </c>
       <c r="I354">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0.23499999999999999</v>
       </c>
     </row>
@@ -10261,7 +10277,7 @@
         <v>2</v>
       </c>
       <c r="I355">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1.3416181879888356E-6</v>
       </c>
     </row>
@@ -10318,7 +10334,7 @@
         <v>6</v>
       </c>
       <c r="F359">
-        <f t="shared" ref="F359:F379" si="33">D359+E359*0.01</f>
+        <f t="shared" ref="F359:F379" si="28">D359+E359*0.01</f>
         <v>-3.9369999999999998</v>
       </c>
       <c r="G359">
@@ -10339,7 +10355,7 @@
         <v>6</v>
       </c>
       <c r="F360">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-3.8239999999999998</v>
       </c>
       <c r="G360">
@@ -10360,7 +10376,7 @@
         <v>6</v>
       </c>
       <c r="F361">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-3.8239999999999998</v>
       </c>
       <c r="G361">
@@ -10381,7 +10397,7 @@
         <v>6</v>
       </c>
       <c r="F362">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-3.8239999999999998</v>
       </c>
       <c r="G362">
@@ -10402,7 +10418,7 @@
         <v>14</v>
       </c>
       <c r="F364">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.738</v>
       </c>
       <c r="G364">
@@ -10423,7 +10439,7 @@
         <v>22</v>
       </c>
       <c r="F365">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.6629999999999998</v>
       </c>
       <c r="G365">
@@ -10444,7 +10460,7 @@
         <v>14</v>
       </c>
       <c r="F366">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.738</v>
       </c>
       <c r="G366">
@@ -10465,7 +10481,7 @@
         <v>6</v>
       </c>
       <c r="F367">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.153</v>
       </c>
       <c r="G367">
@@ -10486,7 +10502,7 @@
         <v>6</v>
       </c>
       <c r="F368">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.153</v>
       </c>
       <c r="G368">
@@ -10507,7 +10523,7 @@
         <v>6</v>
       </c>
       <c r="F369">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.153</v>
       </c>
       <c r="G369">
@@ -10528,7 +10544,7 @@
         <v>22</v>
       </c>
       <c r="F371">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-5.0920000000000005</v>
       </c>
       <c r="G371">
@@ -10549,7 +10565,7 @@
         <v>18</v>
       </c>
       <c r="F372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-5.125</v>
       </c>
       <c r="G372">
@@ -10570,7 +10586,7 @@
         <v>26</v>
       </c>
       <c r="F373">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-5.056</v>
       </c>
       <c r="G373">
@@ -10591,7 +10607,7 @@
         <v>6</v>
       </c>
       <c r="F374">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.04</v>
       </c>
       <c r="G374">
@@ -10612,7 +10628,7 @@
         <v>6</v>
       </c>
       <c r="F375">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-3.6059999999999999</v>
       </c>
       <c r="G375">
@@ -10633,7 +10649,7 @@
         <v>6</v>
       </c>
       <c r="F376">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-2.04</v>
       </c>
       <c r="G376">
@@ -10654,7 +10670,7 @@
         <v>26</v>
       </c>
       <c r="F378">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-3.4710000000000001</v>
       </c>
       <c r="G378">
@@ -10675,7 +10691,7 @@
         <v>22</v>
       </c>
       <c r="F379">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>-3.508</v>
       </c>
       <c r="G379">
@@ -10696,7 +10712,7 @@
         <v>22</v>
       </c>
       <c r="F380">
-        <f t="shared" ref="F380:F397" si="34">D380+E380*0.01</f>
+        <f t="shared" ref="F380:F397" si="29">D380+E380*0.01</f>
         <v>-3.508</v>
       </c>
       <c r="G380">
@@ -10717,7 +10733,7 @@
         <v>6</v>
       </c>
       <c r="F381">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G381">
@@ -10738,7 +10754,7 @@
         <v>6</v>
       </c>
       <c r="F382">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G382">
@@ -10759,7 +10775,7 @@
         <v>6</v>
       </c>
       <c r="F383">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G383">
@@ -10780,7 +10796,7 @@
         <v>14</v>
       </c>
       <c r="F385">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.9330000000000003</v>
       </c>
       <c r="G385">
@@ -10801,7 +10817,7 @@
         <v>14</v>
       </c>
       <c r="F386">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.9330000000000003</v>
       </c>
       <c r="G386">
@@ -10822,7 +10838,7 @@
         <v>10</v>
       </c>
       <c r="F387">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.9449999999999998</v>
       </c>
       <c r="G387">
@@ -10843,7 +10859,7 @@
         <v>4</v>
       </c>
       <c r="F388">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-2.641</v>
       </c>
       <c r="G388">
@@ -10864,7 +10880,7 @@
         <v>6</v>
       </c>
       <c r="F389">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.3109999999999999</v>
       </c>
       <c r="G389">
@@ -10885,7 +10901,7 @@
         <v>6</v>
       </c>
       <c r="F390">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.3109999999999999</v>
       </c>
       <c r="G390">
@@ -10906,7 +10922,7 @@
         <v>22</v>
       </c>
       <c r="F392">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.0679999999999996</v>
       </c>
       <c r="G392">
@@ -10927,7 +10943,7 @@
         <v>18</v>
       </c>
       <c r="F393">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.1059999999999999</v>
       </c>
       <c r="G393">
@@ -10948,7 +10964,7 @@
         <v>14</v>
       </c>
       <c r="F394">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-3.1419999999999999</v>
       </c>
       <c r="G394">
@@ -10969,7 +10985,7 @@
         <v>6</v>
       </c>
       <c r="F395">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-2.8740000000000001</v>
       </c>
       <c r="G395">
@@ -10990,7 +11006,7 @@
         <v>6</v>
       </c>
       <c r="F396">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-2.8740000000000001</v>
       </c>
       <c r="G396">
@@ -11011,7 +11027,7 @@
         <v>6</v>
       </c>
       <c r="F397">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-2.8740000000000001</v>
       </c>
       <c r="G397">
@@ -11026,23 +11042,23 @@
         <v>435</v>
       </c>
       <c r="D399" s="1">
-        <f>AVERAGE(D364,D371,D378,D385,D392)</f>
+        <f t="shared" ref="D399:H404" si="30">AVERAGE(D364,D371,D378,D385,D392)</f>
         <v>-3.8563999999999998</v>
       </c>
       <c r="E399">
-        <f>AVERAGE(E364,E371,E378,E385,E392)</f>
+        <f t="shared" si="30"/>
         <v>19.600000000000001</v>
       </c>
       <c r="F399" s="1">
-        <f>AVERAGE(F364,F371,F378,F385,F392)</f>
+        <f t="shared" si="30"/>
         <v>-3.6604000000000001</v>
       </c>
       <c r="G399" s="3">
-        <f>AVERAGE(G364,G371,G378,G385,G392)</f>
+        <f t="shared" si="30"/>
         <v>15.408000000000001</v>
       </c>
       <c r="H399">
-        <f>AVERAGE(H364,H371,H378,H385,H392)</f>
+        <f t="shared" si="30"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -11051,23 +11067,23 @@
         <v>276</v>
       </c>
       <c r="D400" s="1">
-        <f t="shared" ref="D400:H400" si="35">AVERAGE(D365,D372,D379,D386,D393)</f>
+        <f t="shared" si="30"/>
         <v>-3.8549999999999995</v>
       </c>
       <c r="E400">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>18.8</v>
       </c>
       <c r="F400" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>-3.6670000000000003</v>
       </c>
       <c r="G400" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>16.521999999999998</v>
       </c>
       <c r="H400">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -11076,23 +11092,23 @@
         <v>436</v>
       </c>
       <c r="D401" s="1">
-        <f t="shared" ref="D401:H401" si="36">AVERAGE(D366,D373,D380,D387,D394)</f>
+        <f t="shared" si="30"/>
         <v>-3.8497999999999997</v>
       </c>
       <c r="E401">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>17.2</v>
       </c>
       <c r="F401" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>-3.6778</v>
       </c>
       <c r="G401" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>9.427999999999999</v>
       </c>
       <c r="H401">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>8.6</v>
       </c>
     </row>
@@ -11101,23 +11117,23 @@
         <v>437</v>
       </c>
       <c r="D402" s="1">
-        <f t="shared" ref="D402:H402" si="37">AVERAGE(D367,D374,D381,D388,D395)</f>
+        <f t="shared" si="30"/>
         <v>-2.5786000000000002</v>
       </c>
       <c r="E402">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>5.6</v>
       </c>
       <c r="F402" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>-2.5225999999999997</v>
       </c>
       <c r="G402" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>0.41600000000000004</v>
       </c>
       <c r="H402">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>2.8</v>
       </c>
     </row>
@@ -11126,23 +11142,23 @@
         <v>438</v>
       </c>
       <c r="D403" s="1">
-        <f t="shared" ref="D403:H403" si="38">AVERAGE(D368,D375,D382,D389,D396)</f>
+        <f t="shared" si="30"/>
         <v>-3.0298000000000003</v>
       </c>
       <c r="E403">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="F403" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>-2.9698000000000002</v>
       </c>
       <c r="G403" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
       <c r="H403">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
     </row>
@@ -11151,23 +11167,23 @@
         <v>439</v>
       </c>
       <c r="D404" s="1">
-        <f t="shared" ref="D404:H404" si="39">AVERAGE(D369,D376,D383,D390,D397)</f>
+        <f t="shared" si="30"/>
         <v>-2.7166000000000006</v>
       </c>
       <c r="E404">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="F404" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>-2.6566000000000001</v>
       </c>
       <c r="G404" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>0.51200000000000001</v>
       </c>
       <c r="H404">
-        <f t="shared" si="39"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
     </row>
@@ -11176,23 +11192,23 @@
         <v>435</v>
       </c>
       <c r="D406">
-        <f>STDEV(D364,D371,D378,D385,D392)</f>
+        <f t="shared" ref="D406:H411" si="31">STDEV(D364,D371,D378,D385,D392)</f>
         <v>0.93028990105235587</v>
       </c>
       <c r="E406">
-        <f t="shared" ref="E406:H406" si="40">STDEV(E364,E371,E378,E385,E392)</f>
+        <f t="shared" si="31"/>
         <v>5.3665631459994962</v>
       </c>
       <c r="F406">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>0.91670895053992052</v>
       </c>
       <c r="G406">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>10.287264942636595</v>
       </c>
       <c r="H406">
-        <f t="shared" si="40"/>
+        <f t="shared" si="31"/>
         <v>2.6832815729997481</v>
       </c>
     </row>
@@ -11201,23 +11217,23 @@
         <v>276</v>
       </c>
       <c r="D407">
-        <f t="shared" ref="D407:D411" si="41">STDEV(D365,D372,D379,D386,D393)</f>
+        <f t="shared" si="31"/>
         <v>0.92664691225946627</v>
       </c>
       <c r="E407">
-        <f t="shared" ref="E407:H407" si="42">STDEV(E365,E372,E379,E386,E393)</f>
+        <f t="shared" si="31"/>
         <v>3.3466401061363005</v>
       </c>
       <c r="F407">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>0.94134717293886883</v>
       </c>
       <c r="G407">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>5.8584059265298443</v>
       </c>
       <c r="H407">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.2803508501982734</v>
       </c>
     </row>
@@ -11226,23 +11242,23 @@
         <v>436</v>
       </c>
       <c r="D408">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0.93132604387507867</v>
       </c>
       <c r="E408">
-        <f t="shared" ref="E408:H408" si="43">STDEV(E366,E373,E380,E387,E394)</f>
+        <f t="shared" si="31"/>
         <v>6.5726706900619929</v>
       </c>
       <c r="F408">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>0.89022030981100497</v>
       </c>
       <c r="G408">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>8.3791121248017681</v>
       </c>
       <c r="H408">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>3.2863353450309964</v>
       </c>
     </row>
@@ -11251,23 +11267,23 @@
         <v>437</v>
       </c>
       <c r="D409">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0.4027471911758046</v>
       </c>
       <c r="E409">
-        <f t="shared" ref="E409:H409" si="44">STDEV(E367,E374,E381,E388,E395)</f>
+        <f t="shared" si="31"/>
         <v>0.8944271909999143</v>
       </c>
       <c r="F409">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>0.40411545380002578</v>
       </c>
       <c r="G409">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>0.21559220765138989</v>
       </c>
       <c r="H409">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>0.44721359549995715</v>
       </c>
     </row>
@@ -11276,23 +11292,23 @@
         <v>438</v>
       </c>
       <c r="D410">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0.54811194112151873</v>
       </c>
       <c r="E410">
-        <f t="shared" ref="E410:H410" si="45">STDEV(E368,E375,E382,E389,E396)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F410">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>0.54811194112151873</v>
       </c>
       <c r="G410">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>0.10074720839804939</v>
       </c>
       <c r="H410">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -11301,23 +11317,23 @@
         <v>439</v>
       </c>
       <c r="D411">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0.54106681657628719</v>
       </c>
       <c r="E411">
-        <f t="shared" ref="E411:H411" si="46">STDEV(E369,E376,E383,E390,E397)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F411">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>0.54106681657628874</v>
       </c>
       <c r="G411">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>0.26185874054535579</v>
       </c>
       <c r="H411">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -11423,27 +11439,27 @@
     </row>
     <row r="422" spans="4:9">
       <c r="D422">
-        <f>AVERAGE(D417:D421)</f>
+        <f t="shared" ref="D422:I422" si="32">AVERAGE(D417:D421)</f>
         <v>8.4</v>
       </c>
       <c r="E422">
-        <f t="shared" ref="E422:I422" si="47">AVERAGE(E417:E421)</f>
+        <f t="shared" si="32"/>
         <v>7.8</v>
       </c>
       <c r="F422">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="G422">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>2472.8000000000002</v>
       </c>
       <c r="H422">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>3730.2</v>
       </c>
       <c r="I422">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>2507.8000000000002</v>
       </c>
     </row>
@@ -11523,19 +11539,19 @@
         <v>8.4</v>
       </c>
       <c r="E430">
-        <f t="shared" ref="E430:G430" si="48">AVERAGE(E425:E429)</f>
+        <f>AVERAGE(E425:E429)</f>
         <v>8</v>
       </c>
       <c r="F430">
-        <f t="shared" si="48"/>
+        <f>AVERAGE(F425:F429)</f>
         <v>7.2</v>
       </c>
       <c r="G430">
-        <f t="shared" si="48"/>
+        <f>AVERAGE(G425:G429)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="3:9">
+    <row r="433" spans="3:10">
       <c r="D433">
         <v>155</v>
       </c>
@@ -11555,7 +11571,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="434" spans="3:9">
+    <row r="434" spans="3:10">
       <c r="D434">
         <v>31</v>
       </c>
@@ -11575,7 +11591,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="435" spans="3:9">
+    <row r="435" spans="3:10">
       <c r="D435">
         <v>31</v>
       </c>
@@ -11595,7 +11611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="436" spans="3:9">
+    <row r="436" spans="3:10">
       <c r="D436">
         <v>31</v>
       </c>
@@ -11615,7 +11631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="437" spans="3:9">
+    <row r="437" spans="3:10">
       <c r="D437">
         <v>220</v>
       </c>
@@ -11635,33 +11651,33 @@
         <v>156</v>
       </c>
     </row>
-    <row r="438" spans="3:9">
+    <row r="438" spans="3:10">
       <c r="D438">
-        <f>AVERAGE(D433:D437)</f>
+        <f t="shared" ref="D438:I438" si="33">AVERAGE(D433:D437)</f>
         <v>93.6</v>
       </c>
       <c r="E438">
-        <f t="shared" ref="E438:I438" si="49">AVERAGE(E433:E437)</f>
+        <f t="shared" si="33"/>
         <v>218.8</v>
       </c>
       <c r="F438">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>99.6</v>
       </c>
       <c r="G438">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>62.4</v>
       </c>
       <c r="H438">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>208.2</v>
       </c>
       <c r="I438">
-        <f t="shared" si="49"/>
+        <f t="shared" si="33"/>
         <v>144.4</v>
       </c>
     </row>
-    <row r="440" spans="3:9">
+    <row r="440" spans="3:10">
       <c r="D440">
         <v>93</v>
       </c>
@@ -11672,7 +11688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="441" spans="3:9">
+    <row r="441" spans="3:10">
       <c r="D441">
         <v>31</v>
       </c>
@@ -11683,7 +11699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="442" spans="3:9">
+    <row r="442" spans="3:10">
       <c r="D442">
         <v>94</v>
       </c>
@@ -11694,7 +11710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="443" spans="3:9">
+    <row r="443" spans="3:10">
       <c r="D443">
         <v>31</v>
       </c>
@@ -11705,7 +11721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="3:9">
+    <row r="444" spans="3:10">
       <c r="D444">
         <v>31</v>
       </c>
@@ -11716,22 +11732,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="445" spans="3:9">
+    <row r="445" spans="3:10">
       <c r="D445">
         <f>AVERAGE(D440:D444)</f>
         <v>56</v>
       </c>
       <c r="E445">
-        <f t="shared" ref="E445:F445" si="50">AVERAGE(E440:E444)</f>
+        <f>AVERAGE(E440:E444)</f>
         <v>174</v>
       </c>
       <c r="F445">
-        <f t="shared" si="50"/>
+        <f>AVERAGE(F440:F444)</f>
         <v>56.2</v>
       </c>
     </row>
-    <row r="447" spans="3:9" s="21" customFormat="1"/>
-    <row r="448" spans="3:9">
+    <row r="447" spans="3:10" s="21" customFormat="1"/>
+    <row r="448" spans="3:10">
       <c r="C448" t="s">
         <v>27</v>
       </c>
@@ -11755,8 +11771,12 @@
         <f>D448/D473</f>
         <v>0.8574273197929112</v>
       </c>
-    </row>
-    <row r="449" spans="3:9">
+      <c r="J448">
+        <f>1-I448</f>
+        <v>0.1425726802070888</v>
+      </c>
+    </row>
+    <row r="449" spans="3:11">
       <c r="C449" t="s">
         <v>28</v>
       </c>
@@ -11767,7 +11787,7 @@
         <v>4.3719999999999999</v>
       </c>
       <c r="F449">
-        <f t="shared" ref="F449:F472" si="51">D449+E449*0.01</f>
+        <f t="shared" ref="F449:F472" si="34">D449+E449*0.01</f>
         <v>-2.1002800000000001</v>
       </c>
       <c r="G449">
@@ -11780,8 +11800,16 @@
         <f>D449/D473</f>
         <v>0.85384309040223016</v>
       </c>
-    </row>
-    <row r="450" spans="3:9" ht="17">
+      <c r="J449">
+        <f>1-I449</f>
+        <v>0.14615690959776984</v>
+      </c>
+      <c r="K449">
+        <f>J449+0.01*E449</f>
+        <v>0.18987690959776984</v>
+      </c>
+    </row>
+    <row r="450" spans="3:11" ht="17">
       <c r="C450" s="2" t="s">
         <v>46</v>
       </c>
@@ -11792,7 +11820,7 @@
         <v>4.6180000000000003</v>
       </c>
       <c r="F450">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.1068199999999999</v>
       </c>
       <c r="G450">
@@ -11806,7 +11834,7 @@
         <v>0.8574273197929112</v>
       </c>
     </row>
-    <row r="451" spans="3:9">
+    <row r="451" spans="3:11">
       <c r="C451" t="s">
         <v>29</v>
       </c>
@@ -11817,7 +11845,7 @@
         <v>22</v>
       </c>
       <c r="F451">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-1.9179999999999999</v>
       </c>
       <c r="I451">
@@ -11825,7 +11853,7 @@
         <v>0.85145360414177607</v>
       </c>
     </row>
-    <row r="452" spans="3:9">
+    <row r="452" spans="3:11">
       <c r="C452" t="s">
         <v>30</v>
       </c>
@@ -11836,7 +11864,7 @@
         <v>6</v>
       </c>
       <c r="F452">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-1.7509999999999999</v>
       </c>
       <c r="G452" t="s">
@@ -11850,7 +11878,7 @@
         <v>0.721226602947033</v>
       </c>
     </row>
-    <row r="453" spans="3:9">
+    <row r="453" spans="3:11">
       <c r="C453" t="s">
         <v>31</v>
       </c>
@@ -11861,7 +11889,7 @@
         <v>10</v>
       </c>
       <c r="F453">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0429999999999997</v>
       </c>
       <c r="G453" t="s">
@@ -11875,7 +11903,7 @@
         <v>0.85344484269215437</v>
       </c>
     </row>
-    <row r="454" spans="3:9">
+    <row r="454" spans="3:11">
       <c r="C454" t="s">
         <v>32</v>
       </c>
@@ -11886,7 +11914,7 @@
         <v>38</v>
       </c>
       <c r="F454">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-1.762</v>
       </c>
       <c r="I454">
@@ -11894,7 +11922,7 @@
         <v>0.8530465949820788</v>
       </c>
     </row>
-    <row r="455" spans="3:9">
+    <row r="455" spans="3:11">
       <c r="C455" t="s">
         <v>33</v>
       </c>
@@ -11905,7 +11933,7 @@
         <v>6</v>
       </c>
       <c r="F455">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-1.7509999999999999</v>
       </c>
       <c r="H455">
@@ -11916,7 +11944,7 @@
         <v>0.721226602947033</v>
       </c>
     </row>
-    <row r="456" spans="3:9">
+    <row r="456" spans="3:11">
       <c r="C456" t="s">
         <v>34</v>
       </c>
@@ -11927,7 +11955,7 @@
         <v>10</v>
       </c>
       <c r="F456">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-1.9689999999999999</v>
       </c>
       <c r="H456">
@@ -11938,7 +11966,7 @@
         <v>0.82397451214655515</v>
       </c>
     </row>
-    <row r="457" spans="3:9">
+    <row r="457" spans="3:11">
       <c r="C457" t="s">
         <v>59</v>
       </c>
@@ -11949,7 +11977,7 @@
         <v>26</v>
       </c>
       <c r="F457">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-1.8859999999999999</v>
       </c>
       <c r="I457">
@@ -11957,7 +11985,7 @@
         <v>0.85463958582238142</v>
       </c>
     </row>
-    <row r="458" spans="3:9">
+    <row r="458" spans="3:11">
       <c r="C458" t="s">
         <v>35</v>
       </c>
@@ -11968,7 +11996,7 @@
         <v>6</v>
       </c>
       <c r="F458">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-1.7509999999999999</v>
       </c>
       <c r="H458">
@@ -11979,7 +12007,7 @@
         <v>0.721226602947033</v>
       </c>
     </row>
-    <row r="459" spans="3:9">
+    <row r="459" spans="3:11">
       <c r="C459" t="s">
         <v>36</v>
       </c>
@@ -11990,7 +12018,7 @@
         <v>10</v>
       </c>
       <c r="F459">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0419999999999998</v>
       </c>
       <c r="H459" s="23">
@@ -12001,7 +12029,7 @@
         <v>0.8530465949820788</v>
       </c>
     </row>
-    <row r="460" spans="3:9">
+    <row r="460" spans="3:11">
       <c r="C460" t="s">
         <v>63</v>
       </c>
@@ -12012,7 +12040,7 @@
         <v>6</v>
       </c>
       <c r="F460">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0779999999999998</v>
       </c>
       <c r="G460">
@@ -12025,8 +12053,12 @@
         <f>D460/D473</f>
         <v>0.85145360414177607</v>
       </c>
-    </row>
-    <row r="461" spans="3:9">
+      <c r="J460">
+        <f>1-I460</f>
+        <v>0.14854639585822393</v>
+      </c>
+    </row>
+    <row r="461" spans="3:11">
       <c r="C461" t="s">
         <v>62</v>
       </c>
@@ -12037,7 +12069,7 @@
         <v>6</v>
       </c>
       <c r="F461">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0619999999999998</v>
       </c>
       <c r="G461">
@@ -12051,7 +12083,7 @@
         <v>0.84508164078056547</v>
       </c>
     </row>
-    <row r="462" spans="3:9">
+    <row r="462" spans="3:11">
       <c r="C462" t="s">
         <v>68</v>
       </c>
@@ -12062,7 +12094,7 @@
         <v>6</v>
       </c>
       <c r="F462">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0779999999999998</v>
       </c>
       <c r="G462">
@@ -12076,7 +12108,7 @@
         <v>0.85145360414177607</v>
       </c>
     </row>
-    <row r="463" spans="3:9" ht="51">
+    <row r="463" spans="3:11" ht="51">
       <c r="C463" s="2" t="s">
         <v>69</v>
       </c>
@@ -12087,7 +12119,7 @@
         <v>6</v>
       </c>
       <c r="F463">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0619999999999998</v>
       </c>
       <c r="G463">
@@ -12101,7 +12133,7 @@
         <v>0.84508164078056547</v>
       </c>
     </row>
-    <row r="464" spans="3:9" ht="17">
+    <row r="464" spans="3:11" ht="17">
       <c r="C464" s="2" t="s">
         <v>42</v>
       </c>
@@ -12112,7 +12144,7 @@
         <v>6</v>
       </c>
       <c r="F464">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0779999999999998</v>
       </c>
       <c r="G464">
@@ -12126,7 +12158,7 @@
         <v>0.85145360414177607</v>
       </c>
     </row>
-    <row r="465" spans="3:9" ht="17">
+    <row r="465" spans="3:10" ht="17">
       <c r="C465" s="2" t="s">
         <v>35</v>
       </c>
@@ -12137,7 +12169,7 @@
         <v>6</v>
       </c>
       <c r="F465">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0529999999999999</v>
       </c>
       <c r="G465">
@@ -12151,7 +12183,7 @@
         <v>0.84149741138988443</v>
       </c>
     </row>
-    <row r="466" spans="3:9" ht="17">
+    <row r="466" spans="3:10" ht="17">
       <c r="C466" s="2" t="s">
         <v>36</v>
       </c>
@@ -12162,7 +12194,7 @@
         <v>10</v>
       </c>
       <c r="F466">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0419999999999998</v>
       </c>
       <c r="G466">
@@ -12176,7 +12208,7 @@
         <v>0.8530465949820788</v>
       </c>
     </row>
-    <row r="467" spans="3:9" ht="17">
+    <row r="467" spans="3:10" ht="17">
       <c r="C467" s="2" t="s">
         <v>43</v>
       </c>
@@ -12187,7 +12219,7 @@
         <v>6</v>
       </c>
       <c r="F467">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0779999999999998</v>
       </c>
       <c r="G467">
@@ -12201,7 +12233,7 @@
         <v>0.85145360414177607</v>
       </c>
     </row>
-    <row r="468" spans="3:9" ht="17">
+    <row r="468" spans="3:10" ht="17">
       <c r="C468" s="2" t="s">
         <v>37</v>
       </c>
@@ -12212,7 +12244,7 @@
         <v>6</v>
       </c>
       <c r="F468">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0529999999999999</v>
       </c>
       <c r="G468">
@@ -12226,7 +12258,7 @@
         <v>0.84149741138988443</v>
       </c>
     </row>
-    <row r="469" spans="3:9" ht="17">
+    <row r="469" spans="3:10" ht="17">
       <c r="C469" s="2" t="s">
         <v>38</v>
       </c>
@@ -12237,7 +12269,7 @@
         <v>10</v>
       </c>
       <c r="F469">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0289999999999999</v>
       </c>
       <c r="G469">
@@ -12251,7 +12283,7 @@
         <v>0.84786937475109514</v>
       </c>
     </row>
-    <row r="470" spans="3:9" ht="17">
+    <row r="470" spans="3:10" ht="17">
       <c r="C470" s="2" t="s">
         <v>237</v>
       </c>
@@ -12262,7 +12294,7 @@
         <v>10</v>
       </c>
       <c r="F470">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0299999999999998</v>
       </c>
       <c r="G470">
@@ -12276,7 +12308,7 @@
         <v>0.84826762246117071</v>
       </c>
     </row>
-    <row r="471" spans="3:9" ht="17">
+    <row r="471" spans="3:10" ht="17">
       <c r="C471" s="2" t="s">
         <v>238</v>
       </c>
@@ -12287,7 +12319,7 @@
         <v>6</v>
       </c>
       <c r="F471">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0529999999999999</v>
       </c>
       <c r="G471">
@@ -12301,7 +12333,7 @@
         <v>0.84149741138988443</v>
       </c>
     </row>
-    <row r="472" spans="3:9" ht="17">
+    <row r="472" spans="3:10" ht="17">
       <c r="C472" s="2" t="s">
         <v>239</v>
       </c>
@@ -12312,7 +12344,7 @@
         <v>10</v>
       </c>
       <c r="F472">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>-2.0419999999999998</v>
       </c>
       <c r="G472">
@@ -12326,7 +12358,7 @@
         <v>0.8530465949820788</v>
       </c>
     </row>
-    <row r="473" spans="3:9" ht="17">
+    <row r="473" spans="3:10" ht="17">
       <c r="C473" s="2" t="s">
         <v>419</v>
       </c>
@@ -12334,8 +12366,8 @@
         <v>-2.5110000000000001</v>
       </c>
     </row>
-    <row r="474" spans="3:9" s="21" customFormat="1"/>
-    <row r="475" spans="3:9">
+    <row r="474" spans="3:10" s="21" customFormat="1"/>
+    <row r="475" spans="3:10">
       <c r="C475" t="s">
         <v>27</v>
       </c>
@@ -12360,7 +12392,7 @@
         <v>0.76217765042979957</v>
       </c>
     </row>
-    <row r="476" spans="3:9">
+    <row r="476" spans="3:10">
       <c r="C476" t="s">
         <v>28</v>
       </c>
@@ -12371,7 +12403,7 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="F476">
-        <f t="shared" ref="F476:F499" si="52">D476+E476*0.01</f>
+        <f t="shared" ref="F476:F499" si="35">D476+E476*0.01</f>
         <v>-0.75133000000000005</v>
       </c>
       <c r="G476">
@@ -12384,8 +12416,12 @@
         <f>D476/D500</f>
         <v>0.72397325692454639</v>
       </c>
-    </row>
-    <row r="477" spans="3:9" ht="17">
+      <c r="J476">
+        <f>1-I476</f>
+        <v>0.27602674307545361</v>
+      </c>
+    </row>
+    <row r="477" spans="3:10" ht="17">
       <c r="C477" s="2" t="s">
         <v>46</v>
       </c>
@@ -12396,7 +12432,7 @@
         <v>3.7839999999999998</v>
       </c>
       <c r="F477">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.75716000000000006</v>
       </c>
       <c r="G477">
@@ -12410,7 +12446,7 @@
         <v>0.75931232091690548</v>
       </c>
     </row>
-    <row r="478" spans="3:9">
+    <row r="478" spans="3:10">
       <c r="C478" t="s">
         <v>29</v>
       </c>
@@ -12421,7 +12457,7 @@
         <v>18</v>
       </c>
       <c r="F478">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.61499999999999999</v>
       </c>
       <c r="I478">
@@ -12429,7 +12465,7 @@
         <v>0.75931232091690548</v>
       </c>
     </row>
-    <row r="479" spans="3:9">
+    <row r="479" spans="3:10">
       <c r="C479" t="s">
         <v>30</v>
       </c>
@@ -12440,7 +12476,7 @@
         <v>6</v>
       </c>
       <c r="F479">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.48200000000000004</v>
       </c>
       <c r="G479" t="s">
@@ -12454,7 +12490,7 @@
         <v>0.5176695319961796</v>
       </c>
     </row>
-    <row r="480" spans="3:9">
+    <row r="480" spans="3:10">
       <c r="C480" t="s">
         <v>31</v>
       </c>
@@ -12465,7 +12501,7 @@
         <v>10</v>
       </c>
       <c r="F480">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.69100000000000006</v>
       </c>
       <c r="G480" t="s">
@@ -12490,7 +12526,7 @@
         <v>44</v>
       </c>
       <c r="F481">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.313</v>
       </c>
       <c r="I481">
@@ -12509,7 +12545,7 @@
         <v>6</v>
       </c>
       <c r="F482">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.56699999999999995</v>
       </c>
       <c r="H482">
@@ -12531,7 +12567,7 @@
         <v>10</v>
       </c>
       <c r="F483">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.61199999999999999</v>
       </c>
       <c r="H483">
@@ -12553,7 +12589,7 @@
         <v>30</v>
       </c>
       <c r="F484">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.49200000000000005</v>
       </c>
       <c r="I484">
@@ -12572,7 +12608,7 @@
         <v>6</v>
       </c>
       <c r="F485">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.48200000000000004</v>
       </c>
       <c r="H485">
@@ -12594,7 +12630,7 @@
         <v>10</v>
       </c>
       <c r="F486">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.68700000000000006</v>
       </c>
       <c r="H486">
@@ -12616,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="F487">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G487" t="s">
@@ -12641,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="F488">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G488" t="s">
@@ -12666,7 +12702,7 @@
         <v>6</v>
       </c>
       <c r="F489">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.7370000000000001</v>
       </c>
       <c r="G489">
@@ -12688,7 +12724,7 @@
         <v>6</v>
       </c>
       <c r="F490">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.58000000000000007</v>
       </c>
       <c r="G490">
@@ -12713,7 +12749,7 @@
         <v>6</v>
       </c>
       <c r="F491">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.73399999999999999</v>
       </c>
       <c r="G491">
@@ -12738,7 +12774,7 @@
         <v>6</v>
       </c>
       <c r="F492">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.57899999999999996</v>
       </c>
       <c r="G492">
@@ -12763,7 +12799,7 @@
         <v>6</v>
       </c>
       <c r="F493">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.7350000000000001</v>
       </c>
       <c r="G493">
@@ -12788,7 +12824,7 @@
         <v>6</v>
       </c>
       <c r="F494">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.7330000000000001</v>
       </c>
       <c r="G494">
@@ -12813,7 +12849,7 @@
         <v>6</v>
       </c>
       <c r="F495">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.57899999999999996</v>
       </c>
       <c r="G495">
@@ -12838,7 +12874,7 @@
         <v>10</v>
       </c>
       <c r="F496">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.626</v>
       </c>
       <c r="G496">
@@ -12863,7 +12899,7 @@
         <v>6</v>
       </c>
       <c r="F497">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.7330000000000001</v>
       </c>
       <c r="G497">
@@ -12888,7 +12924,7 @@
         <v>6</v>
       </c>
       <c r="F498">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.57899999999999996</v>
       </c>
       <c r="G498">
@@ -12913,7 +12949,7 @@
         <v>6</v>
       </c>
       <c r="F499">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>-0.73599999999999999</v>
       </c>
       <c r="G499">
@@ -12972,7 +13008,7 @@
         <v>4.3280000000000003</v>
       </c>
       <c r="F503">
-        <f t="shared" ref="F503:F526" si="53">D503+E503*0.01</f>
+        <f t="shared" ref="F503:F526" si="36">D503+E503*0.01</f>
         <v>-2.2767199999999996</v>
       </c>
       <c r="G503">
@@ -12997,7 +13033,7 @@
         <v>4.57</v>
       </c>
       <c r="F504">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2822999999999998</v>
       </c>
       <c r="G504">
@@ -13022,7 +13058,7 @@
         <v>26</v>
       </c>
       <c r="F505">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.0519999999999996</v>
       </c>
       <c r="I505">
@@ -13041,7 +13077,7 @@
         <v>6</v>
       </c>
       <c r="F506">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-1.659</v>
       </c>
       <c r="H506">
@@ -13063,7 +13099,7 @@
         <v>10</v>
       </c>
       <c r="F507">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2119999999999997</v>
       </c>
       <c r="H507">
@@ -13085,7 +13121,7 @@
         <v>34</v>
       </c>
       <c r="F508">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-1.9759999999999998</v>
       </c>
       <c r="I508">
@@ -13104,7 +13140,7 @@
         <v>6</v>
       </c>
       <c r="F509">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-1.659</v>
       </c>
       <c r="H509">
@@ -13126,7 +13162,7 @@
         <v>10</v>
       </c>
       <c r="F510">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2130000000000001</v>
       </c>
       <c r="H510">
@@ -13148,7 +13184,7 @@
         <v>30</v>
       </c>
       <c r="F511">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.0170000000000003</v>
       </c>
       <c r="I511">
@@ -13167,7 +13203,7 @@
         <v>6</v>
       </c>
       <c r="F512">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-1.659</v>
       </c>
       <c r="H512">
@@ -13189,7 +13225,7 @@
         <v>10</v>
       </c>
       <c r="F513">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.214</v>
       </c>
       <c r="H513">
@@ -13211,7 +13247,7 @@
         <v>6</v>
       </c>
       <c r="F514">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2450000000000001</v>
       </c>
       <c r="G514">
@@ -13236,7 +13272,7 @@
         <v>6</v>
       </c>
       <c r="F515">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2149999999999999</v>
       </c>
       <c r="G515">
@@ -13261,7 +13297,7 @@
         <v>6</v>
       </c>
       <c r="F516">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2450000000000001</v>
       </c>
       <c r="G516">
@@ -13286,7 +13322,7 @@
         <v>6</v>
       </c>
       <c r="F517">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2149999999999999</v>
       </c>
       <c r="G517">
@@ -13311,7 +13347,7 @@
         <v>6</v>
       </c>
       <c r="F518">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2389999999999999</v>
       </c>
       <c r="G518">
@@ -13336,7 +13372,7 @@
         <v>6</v>
       </c>
       <c r="F519">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2090000000000001</v>
       </c>
       <c r="G519">
@@ -13361,7 +13397,7 @@
         <v>10</v>
       </c>
       <c r="F520">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2119999999999997</v>
       </c>
       <c r="G520">
@@ -13386,7 +13422,7 @@
         <v>10</v>
       </c>
       <c r="F521">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2010000000000001</v>
       </c>
       <c r="G521">
@@ -13411,7 +13447,7 @@
         <v>6</v>
       </c>
       <c r="F522">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2090000000000001</v>
       </c>
       <c r="G522">
@@ -13436,7 +13472,7 @@
         <v>10</v>
       </c>
       <c r="F523">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2130000000000001</v>
       </c>
       <c r="G523">
@@ -13461,7 +13497,7 @@
         <v>6</v>
       </c>
       <c r="F524">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2389999999999999</v>
       </c>
       <c r="G524">
@@ -13486,7 +13522,7 @@
         <v>6</v>
       </c>
       <c r="F525">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.2090000000000001</v>
       </c>
       <c r="G525">
@@ -13511,7 +13547,7 @@
         <v>6</v>
       </c>
       <c r="F526">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>-2.254</v>
       </c>
       <c r="G526">
@@ -13570,7 +13606,7 @@
         <v>3.4510000000000001</v>
       </c>
       <c r="F530">
-        <f t="shared" ref="F530:F553" si="54">D530+E530*0.01</f>
+        <f t="shared" ref="F530:F553" si="37">D530+E530*0.01</f>
         <v>-3.0884900000000002</v>
       </c>
       <c r="G530">
@@ -13595,7 +13631,7 @@
         <v>3.9689999999999999</v>
       </c>
       <c r="F531">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.09531</v>
       </c>
       <c r="G531">
@@ -13620,7 +13656,7 @@
         <v>42</v>
       </c>
       <c r="F532">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.702</v>
       </c>
       <c r="I532">
@@ -13639,7 +13675,7 @@
         <v>6</v>
       </c>
       <c r="F533">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.2949999999999999</v>
       </c>
       <c r="H533">
@@ -13661,7 +13697,7 @@
         <v>10</v>
       </c>
       <c r="F534">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0009999999999999</v>
       </c>
       <c r="H534">
@@ -13683,7 +13719,7 @@
         <v>46</v>
       </c>
       <c r="F535">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.6659999999999999</v>
       </c>
       <c r="I535">
@@ -13702,7 +13738,7 @@
         <v>6</v>
       </c>
       <c r="F536">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.2949999999999999</v>
       </c>
       <c r="H536">
@@ -13724,7 +13760,7 @@
         <v>10</v>
       </c>
       <c r="F537">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.9289999999999998</v>
       </c>
       <c r="H537">
@@ -13746,7 +13782,7 @@
         <v>38</v>
       </c>
       <c r="F538">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.746</v>
       </c>
       <c r="I538">
@@ -13765,7 +13801,7 @@
         <v>6</v>
       </c>
       <c r="F539">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.2949999999999999</v>
       </c>
       <c r="H539">
@@ -13787,7 +13823,7 @@
         <v>10</v>
       </c>
       <c r="F540">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0009999999999999</v>
       </c>
       <c r="H540">
@@ -13809,7 +13845,7 @@
         <v>6</v>
       </c>
       <c r="F541">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0289999999999999</v>
       </c>
       <c r="G541">
@@ -13834,7 +13870,7 @@
         <v>6</v>
       </c>
       <c r="F542">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.028</v>
       </c>
       <c r="G542">
@@ -13859,7 +13895,7 @@
         <v>6</v>
       </c>
       <c r="F543">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0289999999999999</v>
       </c>
       <c r="G543">
@@ -13884,7 +13920,7 @@
         <v>6</v>
       </c>
       <c r="F544">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.028</v>
       </c>
       <c r="G544">
@@ -13898,7 +13934,7 @@
         <v>0.92649264926492647</v>
       </c>
     </row>
-    <row r="545" spans="3:9" ht="17">
+    <row r="545" spans="3:10" ht="17">
       <c r="C545" s="2" t="s">
         <v>42</v>
       </c>
@@ -13909,7 +13945,7 @@
         <v>42</v>
       </c>
       <c r="F545">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.702</v>
       </c>
       <c r="G545">
@@ -13923,7 +13959,7 @@
         <v>0.93669366936693665</v>
       </c>
     </row>
-    <row r="546" spans="3:9" ht="17">
+    <row r="546" spans="3:10" ht="17">
       <c r="C546" s="2" t="s">
         <v>35</v>
       </c>
@@ -13934,7 +13970,7 @@
         <v>6</v>
       </c>
       <c r="F546">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0219999999999998</v>
       </c>
       <c r="G546">
@@ -13948,7 +13984,7 @@
         <v>0.92469246924692461</v>
       </c>
     </row>
-    <row r="547" spans="3:9" ht="17">
+    <row r="547" spans="3:10" ht="17">
       <c r="C547" s="2" t="s">
         <v>36</v>
       </c>
@@ -13959,7 +13995,7 @@
         <v>10</v>
       </c>
       <c r="F547">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0009999999999999</v>
       </c>
       <c r="G547">
@@ -13973,7 +14009,7 @@
         <v>0.93039303930393036</v>
       </c>
     </row>
-    <row r="548" spans="3:9" ht="17">
+    <row r="548" spans="3:10" ht="17">
       <c r="C548" s="2" t="s">
         <v>43</v>
       </c>
@@ -13984,7 +14020,7 @@
         <v>34</v>
       </c>
       <c r="F548">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.7670000000000003</v>
       </c>
       <c r="G548">
@@ -13998,7 +14034,7 @@
         <v>0.93219321932193222</v>
       </c>
     </row>
-    <row r="549" spans="3:9" ht="17">
+    <row r="549" spans="3:10" ht="17">
       <c r="C549" s="2" t="s">
         <v>37</v>
       </c>
@@ -14009,7 +14045,7 @@
         <v>6</v>
       </c>
       <c r="F549">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0219999999999998</v>
       </c>
       <c r="G549">
@@ -14023,7 +14059,7 @@
         <v>0.92469246924692461</v>
       </c>
     </row>
-    <row r="550" spans="3:9" ht="17">
+    <row r="550" spans="3:10" ht="17">
       <c r="C550" s="2" t="s">
         <v>38</v>
       </c>
@@ -14034,7 +14070,7 @@
         <v>10</v>
       </c>
       <c r="F550">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.98</v>
       </c>
       <c r="G550">
@@ -14048,7 +14084,7 @@
         <v>0.92409240924092406</v>
       </c>
     </row>
-    <row r="551" spans="3:9" ht="17">
+    <row r="551" spans="3:10" ht="17">
       <c r="C551" s="2" t="s">
         <v>237</v>
       </c>
@@ -14059,7 +14095,7 @@
         <v>38</v>
       </c>
       <c r="F551">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-2.746</v>
       </c>
       <c r="G551">
@@ -14073,7 +14109,7 @@
         <v>0.93789378937893786</v>
       </c>
     </row>
-    <row r="552" spans="3:9" ht="17">
+    <row r="552" spans="3:10" ht="17">
       <c r="C552" s="2" t="s">
         <v>238</v>
       </c>
@@ -14084,7 +14120,7 @@
         <v>6</v>
       </c>
       <c r="F552">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0219999999999998</v>
       </c>
       <c r="G552">
@@ -14098,7 +14134,7 @@
         <v>0.92469246924692461</v>
       </c>
     </row>
-    <row r="553" spans="3:9" ht="17">
+    <row r="553" spans="3:10" ht="17">
       <c r="C553" s="2" t="s">
         <v>239</v>
       </c>
@@ -14109,7 +14145,7 @@
         <v>10</v>
       </c>
       <c r="F553">
-        <f t="shared" si="54"/>
+        <f t="shared" si="37"/>
         <v>-3.0009999999999999</v>
       </c>
       <c r="G553">
@@ -14123,7 +14159,7 @@
         <v>0.93039303930393036</v>
       </c>
     </row>
-    <row r="554" spans="3:9" ht="17">
+    <row r="554" spans="3:10" ht="17">
       <c r="C554" s="2" t="s">
         <v>419</v>
       </c>
@@ -14131,8 +14167,8 @@
         <v>-3.3330000000000002</v>
       </c>
     </row>
-    <row r="555" spans="3:9" s="21" customFormat="1"/>
-    <row r="556" spans="3:9">
+    <row r="555" spans="3:10" s="21" customFormat="1"/>
+    <row r="556" spans="3:10">
       <c r="C556" t="s">
         <v>27</v>
       </c>
@@ -14157,7 +14193,7 @@
         <v>0.81007393715341947</v>
       </c>
     </row>
-    <row r="557" spans="3:9">
+    <row r="557" spans="3:10">
       <c r="C557" t="s">
         <v>28</v>
       </c>
@@ -14168,7 +14204,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="F557">
-        <f t="shared" ref="F557:F580" si="55">D557+E557*0.01</f>
+        <f t="shared" ref="F557:F580" si="38">D557+E557*0.01</f>
         <v>-1.6979199999999999</v>
       </c>
       <c r="G557">
@@ -14181,8 +14217,12 @@
         <f>D557/D581</f>
         <v>0.78835489833641392</v>
       </c>
-    </row>
-    <row r="558" spans="3:9" ht="17">
+      <c r="J557">
+        <f>1-I557</f>
+        <v>0.21164510166358608</v>
+      </c>
+    </row>
+    <row r="558" spans="3:10" ht="17">
       <c r="C558" s="2" t="s">
         <v>46</v>
       </c>
@@ -14193,7 +14233,7 @@
         <v>3.629</v>
       </c>
       <c r="F558">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.7107100000000002</v>
       </c>
       <c r="G558">
@@ -14207,7 +14247,7 @@
         <v>0.80730129390018479</v>
       </c>
     </row>
-    <row r="559" spans="3:9">
+    <row r="559" spans="3:10">
       <c r="C559" t="s">
         <v>29</v>
       </c>
@@ -14218,7 +14258,7 @@
         <v>26</v>
       </c>
       <c r="F559">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.492</v>
       </c>
       <c r="I559">
@@ -14226,7 +14266,7 @@
         <v>0.80961182994454706</v>
       </c>
     </row>
-    <row r="560" spans="3:9">
+    <row r="560" spans="3:10">
       <c r="C560" t="s">
         <v>30</v>
       </c>
@@ -14237,7 +14277,7 @@
         <v>6</v>
       </c>
       <c r="F560">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.21</v>
       </c>
       <c r="H560">
@@ -14259,7 +14299,7 @@
         <v>10</v>
       </c>
       <c r="F561">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.6139999999999999</v>
       </c>
       <c r="H561">
@@ -14281,7 +14321,7 @@
         <v>62</v>
       </c>
       <c r="F562">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.0779999999999998</v>
       </c>
       <c r="I562">
@@ -14300,7 +14340,7 @@
         <v>6</v>
       </c>
       <c r="F563">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.073</v>
       </c>
       <c r="H563">
@@ -14322,7 +14362,7 @@
         <v>10</v>
       </c>
       <c r="F564">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.5479999999999998</v>
       </c>
       <c r="H564">
@@ -14344,7 +14384,7 @@
         <v>38</v>
       </c>
       <c r="F565">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.3679999999999999</v>
       </c>
       <c r="I565">
@@ -14363,7 +14403,7 @@
         <v>6</v>
       </c>
       <c r="F566">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.7509999999999999</v>
       </c>
       <c r="H566">
@@ -14385,7 +14425,7 @@
         <v>10</v>
       </c>
       <c r="F567">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.633</v>
       </c>
       <c r="H567">
@@ -14407,7 +14447,7 @@
         <v>2</v>
       </c>
       <c r="F568">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>0.02</v>
       </c>
       <c r="G568">
@@ -14432,7 +14472,7 @@
         <v>2</v>
       </c>
       <c r="F569">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>0.02</v>
       </c>
       <c r="G569">
@@ -14457,7 +14497,7 @@
         <v>6</v>
       </c>
       <c r="F570">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.6850000000000001</v>
       </c>
       <c r="G570">
@@ -14482,7 +14522,7 @@
         <v>6</v>
       </c>
       <c r="F571">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.67</v>
       </c>
       <c r="G571">
@@ -14507,7 +14547,7 @@
         <v>26</v>
       </c>
       <c r="F572">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.492</v>
       </c>
       <c r="G572">
@@ -14532,7 +14572,7 @@
         <v>6</v>
       </c>
       <c r="F573">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.6619999999999999</v>
       </c>
       <c r="G573">
@@ -14557,7 +14597,7 @@
         <v>10</v>
       </c>
       <c r="F574">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.641</v>
       </c>
       <c r="G574">
@@ -14582,7 +14622,7 @@
         <v>16</v>
       </c>
       <c r="F575">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.5310000000000001</v>
       </c>
       <c r="G575">
@@ -14607,7 +14647,7 @@
         <v>4</v>
       </c>
       <c r="F576">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.4709999999999999</v>
       </c>
       <c r="G576">
@@ -14632,7 +14672,7 @@
         <v>10</v>
       </c>
       <c r="F577">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.5479999999999998</v>
       </c>
       <c r="G577">
@@ -14657,7 +14697,7 @@
         <v>10</v>
       </c>
       <c r="F578">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.6359999999999999</v>
       </c>
       <c r="G578">
@@ -14682,7 +14722,7 @@
         <v>6</v>
       </c>
       <c r="F579">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.6619999999999999</v>
       </c>
       <c r="G579">
@@ -14707,7 +14747,7 @@
         <v>10</v>
       </c>
       <c r="F580">
-        <f t="shared" si="55"/>
+        <f t="shared" si="38"/>
         <v>-1.643</v>
       </c>
       <c r="G580">
@@ -14735,27 +14775,27 @@
         <v>27</v>
       </c>
       <c r="D583">
-        <f t="shared" ref="D583:I583" si="56">AVERAGE(D448,D475,D502,D529,D556)</f>
+        <f t="shared" ref="D583:I583" si="39">AVERAGE(D448,D475,D502,D529,D556)</f>
         <v>-2.0335999999999999</v>
       </c>
       <c r="E583">
-        <f t="shared" si="56"/>
+        <f t="shared" si="39"/>
         <v>5.0640000000000001</v>
       </c>
       <c r="F583">
-        <f t="shared" si="56"/>
+        <f t="shared" si="39"/>
         <v>-1.9829599999999998</v>
       </c>
       <c r="G583">
-        <f t="shared" si="56"/>
+        <f t="shared" si="39"/>
         <v>2.8920000000000003</v>
       </c>
       <c r="H583">
-        <f t="shared" si="56"/>
+        <f t="shared" si="39"/>
         <v>44.2</v>
       </c>
       <c r="I583" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="39"/>
         <v>0.84535402561666861</v>
       </c>
       <c r="J583">
@@ -14772,19 +14812,19 @@
         <v>28</v>
       </c>
       <c r="D584">
-        <f t="shared" ref="D584:D608" si="57">AVERAGE(D449,D476,D503,D530,D557)</f>
+        <f t="shared" ref="D584:D608" si="40">AVERAGE(D449,D476,D503,D530,D557)</f>
         <v>-2.0101999999999998</v>
       </c>
       <c r="E584">
-        <f t="shared" ref="E584:F607" si="58">AVERAGE(E449,E476,E503,E530,E557)</f>
+        <f t="shared" ref="E584:F607" si="41">AVERAGE(E449,E476,E503,E530,E557)</f>
         <v>2.7252000000000001</v>
       </c>
       <c r="F584">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9829479999999999</v>
       </c>
       <c r="G584">
-        <f t="shared" ref="G584:G607" si="59">AVERAGE(G449,G476,G503,G530,G557)</f>
+        <f t="shared" ref="G584:G607" si="42">AVERAGE(G449,G476,G503,G530,G557)</f>
         <v>163.084</v>
       </c>
       <c r="H584">
@@ -14800,7 +14840,7 @@
         <v>0.85366060811958544</v>
       </c>
       <c r="P584" s="27">
-        <f t="shared" ref="P584:P607" si="60">1-I584</f>
+        <f t="shared" ref="P584:P607" si="43">1-I584</f>
         <v>0.16871603637035126</v>
       </c>
     </row>
@@ -14809,19 +14849,19 @@
         <v>46</v>
       </c>
       <c r="D585">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0316000000000001</v>
       </c>
       <c r="E585">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>4.1140000000000008</v>
       </c>
       <c r="F585">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9904599999999999</v>
       </c>
       <c r="G585">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>27.99</v>
       </c>
       <c r="H585">
@@ -14837,7 +14877,7 @@
         <v>0.86274842874129443</v>
       </c>
       <c r="P585" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.15583357493715722</v>
       </c>
     </row>
@@ -14846,27 +14886,27 @@
         <v>29</v>
       </c>
       <c r="D586">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0238</v>
       </c>
       <c r="E586">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>26.8</v>
       </c>
       <c r="F586">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.7558</v>
       </c>
       <c r="G586" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H586" t="e">
-        <f t="shared" ref="H586:H607" si="61">AVERAGE(H451,H478,H505,H532,H559)</f>
+        <f t="shared" ref="H586:H607" si="44">AVERAGE(H451,H478,H505,H532,H559)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I586" s="27">
-        <f t="shared" ref="I586:I607" si="62">AVERAGE(I451,I478,I505,I532,I559)</f>
+        <f t="shared" ref="I586:I607" si="45">AVERAGE(I451,I478,I505,I532,I559)</f>
         <v>0.84147680786042511</v>
       </c>
       <c r="J586">
@@ -14878,7 +14918,7 @@
         <v>4.819040125885036E-3</v>
       </c>
       <c r="P586" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.15852319213957489</v>
       </c>
     </row>
@@ -14887,27 +14927,27 @@
         <v>30</v>
       </c>
       <c r="D587">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.5393999999999999</v>
       </c>
       <c r="E587">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="F587">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.4794</v>
       </c>
       <c r="G587" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H587">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>15.2</v>
       </c>
       <c r="I587" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.632912134876499</v>
       </c>
       <c r="J587">
@@ -14919,7 +14959,7 @@
         <v>0.24301730920535011</v>
       </c>
       <c r="P587" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.367087865123501</v>
       </c>
     </row>
@@ -14928,27 +14968,27 @@
         <v>31</v>
       </c>
       <c r="D588">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0122</v>
       </c>
       <c r="E588">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="F588">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9121999999999999</v>
       </c>
       <c r="G588" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H588">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>759.4</v>
       </c>
       <c r="I588" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.83633882690036376</v>
       </c>
       <c r="J588">
@@ -14960,7 +15000,7 @@
         <v>1.0523210070810319E-2</v>
       </c>
       <c r="P588" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.16366117309963624</v>
       </c>
     </row>
@@ -14969,27 +15009,27 @@
         <v>32</v>
       </c>
       <c r="D589">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0070000000000001</v>
       </c>
       <c r="E589">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>44.8</v>
       </c>
       <c r="F589">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.5589999999999999</v>
       </c>
       <c r="G589" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H589" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I589" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.82931597535727575</v>
       </c>
       <c r="J589">
@@ -15001,7 +15041,7 @@
         <v>1.5918814048351646E-3</v>
       </c>
       <c r="P589" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.17068402464272425</v>
       </c>
     </row>
@@ -15010,27 +15050,27 @@
         <v>33</v>
       </c>
       <c r="D590">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.5290000000000001</v>
       </c>
       <c r="E590">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="F590">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.4689999999999999</v>
       </c>
       <c r="G590" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H590">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>17</v>
       </c>
       <c r="I590" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.6364872645931261</v>
       </c>
       <c r="J590">
@@ -15042,7 +15082,7 @@
         <v>0.23937916625211406</v>
       </c>
       <c r="P590" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.3635127354068739</v>
       </c>
     </row>
@@ -15051,27 +15091,27 @@
         <v>34</v>
       </c>
       <c r="D591">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.9541999999999997</v>
       </c>
       <c r="E591">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="F591">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.8542000000000001</v>
       </c>
       <c r="G591" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H591">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>2578.1999999999998</v>
       </c>
       <c r="I591" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.80500733461092699</v>
       </c>
       <c r="J591">
@@ -15083,7 +15123,7 @@
         <v>2.7857924584618474E-2</v>
       </c>
       <c r="P591" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.19499266538907301</v>
       </c>
     </row>
@@ -15092,27 +15132,27 @@
         <v>59</v>
       </c>
       <c r="D592">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0257999999999998</v>
       </c>
       <c r="E592">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
       <c r="F592">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.7018</v>
       </c>
       <c r="G592" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H592" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I592" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.84177905880216419</v>
       </c>
       <c r="J592">
@@ -15124,7 +15164,7 @@
         <v>2.8548926954126055E-3</v>
       </c>
       <c r="P592" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.15822094119783581</v>
       </c>
     </row>
@@ -15133,27 +15173,27 @@
         <v>35</v>
       </c>
       <c r="D593">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.6476</v>
       </c>
       <c r="E593">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="F593">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.5876000000000001</v>
       </c>
       <c r="G593" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H593">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>16.8</v>
       </c>
       <c r="I593" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.68291213487649904</v>
       </c>
       <c r="J593">
@@ -15165,7 +15205,7 @@
         <v>0.18901358535144719</v>
       </c>
       <c r="P593" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.31708786512350096</v>
       </c>
     </row>
@@ -15174,27 +15214,27 @@
         <v>36</v>
       </c>
       <c r="D594">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0154000000000005</v>
       </c>
       <c r="E594">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="F594">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9153999999999995</v>
       </c>
       <c r="G594" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H594">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>925</v>
       </c>
       <c r="I594" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.83739820979111668</v>
       </c>
       <c r="J594">
@@ -15206,7 +15246,7 @@
         <v>7.9740106320139535E-3</v>
       </c>
       <c r="P594" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.16260179020888332</v>
       </c>
     </row>
@@ -15215,27 +15255,27 @@
         <v>63</v>
       </c>
       <c r="D595">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.5064</v>
       </c>
       <c r="E595">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="F595">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.4664000000000001</v>
       </c>
       <c r="G595">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>0.10250000000000001</v>
       </c>
       <c r="H595">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="I595" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.52519688448628044</v>
       </c>
       <c r="J595">
@@ -15247,7 +15287,7 @@
         <v>0.25062182867376376</v>
       </c>
       <c r="P595" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.47480311551371956</v>
       </c>
     </row>
@@ -15256,27 +15296,27 @@
         <v>62</v>
       </c>
       <c r="D596">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.4970000000000001</v>
       </c>
       <c r="E596">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="F596">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.4570000000000001</v>
       </c>
       <c r="G596">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="H596">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>4.2</v>
       </c>
       <c r="I596" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.52165579217607161</v>
       </c>
       <c r="J596">
@@ -15288,7 +15328,7 @@
         <v>0.25529798030046746</v>
       </c>
       <c r="P596" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.47834420782392839</v>
       </c>
     </row>
@@ -15297,27 +15337,27 @@
         <v>68</v>
       </c>
       <c r="D597">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0148000000000001</v>
       </c>
       <c r="E597">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="F597">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9548000000000001</v>
       </c>
       <c r="G597">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>0.09</v>
       </c>
       <c r="H597">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>7.25</v>
       </c>
       <c r="I597" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.838716808501202</v>
       </c>
       <c r="J597">
@@ -15329,7 +15369,7 @@
         <v>8.2693443591257756E-3</v>
       </c>
       <c r="P597" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.161283191498798</v>
       </c>
     </row>
@@ -15338,27 +15378,27 @@
         <v>69</v>
       </c>
       <c r="D598">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.9710000000000001</v>
       </c>
       <c r="E598">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="F598">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.911</v>
       </c>
       <c r="G598">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="H598">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>5.2</v>
       </c>
       <c r="I598" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.80379894566275212</v>
       </c>
       <c r="J598">
@@ -15370,7 +15410,7 @@
         <v>2.9828706438275242E-2</v>
       </c>
       <c r="P598" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.19620105433724788</v>
       </c>
     </row>
@@ -15379,27 +15419,27 @@
         <v>42</v>
       </c>
       <c r="D599">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0209999999999999</v>
       </c>
       <c r="E599">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>17.2</v>
       </c>
       <c r="F599">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.8490000000000002</v>
       </c>
       <c r="G599">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>3.3619999999999997</v>
       </c>
       <c r="H599">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>127.8</v>
       </c>
       <c r="I599" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.84032955198337311</v>
       </c>
       <c r="J599">
@@ -15415,23 +15455,23 @@
         <v>5.3081216539469282E-2</v>
       </c>
       <c r="M599" s="25">
-        <f t="shared" ref="M599:M607" si="63">(D599-D586)/D586</f>
+        <f t="shared" ref="M599:M607" si="46">(D599-D586)/D586</f>
         <v>-1.3835359225220555E-3</v>
       </c>
       <c r="N599" s="25">
-        <f t="shared" ref="N599:N607" si="64">-(E599-E586)/E586</f>
+        <f t="shared" ref="N599:N607" si="47">-(E599-E586)/E586</f>
         <v>0.35820895522388063</v>
       </c>
       <c r="O599" s="28">
-        <f t="shared" ref="O599:O607" si="65">(I599-I586)/I586</f>
+        <f t="shared" ref="O599:O607" si="48">(I599-I586)/I586</f>
         <v>-1.3633838346288618E-3</v>
       </c>
       <c r="P599" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.15967044801662689</v>
       </c>
       <c r="Q599" s="28">
-        <f t="shared" ref="Q599:Q607" si="66">(P586-P599)/P586</f>
+        <f t="shared" ref="Q599:Q607" si="49">(P586-P599)/P586</f>
         <v>-7.2371484674739334E-3</v>
       </c>
     </row>
@@ -15440,27 +15480,27 @@
         <v>35</v>
       </c>
       <c r="D600">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.9649999999999999</v>
       </c>
       <c r="E600">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="F600">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9049999999999998</v>
       </c>
       <c r="G600">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>5.1239999999999997</v>
       </c>
       <c r="H600">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>207.4</v>
       </c>
       <c r="I600" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.80135033155182001</v>
       </c>
       <c r="J600">
@@ -15476,23 +15516,23 @@
         <v>0.27647135247499027</v>
       </c>
       <c r="M600" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>0.27647135247499027</v>
       </c>
       <c r="N600" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O600" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0.26613203854621714</v>
       </c>
       <c r="P600" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.19864966844817999</v>
       </c>
       <c r="Q600" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>0.45884980866543379</v>
       </c>
     </row>
@@ -15501,27 +15541,27 @@
         <v>36</v>
       </c>
       <c r="D601">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0181999999999998</v>
       </c>
       <c r="E601">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="F601">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9262000000000001</v>
       </c>
       <c r="G601">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>1.21</v>
       </c>
       <c r="H601">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>43.4</v>
       </c>
       <c r="I601" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.83951864415636501</v>
       </c>
       <c r="J601">
@@ -15537,23 +15577,23 @@
         <v>2.9818109531854604E-3</v>
       </c>
       <c r="M601" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>2.9818109531854604E-3</v>
       </c>
       <c r="N601" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="O601" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>3.8020681973910953E-3</v>
       </c>
       <c r="P601" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.16048135584363499</v>
       </c>
       <c r="Q601" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>1.9429270826901563E-2</v>
       </c>
     </row>
@@ -15562,27 +15602,27 @@
         <v>43</v>
       </c>
       <c r="D602">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0060000000000002</v>
       </c>
       <c r="E602">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>14.4</v>
       </c>
       <c r="F602">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.8620000000000001</v>
       </c>
       <c r="G602">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>7.9079999999999995</v>
       </c>
       <c r="H602">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>280.60000000000002</v>
       </c>
       <c r="I602" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.83374784496775989</v>
       </c>
       <c r="J602">
@@ -15598,23 +15638,23 @@
         <v>0.19435535599743436</v>
       </c>
       <c r="M602" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>-4.9825610363721468E-4</v>
       </c>
       <c r="N602" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0.6785714285714286</v>
       </c>
       <c r="O602" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>5.3440060750968368E-3</v>
       </c>
       <c r="P602" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.16625215503224011</v>
       </c>
       <c r="Q602" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>2.5965345144403108E-2</v>
       </c>
     </row>
@@ -15623,27 +15663,27 @@
         <v>37</v>
       </c>
       <c r="D603">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.9227999999999998</v>
       </c>
       <c r="E603">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>5.6</v>
       </c>
       <c r="F603">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.8668</v>
       </c>
       <c r="G603">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>4.9420000000000002</v>
       </c>
       <c r="H603">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>194.6</v>
       </c>
       <c r="I603" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.78184940733740227</v>
       </c>
       <c r="J603">
@@ -15659,23 +15699,23 @@
         <v>0.25755395683453214</v>
       </c>
       <c r="M603" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>0.25755395683453214</v>
       </c>
       <c r="N603" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>6.6666666666666721E-2</v>
       </c>
       <c r="O603" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0.22838185589966012</v>
       </c>
       <c r="P603" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.21815059266259773</v>
       </c>
       <c r="Q603" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>0.39988184342860694</v>
       </c>
     </row>
@@ -15684,27 +15724,27 @@
         <v>38</v>
       </c>
       <c r="D604">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.9792000000000001</v>
       </c>
       <c r="E604">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="F604">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.8792000000000002</v>
       </c>
       <c r="G604">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>2.1480000000000001</v>
       </c>
       <c r="H604">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>68.400000000000006</v>
       </c>
       <c r="I604" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.81552092070780591</v>
       </c>
       <c r="J604">
@@ -15720,23 +15760,23 @@
         <v>1.2792958755501157E-2</v>
       </c>
       <c r="M604" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>1.2792958755501157E-2</v>
       </c>
       <c r="N604" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O604" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>1.3060236403883572E-2</v>
       </c>
       <c r="P604" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.18447907929219409</v>
       </c>
       <c r="Q604" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>5.3917854171083468E-2</v>
       </c>
     </row>
@@ -15745,27 +15785,27 @@
         <v>237</v>
       </c>
       <c r="D605">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0167999999999999</v>
       </c>
       <c r="E605">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="F605">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.8767999999999998</v>
       </c>
       <c r="G605">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>5.5340000000000007</v>
       </c>
       <c r="H605">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>191.6</v>
       </c>
       <c r="I605" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.83826261461373419</v>
       </c>
       <c r="J605">
@@ -15781,23 +15821,23 @@
         <v>0.10283229521682914</v>
       </c>
       <c r="M605" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>-4.4426893079276822E-3</v>
       </c>
       <c r="N605" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0.5679012345679012</v>
       </c>
       <c r="O605" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>-4.1773956617949552E-3</v>
       </c>
       <c r="P605" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.16173738538626581</v>
       </c>
       <c r="Q605" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>-2.2224897423869579E-2</v>
       </c>
     </row>
@@ -15806,27 +15846,27 @@
         <v>238</v>
       </c>
       <c r="D606">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-1.9649999999999999</v>
       </c>
       <c r="E606">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="F606">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9049999999999998</v>
       </c>
       <c r="G606">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>5.1340000000000003</v>
       </c>
       <c r="H606">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>207</v>
       </c>
       <c r="I606" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.80135033155182001</v>
       </c>
       <c r="J606">
@@ -15842,23 +15882,23 @@
         <v>0.19264384559359063</v>
       </c>
       <c r="M606" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>0.19264384559359063</v>
       </c>
       <c r="N606" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O606" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0.17343109109745117</v>
       </c>
       <c r="P606" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.19864966844817999</v>
       </c>
       <c r="Q606" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>0.37351854076532087</v>
       </c>
     </row>
@@ -15867,27 +15907,27 @@
         <v>239</v>
       </c>
       <c r="D607">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.0192000000000001</v>
       </c>
       <c r="E607">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>8.4</v>
       </c>
       <c r="F607">
-        <f t="shared" si="58"/>
+        <f t="shared" si="41"/>
         <v>-1.9352</v>
       </c>
       <c r="G607">
-        <f t="shared" si="59"/>
+        <f t="shared" si="42"/>
         <v>1.23</v>
       </c>
       <c r="H607">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>43.4</v>
       </c>
       <c r="I607" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="45"/>
         <v>0.84004162191659815</v>
       </c>
       <c r="J607">
@@ -15903,23 +15943,23 @@
         <v>1.8854817902151338E-3</v>
       </c>
       <c r="M607" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="46"/>
         <v>1.8854817902151338E-3</v>
       </c>
       <c r="N607" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0.15999999999999998</v>
       </c>
       <c r="O607" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>3.1566966522902544E-3</v>
       </c>
       <c r="P607" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0.15995837808340185</v>
       </c>
       <c r="Q607" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>1.6256968155674428E-2</v>
       </c>
     </row>
@@ -15928,7 +15968,7 @@
         <v>419</v>
       </c>
       <c r="D608">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>-2.3548</v>
       </c>
     </row>
@@ -15942,23 +15982,23 @@
         <v>0.85464279087815476</v>
       </c>
       <c r="E610">
-        <f t="shared" ref="E610:I612" si="67">STDEV(E448,E475,E502,E529,E556)</f>
+        <f t="shared" ref="E610:I612" si="50">STDEV(E448,E475,E502,E529,E556)</f>
         <v>8.6432054239153899E-2</v>
       </c>
       <c r="F610">
-        <f t="shared" si="67"/>
+        <f t="shared" si="50"/>
         <v>0.85497012055977784</v>
       </c>
       <c r="G610">
-        <f t="shared" si="67"/>
+        <f t="shared" si="50"/>
         <v>0.872794362951548</v>
       </c>
       <c r="H610">
-        <f t="shared" si="67"/>
+        <f t="shared" si="50"/>
         <v>8.6139421869432002</v>
       </c>
       <c r="I610">
-        <f t="shared" si="67"/>
+        <f t="shared" si="50"/>
         <v>6.6246198369645057E-2</v>
       </c>
     </row>
@@ -15967,23 +16007,23 @@
         <v>28</v>
       </c>
       <c r="D611">
-        <f t="shared" ref="D611:G634" si="68">STDEV(D449,D476,D503,D530,D557)</f>
+        <f t="shared" ref="D611:G634" si="51">STDEV(D449,D476,D503,D530,D557)</f>
         <v>0.86786300762274793</v>
       </c>
       <c r="E611">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>1.8519953293677602</v>
       </c>
       <c r="F611">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.85446119845783475</v>
       </c>
       <c r="G611">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>7.1952261951935927</v>
       </c>
       <c r="I611">
-        <f t="shared" si="67"/>
+        <f t="shared" si="50"/>
         <v>7.9882219102784202E-2</v>
       </c>
     </row>
@@ -15992,23 +16032,23 @@
         <v>46</v>
       </c>
       <c r="D612">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.85589999415819629</v>
       </c>
       <c r="E612">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.45472574151899542</v>
       </c>
       <c r="F612">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.85420909474788465</v>
       </c>
       <c r="G612">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>18.055139157591672</v>
       </c>
       <c r="I612">
-        <f t="shared" si="67"/>
+        <f t="shared" si="50"/>
         <v>6.7413156676981154E-2</v>
       </c>
     </row>
@@ -16017,19 +16057,19 @@
         <v>29</v>
       </c>
       <c r="D613">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84940696959702378</v>
       </c>
       <c r="E613">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>9.1214034007931062</v>
       </c>
       <c r="F613">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.77141960047693814</v>
       </c>
       <c r="G613" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16038,19 +16078,19 @@
         <v>30</v>
       </c>
       <c r="D614">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.67797662201583397</v>
       </c>
       <c r="E614">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F614">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.67797662201583297</v>
       </c>
       <c r="G614" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16059,19 +16099,19 @@
         <v>31</v>
       </c>
       <c r="D615">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84745601655779146</v>
       </c>
       <c r="E615">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F615">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84745601655779146</v>
       </c>
       <c r="G615" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16080,19 +16120,19 @@
         <v>32</v>
       </c>
       <c r="D616">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.87089953496370598</v>
       </c>
       <c r="E616">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>10.733126291998982</v>
       </c>
       <c r="F616">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.89783406039200797</v>
       </c>
       <c r="G616" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16101,19 +16141,19 @@
         <v>33</v>
       </c>
       <c r="D617">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.66489096850536344</v>
       </c>
       <c r="E617">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F617">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.66489096850536378</v>
       </c>
       <c r="G617" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16122,19 +16162,19 @@
         <v>34</v>
       </c>
       <c r="D618">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8564360454815062</v>
       </c>
       <c r="E618">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F618">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.85643604548150465</v>
       </c>
       <c r="G618" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16143,19 +16183,19 @@
         <v>59</v>
       </c>
       <c r="D619">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.85280724668590902</v>
       </c>
       <c r="E619">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>5.3665631459994909</v>
       </c>
       <c r="F619">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.83646171460503826</v>
       </c>
       <c r="G619" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16164,19 +16204,19 @@
         <v>35</v>
       </c>
       <c r="D620">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.66731986333391902</v>
       </c>
       <c r="E620">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F620">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.66731986333391802</v>
       </c>
       <c r="G620" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16185,19 +16225,19 @@
         <v>36</v>
       </c>
       <c r="D621">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84741270936893442</v>
       </c>
       <c r="E621">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F621">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84741270936893598</v>
       </c>
       <c r="G621" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16206,19 +16246,19 @@
         <v>63</v>
       </c>
       <c r="D622">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>1.4212481486355575</v>
       </c>
       <c r="E622">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="F622">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>1.3947853956792058</v>
       </c>
       <c r="G622">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>8.2209083034256808E-2</v>
       </c>
     </row>
@@ -16227,19 +16267,19 @@
         <v>62</v>
       </c>
       <c r="D623">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>1.4150272082189796</v>
       </c>
       <c r="E623">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="F623">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>1.3886151374661013</v>
       </c>
       <c r="G623">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>3.4641016151377525E-2</v>
       </c>
     </row>
@@ -16248,19 +16288,19 @@
         <v>68</v>
       </c>
       <c r="D624">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.83802279205281649</v>
       </c>
       <c r="E624">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F624">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.83802279205281704</v>
       </c>
       <c r="G624">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.0000000000000025E-2</v>
       </c>
     </row>
@@ -16269,19 +16309,19 @@
         <v>69</v>
       </c>
       <c r="D625">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.89338513531399188</v>
       </c>
       <c r="E625">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F625">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.89338513531399144</v>
       </c>
       <c r="G625">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>1.3038404810405331E-2</v>
       </c>
     </row>
@@ -16290,19 +16330,19 @@
         <v>42</v>
       </c>
       <c r="D626">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84868486495282736</v>
       </c>
       <c r="E626">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>16.346253393362041</v>
       </c>
       <c r="F626">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.75875292421182705</v>
       </c>
       <c r="G626">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.1432498687740553</v>
       </c>
     </row>
@@ -16311,19 +16351,19 @@
         <v>35</v>
       </c>
       <c r="D627">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8915343515535451</v>
       </c>
       <c r="E627">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F627">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8915343515535451</v>
       </c>
       <c r="G627">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.1713659295475756</v>
       </c>
     </row>
@@ -16332,19 +16372,19 @@
         <v>36</v>
       </c>
       <c r="D628">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84367630048496722</v>
       </c>
       <c r="E628">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>1.7888543819998326</v>
       </c>
       <c r="F628">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8292440533401485</v>
       </c>
       <c r="G628">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.48507731342539595</v>
       </c>
     </row>
@@ -16353,19 +16393,19 @@
         <v>43</v>
       </c>
       <c r="D629">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84959460921076879</v>
       </c>
       <c r="E629">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>11.696153213770756</v>
       </c>
       <c r="F629">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.76889596175295438</v>
       </c>
       <c r="G629">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.8942650189642265</v>
       </c>
     </row>
@@ -16374,19 +16414,19 @@
         <v>37</v>
       </c>
       <c r="D630">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.91069984078180233</v>
       </c>
       <c r="E630">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8944271909999143</v>
       </c>
       <c r="F630">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.90848015938709448</v>
       </c>
       <c r="G630">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.5314462269619704</v>
       </c>
     </row>
@@ -16395,19 +16435,19 @@
         <v>38</v>
       </c>
       <c r="D631">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.86974519257078875</v>
       </c>
       <c r="E631">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F631">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.86974519257078931</v>
       </c>
       <c r="G631">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.9998599901986277</v>
       </c>
     </row>
@@ -16416,19 +16456,19 @@
         <v>237</v>
       </c>
       <c r="D632">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.85136813424041169</v>
       </c>
       <c r="E632">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>13.564659966250536</v>
       </c>
       <c r="F632">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.75439227196465952</v>
       </c>
       <c r="G632">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>3.0882486946487977</v>
       </c>
     </row>
@@ -16437,19 +16477,19 @@
         <v>238</v>
       </c>
       <c r="D633">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8915343515535451</v>
       </c>
       <c r="E633">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F633">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8915343515535451</v>
       </c>
       <c r="G633">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.1722177607228979</v>
       </c>
     </row>
@@ -16458,19 +16498,19 @@
         <v>239</v>
       </c>
       <c r="D634">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.84332419626143784</v>
       </c>
       <c r="E634">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>2.1908902300206639</v>
       </c>
       <c r="F634">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.8325309003274286</v>
       </c>
       <c r="G634">
-        <f t="shared" si="68"/>
+        <f t="shared" si="51"/>
         <v>0.50284192347098511</v>
       </c>
     </row>
@@ -17527,8 +17567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741D4DFB-7C75-0E41-A642-F95FBB75CB0A}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView topLeftCell="A18" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18650,35 +18690,35 @@
         <v>435</v>
       </c>
       <c r="B47">
-        <f>AVERAGE(B2,B11,B20,B29,B38)</f>
+        <f t="shared" ref="B47:C53" si="0">AVERAGE(B2,B11,B20,B29,B38)</f>
         <v>5.8</v>
       </c>
       <c r="C47" s="1">
-        <f>AVERAGE(C2,C11,C20,C29,C38)</f>
+        <f t="shared" si="0"/>
         <v>-2.0301999999999998</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:H47" si="0">AVERAGE(D2,D11,D20,D29,D38)</f>
+        <f t="shared" ref="D47:D52" si="1">AVERAGE(D2,D11,D20,D29,D38)</f>
         <v>11.6</v>
       </c>
       <c r="E47" s="1">
-        <f>C47+0.01*D47</f>
+        <f t="shared" ref="E47:E52" si="2">C47+0.01*D47</f>
         <v>-1.9141999999999997</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:H52" si="3">AVERAGE(F2,F11,F20,F29,F38)</f>
         <v>0.19724247</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.58839999999999992</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.8</v>
       </c>
       <c r="L47">
-        <f>AVERAGE(L2,L11,L20,L29,L38)</f>
+        <f t="shared" ref="L47:L54" si="4">AVERAGE(L2,L11,L20,L29,L38)</f>
         <v>0.1559367500605679</v>
       </c>
     </row>
@@ -18687,35 +18727,35 @@
         <v>437</v>
       </c>
       <c r="B48">
-        <f>AVERAGE(B3,B12,B21,B30,B39)</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="C48" s="1">
-        <f>AVERAGE(C3,C12,C21,C30,C39)</f>
+        <f t="shared" si="0"/>
         <v>-1.7762</v>
       </c>
       <c r="D48">
-        <f>AVERAGE(D3,D12,D21,D30,D39)</f>
+        <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ref="E48:E52" si="1">C48+0.01*D48</f>
+        <f t="shared" si="2"/>
         <v>-1.7202</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48:H48" si="2">AVERAGE(F3,F12,F21,F30,F39)</f>
+        <f t="shared" si="3"/>
         <v>0.27802308399999998</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
       <c r="L48">
-        <f>AVERAGE(L3,L12,L21,L30,L39)</f>
+        <f t="shared" si="4"/>
         <v>0.25466044937568516</v>
       </c>
     </row>
@@ -18724,23 +18764,23 @@
         <v>436</v>
       </c>
       <c r="B49">
-        <f>AVERAGE(B4,B13,B22,B31,B40)</f>
+        <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="C49" s="1">
-        <f>AVERAGE(C4,C13,C22,C31,C40)</f>
+        <f t="shared" si="0"/>
         <v>-2.0308000000000002</v>
       </c>
       <c r="D49">
-        <f>AVERAGE(D4,D13,D22,D31,D40)</f>
+        <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8588000000000002</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:H49" si="3">AVERAGE(F4,F13,F22,F31,F40)</f>
+        <f t="shared" si="3"/>
         <v>8.6789841999999992E-2</v>
       </c>
       <c r="G49">
@@ -18752,7 +18792,7 @@
         <v>19</v>
       </c>
       <c r="L49">
-        <f>AVERAGE(L4,L13,L22,L31,L40)</f>
+        <f t="shared" si="4"/>
         <v>0.15569190117641887</v>
       </c>
     </row>
@@ -18761,35 +18801,35 @@
         <v>439</v>
       </c>
       <c r="B50">
-        <f>AVERAGE(B5,B14,B23,B32,B41)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C50" s="1">
-        <f>AVERAGE(C5,C14,C23,C32,C41)</f>
+        <f t="shared" si="0"/>
         <v>-1.9707999999999999</v>
       </c>
       <c r="D50">
-        <f>AVERAGE(D5,D14,D23,D32,D41)</f>
+        <f t="shared" si="1"/>
         <v>5.8</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.9127999999999998</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:H50" si="4">AVERAGE(F5,F14,F23,F32,F41)</f>
+        <f t="shared" si="3"/>
         <v>0.23831259999999999</v>
       </c>
       <c r="G50">
+        <f t="shared" si="3"/>
+        <v>9.4400000000000012E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="4"/>
-        <v>9.4400000000000012E-2</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="4"/>
-        <v>5.6</v>
-      </c>
-      <c r="L50">
-        <f>AVERAGE(L5,L14,L23,L32,L41)</f>
         <v>0.19627461079182679</v>
       </c>
     </row>
@@ -18798,35 +18838,35 @@
         <v>276</v>
       </c>
       <c r="B51">
-        <f>AVERAGE(B6,B15,B24,B33,B42)</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="C51" s="1">
-        <f>AVERAGE(C6,C15,C24,C33,C42)</f>
+        <f t="shared" si="0"/>
         <v>-2.0272000000000001</v>
       </c>
       <c r="D51">
-        <f>AVERAGE(D6,D15,D24,D33,D42)</f>
+        <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.9232</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:H51" si="5">AVERAGE(F6,F15,F24,F33,F42)</f>
+        <f t="shared" si="3"/>
         <v>0.26627716499999998</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.5462</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17.2</v>
       </c>
       <c r="L51">
-        <f>AVERAGE(L6,L15,L24,L33,L42)</f>
+        <f t="shared" si="4"/>
         <v>0.15698808814278578</v>
       </c>
     </row>
@@ -18835,35 +18875,35 @@
         <v>438</v>
       </c>
       <c r="B52">
-        <f>AVERAGE(B7,B16,B25,B34,B43)</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
       <c r="C52" s="1">
-        <f>AVERAGE(C7,C16,C25,C34,C43)</f>
+        <f t="shared" si="0"/>
         <v>-1.8794</v>
       </c>
       <c r="D52">
-        <f>AVERAGE(D7,D16,D25,D34,D43)</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8273999999999999</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:H52" si="6">AVERAGE(F7,F16,F25,F34,F43)</f>
+        <f t="shared" si="3"/>
         <v>0.37127805400000002</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.3399999999999993E-2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="L52">
-        <f>AVERAGE(L7,L16,L25,L34,L43)</f>
+        <f t="shared" si="4"/>
         <v>0.25990752377090443</v>
       </c>
     </row>
@@ -18872,29 +18912,29 @@
         <v>537</v>
       </c>
       <c r="B53">
-        <f>AVERAGE(B8,B17,B26,B35,B44)</f>
+        <f t="shared" si="0"/>
         <v>23.2</v>
       </c>
       <c r="C53" s="1">
-        <f>AVERAGE(C8,C17,C26,C35,C44)</f>
+        <f t="shared" si="0"/>
         <v>-2.0335999999999999</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" ref="D53:H54" si="7">AVERAGE(D8,D17,D26,D35,D44)</f>
+        <f t="shared" ref="D53:H54" si="5">AVERAGE(D8,D17,D26,D35,D44)</f>
         <v>26</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10.878</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>25.4</v>
       </c>
       <c r="L53">
-        <f>AVERAGE(L8,L17,L26,L35,L44)</f>
+        <f t="shared" si="4"/>
         <v>0.15464597438333147</v>
       </c>
     </row>
@@ -18904,21 +18944,21 @@
         <v>-1.4967999999999999</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
       <c r="L54">
-        <f>AVERAGE(L9,L18,L27,L36,L45)</f>
+        <f t="shared" si="4"/>
         <v>0.47841776427850735</v>
       </c>
     </row>
@@ -18942,7 +18982,7 @@
         <v>14</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E63" si="8">C57+D57*0.01</f>
+        <f t="shared" ref="E57:E63" si="6">C57+D57*0.01</f>
         <v>-2.738</v>
       </c>
       <c r="G57">
@@ -18967,7 +19007,7 @@
         <v>22</v>
       </c>
       <c r="E58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.6629999999999998</v>
       </c>
       <c r="G58">
@@ -18992,7 +19032,7 @@
         <v>14</v>
       </c>
       <c r="E59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.738</v>
       </c>
       <c r="G59">
@@ -19017,7 +19057,7 @@
         <v>6</v>
       </c>
       <c r="E60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.153</v>
       </c>
       <c r="G60">
@@ -19042,7 +19082,7 @@
         <v>6</v>
       </c>
       <c r="E61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.153</v>
       </c>
       <c r="G61">
@@ -19067,7 +19107,7 @@
         <v>6</v>
       </c>
       <c r="E62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.153</v>
       </c>
       <c r="G62">
@@ -19092,7 +19132,7 @@
         <v>34</v>
       </c>
       <c r="E63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.5449999999999999</v>
       </c>
       <c r="G63" s="22">
@@ -19121,8 +19161,8 @@
         <v>5</v>
       </c>
       <c r="L64">
-        <f>1-C64/C10</f>
-        <v>0.11867781760254881</v>
+        <f>1-C64/C65</f>
+        <v>0.44144371529530546</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -19141,7 +19181,7 @@
         <v>22</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E73" si="9">C66+D66*0.01</f>
+        <f t="shared" ref="E66:E73" si="7">C66+D66*0.01</f>
         <v>-5.0920000000000005</v>
       </c>
       <c r="G66">
@@ -19166,7 +19206,7 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.125</v>
       </c>
       <c r="G67">
@@ -19191,7 +19231,7 @@
         <v>26</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.056</v>
       </c>
       <c r="G68">
@@ -19216,7 +19256,7 @@
         <v>6</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.04</v>
       </c>
       <c r="G69">
@@ -19241,7 +19281,7 @@
         <v>6</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.6059999999999999</v>
       </c>
       <c r="G70">
@@ -19266,7 +19306,7 @@
         <v>6</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.04</v>
       </c>
       <c r="G71">
@@ -19291,7 +19331,7 @@
         <v>42</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-4.9030000000000005</v>
       </c>
       <c r="G72" s="22">
@@ -19313,7 +19353,7 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.6059999999999999</v>
       </c>
       <c r="G73" s="22">
@@ -19343,7 +19383,7 @@
         <v>26</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:E82" si="10">C75+D75*0.01</f>
+        <f t="shared" ref="E75:E82" si="8">C75+D75*0.01</f>
         <v>-3.4710000000000001</v>
       </c>
       <c r="G75">
@@ -19368,7 +19408,7 @@
         <v>22</v>
       </c>
       <c r="E76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-3.508</v>
       </c>
       <c r="G76">
@@ -19393,7 +19433,7 @@
         <v>22</v>
       </c>
       <c r="E77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-3.508</v>
       </c>
       <c r="G77">
@@ -19418,7 +19458,7 @@
         <v>6</v>
       </c>
       <c r="E78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G78">
@@ -19443,7 +19483,7 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G79">
@@ -19468,7 +19508,7 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G80">
@@ -19493,7 +19533,7 @@
         <v>50</v>
       </c>
       <c r="E81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-3.2360000000000002</v>
       </c>
       <c r="G81" s="22">
@@ -19515,7 +19555,7 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.9049999999999998</v>
       </c>
       <c r="G82" s="22">
@@ -19545,7 +19585,7 @@
         <v>14</v>
       </c>
       <c r="E84">
-        <f t="shared" ref="E84:E91" si="11">C84+D84*0.01</f>
+        <f t="shared" ref="E84:E91" si="9">C84+D84*0.01</f>
         <v>-3.9330000000000003</v>
       </c>
       <c r="G84">
@@ -19570,7 +19610,7 @@
         <v>14</v>
       </c>
       <c r="E85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.9330000000000003</v>
       </c>
       <c r="G85">
@@ -19595,7 +19635,7 @@
         <v>10</v>
       </c>
       <c r="E86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.9449999999999998</v>
       </c>
       <c r="G86">
@@ -19620,7 +19660,7 @@
         <v>4</v>
       </c>
       <c r="E87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.641</v>
       </c>
       <c r="G87">
@@ -19645,7 +19685,7 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.3109999999999999</v>
       </c>
       <c r="G88">
@@ -19670,7 +19710,7 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.3109999999999999</v>
       </c>
       <c r="G89">
@@ -19695,7 +19735,7 @@
         <v>42</v>
       </c>
       <c r="E90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.6779999999999999</v>
       </c>
       <c r="G90" s="22">
@@ -19717,7 +19757,7 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.3109999999999999</v>
       </c>
       <c r="G91" s="22">
@@ -19747,7 +19787,7 @@
         <v>22</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93:E100" si="12">C93+D93*0.01</f>
+        <f t="shared" ref="E93:E100" si="10">C93+D93*0.01</f>
         <v>-3.0679999999999996</v>
       </c>
       <c r="G93">
@@ -19772,7 +19812,7 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-3.1059999999999999</v>
       </c>
       <c r="G94">
@@ -19797,7 +19837,7 @@
         <v>14</v>
       </c>
       <c r="E95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-3.1419999999999999</v>
       </c>
       <c r="G95">
@@ -19822,7 +19862,7 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.8740000000000001</v>
       </c>
       <c r="G96">
@@ -19847,7 +19887,7 @@
         <v>6</v>
       </c>
       <c r="E97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.8740000000000001</v>
       </c>
       <c r="G97">
@@ -19872,7 +19912,7 @@
         <v>6</v>
       </c>
       <c r="E98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.8740000000000001</v>
       </c>
       <c r="G98">
@@ -19897,7 +19937,7 @@
         <v>38</v>
       </c>
       <c r="E99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.911</v>
       </c>
       <c r="G99" s="22">
@@ -19919,7 +19959,7 @@
         <v>4</v>
       </c>
       <c r="E100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.4079999999999999</v>
       </c>
       <c r="G100" s="22">
@@ -19943,27 +19983,27 @@
         <v>435</v>
       </c>
       <c r="C102" s="1">
-        <f>AVERAGE(C57,C66,C75,C84,C93)</f>
+        <f t="shared" ref="C102:E107" si="11">AVERAGE(C57,C66,C75,C84,C93)</f>
         <v>-3.8563999999999998</v>
       </c>
       <c r="D102">
-        <f>AVERAGE(D57,D66,D75,D84,D93)</f>
+        <f t="shared" si="11"/>
         <v>19.600000000000001</v>
       </c>
       <c r="E102" s="1">
-        <f>AVERAGE(E57,E66,E75,E84,E93)</f>
+        <f t="shared" si="11"/>
         <v>-3.6604000000000001</v>
       </c>
       <c r="G102" s="3">
-        <f>AVERAGE(G57,G66,G75,G84,G93)</f>
+        <f t="shared" ref="G102:H107" si="12">AVERAGE(G57,G66,G75,G84,G93)</f>
         <v>15.408000000000001</v>
       </c>
       <c r="H102">
-        <f>AVERAGE(H57,H66,H75,H84,H93)</f>
+        <f t="shared" si="12"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="L102" s="31">
-        <f>AVERAGE(L57,L66,L75,L84,L93)</f>
+        <f t="shared" ref="L102:L107" si="13">AVERAGE(L57,L66,L75,L84,L93)</f>
         <v>0.21556342822059946</v>
       </c>
     </row>
@@ -19972,27 +20012,27 @@
         <v>276</v>
       </c>
       <c r="C103" s="1">
-        <f>AVERAGE(C58,C67,C76,C85,C94)</f>
+        <f t="shared" si="11"/>
         <v>-3.8549999999999995</v>
       </c>
       <c r="D103">
-        <f>AVERAGE(D58,D67,D76,D85,D94)</f>
+        <f t="shared" si="11"/>
         <v>18.8</v>
       </c>
       <c r="E103" s="1">
-        <f>AVERAGE(E58,E67,E76,E85,E94)</f>
+        <f t="shared" si="11"/>
         <v>-3.6670000000000003</v>
       </c>
       <c r="G103" s="3">
-        <f>AVERAGE(G58,G67,G76,G85,G94)</f>
+        <f t="shared" si="12"/>
         <v>16.521999999999998</v>
       </c>
       <c r="H103">
-        <f>AVERAGE(H58,H67,H76,H85,H94)</f>
+        <f t="shared" si="12"/>
         <v>10.199999999999999</v>
       </c>
       <c r="L103" s="31">
-        <f>AVERAGE(L58,L67,L76,L85,L94)</f>
+        <f t="shared" si="13"/>
         <v>0.21575678884014876</v>
       </c>
     </row>
@@ -20001,27 +20041,27 @@
         <v>436</v>
       </c>
       <c r="C104" s="1">
-        <f>AVERAGE(C59,C68,C77,C86,C95)</f>
+        <f t="shared" si="11"/>
         <v>-3.8497999999999997</v>
       </c>
       <c r="D104">
-        <f>AVERAGE(D59,D68,D77,D86,D95)</f>
+        <f t="shared" si="11"/>
         <v>17.2</v>
       </c>
       <c r="E104" s="1">
-        <f>AVERAGE(E59,E68,E77,E86,E95)</f>
+        <f t="shared" si="11"/>
         <v>-3.6778</v>
       </c>
       <c r="G104" s="3">
-        <f>AVERAGE(G59,G68,G77,G86,G95)</f>
+        <f t="shared" si="12"/>
         <v>9.427999999999999</v>
       </c>
       <c r="H104">
-        <f>AVERAGE(H59,H68,H77,H86,H95)</f>
+        <f t="shared" si="12"/>
         <v>8.6</v>
       </c>
       <c r="L104" s="31">
-        <f>AVERAGE(L59,L68,L77,L86,L95)</f>
+        <f t="shared" si="13"/>
         <v>0.21691027471541621</v>
       </c>
     </row>
@@ -20030,27 +20070,27 @@
         <v>437</v>
       </c>
       <c r="C105" s="1">
-        <f>AVERAGE(C60,C69,C78,C87,C96)</f>
+        <f t="shared" si="11"/>
         <v>-2.5786000000000002</v>
       </c>
       <c r="D105">
-        <f>AVERAGE(D60,D69,D78,D87,D96)</f>
+        <f t="shared" si="11"/>
         <v>5.6</v>
       </c>
       <c r="E105" s="1">
-        <f>AVERAGE(E60,E69,E78,E87,E96)</f>
+        <f t="shared" si="11"/>
         <v>-2.5225999999999997</v>
       </c>
       <c r="G105" s="3">
-        <f>AVERAGE(G60,G69,G78,G87,G96)</f>
+        <f t="shared" si="12"/>
         <v>0.41600000000000004</v>
       </c>
       <c r="H105">
-        <f>AVERAGE(H60,H69,H78,H87,H96)</f>
+        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="L105" s="31">
-        <f>AVERAGE(L60,L69,L78,L87,L96)</f>
+        <f t="shared" si="13"/>
         <v>0.453035403776681</v>
       </c>
     </row>
@@ -20059,27 +20099,27 @@
         <v>438</v>
       </c>
       <c r="C106" s="1">
-        <f>AVERAGE(C61,C70,C79,C88,C97)</f>
+        <f t="shared" si="11"/>
         <v>-3.0298000000000003</v>
       </c>
       <c r="D106">
-        <f>AVERAGE(D61,D70,D79,D88,D97)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E106" s="1">
-        <f>AVERAGE(E61,E70,E79,E88,E97)</f>
+        <f t="shared" si="11"/>
         <v>-2.9698000000000002</v>
       </c>
       <c r="G106" s="3">
-        <f>AVERAGE(G61,G70,G79,G88,G97)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="H106">
-        <f>AVERAGE(H61,H70,H79,H88,H97)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="L106" s="31">
-        <f>AVERAGE(L61,L70,L79,L88,L97)</f>
+        <f t="shared" si="13"/>
         <v>0.37730003055420613</v>
       </c>
     </row>
@@ -20088,27 +20128,27 @@
         <v>439</v>
       </c>
       <c r="C107" s="1">
-        <f>AVERAGE(C62,C71,C80,C89,C98)</f>
+        <f t="shared" si="11"/>
         <v>-2.7166000000000006</v>
       </c>
       <c r="D107">
-        <f>AVERAGE(D62,D71,D80,D89,D98)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E107" s="1">
-        <f>AVERAGE(E62,E71,E80,E89,E98)</f>
+        <f t="shared" si="11"/>
         <v>-2.6566000000000001</v>
       </c>
       <c r="G107" s="3">
-        <f>AVERAGE(G62,G71,G80,G89,G98)</f>
+        <f t="shared" si="12"/>
         <v>0.51200000000000001</v>
       </c>
       <c r="H107">
-        <f>AVERAGE(H62,H71,H80,H89,H98)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="L107" s="31">
-        <f>AVERAGE(L62,L71,L80,L89,L98)</f>
+        <f t="shared" si="13"/>
         <v>0.42702220867771779</v>
       </c>
     </row>
@@ -20122,23 +20162,23 @@
         <v>-3.8666000000000005</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" ref="D108:E109" si="13">AVERAGE(D63,D72,D81,D90,D99)</f>
+        <f>AVERAGE(D63,D72,D81,D90,D99)</f>
         <v>41.2</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(E63,E72,E81,E90,E99)</f>
         <v>-3.4546000000000006</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" ref="G108:H109" si="14">AVERAGE(G63,G72,G81,G90,G99)</f>
+        <f>AVERAGE(G63,G72,G81,G90,G99)</f>
         <v>131.93</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="14"/>
+        <f>AVERAGE(H63,H72,H81,H90,H99)</f>
         <v>50.8</v>
       </c>
       <c r="L108" s="31">
-        <f t="shared" ref="L108:L109" si="15">AVERAGE(L63,L72,L81,L90,L99)</f>
+        <f>AVERAGE(L63,L72,L81,L90,L99)</f>
         <v>0.21356202947556263</v>
       </c>
     </row>
@@ -20148,24 +20188,24 @@
         <v>-2.9325999999999999</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(D64,D73,D82,D91,D100)</f>
         <v>5.6</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="13"/>
+        <f>AVERAGE(E64,E73,E82,E91,E100)</f>
         <v>-3.0574999999999997</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" si="14"/>
+        <f>AVERAGE(G64,G73,G82,G91,G100)</f>
         <v>0.12800000000000003</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="14"/>
+        <f>AVERAGE(H64,H73,H82,H91,H100)</f>
         <v>5.6</v>
       </c>
       <c r="L109" s="31">
-        <f t="shared" si="15"/>
-        <v>0.33640799999325949</v>
+        <f>AVERAGE(L64,L73,L82,L91,L100)</f>
+        <v>0.40096117953181076</v>
       </c>
     </row>
   </sheetData>
@@ -25236,8 +25276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:N159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C121" sqref="C121:I121"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25570,7 +25610,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>6.1491262795981801E-3</v>
       </c>
       <c r="E12">
         <v>76</v>
@@ -25580,14 +25620,14 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>8.2000000000000003E-2</v>
+        <v>8.2149126279598181E-2</v>
       </c>
       <c r="H12" s="9">
         <v>1.05</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>0.99399999999999999</v>
+        <v>0.99385087372040182</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="34">
@@ -25999,11 +26039,11 @@
       </c>
       <c r="L24" s="25">
         <f>(G12-G24)/G12</f>
-        <v>0</v>
+        <v>1.8153118158630134E-3</v>
       </c>
       <c r="M24" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4251620932384681E-2</v>
       </c>
       <c r="N24" s="25">
         <f t="shared" si="3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8917BD-F8F9-C445-AA13-D91015769277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CCE4F-8B82-5246-AD20-4823A5E12787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="28800" windowHeight="15800" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="35200" yWindow="900" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="546">
   <si>
     <t>Name</t>
   </si>
@@ -1692,6 +1693,27 @@
   </si>
   <si>
     <t>ADMM+STGMT</t>
+  </si>
+  <si>
+    <t>pGRPAE+MT</t>
+  </si>
+  <si>
+    <t>pGRAPE+MS</t>
+  </si>
+  <si>
+    <t>TR+MT</t>
+  </si>
+  <si>
+    <t>TR+MS</t>
+  </si>
+  <si>
+    <t>ADMM+MT</t>
+  </si>
+  <si>
+    <t>ADMM+MS</t>
+  </si>
+  <si>
+    <t>Root relaxation, IP, LP, gap</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:Q770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B158" workbookViewId="0">
+    <sheetView topLeftCell="B158" workbookViewId="0">
       <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
@@ -17564,6 +17586,547 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE872A85-4DE9-F745-9374-575870CFA036}">
+  <dimension ref="A1:Y10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R1" t="s">
+        <v>543</v>
+      </c>
+      <c r="V1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.24188419999999999</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.24188416159439999</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6.8181818180000006E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>(C2-D2)/C2</f>
+        <v>0.71812202282872206</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2.430428520409E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <f>(G2-H2)/G2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.46668749999999998</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.48902466287239998</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.46668749209999999</v>
+      </c>
+      <c r="M2" s="8">
+        <f>(K2-L2)/K2</f>
+        <v>4.5676982099834049E-2</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.46668749999999998</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.48902466287239998</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.46668749209999999</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>(O2-P2)/O2</f>
+        <v>4.5676982099834049E-2</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.23373150000000001</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0.23373153902810001</v>
+      </c>
+      <c r="T2" s="8">
+        <v>5.788940435E-2</v>
+      </c>
+      <c r="U2" s="8">
+        <f>(S2-T2)/S2</f>
+        <v>0.75232523351056901</v>
+      </c>
+      <c r="V2" s="8">
+        <v>1.550431E-2</v>
+      </c>
+      <c r="W2" s="8">
+        <v>2.4750957841570002E-2</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>(W2-X2)/W2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.1401789</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.150339327813</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.1496119129999997E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E7" si="0">(C3-D3)/C3</f>
+        <v>0.65746741136122688</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.8934099999999999E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6.0051314675590002E-2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I7" si="1">(G3-H3)/G3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.1470931</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.161856852789</v>
+      </c>
+      <c r="L3" s="8">
+        <v>6.0145330349999998E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M7" si="2">(K3-L3)/K3</f>
+        <v>0.62840417743444743</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1.9132980000000001E-2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>7.3222690283929998E-2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>4.1661404980000002E-3</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q7" si="3">(O3-P3)/O3</f>
+        <v>0.94310314901234471</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.13594419999999999</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.15169893830379999</v>
+      </c>
+      <c r="T3" s="8">
+        <v>4.5919320850000001E-2</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" ref="U3:U7" si="4">(S3-T3)/S3</f>
+        <v>0.6972996557296951</v>
+      </c>
+      <c r="V3" s="8">
+        <v>2.4577870000000002E-2</v>
+      </c>
+      <c r="W3" s="8">
+        <v>6.033009478806E-2</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" ref="Y3:Y7" si="5">(W3-X3)/W3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.14010049999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.21236115600809999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.8942617209999998E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.91079999013907487</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.05579E-2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.1716302489722</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.14588110000000001</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.20572817840089999</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.878555153E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.90868751341688925</v>
+      </c>
+      <c r="N4" s="8">
+        <v>2.3683800000000001E-2</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.1590419513976</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.10539569999999999</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0.2003655848376</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1.4713807230000001E-2</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" si="4"/>
+        <v>0.92656519710245733</v>
+      </c>
+      <c r="V4" s="8">
+        <v>2.3311709999999999E-2</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0.12831494594660001</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.12637470000000001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.18079961653000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.6135558069999999E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85544461558266993</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.109801E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.32201949271769997</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.11582770000000001</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.18358220638780001</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2.0650868879999999E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8875115988290444</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2.479286E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.2679285668459</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2.492221E-2</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.2056017509561</v>
+      </c>
+      <c r="T5" s="8">
+        <v>2.7707433000000001E-3</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="4"/>
+        <v>0.98652373684992789</v>
+      </c>
+      <c r="V5" s="8">
+        <v>2.479286E-2</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0.2679285668459</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.1754299</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.17542990905459999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.35449142E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75178169768960379</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.246223E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.8006175272120003E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.17443600000000001</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.1744360232671</v>
+      </c>
+      <c r="L6" s="8">
+        <v>4.1238028650000001E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.76359224500976219</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.4639029999999999E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>3.206316663264E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>8.3261940000000007E-2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.20879240267079999</v>
+      </c>
+      <c r="T6" s="8">
+        <v>6.016928554E-6</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="4"/>
+        <v>0.99997118224381232</v>
+      </c>
+      <c r="V6" s="8">
+        <v>2.4965480000000002E-2</v>
+      </c>
+      <c r="W6" s="8">
+        <v>8.3253018705480006E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.22373599999999999</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.25376387545930001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3.3256842449999997E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86894571818070343</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.8890919999999997E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.1199351176453</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.22373599999999999</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.27055884505689998</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3.3256842449999997E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.87708092691256911</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4.8813080000000002E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.13277450015559999</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.1214258</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.2426227125124</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1.324438497E-6</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="4"/>
+        <v>0.99999454116029252</v>
+      </c>
+      <c r="V7" s="8">
+        <v>4.9806219999999998E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0.16415733146719999</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741D4DFB-7C75-0E41-A642-F95FBB75CB0A}">
   <dimension ref="A1:L109"/>
   <sheetViews>
@@ -20213,7 +20776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA6C1F7-3E09-4E4E-BA36-8FCB329B50FE}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -20566,7 +21129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5EC59C-826A-9946-B4D2-773A781998E3}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -20794,7 +21357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1C1058-6CFA-6948-AB8A-BD491AFAAAD5}">
   <dimension ref="A1:N91"/>
   <sheetViews>
@@ -23584,7 +24147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842C86B-7D36-B04D-B09B-8D3C95D38C2E}">
   <dimension ref="B1:L70"/>
   <sheetViews>
@@ -25272,7 +25835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:N159"/>
   <sheetViews>
@@ -29250,7 +29813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1B372-4CC2-8848-A040-A5C43187FDD8}">
   <dimension ref="A1:C10"/>
   <sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuf/Documents/Michigan/phd_topic/qc_opt/Quantum-Control-qutip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CCE4F-8B82-5246-AD20-4823A5E12787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7AA7E7-93E6-354E-9BFD-CB0B0702352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35200" yWindow="900" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="9" xr2:uid="{393AB6DC-0C1A-A74B-BEEF-2523904083F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId8"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet name="NOT" sheetId="10" r:id="rId10"/>
+    <sheet name="NOT-new" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -1714,6 +1716,27 @@
   </si>
   <si>
     <t>Root relaxation, IP, LP, gap</t>
+  </si>
+  <si>
+    <t>pGRAPE</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>pGRAPE+SUR</t>
+  </si>
+  <si>
+    <t>TR+SUR</t>
+  </si>
+  <si>
+    <t>pGRAPE+MT</t>
+  </si>
+  <si>
+    <t>pGRAPE+SUR+ALB</t>
+  </si>
+  <si>
+    <t>TR+SUR+ALB</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1749,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1780,6 +1803,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1838,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1888,6 +1917,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2205,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB70BE8-B604-B445-AA09-F9BD1573AC49}">
   <dimension ref="A1:Q770"/>
   <sheetViews>
-    <sheetView topLeftCell="B158" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView topLeftCell="A756" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6099,6 +6130,10 @@
         <f>D163/D187</f>
         <v>0.84172090808064759</v>
       </c>
+      <c r="J163">
+        <f>1-I162</f>
+        <v>0.15462771868550562</v>
+      </c>
     </row>
     <row r="164" spans="3:10" ht="17">
       <c r="C164" s="2" t="s">
@@ -9853,6 +9888,10 @@
       <c r="G325">
         <v>1.32</v>
       </c>
+      <c r="I325">
+        <f>1-D325/D332</f>
+        <v>0.371</v>
+      </c>
     </row>
     <row r="326" spans="3:9" ht="17">
       <c r="C326" s="2" t="s">
@@ -17580,6 +17619,3038 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960E117-0067-9F40-978D-4F06FC858D5C}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1">
+        <v>0.1627915417861</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.163004864866027</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.163397238895157</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.22647190568743</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.1875279744466101</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.90802992516876502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="8">
+        <v>4.2777181796793601E-10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6.5489364865944894E-5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.0668355438247999E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.2510050806212401</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.65236551144146704</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.57809733973746502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="8">
+        <v>6.5504712765118698E-11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5.138848784203E-5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4.7887368864185599E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.7395401577687202</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.53025580755296</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.0051845518137399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I6" t="s">
+        <v>544</v>
+      </c>
+      <c r="K6" t="s">
+        <v>548</v>
+      </c>
+      <c r="L6" t="s">
+        <v>549</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>550</v>
+      </c>
+      <c r="O6" t="s">
+        <v>541</v>
+      </c>
+      <c r="P6" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>540</v>
+      </c>
+      <c r="R6" t="s">
+        <v>542</v>
+      </c>
+      <c r="S6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1">
+        <v>0.16433567494509899</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="K7" s="35">
+        <v>3</v>
+      </c>
+      <c r="L7" s="35">
+        <v>1</v>
+      </c>
+      <c r="M7" s="35">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="8">
+        <v>2.3757225945439898E-3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.0976997160051499E-3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.5480209484370899E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4.32271951015683E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.8306499557828602E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.7412570846754201E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>6.8071527126928502E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.20404667937588E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.9302345445700999E-2</v>
+      </c>
+      <c r="K8" s="35">
+        <v>40</v>
+      </c>
+      <c r="L8" s="35">
+        <v>46</v>
+      </c>
+      <c r="M8" s="35">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="8">
+        <v>4.7331475979300796E-3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.9061170530529899E-4</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9.2249337445582304E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.15129113675343001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.163455337405219</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9.3943820904024405E-3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.109886658558011</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.102341799900144</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5.07975385197068E-3</v>
+      </c>
+      <c r="K9" s="35">
+        <v>126</v>
+      </c>
+      <c r="L9" s="35">
+        <v>126</v>
+      </c>
+      <c r="M9" s="35">
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <v>62</v>
+      </c>
+      <c r="O9">
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>19</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F11" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" t="s">
+        <v>542</v>
+      </c>
+      <c r="I11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K11" t="s">
+        <v>551</v>
+      </c>
+      <c r="L11" t="s">
+        <v>552</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>550</v>
+      </c>
+      <c r="O11" t="s">
+        <v>541</v>
+      </c>
+      <c r="P11" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>540</v>
+      </c>
+      <c r="R11" t="s">
+        <v>542</v>
+      </c>
+      <c r="S11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="K12" s="35">
+        <v>1</v>
+      </c>
+      <c r="L12" s="35">
+        <v>1</v>
+      </c>
+      <c r="M12" s="35">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="8">
+        <v>1.4197286180969099E-3</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7.3287569574531598E-4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7.2370991824921495E-4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9.5783468942822704E-4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.4021001032963296E-4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7.8802477326822497E-4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.7878595396783E-3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5.5138462056070203E-4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.2563070577620199E-3</v>
+      </c>
+      <c r="K13" s="35">
+        <v>6</v>
+      </c>
+      <c r="L13" s="35">
+        <v>6</v>
+      </c>
+      <c r="M13" s="35">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <v>26</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="8">
+        <v>5.5032683831412999E-4</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.65868576629446E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.1599207400919698E-4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.2237493045387201E-3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.03518773611466E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>9.8219722142567291E-4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5.4321302183346599E-4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>9.9085545725019399E-4</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9.0459487803606897E-4</v>
+      </c>
+      <c r="K14" s="35">
+        <v>32</v>
+      </c>
+      <c r="L14" s="35">
+        <v>10</v>
+      </c>
+      <c r="M14" s="35">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>57</v>
+      </c>
+      <c r="O14">
+        <v>54</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="25">
+        <f>(A7-A12)/A7</f>
+        <v>4.5632663669316334E-3</v>
+      </c>
+      <c r="B15" s="25">
+        <f t="shared" ref="B15:I15" si="0">(B7-B12)/B7</f>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="K15" s="25">
+        <f>(K7-K12)/K7</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L15" s="25">
+        <f t="shared" ref="L15:S15" si="1">(L7-L12)/L7</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="25">
+        <f t="shared" ref="A16:I16" si="2">(A8-A13)/A8</f>
+        <v>0.40240134881176187</v>
+      </c>
+      <c r="B16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.76341293122806431</v>
+      </c>
+      <c r="C16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.53249345948458537</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.77841849623190651</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.78066124025213324</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.54743915748941974</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.97373557469418015</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.95420571062522985</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.93491427965082752</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" ref="K16:S16" si="3">(K8-K13)/K8</f>
+        <v>0.85</v>
+      </c>
+      <c r="L16" s="25">
+        <f t="shared" si="3"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="3"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.375</v>
+      </c>
+      <c r="R16" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="S16" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="25">
+        <f t="shared" ref="A17:I17" si="4">(A9-A14)/A9</f>
+        <v>0.88372920410198041</v>
+      </c>
+      <c r="B17" s="25">
+        <f>(B9-B14)/B14</f>
+        <v>-0.76450530097817493</v>
+      </c>
+      <c r="C17" s="25">
+        <f t="shared" si="4"/>
+        <v>0.93322531184870894</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="4"/>
+        <v>0.99191129546119305</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="4"/>
+        <v>0.99366684653711645</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="4"/>
+        <v>0.89544844866070405</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="4"/>
+        <v>0.99505660624354419</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="4"/>
+        <v>0.99031817440950831</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="4"/>
+        <v>0.82192151344397657</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" ref="K17:S17" si="5">(K9-K14)/K9</f>
+        <v>0.74603174603174605</v>
+      </c>
+      <c r="L17" s="25">
+        <f t="shared" si="5"/>
+        <v>0.92063492063492058</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="5"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" si="5"/>
+        <v>-0.4</v>
+      </c>
+      <c r="Q17" s="25">
+        <f t="shared" si="5"/>
+        <v>-5.2631578947368418E-2</v>
+      </c>
+      <c r="R17" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B20" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>546</v>
+      </c>
+      <c r="L20" t="s">
+        <v>547</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1">
+        <v>0.1627915417861</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.163004864866027</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.163397238895157</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.22647190568743</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.1875279744466101</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.90802992516876502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="8">
+        <v>4.2777181796793601E-10</v>
+      </c>
+      <c r="B22" s="8">
+        <v>6.5489364865944894E-5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.0668355438247999E-4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.2510050806212401</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.65236551144146704</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.57809733973746502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="8">
+        <v>6.5504712765118698E-11</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5.138848784203E-5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4.7887368864185599E-5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.7395401577687202</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.53025580755296</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.0051845518137399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>548</v>
+      </c>
+      <c r="B25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>550</v>
+      </c>
+      <c r="E25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" t="s">
+        <v>543</v>
+      </c>
+      <c r="G25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H25" t="s">
+        <v>542</v>
+      </c>
+      <c r="I25" t="s">
+        <v>544</v>
+      </c>
+      <c r="K25" t="s">
+        <v>548</v>
+      </c>
+      <c r="L25" t="s">
+        <v>549</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>550</v>
+      </c>
+      <c r="O25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P25" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>540</v>
+      </c>
+      <c r="R25" t="s">
+        <v>542</v>
+      </c>
+      <c r="S25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1">
+        <v>0.16433567494509899</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.16433567494509899</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="K26" s="35">
+        <v>3</v>
+      </c>
+      <c r="L26" s="35">
+        <v>1</v>
+      </c>
+      <c r="M26" s="35">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="8">
+        <v>2.3757225945439898E-3</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3.0976997160051499E-3</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.5480209484370899E-3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4.0541169326405203E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3.64952930012582E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>7.5639736076547504E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1.37921697000562E-2</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.157913865967091</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.15372727824114801</v>
+      </c>
+      <c r="K27" s="35">
+        <v>40</v>
+      </c>
+      <c r="L27" s="35">
+        <v>46</v>
+      </c>
+      <c r="M27" s="35">
+        <v>52</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>19</v>
+      </c>
+      <c r="R27">
+        <v>14</v>
+      </c>
+      <c r="S27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="8">
+        <v>4.7331475979300796E-3</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3.9061170530529899E-4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>9.2249337445582304E-3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2.78249395116992E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.13362841537704501</v>
+      </c>
+      <c r="F28" s="8">
+        <v>6.3799358138828796E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>6.1584116344166002E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.28429134467709499</v>
+      </c>
+      <c r="I28" s="8">
+        <v>9.2249337445582304E-3</v>
+      </c>
+      <c r="K28" s="35">
+        <v>126</v>
+      </c>
+      <c r="L28" s="35">
+        <v>126</v>
+      </c>
+      <c r="M28" s="35">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>40</v>
+      </c>
+      <c r="R28">
+        <v>40</v>
+      </c>
+      <c r="S28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>551</v>
+      </c>
+      <c r="B30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E30" t="s">
+        <v>541</v>
+      </c>
+      <c r="F30" t="s">
+        <v>543</v>
+      </c>
+      <c r="G30" t="s">
+        <v>540</v>
+      </c>
+      <c r="H30" t="s">
+        <v>542</v>
+      </c>
+      <c r="I30" t="s">
+        <v>544</v>
+      </c>
+      <c r="K30" t="s">
+        <v>551</v>
+      </c>
+      <c r="L30" t="s">
+        <v>552</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>550</v>
+      </c>
+      <c r="O30" t="s">
+        <v>541</v>
+      </c>
+      <c r="P30" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>540</v>
+      </c>
+      <c r="R30" t="s">
+        <v>542</v>
+      </c>
+      <c r="S30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.16332089384798201</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.16332089384798201</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.16332089384798201</v>
+      </c>
+      <c r="K31" s="35">
+        <v>1</v>
+      </c>
+      <c r="L31" s="35">
+        <v>1</v>
+      </c>
+      <c r="M31" s="35">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="8">
+        <v>1.4197286180969099E-3</v>
+      </c>
+      <c r="B32" s="8">
+        <v>7.3287569574531598E-4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>7.2370991824921495E-4</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1.45487745103001E-3</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.26964341440075E-2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3.38975597917934E-3</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1.0580051379641599E-3</v>
+      </c>
+      <c r="H32" s="8">
+        <v>8.9040596257472504E-4</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1.7390531314218599E-3</v>
+      </c>
+      <c r="K32" s="35">
+        <v>6</v>
+      </c>
+      <c r="L32" s="35">
+        <v>10</v>
+      </c>
+      <c r="M32" s="35">
+        <v>13</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <v>22</v>
+      </c>
+      <c r="R32">
+        <v>18</v>
+      </c>
+      <c r="S32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="8">
+        <v>5.5032683831412999E-4</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1.65868576629446E-3</v>
+      </c>
+      <c r="C33" s="8">
+        <v>6.1599207400919698E-4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>7.3686880993517601E-4</v>
+      </c>
+      <c r="E33" s="8">
+        <v>9.0865804021844599E-4</v>
+      </c>
+      <c r="F33" s="8">
+        <v>8.9017992988627004E-4</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5.44075382333031E-4</v>
+      </c>
+      <c r="H33" s="8">
+        <v>7.5665498239863005E-4</v>
+      </c>
+      <c r="I33" s="8">
+        <v>8.9017992988627004E-4</v>
+      </c>
+      <c r="K33" s="35">
+        <v>32</v>
+      </c>
+      <c r="L33" s="35">
+        <v>6</v>
+      </c>
+      <c r="M33" s="35">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>24</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+      <c r="P33">
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <v>38</v>
+      </c>
+      <c r="R33">
+        <v>39</v>
+      </c>
+      <c r="S33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="25">
+        <f>(A26-A31)/A26</f>
+        <v>4.5632663669316334E-3</v>
+      </c>
+      <c r="B34" s="25">
+        <f t="shared" ref="B34:I34" si="6">(B26-B31)/B26</f>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="C34" s="25">
+        <f t="shared" si="6"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="6"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="6"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="6"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="6"/>
+        <v>6.1750505327342348E-3</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" si="6"/>
+        <v>5.2245649758014033E-3</v>
+      </c>
+      <c r="I34" s="25">
+        <f t="shared" si="6"/>
+        <v>5.2245649758014033E-3</v>
+      </c>
+      <c r="K34" s="25">
+        <f>(K26-K31)/K26</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L34" s="25">
+        <f t="shared" ref="L34:S34" si="7">(L26-L31)/L26</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="25">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="S34" s="25">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="25">
+        <f t="shared" ref="A35:I35" si="8">(A27-A32)/A27</f>
+        <v>0.40240134881176187</v>
+      </c>
+      <c r="B35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.76341293122806431</v>
+      </c>
+      <c r="C35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.53249345948458537</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.96411357947481735</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.65210762539788947</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.95518551286655862</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.92328943444193201</v>
+      </c>
+      <c r="H35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.99436144535426496</v>
+      </c>
+      <c r="I35" s="25">
+        <f t="shared" si="8"/>
+        <v>0.98868741350709499</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" ref="K35:S35" si="9">(K27-K32)/K27</f>
+        <v>0.85</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" si="9"/>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="M35" s="25">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="9"/>
+        <v>-0.125</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="9"/>
+        <v>-0.22222222222222221</v>
+      </c>
+      <c r="P35" s="25">
+        <f>(P27-P32)/P27</f>
+        <v>-0.2</v>
+      </c>
+      <c r="Q35" s="25">
+        <f t="shared" si="9"/>
+        <v>-0.15789473684210525</v>
+      </c>
+      <c r="R35" s="25">
+        <f t="shared" si="9"/>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="S35" s="25">
+        <f t="shared" si="9"/>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="25">
+        <f t="shared" ref="A36:I36" si="10">(A28-A33)/A28</f>
+        <v>0.88372920410198041</v>
+      </c>
+      <c r="B36" s="25">
+        <f>(B28-B33)/B33</f>
+        <v>-0.76450530097817493</v>
+      </c>
+      <c r="C36" s="25">
+        <f t="shared" ref="C36:K36" si="11">(C28-C33)/C28</f>
+        <v>0.93322531184870894</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="11"/>
+        <v>0.97351768511031789</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="11"/>
+        <v>0.99320011363111216</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="11"/>
+        <v>0.9860471961496976</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" si="11"/>
+        <v>0.9911653293960988</v>
+      </c>
+      <c r="H36" s="25">
+        <f t="shared" si="11"/>
+        <v>0.99733845227241069</v>
+      </c>
+      <c r="I36" s="25">
+        <f t="shared" si="11"/>
+        <v>0.90350283757740968</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" ref="K36:S36" si="12">(K28-K33)/K28</f>
+        <v>0.74603174603174605</v>
+      </c>
+      <c r="L36" s="25">
+        <f t="shared" si="12"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" si="12"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="Q36" s="25">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="R36" s="25">
+        <f t="shared" si="12"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S36" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752C16C5-5FD2-094D-95FC-116C7455A54D}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1">
+        <v>0.1627915417861</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.163004864866027</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.163397238895157</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.22647190568743</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.1875279744466101</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.90802992516876502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="8">
+        <v>4.2777181796793601E-10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6.5489364865944894E-5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.0668355438247999E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.2510050806212401</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.65236551144146704</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.57809733973746502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="8">
+        <v>4.8105963657008003E-13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4.8940391298990499E-5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4.8244618306214599E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.7395401577687202</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.53025580755296</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.0051845518137399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I6" t="s">
+        <v>544</v>
+      </c>
+      <c r="K6" t="s">
+        <v>548</v>
+      </c>
+      <c r="L6" t="s">
+        <v>549</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>550</v>
+      </c>
+      <c r="O6" t="s">
+        <v>541</v>
+      </c>
+      <c r="P6" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>540</v>
+      </c>
+      <c r="R6" t="s">
+        <v>542</v>
+      </c>
+      <c r="S6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1">
+        <v>0.16433567494509899</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="K7" s="35">
+        <v>3</v>
+      </c>
+      <c r="L7" s="35">
+        <v>1</v>
+      </c>
+      <c r="M7" s="35">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="8">
+        <v>2.3757225945439898E-3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.0976997160051499E-3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.5480209484370899E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4.32271951015683E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.8306499557828602E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.7412570846754201E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>6.8071527126928502E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.20404667937588E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.9302345445700999E-2</v>
+      </c>
+      <c r="K8" s="35">
+        <v>40</v>
+      </c>
+      <c r="L8" s="35">
+        <v>46</v>
+      </c>
+      <c r="M8" s="35">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="8">
+        <v>4.7331475979300796E-3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2.9309881882513202E-3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.21175623547081E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.15129113675343001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.163455337405219</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9.3943820904024405E-3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.109886658558011</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.102341799900144</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5.07975385197068E-3</v>
+      </c>
+      <c r="K9" s="35">
+        <v>126</v>
+      </c>
+      <c r="L9" s="35">
+        <v>122</v>
+      </c>
+      <c r="M9" s="35">
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <v>62</v>
+      </c>
+      <c r="O9">
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>19</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F11" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" t="s">
+        <v>542</v>
+      </c>
+      <c r="I11" t="s">
+        <v>544</v>
+      </c>
+      <c r="K11" t="s">
+        <v>551</v>
+      </c>
+      <c r="L11" t="s">
+        <v>552</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>550</v>
+      </c>
+      <c r="O11" t="s">
+        <v>541</v>
+      </c>
+      <c r="P11" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>540</v>
+      </c>
+      <c r="R11" t="s">
+        <v>542</v>
+      </c>
+      <c r="S11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="K12" s="35">
+        <v>1</v>
+      </c>
+      <c r="L12" s="35">
+        <v>1</v>
+      </c>
+      <c r="M12" s="35">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="8">
+        <v>1.4197286180969099E-3</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7.3287569574531598E-4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7.2370991824921495E-4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9.5783468942822704E-4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.4021001032963296E-4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7.8802477326822497E-4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.7878595396783E-3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5.5138462056070203E-4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.2563070577620199E-3</v>
+      </c>
+      <c r="K13" s="35">
+        <v>6</v>
+      </c>
+      <c r="L13" s="35">
+        <v>6</v>
+      </c>
+      <c r="M13" s="35">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <v>26</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="8">
+        <v>5.5032683831412999E-4</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.65868576629446E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.1599207400919698E-4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.2237493045387201E-3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.03518773611466E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>9.8219722142567291E-4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5.4321302183346599E-4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>9.9085545725019399E-4</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9.0459487803606897E-4</v>
+      </c>
+      <c r="K14" s="35">
+        <v>32</v>
+      </c>
+      <c r="L14" s="35">
+        <v>10</v>
+      </c>
+      <c r="M14" s="35">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>57</v>
+      </c>
+      <c r="O14">
+        <v>54</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="25">
+        <f>(A7-A12)/A7</f>
+        <v>4.5632663669316334E-3</v>
+      </c>
+      <c r="B15" s="25">
+        <f t="shared" ref="B15:I15" si="0">(B7-B12)/B7</f>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="K15" s="25">
+        <f>(K7-K12)/K7</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L15" s="25">
+        <f t="shared" ref="L15:S15" si="1">(L7-L12)/L7</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="25">
+        <f t="shared" ref="A16:I17" si="2">(A8-A13)/A8</f>
+        <v>0.40240134881176187</v>
+      </c>
+      <c r="B16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.76341293122806431</v>
+      </c>
+      <c r="C16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.53249345948458537</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.77841849623190651</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.78066124025213324</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.54743915748941974</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.97373557469418015</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.95420571062522985</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.93491427965082752</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" ref="K16:S17" si="3">(K8-K13)/K8</f>
+        <v>0.85</v>
+      </c>
+      <c r="L16" s="25">
+        <f t="shared" si="3"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="3"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.375</v>
+      </c>
+      <c r="R16" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="S16" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.88372920410198041</v>
+      </c>
+      <c r="B17" s="25">
+        <f>(B9-B14)/B14</f>
+        <v>0.76705452461873558</v>
+      </c>
+      <c r="C17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.94916534728869273</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.99191129546119305</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.99366684653711645</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.89544844866070405</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.99505660624354419</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.99031817440950831</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.82192151344397657</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="3"/>
+        <v>0.74603174603174605</v>
+      </c>
+      <c r="L17" s="25">
+        <f t="shared" si="3"/>
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="3"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="Q17" s="25">
+        <f t="shared" si="3"/>
+        <v>-5.2631578947368418E-2</v>
+      </c>
+      <c r="R17" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B20" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>546</v>
+      </c>
+      <c r="L20" t="s">
+        <v>547</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="B21" s="36">
+        <v>4.93</v>
+      </c>
+      <c r="C21" s="36">
+        <v>2.63</v>
+      </c>
+      <c r="K21" s="36">
+        <v>15</v>
+      </c>
+      <c r="L21" s="36">
+        <v>1268</v>
+      </c>
+      <c r="M21" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="B22" s="36">
+        <v>48.81</v>
+      </c>
+      <c r="C22" s="36">
+        <v>10.93</v>
+      </c>
+      <c r="K22" s="36">
+        <v>24</v>
+      </c>
+      <c r="L22" s="36">
+        <v>3563</v>
+      </c>
+      <c r="M22" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>0.11</v>
+      </c>
+      <c r="B23" s="8">
+        <v>94.54</v>
+      </c>
+      <c r="C23">
+        <v>34.71</v>
+      </c>
+      <c r="K23" s="35">
+        <v>8</v>
+      </c>
+      <c r="L23" s="35">
+        <v>3793</v>
+      </c>
+      <c r="M23" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>548</v>
+      </c>
+      <c r="B25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>550</v>
+      </c>
+      <c r="E25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" t="s">
+        <v>543</v>
+      </c>
+      <c r="G25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H25" t="s">
+        <v>542</v>
+      </c>
+      <c r="I25" t="s">
+        <v>544</v>
+      </c>
+      <c r="K25" t="s">
+        <v>548</v>
+      </c>
+      <c r="L25" t="s">
+        <v>549</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>550</v>
+      </c>
+      <c r="O25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P25" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>540</v>
+      </c>
+      <c r="R25" t="s">
+        <v>542</v>
+      </c>
+      <c r="S25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1">
+        <v>0.16433567494509899</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.16417865590338901</v>
+      </c>
+      <c r="K26" s="35">
+        <v>3</v>
+      </c>
+      <c r="L26" s="35">
+        <v>1</v>
+      </c>
+      <c r="M26" s="35">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="8">
+        <v>2.3757225945439898E-3</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3.0976997160051499E-3</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.5480209484370899E-3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4.32271951015683E-3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3.8306499557828602E-3</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1.7412570846754201E-3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>6.8071527126928502E-2</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.20404667937588E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1.9302345445700999E-2</v>
+      </c>
+      <c r="K27" s="35">
+        <v>40</v>
+      </c>
+      <c r="L27" s="35">
+        <v>46</v>
+      </c>
+      <c r="M27" s="35">
+        <v>52</v>
+      </c>
+      <c r="N27">
+        <v>21</v>
+      </c>
+      <c r="O27">
+        <v>23</v>
+      </c>
+      <c r="P27">
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="8">
+        <v>4.7331475979300796E-3</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3.9061170530529899E-4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>9.2249337445582304E-3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.15129113675343001</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.163455337405219</v>
+      </c>
+      <c r="F28" s="8">
+        <v>9.3943820904024405E-3</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.109886658558011</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.102341799900144</v>
+      </c>
+      <c r="I28" s="8">
+        <v>5.07975385197068E-3</v>
+      </c>
+      <c r="K28" s="35">
+        <v>126</v>
+      </c>
+      <c r="L28" s="35">
+        <v>126</v>
+      </c>
+      <c r="M28" s="35">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>62</v>
+      </c>
+      <c r="O28">
+        <v>60</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>19</v>
+      </c>
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>551</v>
+      </c>
+      <c r="B30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E30" t="s">
+        <v>541</v>
+      </c>
+      <c r="F30" t="s">
+        <v>543</v>
+      </c>
+      <c r="G30" t="s">
+        <v>540</v>
+      </c>
+      <c r="H30" t="s">
+        <v>542</v>
+      </c>
+      <c r="I30" t="s">
+        <v>544</v>
+      </c>
+      <c r="K30" t="s">
+        <v>551</v>
+      </c>
+      <c r="L30" t="s">
+        <v>552</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>550</v>
+      </c>
+      <c r="O30" t="s">
+        <v>541</v>
+      </c>
+      <c r="P30" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>540</v>
+      </c>
+      <c r="R30" t="s">
+        <v>542</v>
+      </c>
+      <c r="S30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.16358576748673501</v>
+      </c>
+      <c r="K31" s="35">
+        <v>1</v>
+      </c>
+      <c r="L31" s="35">
+        <v>1</v>
+      </c>
+      <c r="M31" s="35">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="8">
+        <v>1.4197286180969099E-3</v>
+      </c>
+      <c r="B32" s="8">
+        <v>7.3287569574531598E-4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>7.2370991824921495E-4</v>
+      </c>
+      <c r="D32" s="8">
+        <v>9.5783468942822704E-4</v>
+      </c>
+      <c r="E32" s="8">
+        <v>8.4021001032963296E-4</v>
+      </c>
+      <c r="F32" s="8">
+        <v>7.8802477326822497E-4</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1.7878595396783E-3</v>
+      </c>
+      <c r="H32" s="8">
+        <v>5.5138462056070203E-4</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1.2563070577620199E-3</v>
+      </c>
+      <c r="K32" s="35">
+        <v>6</v>
+      </c>
+      <c r="L32" s="35">
+        <v>6</v>
+      </c>
+      <c r="M32" s="35">
+        <v>13</v>
+      </c>
+      <c r="N32">
+        <v>19</v>
+      </c>
+      <c r="O32">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <v>26</v>
+      </c>
+      <c r="Q32">
+        <v>11</v>
+      </c>
+      <c r="R32">
+        <v>8</v>
+      </c>
+      <c r="S32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="8">
+        <v>5.5032683831412999E-4</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1.65868576629446E-3</v>
+      </c>
+      <c r="C33" s="8">
+        <v>6.1599207400919698E-4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1.2237493045387201E-3</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1.03518773611466E-3</v>
+      </c>
+      <c r="F33" s="8">
+        <v>9.8219722142567291E-4</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5.4321302183346599E-4</v>
+      </c>
+      <c r="H33" s="8">
+        <v>9.9085545725019399E-4</v>
+      </c>
+      <c r="I33" s="8">
+        <v>9.0459487803606897E-4</v>
+      </c>
+      <c r="K33" s="35">
+        <v>32</v>
+      </c>
+      <c r="L33" s="35">
+        <v>10</v>
+      </c>
+      <c r="M33" s="35">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>57</v>
+      </c>
+      <c r="O33">
+        <v>54</v>
+      </c>
+      <c r="P33">
+        <v>14</v>
+      </c>
+      <c r="Q33">
+        <v>20</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+      <c r="S33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="25">
+        <f>(A26-A31)/A26</f>
+        <v>4.5632663669316334E-3</v>
+      </c>
+      <c r="B34" s="25">
+        <f t="shared" ref="B34:I34" si="4">(B26-B31)/B26</f>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="C34" s="25">
+        <f t="shared" si="4"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="D34" s="25">
+        <f t="shared" si="4"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="4"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="4"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="4"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" si="4"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="I34" s="25">
+        <f t="shared" si="4"/>
+        <v>3.6112393136102181E-3</v>
+      </c>
+      <c r="K34" s="25">
+        <f>(K26-K31)/K26</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L34" s="25">
+        <f t="shared" ref="L34:S34" si="5">(L26-L31)/L26</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="25">
+        <f t="shared" ref="A35:I36" si="6">(A27-A32)/A27</f>
+        <v>0.40240134881176187</v>
+      </c>
+      <c r="B35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.76341293122806431</v>
+      </c>
+      <c r="C35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.53249345948458537</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.77841849623190651</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.78066124025213324</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.54743915748941974</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.97373557469418015</v>
+      </c>
+      <c r="H35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.95420571062522985</v>
+      </c>
+      <c r="I35" s="25">
+        <f t="shared" si="6"/>
+        <v>0.93491427965082752</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" ref="K35:S36" si="7">(K27-K32)/K27</f>
+        <v>0.85</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" si="7"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="M35" s="25">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="7"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="25">
+        <f t="shared" si="7"/>
+        <v>-0.375</v>
+      </c>
+      <c r="R35" s="25">
+        <f t="shared" si="7"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="S35" s="25">
+        <f t="shared" si="7"/>
+        <v>-0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.88372920410198041</v>
+      </c>
+      <c r="B36" s="25">
+        <f>(B28-B33)/B33</f>
+        <v>-0.76450530097817493</v>
+      </c>
+      <c r="C36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.93322531184870894</v>
+      </c>
+      <c r="D36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.99191129546119305</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.99366684653711645</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.89544844866070405</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.99505660624354419</v>
+      </c>
+      <c r="H36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.99031817440950831</v>
+      </c>
+      <c r="I36" s="25">
+        <f t="shared" si="6"/>
+        <v>0.82192151344397657</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" si="7"/>
+        <v>0.74603174603174605</v>
+      </c>
+      <c r="L36" s="25">
+        <f t="shared" si="7"/>
+        <v>0.92063492063492058</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" si="7"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" si="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="Q36" s="25">
+        <f t="shared" si="7"/>
+        <v>-5.2631578947368418E-2</v>
+      </c>
+      <c r="R36" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17589,7 +20660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE872A85-4DE9-F745-9374-575870CFA036}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -25839,7 +28910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13319D89-0C0E-B74C-8733-68AAE68AA77A}">
   <dimension ref="B1:N159"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A146" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
